--- a/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.Thiaminase Summary Data Sheet.xlsx
+++ b/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.Thiaminase Summary Data Sheet.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="315">
   <si>
     <t>ANALYSIS DATE</t>
   </si>
@@ -970,6 +970,18 @@
   </si>
   <si>
     <t>Run</t>
+  </si>
+  <si>
+    <t>12-22 Capelin 10</t>
+  </si>
+  <si>
+    <t>12-22 Rainbow Smelt 04</t>
+  </si>
+  <si>
+    <t>12-22 Rainbow Smelt 05</t>
+  </si>
+  <si>
+    <t>12-22 Pacific Herring 02</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1137,12 +1149,73 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1579,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O245"/>
+  <dimension ref="A1:O251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O155" sqref="O155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,27 +1979,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>44841</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>45</v>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="9">
         <f>((((L8/13650)/0.3)*0.0001)/K8)*1000000000</f>
-        <v>5.7880795585713551</v>
+        <v>15.732255288045859</v>
       </c>
       <c r="H8" s="9">
         <f>((((M8/13650)/0.3)*0.0001)/K8)*1000000000</f>
-        <v>0.15875759749119589</v>
+        <v>0.33303873591945754</v>
       </c>
       <c r="I8" s="9" t="b">
         <f>G8&gt;(3*H8)</f>
@@ -1941,10 +2014,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L8" s="10">
-        <v>2.8442622950819641E-4</v>
+        <v>7.7308302485457341E-4</v>
       </c>
       <c r="M8" s="10">
-        <v>7.8013483407173655E-6</v>
+        <v>1.6365523483082142E-5</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1953,22 +2029,22 @@
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>45</v>
+      <c r="D9" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="9">
         <f>((((L9/13650)/0.3)*0.0001)/K9)*1000000000</f>
-        <v>6.2067023991931292</v>
+        <v>18.241840029254043</v>
       </c>
       <c r="H9" s="9">
         <f>((((M9/13650)/0.3)*0.0001)/K9)*1000000000</f>
-        <v>0.23077912411095974</v>
+        <v>0.31655345501906124</v>
       </c>
       <c r="I9" s="9" t="b">
         <f>G9&gt;(3*H9)</f>
@@ -1983,10 +2059,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L9" s="10">
-        <v>3.0499735589635031E-4</v>
+        <v>8.9640401903754384E-4</v>
       </c>
       <c r="M9" s="10">
-        <v>1.1340486158812561E-5</v>
+        <v>1.5555436779636669E-5</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1995,22 +2074,20 @@
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="D10" s="13"/>
       <c r="E10" s="4" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="9">
         <f>((((L10/13650)/0.3)*0.0001)/K10)*1000000000</f>
-        <v>7.2403456856127564</v>
+        <v>15.421785649178529</v>
       </c>
       <c r="H10" s="9">
         <f>((((M10/13650)/0.3)*0.0001)/K10)*1000000000</f>
-        <v>0.55370102799372622</v>
+        <v>0.44325319290319432</v>
       </c>
       <c r="I10" s="9" t="b">
         <f>G10&gt;(3*H10)</f>
@@ -2025,34 +2102,34 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L10" s="10">
-        <v>3.557905869910109E-4</v>
+        <v>7.5782654680063295E-4</v>
       </c>
       <c r="M10" s="10">
-        <v>2.7208868515611708E-5</v>
+        <v>2.1781461899262969E-5</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>44841</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="9">
         <f>((((L11/13650)/0.3)*0.0001)/K11)*1000000000</f>
-        <v>10.603856452613721</v>
+        <v>5.7880795585713551</v>
       </c>
       <c r="H11" s="9">
         <f>((((M11/13650)/0.3)*0.0001)/K11)*1000000000</f>
-        <v>0.45409783276237131</v>
+        <v>0.15875759749119589</v>
       </c>
       <c r="I11" s="9" t="b">
         <f>G11&gt;(3*H11)</f>
@@ -2067,10 +2144,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L11" s="10">
-        <v>5.2107350608143819E-4</v>
+        <v>2.8442622950819641E-4</v>
       </c>
       <c r="M11" s="10">
-        <v>2.231436750194293E-5</v>
+        <v>7.8013483407173655E-6</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2083,18 +2160,18 @@
         <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="9">
         <f>((((L12/13650)/0.3)*0.0001)/K12)*1000000000</f>
-        <v>9.9753841160504138</v>
+        <v>6.2067023991931292</v>
       </c>
       <c r="H12" s="9">
         <f>((((M12/13650)/0.3)*0.0001)/K12)*1000000000</f>
-        <v>0.33555740566214959</v>
+        <v>0.23077912411095974</v>
       </c>
       <c r="I12" s="9" t="b">
         <f>G12&gt;(3*H12)</f>
@@ -2109,34 +2186,34 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L12" s="10">
-        <v>4.9019037546271739E-4</v>
+        <v>3.0499735589635031E-4</v>
       </c>
       <c r="M12" s="10">
-        <v>1.6489290914238033E-5</v>
+        <v>1.1340486158812561E-5</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>44841</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>228</v>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="9">
         <f>((((L13/13650)/0.3)*0.0001)/K13)*1000000000</f>
-        <v>15.732255288045859</v>
+        <v>7.2403456856127564</v>
       </c>
       <c r="H13" s="9">
         <f>((((M13/13650)/0.3)*0.0001)/K13)*1000000000</f>
-        <v>0.33303873591945754</v>
+        <v>0.55370102799372622</v>
       </c>
       <c r="I13" s="9" t="b">
         <f>G13&gt;(3*H13)</f>
@@ -2151,37 +2228,34 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L13" s="10">
-        <v>7.7308302485457341E-4</v>
+        <v>3.557905869910109E-4</v>
       </c>
       <c r="M13" s="10">
-        <v>1.6365523483082142E-5</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>28</v>
+        <v>2.7208868515611708E-5</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>44841</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13" t="s">
-        <v>228</v>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="9">
         <f>((((L14/13650)/0.3)*0.0001)/K14)*1000000000</f>
-        <v>18.241840029254043</v>
+        <v>10.603856452613721</v>
       </c>
       <c r="H14" s="9">
         <f>((((M14/13650)/0.3)*0.0001)/K14)*1000000000</f>
-        <v>0.31655345501906124</v>
+        <v>0.45409783276237131</v>
       </c>
       <c r="I14" s="9" t="b">
         <f>G14&gt;(3*H14)</f>
@@ -2196,13 +2270,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L14" s="10">
-        <v>8.9640401903754384E-4</v>
+        <v>5.2107350608143819E-4</v>
       </c>
       <c r="M14" s="10">
-        <v>1.5555436779636669E-5</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>28</v>
+        <v>2.231436750194293E-5</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2211,22 +2282,22 @@
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="13" t="s">
-        <v>228</v>
+      <c r="D15" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="9">
         <f>((((L15/13650)/0.3)*0.0001)/K15)*1000000000</f>
-        <v>15.421785649178529</v>
+        <v>9.9753841160504138</v>
       </c>
       <c r="H15" s="9">
         <f>((((M15/13650)/0.3)*0.0001)/K15)*1000000000</f>
-        <v>0.44325319290319432</v>
+        <v>0.33555740566214959</v>
       </c>
       <c r="I15" s="9" t="b">
         <f>G15&gt;(3*H15)</f>
@@ -2241,10 +2312,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L15" s="10">
-        <v>7.5782654680063295E-4</v>
+        <v>4.9019037546271739E-4</v>
       </c>
       <c r="M15" s="10">
-        <v>2.1781461899262969E-5</v>
+        <v>1.6489290914238033E-5</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2254,25 +2325,25 @@
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2979</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>48</v>
+        <v>228</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="9">
         <f>((((L16/13650)/0.3)*0.0001)/K16)*1000000000</f>
-        <v>-0.39763789102766162</v>
+        <v>10.624841402207863</v>
       </c>
       <c r="H16" s="9">
         <f>((((M16/13650)/0.3)*0.0001)/K16)*1000000000</f>
-        <v>4.4270041605784238E-2</v>
+        <v>0.20541483111843958</v>
       </c>
       <c r="I16" s="9" t="b">
         <f>G16&gt;(3*H16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="2">
         <f>0.8/2</f>
@@ -2283,10 +2354,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L16" s="10">
-        <v>-1.9539925965099295E-5</v>
+        <v>5.2210470650449446E-4</v>
       </c>
       <c r="M16" s="10">
-        <v>2.1754298445082374E-6</v>
+        <v>1.0094084801160123E-5</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2296,21 +2370,21 @@
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2981</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>228</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G17" s="9">
         <f>((((L17/13650)/0.3)*0.0001)/K17)*1000000000</f>
-        <v>0.76514354674055818</v>
+        <v>14.152465236547766</v>
       </c>
       <c r="H17" s="9">
         <f>((((M17/13650)/0.3)*0.0001)/K17)*1000000000</f>
-        <v>4.9322212119731972E-2</v>
+        <v>0.28393703075150151</v>
       </c>
       <c r="I17" s="9" t="b">
         <f>G17&gt;(3*H17)</f>
@@ -2325,10 +2399,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L17" s="10">
-        <v>3.759915388683103E-5</v>
+        <v>6.9545214172395716E-4</v>
       </c>
       <c r="M17" s="10">
-        <v>2.4236935035636289E-6</v>
+        <v>1.3952665691128785E-5</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2341,18 +2418,18 @@
         <v>45</v>
       </c>
       <c r="E18" s="11">
-        <v>3109</v>
+        <v>2979</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="9">
         <f>((((L18/13650)/0.3)*0.0001)/K18)*1000000000</f>
-        <v>0.12644777319553635</v>
+        <v>-0.39763789102766162</v>
       </c>
       <c r="H18" s="9">
         <f>((((M18/13650)/0.3)*0.0001)/K18)*1000000000</f>
-        <v>4.7028235849867907E-2</v>
+        <v>4.4270041605784238E-2</v>
       </c>
       <c r="I18" s="9" t="b">
         <f>G18&gt;(3*H18)</f>
@@ -2367,10 +2444,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L18" s="10">
-        <v>6.2136435748286557E-6</v>
+        <v>-1.9539925965099295E-5</v>
       </c>
       <c r="M18" s="10">
-        <v>2.3109675096625091E-6</v>
+        <v>2.1754298445082374E-6</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2383,18 +2460,18 @@
         <v>45</v>
       </c>
       <c r="E19" s="4">
-        <v>3204</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>2981</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="G19" s="9">
         <f>((((L19/13650)/0.3)*0.0001)/K19)*1000000000</f>
-        <v>1.4856268161398027</v>
+        <v>0.76514354674055818</v>
       </c>
       <c r="H19" s="9">
         <f>((((M19/13650)/0.3)*0.0001)/K19)*1000000000</f>
-        <v>8.3536471120056674E-2</v>
+        <v>4.9322212119731972E-2</v>
       </c>
       <c r="I19" s="9" t="b">
         <f>G19&gt;(3*H19)</f>
@@ -2409,10 +2486,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L19" s="10">
-        <v>7.3003701745109903E-5</v>
+        <v>3.759915388683103E-5</v>
       </c>
       <c r="M19" s="10">
-        <v>4.1049821908395846E-6</v>
+        <v>2.4236935035636289E-6</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2424,23 +2501,23 @@
       <c r="D20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="4">
-        <v>3284</v>
+      <c r="E20" s="11">
+        <v>3109</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20" s="9">
         <f>((((L20/13650)/0.3)*0.0001)/K20)*1000000000</f>
-        <v>0.52085721043943667</v>
+        <v>0.12644777319553635</v>
       </c>
       <c r="H20" s="9">
         <f>((((M20/13650)/0.3)*0.0001)/K20)*1000000000</f>
-        <v>5.4203552320637359E-2</v>
+        <v>4.7028235849867907E-2</v>
       </c>
       <c r="I20" s="9" t="b">
         <f>G20&gt;(3*H20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
         <f>0.8/2</f>
@@ -2451,10 +2528,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L20" s="10">
-        <v>2.5594923320993921E-5</v>
+        <v>6.2136435748286557E-6</v>
       </c>
       <c r="M20" s="10">
-        <v>2.6635625610361198E-6</v>
+        <v>2.3109675096625091E-6</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2467,18 +2544,18 @@
         <v>45</v>
       </c>
       <c r="E21" s="4">
-        <v>3285</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>50</v>
+        <v>3204</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="9">
         <f>((((L21/13650)/0.3)*0.0001)/K21)*1000000000</f>
-        <v>0.52677604237626818</v>
+        <v>1.4856268161398027</v>
       </c>
       <c r="H21" s="9">
         <f>((((M21/13650)/0.3)*0.0001)/K21)*1000000000</f>
-        <v>5.1452275859895036E-2</v>
+        <v>8.3536471120056674E-2</v>
       </c>
       <c r="I21" s="9" t="b">
         <f>G21&gt;(3*H21)</f>
@@ -2493,10 +2570,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L21" s="10">
-        <v>2.5885774722369814E-5</v>
+        <v>7.3003701745109903E-5</v>
       </c>
       <c r="M21" s="10">
-        <v>2.5283648357552419E-6</v>
+        <v>4.1049821908395846E-6</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2508,19 +2585,19 @@
       <c r="D22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="11">
-        <v>3383</v>
+      <c r="E22" s="4">
+        <v>3284</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G22" s="9">
         <f>((((L22/13650)/0.3)*0.0001)/K22)*1000000000</f>
-        <v>0.97337881579023167</v>
+        <v>0.52085721043943667</v>
       </c>
       <c r="H22" s="9">
         <f>((((M22/13650)/0.3)*0.0001)/K22)*1000000000</f>
-        <v>4.647106655568118E-2</v>
+        <v>5.4203552320637359E-2</v>
       </c>
       <c r="I22" s="9" t="b">
         <f>G22&gt;(3*H22)</f>
@@ -2535,10 +2612,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L22" s="10">
-        <v>4.7831835007931983E-5</v>
+        <v>2.5594923320993921E-5</v>
       </c>
       <c r="M22" s="10">
-        <v>2.2835882105461735E-6</v>
+        <v>2.6635625610361198E-6</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2550,23 +2627,23 @@
       <c r="D23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="11">
-        <v>3384</v>
+      <c r="E23" s="4">
+        <v>3285</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G23" s="9">
         <f>((((L23/13650)/0.3)*0.0001)/K23)*1000000000</f>
-        <v>-0.83939798376602026</v>
+        <v>0.52677604237626818</v>
       </c>
       <c r="H23" s="9">
         <f>((((M23/13650)/0.3)*0.0001)/K23)*1000000000</f>
-        <v>6.1665200508018714E-2</v>
+        <v>5.1452275859895036E-2</v>
       </c>
       <c r="I23" s="9" t="b">
         <f>G23&gt;(3*H23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="2">
         <f>0.8/2</f>
@@ -2577,13 +2654,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L23" s="10">
-        <v>-4.1248016922262239E-5</v>
+        <v>2.5885774722369814E-5</v>
       </c>
       <c r="M23" s="10">
-        <v>3.0302279529640395E-6</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>53</v>
+        <v>2.5283648357552419E-6</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2596,18 +2670,18 @@
         <v>45</v>
       </c>
       <c r="E24" s="11">
-        <v>3385</v>
+        <v>3383</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G24" s="9">
         <f>((((L24/13650)/0.3)*0.0001)/K24)*1000000000</f>
-        <v>0.60049240377109858</v>
+        <v>0.97337881579023167</v>
       </c>
       <c r="H24" s="9">
         <f>((((M24/13650)/0.3)*0.0001)/K24)*1000000000</f>
-        <v>5.8872591103168115E-2</v>
+        <v>4.647106655568118E-2</v>
       </c>
       <c r="I24" s="9" t="b">
         <f>G24&gt;(3*H24)</f>
@@ -2622,10 +2696,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L24" s="10">
-        <v>2.9508196721311783E-5</v>
+        <v>4.7831835007931983E-5</v>
       </c>
       <c r="M24" s="10">
-        <v>2.892999126809681E-6</v>
+        <v>2.2835882105461735E-6</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2638,22 +2712,22 @@
         <v>45</v>
       </c>
       <c r="E25" s="11">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="9">
         <f>((((L25/13650)/0.3)*0.0001)/K25)*1000000000</f>
-        <v>0.99221146286190276</v>
+        <v>-0.83939798376602026</v>
       </c>
       <c r="H25" s="9">
         <f>((((M25/13650)/0.3)*0.0001)/K25)*1000000000</f>
-        <v>5.9371429545129632E-2</v>
+        <v>6.1665200508018714E-2</v>
       </c>
       <c r="I25" s="9" t="b">
         <f>G25&gt;(3*H25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
         <f>0.8/2</f>
@@ -2664,10 +2738,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L25" s="10">
-        <v>4.8757271285033907E-5</v>
+        <v>-4.1248016922262239E-5</v>
       </c>
       <c r="M25" s="10">
-        <v>2.9175120478476701E-6</v>
+        <v>3.0302279529640395E-6</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2680,18 +2757,18 @@
         <v>45</v>
       </c>
       <c r="E26" s="11">
-        <v>3387</v>
+        <v>3385</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="9">
         <f>((((L26/13650)/0.3)*0.0001)/K26)*1000000000</f>
-        <v>1.9101684886983745</v>
+        <v>0.60049240377109858</v>
       </c>
       <c r="H26" s="9">
         <f>((((M26/13650)/0.3)*0.0001)/K26)*1000000000</f>
-        <v>5.3829446434238169E-2</v>
+        <v>5.8872591103168115E-2</v>
       </c>
       <c r="I26" s="9" t="b">
         <f>G26&gt;(3*H26)</f>
@@ -2706,10 +2783,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L26" s="10">
-        <v>9.3865679534638124E-5</v>
+        <v>2.9508196721311783E-5</v>
       </c>
       <c r="M26" s="10">
-        <v>2.6451789977784636E-6</v>
+        <v>2.892999126809681E-6</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2722,22 +2799,22 @@
         <v>45</v>
       </c>
       <c r="E27" s="11">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="9">
         <f>((((L27/13650)/0.3)*0.0001)/K27)*1000000000</f>
-        <v>-0.45144545408955677</v>
+        <v>0.99221146286190276</v>
       </c>
       <c r="H27" s="9">
         <f>((((M27/13650)/0.3)*0.0001)/K27)*1000000000</f>
-        <v>4.2748567936245221E-2</v>
+        <v>5.9371429545129632E-2</v>
       </c>
       <c r="I27" s="9" t="b">
         <f>G27&gt;(3*H27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2">
         <f>0.8/2</f>
@@ -2748,10 +2825,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L27" s="10">
-        <v>-2.2184029613960819E-5</v>
+        <v>4.8757271285033907E-5</v>
       </c>
       <c r="M27" s="10">
-        <v>2.1006646283870903E-6</v>
+        <v>2.9175120478476701E-6</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2764,18 +2841,18 @@
         <v>45</v>
       </c>
       <c r="E28" s="11">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="9">
         <f>((((L28/13650)/0.3)*0.0001)/K28)*1000000000</f>
-        <v>0.66398532818416822</v>
+        <v>1.9101684886983745</v>
       </c>
       <c r="H28" s="9">
         <f>((((M28/13650)/0.3)*0.0001)/K28)*1000000000</f>
-        <v>4.7671254806592137E-2</v>
+        <v>5.3829446434238169E-2</v>
       </c>
       <c r="I28" s="9" t="b">
         <f>G28&gt;(3*H28)</f>
@@ -2790,10 +2867,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L28" s="10">
-        <v>3.2628239026970031E-5</v>
+        <v>9.3865679534638124E-5</v>
       </c>
       <c r="M28" s="10">
-        <v>2.3425654611959376E-6</v>
+        <v>2.6451789977784636E-6</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2806,18 +2883,18 @@
         <v>45</v>
       </c>
       <c r="E29" s="11">
-        <v>3390</v>
+        <v>3388</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="9">
         <f>((((L29/13650)/0.3)*0.0001)/K29)*1000000000</f>
-        <v>-0.31692654643473939</v>
+        <v>-0.45144545408955677</v>
       </c>
       <c r="H29" s="9">
         <f>((((M29/13650)/0.3)*0.0001)/K29)*1000000000</f>
-        <v>4.9132961770919199E-2</v>
+        <v>4.2748567936245221E-2</v>
       </c>
       <c r="I29" s="9" t="b">
         <f>G29&gt;(3*H29)</f>
@@ -2832,10 +2909,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L29" s="10">
-        <v>-1.5573770491803092E-5</v>
+        <v>-2.2184029613960819E-5</v>
       </c>
       <c r="M29" s="10">
-        <v>2.4143937414229695E-6</v>
+        <v>2.1006646283870903E-6</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2847,19 +2924,19 @@
       <c r="D30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="4">
-        <v>3444</v>
+      <c r="E30" s="11">
+        <v>3389</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G30" s="9">
         <f>((((L30/13650)/0.3)*0.0001)/K30)*1000000000</f>
-        <v>7.8112439296997458</v>
+        <v>0.66398532818416822</v>
       </c>
       <c r="H30" s="9">
         <f>((((M30/13650)/0.3)*0.0001)/K30)*1000000000</f>
-        <v>5.3548434801813274E-2</v>
+        <v>4.7671254806592137E-2</v>
       </c>
       <c r="I30" s="9" t="b">
         <f>G30&gt;(3*H30)</f>
@@ -2874,10 +2951,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L30" s="10">
-        <v>3.8384452670544553E-4</v>
+        <v>3.2628239026970031E-5</v>
       </c>
       <c r="M30" s="10">
-        <v>2.6313700861611044E-6</v>
+        <v>2.3425654611959376E-6</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2889,23 +2966,23 @@
       <c r="D31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="4">
-        <v>3445</v>
+      <c r="E31" s="11">
+        <v>3390</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G31" s="9">
         <f>((((L31/13650)/0.3)*0.0001)/K31)*1000000000</f>
-        <v>0.75438203412817473</v>
+        <v>-0.31692654643473939</v>
       </c>
       <c r="H31" s="9">
         <f>((((M31/13650)/0.3)*0.0001)/K31)*1000000000</f>
-        <v>7.2080079965749999E-2</v>
+        <v>4.9132961770919199E-2</v>
       </c>
       <c r="I31" s="9" t="b">
         <f>G31&gt;(3*H31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
         <f>0.8/2</f>
@@ -2916,10 +2993,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L31" s="10">
-        <v>3.7070333157058509E-5</v>
+        <v>-1.5573770491803092E-5</v>
       </c>
       <c r="M31" s="10">
-        <v>3.5420151295169551E-6</v>
+        <v>2.4143937414229695E-6</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2932,18 +3009,18 @@
         <v>45</v>
       </c>
       <c r="E32" s="4">
-        <v>3454</v>
+        <v>3444</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G32" s="9">
         <f>((((L32/13650)/0.3)*0.0001)/K32)*1000000000</f>
-        <v>2.9448879263791992</v>
+        <v>7.8112439296997458</v>
       </c>
       <c r="H32" s="9">
         <f>((((M32/13650)/0.3)*0.0001)/K32)*1000000000</f>
-        <v>4.435155010543311E-2</v>
+        <v>5.3548434801813274E-2</v>
       </c>
       <c r="I32" s="9" t="b">
         <f>G32&gt;(3*H32)</f>
@@ -2958,10 +3035,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L32" s="10">
-        <v>1.4471179270227386E-4</v>
+        <v>3.8384452670544553E-4</v>
       </c>
       <c r="M32" s="10">
-        <v>2.1794351721809829E-6</v>
+        <v>2.6313700861611044E-6</v>
       </c>
     </row>
     <row r="33" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2974,18 +3051,18 @@
         <v>45</v>
       </c>
       <c r="E33" s="4">
-        <v>3455</v>
+        <v>3445</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G33" s="9">
         <f>((((L33/13650)/0.3)*0.0001)/K33)*1000000000</f>
-        <v>2.1915820435122524</v>
+        <v>0.75438203412817473</v>
       </c>
       <c r="H33" s="9">
         <f>((((M33/13650)/0.3)*0.0001)/K33)*1000000000</f>
-        <v>4.1899394386354732E-2</v>
+        <v>7.2080079965749999E-2</v>
       </c>
       <c r="I33" s="9" t="b">
         <f>G33&gt;(3*H33)</f>
@@ -3000,10 +3077,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L33" s="10">
-        <v>1.076943416181921E-4</v>
+        <v>3.7070333157058509E-5</v>
       </c>
       <c r="M33" s="10">
-        <v>2.0589362401454716E-6</v>
+        <v>3.5420151295169551E-6</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3015,23 +3092,23 @@
       <c r="D34" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>44</v>
+      <c r="E34" s="4">
+        <v>3454</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" s="9">
         <f>((((L34/13650)/0.3)*0.0001)/K34)*1000000000</f>
-        <v>-0.98898300907819836</v>
+        <v>2.9448879263791992</v>
       </c>
       <c r="H34" s="9">
         <f>((((M34/13650)/0.3)*0.0001)/K34)*1000000000</f>
-        <v>0.10438272343153079</v>
+        <v>4.435155010543311E-2</v>
       </c>
       <c r="I34" s="9" t="b">
         <f>G34&gt;(3*H34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="2">
         <f>0.8/2</f>
@@ -3042,13 +3119,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L34" s="10">
-        <v>-4.8598625066102676E-5</v>
+        <v>1.4471179270227386E-4</v>
       </c>
       <c r="M34" s="10">
-        <v>5.1293670294254233E-6</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>58</v>
+        <v>2.1794351721809829E-6</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3060,23 +3134,23 @@
       <c r="D35" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>43</v>
+      <c r="E35" s="4">
+        <v>3455</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" s="9">
         <f>((((L35/13650)/0.3)*0.0001)/K35)*1000000000</f>
-        <v>-0.40678517674815678</v>
+        <v>2.1915820435122524</v>
       </c>
       <c r="H35" s="9">
         <f>((((M35/13650)/0.3)*0.0001)/K35)*1000000000</f>
-        <v>6.8097245486183317E-2</v>
+        <v>4.1899394386354732E-2</v>
       </c>
       <c r="I35" s="9" t="b">
         <f>G35&gt;(3*H35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="2">
         <f>0.8/2</f>
@@ -3087,13 +3161,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L35" s="10">
-        <v>-1.9989423585404424E-5</v>
+        <v>1.076943416181921E-4</v>
       </c>
       <c r="M35" s="10">
-        <v>3.3462986431910477E-6</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>59</v>
+        <v>2.0589362401454716E-6</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3103,25 +3174,25 @@
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G36" s="9">
         <f>((((L36/13650)/0.3)*0.0001)/K36)*1000000000</f>
-        <v>10.624841402207863</v>
+        <v>-0.98898300907819836</v>
       </c>
       <c r="H36" s="9">
         <f>((((M36/13650)/0.3)*0.0001)/K36)*1000000000</f>
-        <v>0.20541483111843958</v>
+        <v>0.10438272343153079</v>
       </c>
       <c r="I36" s="9" t="b">
         <f>G36&gt;(3*H36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <f>0.8/2</f>
@@ -3132,13 +3203,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L36" s="10">
-        <v>5.2210470650449446E-4</v>
+        <v>-4.8598625066102676E-5</v>
       </c>
       <c r="M36" s="10">
-        <v>1.0094084801160123E-5</v>
+        <v>5.1293670294254233E-6</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3148,25 +3219,25 @@
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G37" s="9">
         <f>((((L37/13650)/0.3)*0.0001)/K37)*1000000000</f>
-        <v>14.152465236547766</v>
+        <v>-0.40678517674815678</v>
       </c>
       <c r="H37" s="9">
         <f>((((M37/13650)/0.3)*0.0001)/K37)*1000000000</f>
-        <v>0.28393703075150151</v>
+        <v>6.8097245486183317E-2</v>
       </c>
       <c r="I37" s="9" t="b">
         <f>G37&gt;(3*H37)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
         <f>0.8/2</f>
@@ -3177,13 +3248,13 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L37" s="10">
-        <v>6.9545214172395716E-4</v>
+        <v>-1.9989423585404424E-5</v>
       </c>
       <c r="M37" s="10">
-        <v>1.3952665691128785E-5</v>
+        <v>3.3462986431910477E-6</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3194,24 +3265,24 @@
         <v>99</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2604</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>92</v>
+        <v>228</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G38" s="9">
         <f>((((L38/13650)/0.3)*0.0001)/K38)*1000000000</f>
-        <v>1.2182032277219965</v>
+        <v>18.662615172398368</v>
       </c>
       <c r="H38" s="9">
         <f>((((M38/13650)/0.3)*0.0001)/K38)*1000000000</f>
-        <v>0.10590949853768829</v>
+        <v>0.30188891704133403</v>
       </c>
       <c r="I38" s="9" t="b">
         <f>G38&gt;(3*H38)</f>
@@ -3226,10 +3297,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L38" s="10">
-        <v>5.9862506610258908E-5</v>
+        <v>9.1708090957165575E-4</v>
       </c>
       <c r="M38" s="10">
-        <v>5.2043927581420024E-6</v>
+        <v>1.4834821383411152E-5</v>
       </c>
       <c r="N38" s="6"/>
     </row>
@@ -3241,28 +3312,28 @@
         <v>99</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2669</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>93</v>
+        <v>228</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G39" s="9">
         <f>((((L39/13650)/0.3)*0.0001)/K39)*1000000000</f>
-        <v>6.8335605088611029E-2</v>
+        <v>12.0362137813222</v>
       </c>
       <c r="H39" s="9">
         <f>((((M39/13650)/0.3)*0.0001)/K39)*1000000000</f>
-        <v>0.53531685323523259</v>
+        <v>0.33290906784011054</v>
       </c>
       <c r="I39" s="9" t="b">
         <f>G39&gt;(3*H39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2">
         <f>0.8/2</f>
@@ -3273,10 +3344,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L39" s="10">
-        <v>3.3580116340543468E-6</v>
+        <v>5.9145954521417287E-4</v>
       </c>
       <c r="M39" s="10">
-        <v>2.6305470167979331E-5</v>
+        <v>1.6359151593663031E-5</v>
       </c>
       <c r="N39" s="6"/>
     </row>
@@ -3288,28 +3359,28 @@
         <v>99</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E40" s="4">
-        <v>2672</v>
+        <v>2604</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G40" s="9">
         <f>((((L40/13650)/0.3)*0.0001)/K40)*1000000000</f>
-        <v>-2.5725395899906918</v>
+        <v>1.2182032277219965</v>
       </c>
       <c r="H40" s="9">
         <f>((((M40/13650)/0.3)*0.0001)/K40)*1000000000</f>
-        <v>0.14765946483785841</v>
+        <v>0.10590949853768829</v>
       </c>
       <c r="I40" s="9" t="b">
         <f>G40&gt;(3*H40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2">
         <f>0.8/2</f>
@@ -3320,10 +3391,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L40" s="10">
-        <v>-1.2641459545214258E-4</v>
+        <v>5.9862506610258908E-5</v>
       </c>
       <c r="M40" s="10">
-        <v>7.2559861021323619E-6</v>
+        <v>5.2043927581420024E-6</v>
       </c>
       <c r="N40" s="6"/>
     </row>
@@ -3335,24 +3406,24 @@
         <v>99</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="4">
-        <v>2934</v>
+        <v>2672</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G41" s="9">
         <f>((((L41/13650)/0.3)*0.0001)/K41)*1000000000</f>
-        <v>-1.4641037909149968</v>
+        <v>-2.5725395899906918</v>
       </c>
       <c r="H41" s="9">
         <f>((((M41/13650)/0.3)*0.0001)/K41)*1000000000</f>
-        <v>7.0880848862680229E-2</v>
+        <v>0.14765946483785841</v>
       </c>
       <c r="I41" s="9" t="b">
         <f>G41&gt;(3*H41)</f>
@@ -3367,10 +3438,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L41" s="10">
-        <v>-7.1946060285562951E-5</v>
+        <v>-1.2641459545214258E-4</v>
       </c>
       <c r="M41" s="10">
-        <v>3.4830849131121073E-6</v>
+        <v>7.2559861021323619E-6</v>
       </c>
       <c r="N41" s="6"/>
     </row>
@@ -3382,28 +3453,28 @@
         <v>99</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>84</v>
+      <c r="E42" s="4">
+        <v>2934</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G42" s="9">
         <f>((((L42/13650)/0.3)*0.0001)/K42)*1000000000</f>
-        <v>0.40086634481134548</v>
+        <v>-1.4641037909149968</v>
       </c>
       <c r="H42" s="9">
         <f>((((M42/13650)/0.3)*0.0001)/K42)*1000000000</f>
-        <v>6.0769608756482331E-2</v>
+        <v>7.0880848862680229E-2</v>
       </c>
       <c r="I42" s="9" t="b">
         <f>G42&gt;(3*H42)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2">
         <f>0.8/2</f>
@@ -3414,10 +3485,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L42" s="10">
-        <v>1.9698572184029517E-5</v>
+        <v>-7.1946060285562951E-5</v>
       </c>
       <c r="M42" s="10">
-        <v>2.9862185742935419E-6</v>
+        <v>3.4830849131121073E-6</v>
       </c>
       <c r="N42" s="6"/>
     </row>
@@ -3429,28 +3500,28 @@
         <v>99</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="9">
         <f>((((L43/13650)/0.3)*0.0001)/K43)*1000000000</f>
-        <v>-1.6621156229828853</v>
+        <v>0.40086634481134548</v>
       </c>
       <c r="H43" s="9">
         <f>((((M43/13650)/0.3)*0.0001)/K43)*1000000000</f>
-        <v>9.264024229151098E-2</v>
+        <v>6.0769608756482331E-2</v>
       </c>
       <c r="I43" s="9" t="b">
         <f>G43&gt;(3*H43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2">
         <f>0.8/2</f>
@@ -3461,10 +3532,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L43" s="10">
-        <v>-8.1676361713378984E-5</v>
+        <v>1.9698572184029517E-5</v>
       </c>
       <c r="M43" s="10">
-        <v>4.5523415062048499E-6</v>
+        <v>2.9862185742935419E-6</v>
       </c>
       <c r="N43" s="6"/>
     </row>
@@ -3476,28 +3547,28 @@
         <v>99</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>92</v>
       </c>
       <c r="G44" s="9">
         <f>((((L44/13650)/0.3)*0.0001)/K44)*1000000000</f>
-        <v>1.6583490935685388</v>
+        <v>-1.6621156229828853</v>
       </c>
       <c r="H44" s="9">
         <f>((((M44/13650)/0.3)*0.0001)/K44)*1000000000</f>
-        <v>7.2559808957123467E-2</v>
+        <v>9.264024229151098E-2</v>
       </c>
       <c r="I44" s="9" t="b">
         <f>G44&gt;(3*H44)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="2">
         <f>0.8/2</f>
@@ -3508,10 +3579,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L44" s="10">
-        <v>8.1491274457957998E-5</v>
+        <v>-8.1676361713378984E-5</v>
       </c>
       <c r="M44" s="10">
-        <v>3.5655890121530476E-6</v>
+        <v>4.5523415062048499E-6</v>
       </c>
       <c r="N44" s="6"/>
     </row>
@@ -3523,28 +3594,28 @@
         <v>99</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>92</v>
       </c>
       <c r="G45" s="9">
         <f>((((L45/13650)/0.3)*0.0001)/K45)*1000000000</f>
-        <v>-5.9726394998733216E-2</v>
+        <v>1.6583490935685388</v>
       </c>
       <c r="H45" s="9">
         <f>((((M45/13650)/0.3)*0.0001)/K45)*1000000000</f>
-        <v>5.5051684159261684E-2</v>
+        <v>7.2559808957123467E-2</v>
       </c>
       <c r="I45" s="9" t="b">
         <f>G45&gt;(3*H45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2">
         <f>0.8/2</f>
@@ -3555,10 +3626,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L45" s="10">
-        <v>-2.9349550502377508E-6</v>
+        <v>8.1491274457957998E-5</v>
       </c>
       <c r="M45" s="10">
-        <v>2.7052397595861191E-6</v>
+        <v>3.5655890121530476E-6</v>
       </c>
       <c r="N45" s="6"/>
     </row>
@@ -3570,24 +3641,24 @@
         <v>99</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>92</v>
       </c>
       <c r="G46" s="9">
         <f>((((L46/13650)/0.3)*0.0001)/K46)*1000000000</f>
-        <v>0.1334427563935793</v>
+        <v>-5.9726394998733216E-2</v>
       </c>
       <c r="H46" s="9">
         <f>((((M46/13650)/0.3)*0.0001)/K46)*1000000000</f>
-        <v>0.1018688232613459</v>
+        <v>5.5051684159261684E-2</v>
       </c>
       <c r="I46" s="9" t="b">
         <f>G46&gt;(3*H46)</f>
@@ -3602,10 +3673,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L46" s="10">
-        <v>6.5573770491804876E-6</v>
+        <v>-2.9349550502377508E-6</v>
       </c>
       <c r="M46" s="10">
-        <v>5.0058339750625378E-6</v>
+        <v>2.7052397595861191E-6</v>
       </c>
       <c r="N46" s="6"/>
     </row>
@@ -3617,28 +3688,28 @@
         <v>99</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>92</v>
       </c>
       <c r="G47" s="9">
         <f>((((L47/13650)/0.3)*0.0001)/K47)*1000000000</f>
-        <v>3.0584218844398716</v>
+        <v>0.1334427563935793</v>
       </c>
       <c r="H47" s="9">
         <f>((((M47/13650)/0.3)*0.0001)/K47)*1000000000</f>
-        <v>5.5284067329687145E-2</v>
+        <v>0.1018688232613459</v>
       </c>
       <c r="I47" s="9" t="b">
         <f>G47&gt;(3*H47)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
         <f>0.8/2</f>
@@ -3649,10 +3720,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L47" s="10">
-        <v>1.5029085140137529E-4</v>
+        <v>6.5573770491804876E-6</v>
       </c>
       <c r="M47" s="10">
-        <v>2.7166590685808261E-6</v>
+        <v>5.0058339750625378E-6</v>
       </c>
       <c r="N47" s="6"/>
     </row>
@@ -3664,28 +3735,28 @@
         <v>99</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" s="9">
         <f>((((L48/13650)/0.3)*0.0001)/K48)*1000000000</f>
-        <v>0.47081617679184851</v>
+        <v>3.0584218844398716</v>
       </c>
       <c r="H48" s="9">
         <f>((((M48/13650)/0.3)*0.0001)/K48)*1000000000</f>
-        <v>0.1627516914731961</v>
+        <v>5.5284067329687145E-2</v>
       </c>
       <c r="I48" s="9" t="b">
         <f>G48&gt;(3*H48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2">
         <f>0.8/2</f>
@@ -3696,10 +3767,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L48" s="10">
-        <v>2.3135906927551438E-5</v>
+        <v>1.5029085140137529E-4</v>
       </c>
       <c r="M48" s="10">
-        <v>7.9976181189928558E-6</v>
+        <v>2.7166590685808261E-6</v>
       </c>
       <c r="N48" s="6"/>
     </row>
@@ -3711,28 +3782,28 @@
         <v>99</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>94</v>
       </c>
       <c r="G49" s="9">
         <f>((((L49/13650)/0.3)*0.0001)/K49)*1000000000</f>
-        <v>0.53430910120492237</v>
+        <v>0.47081617679184851</v>
       </c>
       <c r="H49" s="9">
         <f>((((M49/13650)/0.3)*0.0001)/K49)*1000000000</f>
-        <v>5.2693010374467983E-2</v>
+        <v>0.1627516914731961</v>
       </c>
       <c r="I49" s="9" t="b">
         <f>G49&gt;(3*H49)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2">
         <f>0.8/2</f>
@@ -3743,10 +3814,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L49" s="10">
-        <v>2.6255949233209889E-5</v>
+        <v>2.3135906927551438E-5</v>
       </c>
       <c r="M49" s="10">
-        <v>2.5893345298013568E-6</v>
+        <v>7.9976181189928558E-6</v>
       </c>
       <c r="N49" s="6"/>
     </row>
@@ -3758,28 +3829,28 @@
         <v>99</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>94</v>
       </c>
       <c r="G50" s="9">
         <f>((((L50/13650)/0.3)*0.0001)/K50)*1000000000</f>
-        <v>-1.4178292866817097</v>
+        <v>0.53430910120492237</v>
       </c>
       <c r="H50" s="9">
         <f>((((M50/13650)/0.3)*0.0001)/K50)*1000000000</f>
-        <v>0.1062234556644929</v>
+        <v>5.2693010374467983E-2</v>
       </c>
       <c r="I50" s="9" t="b">
         <f>G50&gt;(3*H50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2">
         <f>0.8/2</f>
@@ -3790,10 +3861,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L50" s="10">
-        <v>-6.9672131147539205E-5</v>
+        <v>2.6255949233209889E-5</v>
       </c>
       <c r="M50" s="10">
-        <v>5.2198206113531813E-6</v>
+        <v>2.5893345298013568E-6</v>
       </c>
       <c r="N50" s="6"/>
     </row>
@@ -3805,28 +3876,28 @@
         <v>99</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="G51" s="9">
         <f>((((L51/13650)/0.3)*0.0001)/K51)*1000000000</f>
-        <v>4.9971083815610529</v>
+        <v>-1.4178292866817097</v>
       </c>
       <c r="H51" s="9">
         <f>((((M51/13650)/0.3)*0.0001)/K51)*1000000000</f>
-        <v>9.9739901937496517E-2</v>
+        <v>0.1062234556644929</v>
       </c>
       <c r="I51" s="9" t="b">
         <f>G51&gt;(3*H51)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2">
         <f>0.8/2</f>
@@ -3837,10 +3908,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L51" s="10">
-        <v>2.4555790586991015E-4</v>
+        <v>-6.9672131147539205E-5</v>
       </c>
       <c r="M51" s="10">
-        <v>4.9012187812085793E-6</v>
+        <v>5.2198206113531813E-6</v>
       </c>
       <c r="N51" s="6"/>
     </row>
@@ -3852,28 +3923,28 @@
         <v>99</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="G52" s="9">
         <f>((((L52/13650)/0.3)*0.0001)/K52)*1000000000</f>
-        <v>-1.601313076722914</v>
+        <v>4.9971083815610529</v>
       </c>
       <c r="H52" s="9">
         <f>((((M52/13650)/0.3)*0.0001)/K52)*1000000000</f>
-        <v>0.1250069403344149</v>
+        <v>9.9739901937496517E-2</v>
       </c>
       <c r="I52" s="9" t="b">
         <f>G52&gt;(3*H52)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="2">
         <f>0.8/2</f>
@@ -3884,10 +3955,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L52" s="10">
-        <v>-7.8688524590163995E-5</v>
+        <v>2.4555790586991015E-4</v>
       </c>
       <c r="M52" s="10">
-        <v>6.1428410480331483E-6</v>
+        <v>4.9012187812085793E-6</v>
       </c>
       <c r="N52" s="6"/>
     </row>
@@ -3899,28 +3970,28 @@
         <v>99</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>96</v>
       </c>
       <c r="G53" s="9">
         <f>((((L53/13650)/0.3)*0.0001)/K53)*1000000000</f>
-        <v>0.63923384917568749</v>
+        <v>-1.601313076722914</v>
       </c>
       <c r="H53" s="9">
         <f>((((M53/13650)/0.3)*0.0001)/K53)*1000000000</f>
-        <v>0.1062234556644929</v>
+        <v>0.1250069403344149</v>
       </c>
       <c r="I53" s="9" t="b">
         <f>G53&gt;(3*H53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="2">
         <f>0.8/2</f>
@@ -3931,10 +4002,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L53" s="10">
-        <v>3.1411951348493284E-5</v>
+        <v>-7.8688524590163995E-5</v>
       </c>
       <c r="M53" s="10">
-        <v>5.2198206113531813E-6</v>
+        <v>6.1428410480331483E-6</v>
       </c>
       <c r="N53" s="6"/>
     </row>
@@ -3946,28 +4017,28 @@
         <v>99</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G54" s="9">
         <f>((((L54/13650)/0.3)*0.0001)/K54)*1000000000</f>
-        <v>-1.4592611102394377</v>
+        <v>0.63923384917568749</v>
       </c>
       <c r="H54" s="9">
         <f>((((M54/13650)/0.3)*0.0001)/K54)*1000000000</f>
-        <v>0.19417224108533773</v>
+        <v>0.1062234556644929</v>
       </c>
       <c r="I54" s="9" t="b">
         <f>G54&gt;(3*H54)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="2">
         <f>0.8/2</f>
@@ -3978,10 +4049,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L54" s="10">
-        <v>-7.1708090957165965E-5</v>
+        <v>3.1411951348493284E-5</v>
       </c>
       <c r="M54" s="10">
-        <v>9.5416239269334955E-6</v>
+        <v>5.2198206113531813E-6</v>
       </c>
       <c r="N54" s="6"/>
     </row>
@@ -3993,28 +4064,28 @@
         <v>99</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>95</v>
       </c>
       <c r="G55" s="9">
         <f>((((L55/13650)/0.3)*0.0001)/K55)*1000000000</f>
-        <v>0.94109427795308254</v>
+        <v>-1.4592611102394377</v>
       </c>
       <c r="H55" s="9">
         <f>((((M55/13650)/0.3)*0.0001)/K55)*1000000000</f>
-        <v>6.421008261122628E-2</v>
+        <v>0.19417224108533773</v>
       </c>
       <c r="I55" s="9" t="b">
         <f>G55&gt;(3*H55)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2">
         <f>0.8/2</f>
@@ -4025,10 +4096,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L55" s="10">
-        <v>4.6245372818614483E-5</v>
+        <v>-7.1708090957165965E-5</v>
       </c>
       <c r="M55" s="10">
-        <v>3.1552834595156596E-6</v>
+        <v>9.5416239269334955E-6</v>
       </c>
       <c r="N55" s="6"/>
     </row>
@@ -4040,24 +4111,24 @@
         <v>99</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="G56" s="9">
         <f>((((L56/13650)/0.3)*0.0001)/K56)*1000000000</f>
-        <v>18.662615172398368</v>
+        <v>0.94109427795308254</v>
       </c>
       <c r="H56" s="9">
         <f>((((M56/13650)/0.3)*0.0001)/K56)*1000000000</f>
-        <v>0.30188891704133403</v>
+        <v>6.421008261122628E-2</v>
       </c>
       <c r="I56" s="9" t="b">
         <f>G56&gt;(3*H56)</f>
@@ -4072,39 +4143,39 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L56" s="10">
-        <v>9.1708090957165575E-4</v>
+        <v>4.6245372818614483E-5</v>
       </c>
       <c r="M56" s="10">
-        <v>1.4834821383411152E-5</v>
+        <v>3.1552834595156596E-6</v>
       </c>
       <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="9">
         <f>((((L57/13650)/0.3)*0.0001)/K57)*1000000000</f>
-        <v>12.0362137813222</v>
+        <v>14.815912489101288</v>
       </c>
       <c r="H57" s="9">
         <f>((((M57/13650)/0.3)*0.0001)/K57)*1000000000</f>
-        <v>0.33290906784011054</v>
+        <v>0.26448024316322977</v>
       </c>
       <c r="I57" s="9" t="b">
         <f>G57&gt;(3*H57)</f>
@@ -4119,10 +4190,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L57" s="10">
-        <v>5.9145954521417287E-4</v>
+        <v>7.2805393971443733E-4</v>
       </c>
       <c r="M57" s="10">
-        <v>1.6359151593663031E-5</v>
+        <v>1.2996559149041113E-5</v>
       </c>
       <c r="N57" s="6"/>
     </row>
@@ -4134,24 +4205,24 @@
         <v>101</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2606</v>
+        <v>228</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="G58" s="9">
         <f>((((L58/13650)/0.3)*0.0001)/K58)*1000000000</f>
-        <v>2.4062742201293217</v>
+        <v>12.585589000184463</v>
       </c>
       <c r="H58" s="9">
         <f>((((M58/13650)/0.3)*0.0001)/K58)*1000000000</f>
-        <v>5.114890281080342E-2</v>
+        <v>0.32860536432043042</v>
       </c>
       <c r="I58" s="9" t="b">
         <f>G58&gt;(3*H58)</f>
@@ -4166,10 +4237,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L58" s="10">
-        <v>1.182443151771549E-4</v>
+        <v>6.1845584346906463E-4</v>
       </c>
       <c r="M58" s="10">
-        <v>2.5134570841228803E-6</v>
+        <v>1.6147667602705952E-5</v>
       </c>
       <c r="N58" s="6"/>
     </row>
@@ -4181,24 +4252,24 @@
         <v>101</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E59" s="4">
-        <v>2668</v>
+        <v>2606</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G59" s="9">
         <f>((((L59/13650)/0.3)*0.0001)/K59)*1000000000</f>
-        <v>1.4797079842029319</v>
+        <v>2.4062742201293217</v>
       </c>
       <c r="H59" s="9">
         <f>((((M59/13650)/0.3)*0.0001)/K59)*1000000000</f>
-        <v>0.18751827452181585</v>
+        <v>5.114890281080342E-2</v>
       </c>
       <c r="I59" s="9" t="b">
         <f>G59&gt;(3*H59)</f>
@@ -4213,10 +4284,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L59" s="10">
-        <v>7.2712850343732078E-5</v>
+        <v>1.182443151771549E-4</v>
       </c>
       <c r="M59" s="10">
-        <v>9.2146480100020305E-6</v>
+        <v>2.5134570841228803E-6</v>
       </c>
       <c r="N59" s="6"/>
     </row>
@@ -4228,28 +4299,28 @@
         <v>101</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E60" s="4">
-        <v>2673</v>
+        <v>2668</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G60" s="9">
         <f>((((L60/13650)/0.3)*0.0001)/K60)*1000000000</f>
-        <v>-1.7584311608637091</v>
+        <v>1.4797079842029319</v>
       </c>
       <c r="H60" s="9">
         <f>((((M60/13650)/0.3)*0.0001)/K60)*1000000000</f>
-        <v>0.96137084633156444</v>
+        <v>0.18751827452181585</v>
       </c>
       <c r="I60" s="9" t="b">
         <f>G60&gt;(3*H60)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2">
         <f>0.8/2</f>
@@ -4260,10 +4331,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L60" s="10">
-        <v>-8.6409307244842665E-5</v>
+        <v>7.2712850343732078E-5</v>
       </c>
       <c r="M60" s="10">
-        <v>4.7241763388733077E-5</v>
+        <v>9.2146480100020305E-6</v>
       </c>
       <c r="N60" s="6"/>
     </row>
@@ -4651,28 +4722,28 @@
         <v>101</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="G69" s="9">
         <f>((((L69/13650)/0.3)*0.0001)/K69)*1000000000</f>
-        <v>14.815912489101288</v>
+        <v>-1.5243682615443532</v>
       </c>
       <c r="H69" s="9">
         <f>((((M69/13650)/0.3)*0.0001)/K69)*1000000000</f>
-        <v>0.26448024316322977</v>
+        <v>7.1642871976655045E-2</v>
       </c>
       <c r="I69" s="9" t="b">
         <f>G69&gt;(3*H69)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="2">
         <f>0.8/2</f>
@@ -4683,10 +4754,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L69" s="10">
-        <v>7.2805393971443733E-4</v>
+        <v>-7.4907456372289507E-5</v>
       </c>
       <c r="M69" s="10">
-        <v>1.2996559149041113E-5</v>
+        <v>3.5205307289328294E-6</v>
       </c>
       <c r="N69" s="6"/>
     </row>
@@ -4698,28 +4769,28 @@
         <v>101</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="G70" s="9">
         <f>((((L70/13650)/0.3)*0.0001)/K70)*1000000000</f>
-        <v>12.585589000184463</v>
+        <v>-2.2513084385109767</v>
       </c>
       <c r="H70" s="9">
         <f>((((M70/13650)/0.3)*0.0001)/K70)*1000000000</f>
-        <v>0.32860536432043042</v>
+        <v>0.13514134350434909</v>
       </c>
       <c r="I70" s="9" t="b">
         <f>G70&gt;(3*H70)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="2">
         <f>0.8/2</f>
@@ -4730,10 +4801,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L70" s="10">
-        <v>6.1845584346906463E-4</v>
+        <v>-1.1062929666842941E-4</v>
       </c>
       <c r="M70" s="10">
-        <v>1.6147667602705952E-5</v>
+        <v>6.6408456198037144E-6</v>
       </c>
       <c r="N70" s="6"/>
     </row>
@@ -4745,24 +4816,24 @@
         <v>101</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F71" s="18" t="s">
         <v>118</v>
       </c>
       <c r="G71" s="9">
         <f>((((L71/13650)/0.3)*0.0001)/K71)*1000000000</f>
-        <v>-1.5243682615443532</v>
+        <v>-1.5582670262733702</v>
       </c>
       <c r="H71" s="9">
         <f>((((M71/13650)/0.3)*0.0001)/K71)*1000000000</f>
-        <v>7.1642871976655045E-2</v>
+        <v>0.217347787915842</v>
       </c>
       <c r="I71" s="9" t="b">
         <f>G71&gt;(3*H71)</f>
@@ -4777,10 +4848,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L71" s="10">
-        <v>-7.4907456372289507E-5</v>
+        <v>-7.6573241671073412E-5</v>
       </c>
       <c r="M71" s="10">
-        <v>3.5205307289328294E-6</v>
+        <v>1.0680470298184475E-5</v>
       </c>
       <c r="N71" s="6"/>
     </row>
@@ -4792,24 +4863,24 @@
         <v>101</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>118</v>
       </c>
       <c r="G72" s="9">
         <f>((((L72/13650)/0.3)*0.0001)/K72)*1000000000</f>
-        <v>-2.2513084385109767</v>
+        <v>-3.3317643047944285</v>
       </c>
       <c r="H72" s="9">
         <f>((((M72/13650)/0.3)*0.0001)/K72)*1000000000</f>
-        <v>0.13514134350434909</v>
+        <v>9.7661813554096352E-2</v>
       </c>
       <c r="I72" s="9" t="b">
         <f>G72&gt;(3*H72)</f>
@@ -4824,10 +4895,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L72" s="10">
-        <v>-1.1062929666842941E-4</v>
+        <v>-1.6372289793759818E-4</v>
       </c>
       <c r="M72" s="10">
-        <v>6.6408456198037144E-6</v>
+        <v>4.7991015180482946E-6</v>
       </c>
       <c r="N72" s="6"/>
     </row>
@@ -4839,24 +4910,24 @@
         <v>101</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>118</v>
       </c>
       <c r="G73" s="9">
         <f>((((L73/13650)/0.3)*0.0001)/K73)*1000000000</f>
-        <v>-1.5582670262733702</v>
+        <v>-4.0285722464464016</v>
       </c>
       <c r="H73" s="9">
         <f>((((M73/13650)/0.3)*0.0001)/K73)*1000000000</f>
-        <v>0.217347787915842</v>
+        <v>7.3641100228839185E-2</v>
       </c>
       <c r="I73" s="9" t="b">
         <f>G73&gt;(3*H73)</f>
@@ -4871,10 +4942,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L73" s="10">
-        <v>-7.6573241671073412E-5</v>
+        <v>-1.9796404019037616E-4</v>
       </c>
       <c r="M73" s="10">
-        <v>1.0680470298184475E-5</v>
+        <v>3.6187236652451575E-6</v>
       </c>
       <c r="N73" s="6"/>
     </row>
@@ -4886,24 +4957,24 @@
         <v>101</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>118</v>
       </c>
       <c r="G74" s="9">
         <f>((((L74/13650)/0.3)*0.0001)/K74)*1000000000</f>
-        <v>-3.3317643047944285</v>
+        <v>-1.7336796818552589</v>
       </c>
       <c r="H74" s="9">
         <f>((((M74/13650)/0.3)*0.0001)/K74)*1000000000</f>
-        <v>9.7661813554096352E-2</v>
+        <v>9.127027782246333E-2</v>
       </c>
       <c r="I74" s="9" t="b">
         <f>G74&gt;(3*H74)</f>
@@ -4918,10 +4989,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L74" s="10">
-        <v>-1.6372289793759818E-4</v>
+        <v>-8.5193019566367429E-5</v>
       </c>
       <c r="M74" s="10">
-        <v>4.7991015180482946E-6</v>
+        <v>4.4850214521958481E-6</v>
       </c>
       <c r="N74" s="6"/>
     </row>
@@ -4933,24 +5004,24 @@
         <v>101</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F75" s="18" t="s">
         <v>118</v>
       </c>
       <c r="G75" s="9">
         <f>((((L75/13650)/0.3)*0.0001)/K75)*1000000000</f>
-        <v>-4.0285722464464016</v>
+        <v>-2.4670767663892996</v>
       </c>
       <c r="H75" s="9">
         <f>((((M75/13650)/0.3)*0.0001)/K75)*1000000000</f>
-        <v>7.3641100228839185E-2</v>
+        <v>8.9608275443357727E-2</v>
       </c>
       <c r="I75" s="9" t="b">
         <f>G75&gt;(3*H75)</f>
@@ -4965,10 +5036,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L75" s="10">
-        <v>-1.9796404019037616E-4</v>
+        <v>-1.2123215230037017E-4</v>
       </c>
       <c r="M75" s="10">
-        <v>3.6187236652451575E-6</v>
+        <v>4.403350655286599E-6</v>
       </c>
       <c r="N75" s="6"/>
     </row>
@@ -4980,24 +5051,24 @@
         <v>101</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F76" s="18" t="s">
         <v>118</v>
       </c>
       <c r="G76" s="9">
         <f>((((L76/13650)/0.3)*0.0001)/K76)*1000000000</f>
-        <v>-1.7336796818552589</v>
+        <v>-0.99221146286190964</v>
       </c>
       <c r="H76" s="9">
         <f>((((M76/13650)/0.3)*0.0001)/K76)*1000000000</f>
-        <v>9.127027782246333E-2</v>
+        <v>5.1317861367038156E-2</v>
       </c>
       <c r="I76" s="9" t="b">
         <f>G76&gt;(3*H76)</f>
@@ -5012,10 +5083,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L76" s="10">
-        <v>-8.5193019566367429E-5</v>
+        <v>-4.8757271285034239E-5</v>
       </c>
       <c r="M76" s="10">
-        <v>4.4850214521958481E-6</v>
+        <v>2.5217597075762549E-6</v>
       </c>
       <c r="N76" s="6"/>
     </row>
@@ -5024,31 +5095,31 @@
         <v>44902</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>118</v>
+        <v>24</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G77" s="9">
         <f>((((L77/13650)/0.3)*0.0001)/K77)*1000000000</f>
-        <v>-2.4670767663892996</v>
+        <v>16.162177716910659</v>
       </c>
       <c r="H77" s="9">
         <f>((((M77/13650)/0.3)*0.0001)/K77)*1000000000</f>
-        <v>8.9608275443357727E-2</v>
+        <v>0.30748746812105271</v>
       </c>
       <c r="I77" s="9" t="b">
         <f>G77&gt;(3*H77)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2">
         <f>0.8/2</f>
@@ -5059,10 +5130,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L77" s="10">
-        <v>-1.2123215230037017E-4</v>
+        <v>7.9420941300898979E-4</v>
       </c>
       <c r="M77" s="10">
-        <v>4.403350655286599E-6</v>
+        <v>1.5109934183468531E-5</v>
       </c>
       <c r="N77" s="6"/>
     </row>
@@ -5071,31 +5142,31 @@
         <v>44902</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G78" s="9">
         <f>((((L78/13650)/0.3)*0.0001)/K78)*1000000000</f>
-        <v>-0.99221146286190964</v>
+        <v>11.749419470202128</v>
       </c>
       <c r="H78" s="9">
         <f>((((M78/13650)/0.3)*0.0001)/K78)*1000000000</f>
-        <v>5.1317861367038156E-2</v>
+        <v>0.33392214437117579</v>
       </c>
       <c r="I78" s="9" t="b">
         <f>G78&gt;(3*H78)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2">
         <f>0.8/2</f>
@@ -5106,10 +5177,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L78" s="10">
-        <v>-4.8757271285034239E-5</v>
+        <v>5.7736647276573254E-4</v>
       </c>
       <c r="M78" s="10">
-        <v>2.5217597075762549E-6</v>
+        <v>1.6408934174399579E-5</v>
       </c>
       <c r="N78" s="6"/>
     </row>
@@ -5356,24 +5427,24 @@
         <v>99</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G84" s="9">
         <f>((((L84/13650)/0.3)*0.0001)/K84)*1000000000</f>
-        <v>1.6126126649659156</v>
+        <v>4.5467390787327249</v>
       </c>
       <c r="H84" s="9">
         <f>((((M84/13650)/0.3)*0.0001)/K84)*1000000000</f>
-        <v>0.14447854176771352</v>
+        <v>0.14934311886561749</v>
       </c>
       <c r="I84" s="9" t="b">
         <f>G84&gt;(3*H84)</f>
@@ -5388,10 +5459,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L84" s="10">
-        <v>7.9243786356425085E-5</v>
+        <v>2.2342675832892609E-4</v>
       </c>
       <c r="M84" s="10">
-        <v>7.0996755424654425E-6</v>
+        <v>7.3387208610564436E-6</v>
       </c>
       <c r="N84" s="6"/>
     </row>
@@ -5403,28 +5474,28 @@
         <v>99</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G85" s="9">
         <f>((((L85/13650)/0.3)*0.0001)/K85)*1000000000</f>
-        <v>1.4484995976270778</v>
+        <v>-9.8467840403326248E-2</v>
       </c>
       <c r="H85" s="9">
         <f>((((M85/13650)/0.3)*0.0001)/K85)*1000000000</f>
-        <v>5.8699462318863499E-2</v>
+        <v>0.11453858335819792</v>
       </c>
       <c r="I85" s="9" t="b">
         <f>G85&gt;(3*H85)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="2">
         <f>0.8/2</f>
@@ -5435,10 +5506,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L85" s="10">
-        <v>7.1179270227394596E-5</v>
+        <v>-4.8387096774194518E-6</v>
       </c>
       <c r="M85" s="10">
-        <v>2.884491578348952E-6</v>
+        <v>5.6284259862218458E-6</v>
       </c>
       <c r="N85" s="6"/>
     </row>
@@ -5450,28 +5521,28 @@
         <v>99</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G86" s="9">
         <f>((((L86/13650)/0.3)*0.0001)/K86)*1000000000</f>
-        <v>-0.23083444553563909</v>
+        <v>1.6126126649659156</v>
       </c>
       <c r="H86" s="9">
         <f>((((M86/13650)/0.3)*0.0001)/K86)*1000000000</f>
-        <v>5.5766390385270814E-2</v>
+        <v>0.14447854176771352</v>
       </c>
       <c r="I86" s="9" t="b">
         <f>G86&gt;(3*H86)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" s="2">
         <f>0.8/2</f>
@@ -5482,10 +5553,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L86" s="10">
-        <v>-1.1343204653621306E-5</v>
+        <v>7.9243786356425085E-5</v>
       </c>
       <c r="M86" s="10">
-        <v>2.7403604235322083E-6</v>
+        <v>7.0996755424654425E-6</v>
       </c>
       <c r="N86" s="6"/>
     </row>
@@ -5497,28 +5568,28 @@
         <v>99</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G87" s="9">
         <f>((((L87/13650)/0.3)*0.0001)/K87)*1000000000</f>
-        <v>-1.1019788915082396</v>
+        <v>1.4484995976270778</v>
       </c>
       <c r="H87" s="9">
         <f>((((M87/13650)/0.3)*0.0001)/K87)*1000000000</f>
-        <v>6.3850531387157433E-2</v>
+        <v>5.8699462318863499E-2</v>
       </c>
       <c r="I87" s="9" t="b">
         <f>G87&gt;(3*H87)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="2">
         <f>0.8/2</f>
@@ -5529,10 +5600,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L87" s="10">
-        <v>-5.4151242728714898E-5</v>
+        <v>7.1179270227394596E-5</v>
       </c>
       <c r="M87" s="10">
-        <v>3.1376151123649166E-6</v>
+        <v>2.884491578348952E-6</v>
       </c>
       <c r="N87" s="6"/>
     </row>
@@ -5544,24 +5615,24 @@
         <v>99</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F88" s="18" t="s">
         <v>139</v>
       </c>
       <c r="G88" s="9">
         <f>((((L88/13650)/0.3)*0.0001)/K88)*1000000000</f>
-        <v>-2.3024256234198019</v>
+        <v>-0.23083444553563909</v>
       </c>
       <c r="H88" s="9">
         <f>((((M88/13650)/0.3)*0.0001)/K88)*1000000000</f>
-        <v>5.1684464546791313E-2</v>
+        <v>5.5766390385270814E-2</v>
       </c>
       <c r="I88" s="9" t="b">
         <f>G88&gt;(3*H88)</f>
@@ -5576,10 +5647,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L88" s="10">
-        <v>-1.1314119513484904E-4</v>
+        <v>-1.1343204653621306E-5</v>
       </c>
       <c r="M88" s="10">
-        <v>2.5397745878293254E-6</v>
+        <v>2.7403604235322083E-6</v>
       </c>
       <c r="N88" s="6"/>
     </row>
@@ -5591,24 +5662,24 @@
         <v>99</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F89" s="18" t="s">
         <v>139</v>
       </c>
       <c r="G89" s="9">
         <f>((((L89/13650)/0.3)*0.0001)/K89)*1000000000</f>
-        <v>-1.5405105304629223</v>
+        <v>-1.1019788915082396</v>
       </c>
       <c r="H89" s="9">
         <f>((((M89/13650)/0.3)*0.0001)/K89)*1000000000</f>
-        <v>6.8525638525418334E-2</v>
+        <v>6.3850531387157433E-2</v>
       </c>
       <c r="I89" s="9" t="b">
         <f>G89&gt;(3*H89)</f>
@@ -5623,10 +5694,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L89" s="10">
-        <v>-7.5700687466947989E-5</v>
+        <v>-5.4151242728714898E-5</v>
       </c>
       <c r="M89" s="10">
-        <v>3.3673498771390569E-6</v>
+        <v>3.1376151123649166E-6</v>
       </c>
       <c r="N89" s="6"/>
     </row>
@@ -5638,24 +5709,24 @@
         <v>99</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F90" s="18" t="s">
         <v>139</v>
       </c>
       <c r="G90" s="9">
         <f>((((L90/13650)/0.3)*0.0001)/K90)*1000000000</f>
-        <v>-1.2908434378555829</v>
+        <v>-2.3024256234198019</v>
       </c>
       <c r="H90" s="9">
         <f>((((M90/13650)/0.3)*0.0001)/K90)*1000000000</f>
-        <v>5.6666365374872255E-2</v>
+        <v>5.1684464546791313E-2</v>
       </c>
       <c r="I90" s="9" t="b">
         <f>G90&gt;(3*H90)</f>
@@ -5670,10 +5741,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L90" s="10">
-        <v>-6.3432046536223346E-5</v>
+        <v>-1.1314119513484904E-4</v>
       </c>
       <c r="M90" s="10">
-        <v>2.7845851945212228E-6</v>
+        <v>2.5397745878293254E-6</v>
       </c>
       <c r="N90" s="6"/>
     </row>
@@ -5685,28 +5756,28 @@
         <v>99</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F91" s="18" t="s">
         <v>139</v>
       </c>
       <c r="G91" s="9">
         <f>((((L91/13650)/0.3)*0.0001)/K91)*1000000000</f>
-        <v>2.1592975056750507</v>
+        <v>-1.5405105304629223</v>
       </c>
       <c r="H91" s="9">
         <f>((((M91/13650)/0.3)*0.0001)/K91)*1000000000</f>
-        <v>8.0284344940113564E-2</v>
+        <v>6.8525638525418334E-2</v>
       </c>
       <c r="I91" s="9" t="b">
         <f>G91&gt;(3*H91)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="2">
         <f>0.8/2</f>
@@ -5717,10 +5788,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L91" s="10">
-        <v>1.0610787942887199E-4</v>
+        <v>-7.5700687466947989E-5</v>
       </c>
       <c r="M91" s="10">
-        <v>3.9451727103571805E-6</v>
+        <v>3.3673498771390569E-6</v>
       </c>
       <c r="N91" s="6"/>
     </row>
@@ -5732,24 +5803,24 @@
         <v>99</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F92" s="18" t="s">
         <v>139</v>
       </c>
       <c r="G92" s="9">
         <f>((((L92/13650)/0.3)*0.0001)/K92)*1000000000</f>
-        <v>-0.35459184057811755</v>
+        <v>-1.2908434378555829</v>
       </c>
       <c r="H92" s="9">
         <f>((((M92/13650)/0.3)*0.0001)/K92)*1000000000</f>
-        <v>5.9396013638331066E-2</v>
+        <v>5.6666365374872255E-2</v>
       </c>
       <c r="I92" s="9" t="b">
         <f>G92&gt;(3*H92)</f>
@@ -5764,10 +5835,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L92" s="10">
-        <v>-1.7424643046008699E-5</v>
+        <v>-6.3432046536223346E-5</v>
       </c>
       <c r="M92" s="10">
-        <v>2.9187201101875886E-6</v>
+        <v>2.7845851945212228E-6</v>
       </c>
       <c r="N92" s="6"/>
     </row>
@@ -5779,24 +5850,24 @@
         <v>99</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>127</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="G93" s="9">
         <f>((((L93/13650)/0.3)*0.0001)/K93)*1000000000</f>
-        <v>16.162177716910659</v>
+        <v>2.1592975056750507</v>
       </c>
       <c r="H93" s="9">
         <f>((((M93/13650)/0.3)*0.0001)/K93)*1000000000</f>
-        <v>0.30748746812105271</v>
+        <v>8.0284344940113564E-2</v>
       </c>
       <c r="I93" s="9" t="b">
         <f>G93&gt;(3*H93)</f>
@@ -5811,10 +5882,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L93" s="10">
-        <v>7.9420941300898979E-4</v>
+        <v>1.0610787942887199E-4</v>
       </c>
       <c r="M93" s="10">
-        <v>1.5109934183468531E-5</v>
+        <v>3.9451727103571805E-6</v>
       </c>
       <c r="N93" s="6"/>
     </row>
@@ -5826,28 +5897,28 @@
         <v>99</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>129</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="G94" s="9">
         <f>((((L94/13650)/0.3)*0.0001)/K94)*1000000000</f>
-        <v>11.749419470202128</v>
+        <v>-0.35459184057811755</v>
       </c>
       <c r="H94" s="9">
         <f>((((M94/13650)/0.3)*0.0001)/K94)*1000000000</f>
-        <v>0.33392214437117579</v>
+        <v>5.9396013638331066E-2</v>
       </c>
       <c r="I94" s="9" t="b">
         <f>G94&gt;(3*H94)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2">
         <f>0.8/2</f>
@@ -5858,10 +5929,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L94" s="10">
-        <v>5.7736647276573254E-4</v>
+        <v>-1.7424643046008699E-5</v>
       </c>
       <c r="M94" s="10">
-        <v>1.6408934174399579E-5</v>
+        <v>2.9187201101875886E-6</v>
       </c>
       <c r="N94" s="6"/>
     </row>
@@ -5961,30 +6032,30 @@
     </row>
     <row r="97" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>138</v>
+        <v>24</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G97" s="9">
         <f>((((L97/13650)/0.3)*0.0001)/K97)*1000000000</f>
-        <v>4.5467390787327249</v>
+        <v>16.141730842947137</v>
       </c>
       <c r="H97" s="9">
         <f>((((M97/13650)/0.3)*0.0001)/K97)*1000000000</f>
-        <v>0.14934311886561749</v>
+        <v>0.34759922205867994</v>
       </c>
       <c r="I97" s="9" t="b">
         <f>G97&gt;(3*H97)</f>
@@ -5999,43 +6070,43 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L97" s="10">
-        <v>2.2342675832892609E-4</v>
+        <v>7.9320465362242229E-4</v>
       </c>
       <c r="M97" s="10">
-        <v>7.3387208610564436E-6</v>
+        <v>1.7081025771963534E-5</v>
       </c>
       <c r="N97" s="6"/>
     </row>
     <row r="98" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G98" s="9">
         <f>((((L98/13650)/0.3)*0.0001)/K98)*1000000000</f>
-        <v>-9.8467840403326248E-2</v>
+        <v>11.712292251689394</v>
       </c>
       <c r="H98" s="9">
         <f>((((M98/13650)/0.3)*0.0001)/K98)*1000000000</f>
-        <v>0.11453858335819792</v>
+        <v>0.33369698221663679</v>
       </c>
       <c r="I98" s="9" t="b">
         <f>G98&gt;(3*H98)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" s="2">
         <f>0.8/2</f>
@@ -6046,10 +6117,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L98" s="10">
-        <v>-4.8387096774194518E-6</v>
+        <v>5.7554204124801679E-4</v>
       </c>
       <c r="M98" s="10">
-        <v>5.6284259862218458E-6</v>
+        <v>1.6397869706125533E-5</v>
       </c>
       <c r="N98" s="6"/>
     </row>
@@ -7001,28 +7072,28 @@
         <v>101</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>147</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="G119" s="9">
         <f>((((L119/13650)/0.3)*0.0001)/K119)*1000000000</f>
-        <v>16.141730842947137</v>
+        <v>0.18348379004117296</v>
       </c>
       <c r="H119" s="9">
         <f>((((M119/13650)/0.3)*0.0001)/K119)*1000000000</f>
-        <v>0.34759922205867994</v>
+        <v>0.13162520308545222</v>
       </c>
       <c r="I119" s="9" t="b">
         <f>G119&gt;(3*H119)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="2">
         <f>0.8/2</f>
@@ -7033,10 +7104,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L119" s="10">
-        <v>7.9320465362242229E-4</v>
+        <v>9.0163934426232395E-6</v>
       </c>
       <c r="M119" s="10">
-        <v>1.7081025771963534E-5</v>
+        <v>6.4680624796191217E-6</v>
       </c>
       <c r="N119" s="6"/>
     </row>
@@ -7048,24 +7119,24 @@
         <v>101</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>145</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="G120" s="9">
         <f>((((L120/13650)/0.3)*0.0001)/K120)*1000000000</f>
-        <v>11.712292251689394</v>
+        <v>0.6747468407965318</v>
       </c>
       <c r="H120" s="9">
         <f>((((M120/13650)/0.3)*0.0001)/K120)*1000000000</f>
-        <v>0.33369698221663679</v>
+        <v>5.5698812639065655E-2</v>
       </c>
       <c r="I120" s="9" t="b">
         <f>G120&gt;(3*H120)</f>
@@ -7080,10 +7151,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L120" s="10">
-        <v>5.7554204124801679E-4</v>
+        <v>3.3157059756741569E-5</v>
       </c>
       <c r="M120" s="10">
-        <v>1.6397869706125533E-5</v>
+        <v>2.737039653083686E-6</v>
       </c>
       <c r="N120" s="6"/>
     </row>
@@ -7092,31 +7163,31 @@
         <v>44903</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>118</v>
+        <v>24</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G121" s="9">
         <f>((((L121/13650)/0.3)*0.0001)/K121)*1000000000</f>
-        <v>0.18348379004117296</v>
+        <v>18.961247147392047</v>
       </c>
       <c r="H121" s="9">
         <f>((((M121/13650)/0.3)*0.0001)/K121)*1000000000</f>
-        <v>0.13162520308545222</v>
+        <v>0.31903676841278861</v>
       </c>
       <c r="I121" s="9" t="b">
         <f>G121&gt;(3*H121)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2">
         <f>0.8/2</f>
@@ -7127,10 +7198,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L121" s="10">
-        <v>9.0163934426232395E-6</v>
+        <v>9.3175568482284517E-4</v>
       </c>
       <c r="M121" s="10">
-        <v>6.4680624796191217E-6</v>
+        <v>1.5677466799804434E-5</v>
       </c>
       <c r="N121" s="6"/>
     </row>
@@ -7139,27 +7210,27 @@
         <v>44903</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F122" s="18" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G122" s="9">
         <f>((((L122/13650)/0.3)*0.0001)/K122)*1000000000</f>
-        <v>0.6747468407965318</v>
+        <v>11.240399923636305</v>
       </c>
       <c r="H122" s="9">
         <f>((((M122/13650)/0.3)*0.0001)/K122)*1000000000</f>
-        <v>5.5698812639065655E-2</v>
+        <v>0.31416569958250989</v>
       </c>
       <c r="I122" s="9" t="b">
         <f>G122&gt;(3*H122)</f>
@@ -7174,10 +7245,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L122" s="10">
-        <v>3.3157059756741569E-5</v>
+        <v>5.5235325224748809E-4</v>
       </c>
       <c r="M122" s="10">
-        <v>2.737039653083686E-6</v>
+        <v>1.5438102477484537E-5</v>
       </c>
       <c r="N122" s="6"/>
     </row>
@@ -8076,16 +8147,16 @@
     </row>
     <row r="142" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C142" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>24</v>
@@ -8095,11 +8166,11 @@
       </c>
       <c r="G142" s="9">
         <f>((((L142/13650)/0.3)*0.0001)/K142)*1000000000</f>
-        <v>18.961247147392047</v>
+        <v>16.730923658475241</v>
       </c>
       <c r="H142" s="9">
         <f>((((M142/13650)/0.3)*0.0001)/K142)*1000000000</f>
-        <v>0.31903676841278861</v>
+        <v>0.28056019306168167</v>
       </c>
       <c r="I142" s="9" t="b">
         <f>G142&gt;(3*H142)</f>
@@ -8114,25 +8185,25 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L142" s="10">
-        <v>9.3175568482284517E-4</v>
+        <v>8.2215758857747334E-4</v>
       </c>
       <c r="M142" s="10">
-        <v>1.5677466799804434E-5</v>
+        <v>1.3786727887051038E-5</v>
       </c>
       <c r="N142" s="6"/>
     </row>
     <row r="143" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C143" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>122</v>
@@ -8142,11 +8213,11 @@
       </c>
       <c r="G143" s="9">
         <f>((((L143/13650)/0.3)*0.0001)/K143)*1000000000</f>
-        <v>11.240399923636305</v>
+        <v>12.712036773379973</v>
       </c>
       <c r="H143" s="9">
         <f>((((M143/13650)/0.3)*0.0001)/K143)*1000000000</f>
-        <v>0.31416569958250989</v>
+        <v>0.3093024335555174</v>
       </c>
       <c r="I143" s="9" t="b">
         <f>G143&gt;(3*H143)</f>
@@ -8161,10 +8232,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L143" s="10">
-        <v>5.5235325224748809E-4</v>
+        <v>6.2466948704389188E-4</v>
       </c>
       <c r="M143" s="10">
-        <v>1.5438102477484537E-5</v>
+        <v>1.5199121584918125E-5</v>
       </c>
       <c r="N143" s="6"/>
     </row>
@@ -8364,24 +8435,24 @@
         <v>101</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="G148" s="9">
         <f>((((L148/13650)/0.3)*0.0001)/K148)*1000000000</f>
-        <v>2.3648423965716261</v>
+        <v>1.2892292109637393</v>
       </c>
       <c r="H148" s="9">
         <f>((((M148/13650)/0.3)*0.0001)/K148)*1000000000</f>
-        <v>0.15406062962650127</v>
+        <v>0.15243762273748374</v>
       </c>
       <c r="I148" s="9" t="b">
         <f>G148&gt;(3*H148)</f>
@@ -8396,10 +8467,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L148" s="10">
-        <v>1.1620835536752971E-4</v>
+        <v>6.3352723426758154E-5</v>
       </c>
       <c r="M148" s="10">
-        <v>7.5705393398462726E-6</v>
+        <v>7.4907847813199507E-6</v>
       </c>
       <c r="N148" s="6"/>
     </row>
@@ -8411,28 +8482,28 @@
         <v>101</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F149" s="18" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="G149" s="9">
         <f>((((L149/13650)/0.3)*0.0001)/K149)*1000000000</f>
-        <v>2.7958409766976646</v>
+        <v>-3.7503871454162132</v>
       </c>
       <c r="H149" s="9">
         <f>((((M149/13650)/0.3)*0.0001)/K149)*1000000000</f>
-        <v>6.3063609335972742E-2</v>
+        <v>0.17966559182253639</v>
       </c>
       <c r="I149" s="9" t="b">
         <f>G149&gt;(3*H149)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" s="2">
         <f>0.8/2</f>
@@ -8443,10 +8514,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L149" s="10">
-        <v>1.3738762559492327E-4</v>
+        <v>-1.8429402432575272E-4</v>
       </c>
       <c r="M149" s="10">
-        <v>3.0989457627697008E-6</v>
+        <v>8.8287671821594368E-6</v>
       </c>
       <c r="N149" s="6"/>
     </row>
@@ -8458,24 +8529,24 @@
         <v>101</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F150" s="18" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="G150" s="9">
         <f>((((L150/13650)/0.3)*0.0001)/K150)*1000000000</f>
-        <v>1.6954763120812795</v>
+        <v>4.6032370199477564</v>
       </c>
       <c r="H150" s="9">
         <f>((((M150/13650)/0.3)*0.0001)/K150)*1000000000</f>
-        <v>9.9939159974424346E-2</v>
+        <v>0.44423319019768764</v>
       </c>
       <c r="I150" s="9" t="b">
         <f>G150&gt;(3*H150)</f>
@@ -8490,10 +8561,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L150" s="10">
-        <v>8.3315705975674063E-5</v>
+        <v>2.2620306716023274E-4</v>
       </c>
       <c r="M150" s="10">
-        <v>4.9110103211432118E-6</v>
+        <v>2.1829618966314371E-5</v>
       </c>
       <c r="N150" s="6"/>
     </row>
@@ -8505,28 +8576,28 @@
         <v>101</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="G151" s="9">
         <f>((((L151/13650)/0.3)*0.0001)/K151)*1000000000</f>
-        <v>0.86307331151328692</v>
+        <v>-0.46274504233256003</v>
       </c>
       <c r="H151" s="9">
         <f>((((M151/13650)/0.3)*0.0001)/K151)*1000000000</f>
-        <v>5.2539731093462938E-2</v>
+        <v>7.221556793463299E-2</v>
       </c>
       <c r="I151" s="9" t="b">
         <f>G151&gt;(3*H151)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" s="2">
         <f>0.8/2</f>
@@ -8537,10 +8608,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L151" s="10">
-        <v>4.2411422527762918E-5</v>
+        <v>-2.2739291380222E-5</v>
       </c>
       <c r="M151" s="10">
-        <v>2.5818023859327688E-6</v>
+        <v>3.5486730083078659E-6</v>
       </c>
       <c r="N151" s="6"/>
     </row>
@@ -8552,28 +8623,28 @@
         <v>101</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="G152" s="9">
         <f>((((L152/13650)/0.3)*0.0001)/K152)*1000000000</f>
-        <v>-0.23944365562556721</v>
+        <v>3.8370173219459236</v>
       </c>
       <c r="H152" s="9">
         <f>((((M152/13650)/0.3)*0.0001)/K152)*1000000000</f>
-        <v>5.885721045671858E-2</v>
+        <v>0.18578702545718273</v>
       </c>
       <c r="I152" s="9" t="b">
         <f>G152&gt;(3*H152)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" s="2">
         <f>0.8/2</f>
@@ -8584,10 +8655,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L152" s="10">
-        <v>-1.1766261237440373E-5</v>
+        <v>1.8855103120042269E-4</v>
       </c>
       <c r="M152" s="10">
-        <v>2.8922433218431509E-6</v>
+        <v>9.1295744309659593E-6</v>
       </c>
       <c r="N152" s="6"/>
     </row>
@@ -8599,28 +8670,28 @@
         <v>101</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="G153" s="9">
         <f>((((L153/13650)/0.3)*0.0001)/K153)*1000000000</f>
-        <v>3.6314724310493833</v>
+        <v>-3.2273776324543242</v>
       </c>
       <c r="H153" s="9">
         <f>((((M153/13650)/0.3)*0.0001)/K153)*1000000000</f>
-        <v>6.5517386113777568E-2</v>
+        <v>0.12965421997935228</v>
       </c>
       <c r="I153" s="9" t="b">
         <f>G153&gt;(3*H153)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" s="2">
         <f>0.8/2</f>
@@ -8631,10 +8702,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L153" s="10">
-        <v>1.7845055526176669E-4</v>
+        <v>-1.5859333685880548E-4</v>
       </c>
       <c r="M153" s="10">
-        <v>3.2195243536310302E-6</v>
+        <v>6.3712083697853718E-6</v>
       </c>
       <c r="N153" s="6"/>
     </row>
@@ -8646,28 +8717,28 @@
         <v>101</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="G154" s="9">
         <f>((((L154/13650)/0.3)*0.0001)/K154)*1000000000</f>
-        <v>-1.8117006482950349</v>
+        <v>4.0958317002738163</v>
       </c>
       <c r="H154" s="9">
         <f>((((M154/13650)/0.3)*0.0001)/K154)*1000000000</f>
-        <v>7.3321884292776141E-2</v>
+        <v>8.2263705604243315E-2</v>
       </c>
       <c r="I154" s="9" t="b">
         <f>G154&gt;(3*H154)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" s="2">
         <f>0.8/2</f>
@@ -8678,10 +8749,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L154" s="10">
-        <v>-8.9026969857218026E-5</v>
+        <v>2.0126916975145534E-4</v>
       </c>
       <c r="M154" s="10">
-        <v>3.6030373941470199E-6</v>
+        <v>4.0424384933925161E-6</v>
       </c>
       <c r="N154" s="6"/>
     </row>
@@ -8693,24 +8764,24 @@
         <v>101</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>189</v>
+      </c>
+      <c r="F155" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="G155" s="9">
         <f>((((L155/13650)/0.3)*0.0001)/K155)*1000000000</f>
-        <v>16.730923658475241</v>
+        <v>2.3648423965716261</v>
       </c>
       <c r="H155" s="9">
         <f>((((M155/13650)/0.3)*0.0001)/K155)*1000000000</f>
-        <v>0.28056019306168167</v>
+        <v>0.15406062962650127</v>
       </c>
       <c r="I155" s="9" t="b">
         <f>G155&gt;(3*H155)</f>
@@ -8725,10 +8796,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L155" s="10">
-        <v>8.2215758857747334E-4</v>
+        <v>1.1620835536752971E-4</v>
       </c>
       <c r="M155" s="10">
-        <v>1.3786727887051038E-5</v>
+        <v>7.5705393398462726E-6</v>
       </c>
       <c r="N155" s="6"/>
     </row>
@@ -8740,24 +8811,24 @@
         <v>101</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>181</v>
+      </c>
+      <c r="F156" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="G156" s="9">
         <f>((((L156/13650)/0.3)*0.0001)/K156)*1000000000</f>
-        <v>12.712036773379973</v>
+        <v>2.7958409766976646</v>
       </c>
       <c r="H156" s="9">
         <f>((((M156/13650)/0.3)*0.0001)/K156)*1000000000</f>
-        <v>0.3093024335555174</v>
+        <v>6.3063609335972742E-2</v>
       </c>
       <c r="I156" s="9" t="b">
         <f>G156&gt;(3*H156)</f>
@@ -8772,10 +8843,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L156" s="10">
-        <v>6.2466948704389188E-4</v>
+        <v>1.3738762559492327E-4</v>
       </c>
       <c r="M156" s="10">
-        <v>1.5199121584918125E-5</v>
+        <v>3.0989457627697008E-6</v>
       </c>
       <c r="N156" s="6"/>
     </row>
@@ -8787,24 +8858,24 @@
         <v>101</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F157" s="18" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G157" s="9">
         <f>((((L157/13650)/0.3)*0.0001)/K157)*1000000000</f>
-        <v>1.2892292109637393</v>
+        <v>1.6954763120812795</v>
       </c>
       <c r="H157" s="9">
         <f>((((M157/13650)/0.3)*0.0001)/K157)*1000000000</f>
-        <v>0.15243762273748374</v>
+        <v>9.9939159974424346E-2</v>
       </c>
       <c r="I157" s="9" t="b">
         <f>G157&gt;(3*H157)</f>
@@ -8819,10 +8890,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L157" s="10">
-        <v>6.3352723426758154E-5</v>
+        <v>8.3315705975674063E-5</v>
       </c>
       <c r="M157" s="10">
-        <v>7.4907847813199507E-6</v>
+        <v>4.9110103211432118E-6</v>
       </c>
       <c r="N157" s="6"/>
     </row>
@@ -8834,28 +8905,28 @@
         <v>101</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F158" s="18" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G158" s="9">
         <f>((((L158/13650)/0.3)*0.0001)/K158)*1000000000</f>
-        <v>-3.7503871454162132</v>
+        <v>0.86307331151328692</v>
       </c>
       <c r="H158" s="9">
         <f>((((M158/13650)/0.3)*0.0001)/K158)*1000000000</f>
-        <v>0.17966559182253639</v>
+        <v>5.2539731093462938E-2</v>
       </c>
       <c r="I158" s="9" t="b">
         <f>G158&gt;(3*H158)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="2">
         <f>0.8/2</f>
@@ -8866,10 +8937,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L158" s="10">
-        <v>-1.8429402432575272E-4</v>
+        <v>4.2411422527762918E-5</v>
       </c>
       <c r="M158" s="10">
-        <v>8.8287671821594368E-6</v>
+        <v>2.5818023859327688E-6</v>
       </c>
       <c r="N158" s="6"/>
     </row>
@@ -8881,28 +8952,28 @@
         <v>101</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G159" s="9">
         <f>((((L159/13650)/0.3)*0.0001)/K159)*1000000000</f>
-        <v>4.6032370199477564</v>
+        <v>-0.23944365562556721</v>
       </c>
       <c r="H159" s="9">
         <f>((((M159/13650)/0.3)*0.0001)/K159)*1000000000</f>
-        <v>0.44423319019768764</v>
+        <v>5.885721045671858E-2</v>
       </c>
       <c r="I159" s="9" t="b">
         <f>G159&gt;(3*H159)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" s="2">
         <f>0.8/2</f>
@@ -8913,10 +8984,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L159" s="10">
-        <v>2.2620306716023274E-4</v>
+        <v>-1.1766261237440373E-5</v>
       </c>
       <c r="M159" s="10">
-        <v>2.1829618966314371E-5</v>
+        <v>2.8922433218431509E-6</v>
       </c>
       <c r="N159" s="6"/>
     </row>
@@ -8928,28 +8999,28 @@
         <v>101</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G160" s="9">
         <f>((((L160/13650)/0.3)*0.0001)/K160)*1000000000</f>
-        <v>-0.46274504233256003</v>
+        <v>3.6314724310493833</v>
       </c>
       <c r="H160" s="9">
         <f>((((M160/13650)/0.3)*0.0001)/K160)*1000000000</f>
-        <v>7.221556793463299E-2</v>
+        <v>6.5517386113777568E-2</v>
       </c>
       <c r="I160" s="9" t="b">
         <f>G160&gt;(3*H160)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" s="2">
         <f>0.8/2</f>
@@ -8960,10 +9031,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L160" s="10">
-        <v>-2.2739291380222E-5</v>
+        <v>1.7845055526176669E-4</v>
       </c>
       <c r="M160" s="10">
-        <v>3.5486730083078659E-6</v>
+        <v>3.2195243536310302E-6</v>
       </c>
       <c r="N160" s="6"/>
     </row>
@@ -8975,28 +9046,28 @@
         <v>101</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F161" s="18" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="G161" s="9">
         <f>((((L161/13650)/0.3)*0.0001)/K161)*1000000000</f>
-        <v>3.8370173219459236</v>
+        <v>-1.8117006482950349</v>
       </c>
       <c r="H161" s="9">
         <f>((((M161/13650)/0.3)*0.0001)/K161)*1000000000</f>
-        <v>0.18578702545718273</v>
+        <v>7.3321884292776141E-2</v>
       </c>
       <c r="I161" s="9" t="b">
         <f>G161&gt;(3*H161)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" s="2">
         <f>0.8/2</f>
@@ -9007,10 +9078,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L161" s="10">
-        <v>1.8855103120042269E-4</v>
+        <v>-8.9026969857218026E-5</v>
       </c>
       <c r="M161" s="10">
-        <v>9.1295744309659593E-6</v>
+        <v>3.6030373941470199E-6</v>
       </c>
       <c r="N161" s="6"/>
     </row>
@@ -9019,31 +9090,31 @@
         <v>44904</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F162" s="18" t="s">
-        <v>138</v>
+        <v>24</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G162" s="9">
         <f>((((L162/13650)/0.3)*0.0001)/K162)*1000000000</f>
-        <v>-3.2273776324543242</v>
+        <v>15.428242556745991</v>
       </c>
       <c r="H162" s="9">
         <f>((((M162/13650)/0.3)*0.0001)/K162)*1000000000</f>
-        <v>0.12965421997935228</v>
+        <v>0.27554045230411733</v>
       </c>
       <c r="I162" s="9" t="b">
         <f>G162&gt;(3*H162)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" s="2">
         <f>0.8/2</f>
@@ -9054,10 +9125,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L162" s="10">
-        <v>-1.5859333685880548E-4</v>
+        <v>7.5814383923849789E-4</v>
       </c>
       <c r="M162" s="10">
-        <v>6.3712083697853718E-6</v>
+        <v>1.3540057826224326E-5</v>
       </c>
       <c r="N162" s="6"/>
     </row>
@@ -9066,27 +9137,27 @@
         <v>44904</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F163" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G163" s="9">
         <f>((((L163/13650)/0.3)*0.0001)/K163)*1000000000</f>
-        <v>4.0958317002738163</v>
+        <v>15.366363859224775</v>
       </c>
       <c r="H163" s="9">
         <f>((((M163/13650)/0.3)*0.0001)/K163)*1000000000</f>
-        <v>8.2263705604243315E-2</v>
+        <v>0.36688412728257241</v>
       </c>
       <c r="I163" s="9" t="b">
         <f>G163&gt;(3*H163)</f>
@@ -9101,10 +9172,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L163" s="10">
-        <v>2.0126916975145534E-4</v>
+        <v>7.5510312004230544E-4</v>
       </c>
       <c r="M163" s="10">
-        <v>4.0424384933925161E-6</v>
+        <v>1.8028686014665611E-5</v>
       </c>
       <c r="N163" s="6"/>
     </row>
@@ -9956,16 +10027,16 @@
     </row>
     <row r="182" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C182" s="14" t="s">
         <v>191</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="E182" s="4" t="s">
         <v>24</v>
@@ -9975,11 +10046,11 @@
       </c>
       <c r="G182" s="9">
         <f>((((L182/13650)/0.3)*0.0001)/K182)*1000000000</f>
-        <v>15.428242556745991</v>
+        <v>15.489583178636575</v>
       </c>
       <c r="H182" s="9">
         <f>((((M182/13650)/0.3)*0.0001)/K182)*1000000000</f>
-        <v>0.27554045230411733</v>
+        <v>0.26240662754983324</v>
       </c>
       <c r="I182" s="9" t="b">
         <f>G182&gt;(3*H182)</f>
@@ -9994,25 +10065,25 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L182" s="10">
-        <v>7.5814383923849789E-4</v>
+        <v>7.6115811739820136E-4</v>
       </c>
       <c r="M182" s="10">
-        <v>1.3540057826224326E-5</v>
+        <v>1.2894661677798806E-5</v>
       </c>
       <c r="N182" s="6"/>
     </row>
     <row r="183" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="13">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C183" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>122</v>
@@ -10022,11 +10093,11 @@
       </c>
       <c r="G183" s="9">
         <f>((((L183/13650)/0.3)*0.0001)/K183)*1000000000</f>
-        <v>15.366363859224775</v>
+        <v>10.957910217561173</v>
       </c>
       <c r="H183" s="9">
         <f>((((M183/13650)/0.3)*0.0001)/K183)*1000000000</f>
-        <v>0.36688412728257241</v>
+        <v>0.28918278604340825</v>
       </c>
       <c r="I183" s="9" t="b">
         <f>G183&gt;(3*H183)</f>
@@ -10041,10 +10112,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L183" s="10">
-        <v>7.5510312004230544E-4</v>
+        <v>5.3847170809095599E-4</v>
       </c>
       <c r="M183" s="10">
-        <v>1.8028686014665611E-5</v>
+        <v>1.421044210617308E-5</v>
       </c>
       <c r="N183" s="6"/>
     </row>
@@ -10056,24 +10127,24 @@
         <v>101</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E184" s="4">
-        <v>920</v>
+        <v>2664</v>
       </c>
       <c r="F184" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G184" s="9">
         <f>((((L184/13650)/0.3)*0.0001)/K184)*1000000000</f>
-        <v>4.8792698184554268</v>
+        <v>1.0971362108326497</v>
       </c>
       <c r="H184" s="9">
         <f>((((M184/13650)/0.3)*0.0001)/K184)*1000000000</f>
-        <v>0.10542633758623529</v>
+        <v>0.20117632647430156</v>
       </c>
       <c r="I184" s="9" t="b">
         <f>G184&gt;(3*H184)</f>
@@ -10088,10 +10159,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L184" s="10">
-        <v>2.3976731887889968E-4</v>
+        <v>5.3913273400316394E-5</v>
       </c>
       <c r="M184" s="10">
-        <v>5.180650228987602E-6</v>
+        <v>9.8858046829471769E-6</v>
       </c>
       <c r="N184" s="6"/>
     </row>
@@ -10103,24 +10174,24 @@
         <v>101</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E185" s="4">
-        <v>921</v>
-      </c>
-      <c r="F185" s="18" t="s">
+        <v>2665</v>
+      </c>
+      <c r="F185" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G185" s="9">
         <f>((((L185/13650)/0.3)*0.0001)/K185)*1000000000</f>
-        <v>-0.30347465566930809</v>
+        <v>-3.9984400111317462</v>
       </c>
       <c r="H185" s="9">
         <f>((((M185/13650)/0.3)*0.0001)/K185)*1000000000</f>
-        <v>0.1807396614772574</v>
+        <v>0.12413586820020726</v>
       </c>
       <c r="I185" s="9" t="b">
         <f>G185&gt;(3*H185)</f>
@@ -10135,10 +10206,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L185" s="10">
-        <v>-1.49127445795898E-5</v>
+        <v>-1.9648334214701402E-4</v>
       </c>
       <c r="M185" s="10">
-        <v>8.881546964992428E-6</v>
+        <v>6.1000365633581855E-6</v>
       </c>
       <c r="N185" s="6"/>
     </row>
@@ -10150,28 +10221,28 @@
         <v>101</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E186" s="4">
-        <v>923</v>
+        <v>2666</v>
       </c>
       <c r="F186" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G186" s="9">
         <f>((((L186/13650)/0.3)*0.0001)/K186)*1000000000</f>
-        <v>-0.36750565571298938</v>
+        <v>3.5695937335281607</v>
       </c>
       <c r="H186" s="9">
         <f>((((M186/13650)/0.3)*0.0001)/K186)*1000000000</f>
-        <v>7.2268245687030774E-2</v>
+        <v>0.11285560907199926</v>
       </c>
       <c r="I186" s="9" t="b">
         <f>G186&gt;(3*H186)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" s="2">
         <f>0.8/2</f>
@@ -10182,10 +10253,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L186" s="10">
-        <v>-1.8059227921736298E-5</v>
+        <v>1.7540983606557383E-4</v>
       </c>
       <c r="M186" s="10">
-        <v>3.5512615930606921E-6</v>
+        <v>5.5457246297980444E-6</v>
       </c>
       <c r="N186" s="6"/>
     </row>
@@ -10197,28 +10268,28 @@
         <v>101</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E187" s="4">
-        <v>925</v>
-      </c>
-      <c r="F187" s="4" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F187" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G187" s="9">
         <f>((((L187/13650)/0.3)*0.0001)/K187)*1000000000</f>
-        <v>2.0931142031088692</v>
+        <v>-0.25773822706661137</v>
       </c>
       <c r="H187" s="9">
         <f>((((M187/13650)/0.3)*0.0001)/K187)*1000000000</f>
-        <v>0.12780124193662235</v>
+        <v>0.15183081061913123</v>
       </c>
       <c r="I187" s="9" t="b">
         <f>G187&gt;(3*H187)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" s="2">
         <f>0.8/2</f>
@@ -10229,10 +10300,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L187" s="10">
-        <v>1.0285563194076983E-4</v>
+        <v>-1.2665256478053283E-5</v>
       </c>
       <c r="M187" s="10">
-        <v>6.280153028765622E-6</v>
+        <v>7.4609660338241081E-6</v>
       </c>
       <c r="N187" s="6"/>
     </row>
@@ -10244,24 +10315,24 @@
         <v>101</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D188" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E188" s="4">
-        <v>2664</v>
+        <v>2670</v>
       </c>
       <c r="F188" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G188" s="9">
         <f>((((L188/13650)/0.3)*0.0001)/K188)*1000000000</f>
-        <v>1.0971362108326497</v>
+        <v>4.8475233562488587</v>
       </c>
       <c r="H188" s="9">
         <f>((((M188/13650)/0.3)*0.0001)/K188)*1000000000</f>
-        <v>0.20117632647430156</v>
+        <v>4.6491125675615752E-2</v>
       </c>
       <c r="I188" s="9" t="b">
         <f>G188&gt;(3*H188)</f>
@@ -10276,10 +10347,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L188" s="10">
-        <v>5.3913273400316394E-5</v>
+        <v>2.3820729772606889E-4</v>
       </c>
       <c r="M188" s="10">
-        <v>9.8858046829471769E-6</v>
+        <v>2.2845739156997577E-6</v>
       </c>
       <c r="N188" s="6"/>
     </row>
@@ -10291,28 +10362,28 @@
         <v>101</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D189" s="14" t="s">
         <v>45</v>
       </c>
       <c r="E189" s="4">
-        <v>2665</v>
-      </c>
-      <c r="F189" s="4" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F189" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G189" s="9">
         <f>((((L189/13650)/0.3)*0.0001)/K189)*1000000000</f>
-        <v>-3.9984400111317462</v>
+        <v>2.5461738840903267</v>
       </c>
       <c r="H189" s="9">
         <f>((((M189/13650)/0.3)*0.0001)/K189)*1000000000</f>
-        <v>0.12413586820020726</v>
+        <v>8.2482933535529462E-2</v>
       </c>
       <c r="I189" s="9" t="b">
         <f>G189&gt;(3*H189)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" s="2">
         <f>0.8/2</f>
@@ -10323,10 +10394,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L189" s="10">
-        <v>-1.9648334214701402E-4</v>
+        <v>1.2511898466419864E-4</v>
       </c>
       <c r="M189" s="10">
-        <v>6.1000365633581855E-6</v>
+        <v>4.0532113539359176E-6</v>
       </c>
       <c r="N189" s="6"/>
     </row>
@@ -10338,28 +10409,28 @@
         <v>101</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D190" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E190" s="4">
-        <v>2666</v>
-      </c>
-      <c r="F190" s="18" t="s">
-        <v>93</v>
+      <c r="E190" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="G190" s="9">
         <f>((((L190/13650)/0.3)*0.0001)/K190)*1000000000</f>
-        <v>3.5695937335281607</v>
+        <v>-5.5674685500174732</v>
       </c>
       <c r="H190" s="9">
         <f>((((M190/13650)/0.3)*0.0001)/K190)*1000000000</f>
-        <v>0.11285560907199926</v>
+        <v>0.19449110723680377</v>
       </c>
       <c r="I190" s="9" t="b">
         <f>G190&gt;(3*H190)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" s="2">
         <f>0.8/2</f>
@@ -10370,10 +10441,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L190" s="10">
-        <v>1.7540983606557383E-4</v>
+        <v>-2.7358540454785866E-4</v>
       </c>
       <c r="M190" s="10">
-        <v>5.5457246297980444E-6</v>
+        <v>9.5572930096165378E-6</v>
       </c>
       <c r="N190" s="6"/>
     </row>
@@ -10385,28 +10456,28 @@
         <v>101</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D191" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E191" s="4">
-        <v>2667</v>
+      <c r="E191" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G191" s="9">
         <f>((((L191/13650)/0.3)*0.0001)/K191)*1000000000</f>
-        <v>-0.25773822706661137</v>
+        <v>1.8326855978892256</v>
       </c>
       <c r="H191" s="9">
         <f>((((M191/13650)/0.3)*0.0001)/K191)*1000000000</f>
-        <v>0.15183081061913123</v>
+        <v>7.2297200393431515E-2</v>
       </c>
       <c r="I191" s="9" t="b">
         <f>G191&gt;(3*H191)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" s="2">
         <f>0.8/2</f>
@@ -10417,10 +10488,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L191" s="10">
-        <v>-1.2665256478053283E-5</v>
+        <v>9.0058170280276544E-5</v>
       </c>
       <c r="M191" s="10">
-        <v>7.4609660338241081E-6</v>
+        <v>3.5526844273332251E-6</v>
       </c>
       <c r="N191" s="6"/>
     </row>
@@ -10432,24 +10503,24 @@
         <v>101</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E192" s="4">
-        <v>2670</v>
+        <v>920</v>
       </c>
       <c r="F192" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G192" s="9">
         <f>((((L192/13650)/0.3)*0.0001)/K192)*1000000000</f>
-        <v>4.8475233562488587</v>
+        <v>4.8792698184554268</v>
       </c>
       <c r="H192" s="9">
         <f>((((M192/13650)/0.3)*0.0001)/K192)*1000000000</f>
-        <v>4.6491125675615752E-2</v>
+        <v>0.10542633758623529</v>
       </c>
       <c r="I192" s="9" t="b">
         <f>G192&gt;(3*H192)</f>
@@ -10464,10 +10535,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L192" s="10">
-        <v>2.3820729772606889E-4</v>
+        <v>2.3976731887889968E-4</v>
       </c>
       <c r="M192" s="10">
-        <v>2.2845739156997577E-6</v>
+        <v>5.180650228987602E-6</v>
       </c>
       <c r="N192" s="6"/>
     </row>
@@ -10479,28 +10550,28 @@
         <v>101</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E193" s="4">
-        <v>2671</v>
+        <v>921</v>
       </c>
       <c r="F193" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G193" s="9">
         <f>((((L193/13650)/0.3)*0.0001)/K193)*1000000000</f>
-        <v>2.5461738840903267</v>
+        <v>-0.30347465566930809</v>
       </c>
       <c r="H193" s="9">
         <f>((((M193/13650)/0.3)*0.0001)/K193)*1000000000</f>
-        <v>8.2482933535529462E-2</v>
+        <v>0.1807396614772574</v>
       </c>
       <c r="I193" s="9" t="b">
         <f>G193&gt;(3*H193)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" s="2">
         <f>0.8/2</f>
@@ -10511,10 +10582,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L193" s="10">
-        <v>1.2511898466419864E-4</v>
+        <v>-1.49127445795898E-5</v>
       </c>
       <c r="M193" s="10">
-        <v>4.0532113539359176E-6</v>
+        <v>8.881546964992428E-6</v>
       </c>
       <c r="N193" s="6"/>
     </row>
@@ -10526,24 +10597,24 @@
         <v>101</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F194" s="4" t="s">
-        <v>47</v>
+        <v>123</v>
+      </c>
+      <c r="E194" s="4">
+        <v>923</v>
+      </c>
+      <c r="F194" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="G194" s="9">
         <f>((((L194/13650)/0.3)*0.0001)/K194)*1000000000</f>
-        <v>-5.5674685500174732</v>
+        <v>-0.36750565571298938</v>
       </c>
       <c r="H194" s="9">
         <f>((((M194/13650)/0.3)*0.0001)/K194)*1000000000</f>
-        <v>0.19449110723680377</v>
+        <v>7.2268245687030774E-2</v>
       </c>
       <c r="I194" s="9" t="b">
         <f>G194&gt;(3*H194)</f>
@@ -10558,10 +10629,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L194" s="10">
-        <v>-2.7358540454785866E-4</v>
+        <v>-1.8059227921736298E-5</v>
       </c>
       <c r="M194" s="10">
-        <v>9.5572930096165378E-6</v>
+        <v>3.5512615930606921E-6</v>
       </c>
       <c r="N194" s="6"/>
     </row>
@@ -10573,28 +10644,28 @@
         <v>101</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F195" s="18" t="s">
-        <v>171</v>
+        <v>123</v>
+      </c>
+      <c r="E195" s="4">
+        <v>925</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="G195" s="9">
         <f>((((L195/13650)/0.3)*0.0001)/K195)*1000000000</f>
-        <v>0.17971726062680624</v>
+        <v>2.0931142031088692</v>
       </c>
       <c r="H195" s="9">
         <f>((((M195/13650)/0.3)*0.0001)/K195)*1000000000</f>
-        <v>0.35227331431328113</v>
+        <v>0.12780124193662235</v>
       </c>
       <c r="I195" s="9" t="b">
         <f>G195&gt;(3*H195)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" s="2">
         <f>0.8/2</f>
@@ -10605,10 +10676,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L195" s="10">
-        <v>8.8313061872012586E-6</v>
+        <v>1.0285563194076983E-4</v>
       </c>
       <c r="M195" s="10">
-        <v>1.7310710665354633E-5</v>
+        <v>6.280153028765622E-6</v>
       </c>
       <c r="N195" s="6"/>
     </row>
@@ -10620,24 +10691,24 @@
         <v>101</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="G196" s="9">
         <f>((((L196/13650)/0.3)*0.0001)/K196)*1000000000</f>
-        <v>8.1028809214953643</v>
+        <v>2.947578304532299</v>
       </c>
       <c r="H196" s="9">
         <f>((((M196/13650)/0.3)*0.0001)/K196)*1000000000</f>
-        <v>0.273951797716178</v>
+        <v>0.19758958528674772</v>
       </c>
       <c r="I196" s="9" t="b">
         <f>G196&gt;(3*H196)</f>
@@ -10652,10 +10723,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L196" s="10">
-        <v>3.9817556848228221E-4</v>
+        <v>1.4484399788471715E-4</v>
       </c>
       <c r="M196" s="10">
-        <v>1.3461991339772984E-5</v>
+        <v>9.7095522209907821E-6</v>
       </c>
       <c r="N196" s="6"/>
     </row>
@@ -10667,28 +10738,28 @@
         <v>101</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="G197" s="9">
         <f>((((L197/13650)/0.3)*0.0001)/K197)*1000000000</f>
-        <v>1.8326855978892256</v>
+        <v>-0.25773822706661137</v>
       </c>
       <c r="H197" s="9">
         <f>((((M197/13650)/0.3)*0.0001)/K197)*1000000000</f>
-        <v>7.2297200393431515E-2</v>
+        <v>0.15183081061913123</v>
       </c>
       <c r="I197" s="9" t="b">
         <f>G197&gt;(3*H197)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" s="2">
         <f>0.8/2</f>
@@ -10699,10 +10770,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L197" s="10">
-        <v>9.0058170280276544E-5</v>
+        <v>-1.2665256478053283E-5</v>
       </c>
       <c r="M197" s="10">
-        <v>3.5526844273332251E-6</v>
+        <v>7.4609660338241081E-6</v>
       </c>
       <c r="N197" s="6"/>
     </row>
@@ -10714,28 +10785,28 @@
         <v>101</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
+      </c>
+      <c r="F198" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="G198" s="9">
         <f>((((L198/13650)/0.3)*0.0001)/K198)*1000000000</f>
-        <v>15.489583178636575</v>
+        <v>0.17971726062680624</v>
       </c>
       <c r="H198" s="9">
         <f>((((M198/13650)/0.3)*0.0001)/K198)*1000000000</f>
-        <v>0.26240662754983324</v>
+        <v>0.35227331431328113</v>
       </c>
       <c r="I198" s="9" t="b">
         <f>G198&gt;(3*H198)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" s="2">
         <f>0.8/2</f>
@@ -10746,10 +10817,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L198" s="10">
-        <v>7.6115811739820136E-4</v>
+        <v>8.8313061872012586E-6</v>
       </c>
       <c r="M198" s="10">
-        <v>1.2894661677798806E-5</v>
+        <v>1.7310710665354633E-5</v>
       </c>
       <c r="N198" s="6"/>
     </row>
@@ -10761,24 +10832,24 @@
         <v>101</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>9</v>
+        <v>190</v>
+      </c>
+      <c r="F199" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="G199" s="9">
         <f>((((L199/13650)/0.3)*0.0001)/K199)*1000000000</f>
-        <v>10.957910217561173</v>
+        <v>8.1028809214953643</v>
       </c>
       <c r="H199" s="9">
         <f>((((M199/13650)/0.3)*0.0001)/K199)*1000000000</f>
-        <v>0.28918278604340825</v>
+        <v>0.273951797716178</v>
       </c>
       <c r="I199" s="9" t="b">
         <f>G199&gt;(3*H199)</f>
@@ -10793,10 +10864,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L199" s="10">
-        <v>5.3847170809095599E-4</v>
+        <v>3.9817556848228221E-4</v>
       </c>
       <c r="M199" s="10">
-        <v>1.421044210617308E-5</v>
+        <v>1.3461991339772984E-5</v>
       </c>
       <c r="N199" s="6"/>
     </row>
@@ -10852,27 +10923,27 @@
         <v>44907</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F201" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G201" s="9">
         <f>((((L201/13650)/0.3)*0.0001)/K201)*1000000000</f>
-        <v>2.947578304532299</v>
+        <v>11.577773344034592</v>
       </c>
       <c r="H201" s="9">
         <f>((((M201/13650)/0.3)*0.0001)/K201)*1000000000</f>
-        <v>0.19758958528674772</v>
+        <v>0.37109470727903182</v>
       </c>
       <c r="I201" s="9" t="b">
         <f>G201&gt;(3*H201)</f>
@@ -10887,10 +10958,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L201" s="10">
-        <v>1.4484399788471715E-4</v>
+        <v>5.6893178212585969E-4</v>
       </c>
       <c r="M201" s="10">
-        <v>9.7095522209907821E-6</v>
+        <v>1.8235593915691625E-5</v>
       </c>
       <c r="N201" s="6"/>
     </row>
@@ -10899,31 +10970,31 @@
         <v>44907</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="F202" s="18" t="s">
-        <v>138</v>
+        <v>122</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="G202" s="9">
         <f>((((L202/13650)/0.3)*0.0001)/K202)*1000000000</f>
-        <v>-0.25773822706661137</v>
+        <v>12.90412977351107</v>
       </c>
       <c r="H202" s="9">
         <f>((((M202/13650)/0.3)*0.0001)/K202)*1000000000</f>
-        <v>0.15183081061913123</v>
+        <v>0.29461487399422653</v>
       </c>
       <c r="I202" s="9" t="b">
         <f>G202&gt;(3*H202)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" s="2">
         <f>0.8/2</f>
@@ -10934,10 +11005,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L202" s="10">
-        <v>-1.2665256478053283E-5</v>
+        <v>6.3410893707033385E-4</v>
       </c>
       <c r="M202" s="10">
-        <v>7.4609660338241081E-6</v>
+        <v>1.4477374908076293E-5</v>
       </c>
       <c r="N202" s="6"/>
     </row>
@@ -10949,28 +11020,28 @@
         <v>99</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="E203" s="4">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="F203" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G203" s="9">
         <f>((((L203/13650)/0.3)*0.0001)/K203)*1000000000</f>
-        <v>7.1983757864244327</v>
+        <v>-0.88405826110743646</v>
       </c>
       <c r="H203" s="9">
         <f>((((M203/13650)/0.3)*0.0001)/K203)*1000000000</f>
-        <v>0.22231911993605874</v>
+        <v>9.7523913889662223E-2</v>
       </c>
       <c r="I203" s="9" t="b">
         <f>G203&gt;(3*H203)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" s="2">
         <f>0.8/2</f>
@@ -10981,10 +11052,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L203" s="10">
-        <v>3.5372818614489663E-4</v>
+        <v>-4.3442622950819423E-5</v>
       </c>
       <c r="M203" s="10">
-        <v>1.0924761553657925E-5</v>
+        <v>4.792325128538001E-6</v>
       </c>
       <c r="N203" s="6"/>
     </row>
@@ -10996,24 +11067,24 @@
         <v>99</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D204" s="14" t="s">
         <v>128</v>
       </c>
       <c r="E204" s="4">
-        <v>1569</v>
+        <v>2070</v>
       </c>
       <c r="F204" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G204" s="9">
         <f>((((L204/13650)/0.3)*0.0001)/K204)*1000000000</f>
-        <v>-0.88405826110743646</v>
+        <v>-2.0102505559935673</v>
       </c>
       <c r="H204" s="9">
         <f>((((M204/13650)/0.3)*0.0001)/K204)*1000000000</f>
-        <v>9.7523913889662223E-2</v>
+        <v>0.16760940613430572</v>
       </c>
       <c r="I204" s="9" t="b">
         <f>G204&gt;(3*H204)</f>
@@ -11028,10 +11099,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L204" s="10">
-        <v>-4.3442622950819423E-5</v>
+        <v>-9.8783712321523902E-5</v>
       </c>
       <c r="M204" s="10">
-        <v>4.792325128538001E-6</v>
+        <v>8.2363262174397854E-6</v>
       </c>
       <c r="N204" s="6"/>
     </row>
@@ -11043,24 +11114,24 @@
         <v>99</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D205" s="14" t="s">
         <v>128</v>
       </c>
       <c r="E205" s="4">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="F205" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G205" s="9">
         <f>((((L205/13650)/0.3)*0.0001)/K205)*1000000000</f>
-        <v>-2.0102505559935673</v>
+        <v>-0.11514818495253451</v>
       </c>
       <c r="H205" s="9">
         <f>((((M205/13650)/0.3)*0.0001)/K205)*1000000000</f>
-        <v>0.16760940613430572</v>
+        <v>5.0346696336917192E-2</v>
       </c>
       <c r="I205" s="9" t="b">
         <f>G205&gt;(3*H205)</f>
@@ -11075,10 +11146,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L205" s="10">
-        <v>-9.8783712321523902E-5</v>
+        <v>-5.6583818085675459E-6</v>
       </c>
       <c r="M205" s="10">
-        <v>8.2363262174397854E-6</v>
+        <v>2.474036657996111E-6</v>
       </c>
       <c r="N205" s="6"/>
     </row>
@@ -11090,28 +11161,28 @@
         <v>99</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="E206" s="4">
-        <v>2071</v>
+        <v>1568</v>
       </c>
       <c r="F206" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G206" s="9">
         <f>((((L206/13650)/0.3)*0.0001)/K206)*1000000000</f>
-        <v>-0.11514818495253451</v>
+        <v>7.1983757864244327</v>
       </c>
       <c r="H206" s="9">
         <f>((((M206/13650)/0.3)*0.0001)/K206)*1000000000</f>
-        <v>5.0346696336917192E-2</v>
+        <v>0.22231911993605874</v>
       </c>
       <c r="I206" s="9" t="b">
         <f>G206&gt;(3*H206)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" s="2">
         <f>0.8/2</f>
@@ -11122,10 +11193,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L206" s="10">
-        <v>-5.6583818085675459E-6</v>
+        <v>3.5372818614489663E-4</v>
       </c>
       <c r="M206" s="10">
-        <v>2.474036657996111E-6</v>
+        <v>1.0924761553657925E-5</v>
       </c>
       <c r="N206" s="6"/>
     </row>
@@ -11278,24 +11349,24 @@
         <v>99</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G210" s="9">
         <f>((((L210/13650)/0.3)*0.0001)/K210)*1000000000</f>
-        <v>11.577773344034592</v>
+        <v>7.5083073496611252</v>
       </c>
       <c r="H210" s="9">
         <f>((((M210/13650)/0.3)*0.0001)/K210)*1000000000</f>
-        <v>0.37109470727903182</v>
+        <v>0.12540514198786656</v>
       </c>
       <c r="I210" s="9" t="b">
         <f>G210&gt;(3*H210)</f>
@@ -11310,10 +11381,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L210" s="10">
-        <v>5.6893178212585969E-4</v>
+        <v>3.6895822316234772E-4</v>
       </c>
       <c r="M210" s="10">
-        <v>1.8235593915691625E-5</v>
+        <v>6.1624086772837633E-6</v>
       </c>
       <c r="N210" s="6"/>
     </row>
@@ -11325,24 +11396,24 @@
         <v>99</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G211" s="9">
         <f>((((L211/13650)/0.3)*0.0001)/K211)*1000000000</f>
-        <v>12.90412977351107</v>
+        <v>17.298593448778551</v>
       </c>
       <c r="H211" s="9">
         <f>((((M211/13650)/0.3)*0.0001)/K211)*1000000000</f>
-        <v>0.29461487399422653</v>
+        <v>0.28832511095129792</v>
       </c>
       <c r="I211" s="9" t="b">
         <f>G211&gt;(3*H211)</f>
@@ -11357,10 +11428,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L211" s="10">
-        <v>6.3410893707033385E-4</v>
+        <v>8.5005288207297815E-4</v>
       </c>
       <c r="M211" s="10">
-        <v>1.4477374908076293E-5</v>
+        <v>1.4168295952146781E-5</v>
       </c>
       <c r="N211" s="6"/>
     </row>
@@ -11372,24 +11443,24 @@
         <v>99</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D212" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G212" s="9">
         <f>((((L212/13650)/0.3)*0.0001)/K212)*1000000000</f>
-        <v>7.5083073496611252</v>
+        <v>29.029718347539568</v>
       </c>
       <c r="H212" s="9">
         <f>((((M212/13650)/0.3)*0.0001)/K212)*1000000000</f>
-        <v>0.12540514198786656</v>
+        <v>0.68613563399792898</v>
       </c>
       <c r="I212" s="9" t="b">
         <f>G212&gt;(3*H212)</f>
@@ -11404,10 +11475,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L212" s="10">
-        <v>3.6895822316234772E-4</v>
+        <v>1.4265203595980945E-3</v>
       </c>
       <c r="M212" s="10">
-        <v>6.1624086772837633E-6</v>
+        <v>3.3716705054658225E-5</v>
       </c>
       <c r="N212" s="6"/>
     </row>
@@ -11419,24 +11490,24 @@
         <v>99</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D213" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G213" s="9">
         <f>((((L213/13650)/0.3)*0.0001)/K213)*1000000000</f>
-        <v>17.298593448778551</v>
+        <v>15.226464195263775</v>
       </c>
       <c r="H213" s="9">
         <f>((((M213/13650)/0.3)*0.0001)/K213)*1000000000</f>
-        <v>0.28832511095129792</v>
+        <v>0.24832094756704609</v>
       </c>
       <c r="I213" s="9" t="b">
         <f>G213&gt;(3*H213)</f>
@@ -11451,10 +11522,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L213" s="10">
-        <v>8.5005288207297815E-4</v>
+        <v>7.4822845055526192E-4</v>
       </c>
       <c r="M213" s="10">
-        <v>1.4168295952146781E-5</v>
+        <v>1.2202491363444645E-5</v>
       </c>
       <c r="N213" s="6"/>
     </row>
@@ -11466,24 +11537,24 @@
         <v>99</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G214" s="9">
         <f>((((L214/13650)/0.3)*0.0001)/K214)*1000000000</f>
-        <v>18.318246768802041</v>
+        <v>12.236915991543185</v>
       </c>
       <c r="H214" s="9">
         <f>((((M214/13650)/0.3)*0.0001)/K214)*1000000000</f>
-        <v>0.53027445591523659</v>
+        <v>0.2835911652993881</v>
       </c>
       <c r="I214" s="9" t="b">
         <f>G214&gt;(3*H214)</f>
@@ -11498,10 +11569,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L214" s="10">
-        <v>9.0015864621893228E-4</v>
+        <v>6.0132205182443206E-4</v>
       </c>
       <c r="M214" s="10">
-        <v>2.6057686763674722E-5</v>
+        <v>1.3935669862811934E-5</v>
       </c>
       <c r="N214" s="6"/>
     </row>
@@ -11513,24 +11584,24 @@
         <v>99</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D215" s="14" t="s">
         <v>102</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G215" s="9">
         <f>((((L215/13650)/0.3)*0.0001)/K215)*1000000000</f>
-        <v>29.029718347539568</v>
+        <v>20.390914097947395</v>
       </c>
       <c r="H215" s="9">
         <f>((((M215/13650)/0.3)*0.0001)/K215)*1000000000</f>
-        <v>0.68613563399792898</v>
+        <v>0.46274962348198839</v>
       </c>
       <c r="I215" s="9" t="b">
         <f>G215&gt;(3*H215)</f>
@@ -11545,10 +11616,10 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L215" s="10">
-        <v>1.4265203595980945E-3</v>
+        <v>1.002009518773135E-3</v>
       </c>
       <c r="M215" s="10">
-        <v>3.3716705054658225E-5</v>
+        <v>2.2739516497904911E-5</v>
       </c>
       <c r="N215" s="6"/>
     </row>
@@ -11560,24 +11631,24 @@
         <v>99</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G216" s="9">
         <f>((((L216/13650)/0.3)*0.0001)/K216)*1000000000</f>
-        <v>15.226464195263775</v>
+        <v>18.318246768802041</v>
       </c>
       <c r="H216" s="9">
         <f>((((M216/13650)/0.3)*0.0001)/K216)*1000000000</f>
-        <v>0.24832094756704609</v>
+        <v>0.53027445591523659</v>
       </c>
       <c r="I216" s="9" t="b">
         <f>G216&gt;(3*H216)</f>
@@ -11592,43 +11663,43 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L216" s="10">
-        <v>7.4822845055526192E-4</v>
+        <v>9.0015864621893228E-4</v>
       </c>
       <c r="M216" s="10">
-        <v>1.2202491363444645E-5</v>
+        <v>2.6057686763674722E-5</v>
       </c>
       <c r="N216" s="6"/>
     </row>
     <row r="217" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="13">
-        <v>44907</v>
+        <v>44916</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F217" s="2" t="s">
-        <v>9</v>
+        <v>308</v>
+      </c>
+      <c r="E217" t="s">
+        <v>286</v>
+      </c>
+      <c r="F217" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="G217" s="9">
         <f>((((L217/13650)/0.3)*0.0001)/K217)*1000000000</f>
-        <v>12.236915991543185</v>
+        <v>-0.56659363904206828</v>
       </c>
       <c r="H217" s="9">
         <f>((((M217/13650)/0.3)*0.0001)/K217)*1000000000</f>
-        <v>0.2835911652993881</v>
+        <v>4.2101522492744986E-2</v>
       </c>
       <c r="I217" s="9" t="b">
         <f>G217&gt;(3*H217)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2">
         <f>0.8/2</f>
@@ -11639,39 +11710,39 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L217" s="10">
-        <v>6.0132205182443206E-4</v>
+        <v>-2.7842411422527234E-5</v>
       </c>
       <c r="M217" s="10">
-        <v>1.3935669862811934E-5</v>
+        <v>2.0688688152934887E-6</v>
       </c>
       <c r="N217" s="6"/>
     </row>
     <row r="218" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="13">
-        <v>44907</v>
+        <v>44917</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D218" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>9</v>
+        <v>193</v>
+      </c>
+      <c r="D218" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E218">
+        <v>2669</v>
+      </c>
+      <c r="F218" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="G218" s="9">
         <f>((((L218/13650)/0.3)*0.0001)/K218)*1000000000</f>
-        <v>20.390914097947395</v>
+        <v>0.96961228637590258</v>
       </c>
       <c r="H218" s="9">
         <f>((((M218/13650)/0.3)*0.0001)/K218)*1000000000</f>
-        <v>0.46274962348198839</v>
+        <v>6.2370055357703229E-2</v>
       </c>
       <c r="I218" s="9" t="b">
         <f>G218&gt;(3*H218)</f>
@@ -11686,188 +11757,204 @@
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L218" s="10">
-        <v>1.002009518773135E-3</v>
+        <v>4.764674775251185E-5</v>
       </c>
       <c r="M218" s="10">
-        <v>2.2739516497904911E-5</v>
+        <v>3.0648645202775364E-6</v>
       </c>
       <c r="N218" s="6"/>
     </row>
     <row r="219" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="13">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="B219" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D219" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>212</v>
+      </c>
+      <c r="D219" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E219">
+        <v>2673</v>
+      </c>
+      <c r="F219" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="G219" s="9">
-        <f t="shared" ref="G219:G242" si="0">((((L219/13650)/0.3)*0.0001)/K219)*1000000000</f>
+        <f>((((L219/13650)/0.3)*0.0001)/K219)*1000000000</f>
+        <v>-8.9874772582334526</v>
+      </c>
+      <c r="H219" s="9">
+        <f>((((M219/13650)/0.3)*0.0001)/K219)*1000000000</f>
+        <v>0.2109251237369672</v>
+      </c>
+      <c r="I219" s="9" t="b">
+        <f>G219&gt;(3*H219)</f>
         <v>0</v>
       </c>
-      <c r="H219" s="9">
-        <f t="shared" ref="H219:H242" si="1">((((M219/13650)/0.3)*0.0001)/K219)*1000000000</f>
-        <v>0</v>
-      </c>
-      <c r="I219" s="9" t="b">
-        <f t="shared" ref="I219:I242" si="2">G219&gt;(3*H219)</f>
-        <v>0</v>
-      </c>
       <c r="J219" s="2">
-        <f t="shared" ref="J219:J242" si="3">0.8/2</f>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K219" s="2">
-        <f t="shared" ref="K219:K242" si="4">J219*0.003</f>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L219" s="10"/>
-      <c r="M219" s="10"/>
+        <f>J219*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L219" s="10">
+        <v>-4.4164463246959182E-4</v>
+      </c>
+      <c r="M219" s="10">
+        <v>1.0364860580434569E-5</v>
+      </c>
       <c r="N219" s="6"/>
     </row>
     <row r="220" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B220" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>9</v>
+        <v>308</v>
+      </c>
+      <c r="E220" t="s">
+        <v>290</v>
+      </c>
+      <c r="F220" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="G220" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L220/13650)/0.3)*0.0001)/K220)*1000000000</f>
+        <v>1.6744913624871316</v>
       </c>
       <c r="H220" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M220/13650)/0.3)*0.0001)/K220)*1000000000</f>
+        <v>0.12049050115527893</v>
       </c>
       <c r="I220" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G220&gt;(3*H220)</f>
+        <v>1</v>
       </c>
       <c r="J220" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K220" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L220" s="10"/>
-      <c r="M220" s="10"/>
+        <f>J220*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L220" s="10">
+        <v>8.2284505552617646E-5</v>
+      </c>
+      <c r="M220" s="10">
+        <v>5.9209032267704069E-6</v>
+      </c>
       <c r="N220" s="6"/>
     </row>
     <row r="221" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B221" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="D221" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E221" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F221" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G221" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L221/13650)/0.3)*0.0001)/K221)*1000000000</f>
+        <v>11.973797008170333</v>
       </c>
       <c r="H221" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M221/13650)/0.3)*0.0001)/K221)*1000000000</f>
+        <v>0.16142498435082128</v>
       </c>
       <c r="I221" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G221&gt;(3*H221)</f>
+        <v>1</v>
       </c>
       <c r="J221" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K221" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L221" s="10"/>
-      <c r="M221" s="10"/>
+        <f>J221*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L221" s="10">
+        <v>5.8839238498149013E-4</v>
+      </c>
+      <c r="M221" s="10">
+        <v>7.9324237309993574E-6</v>
+      </c>
       <c r="N221" s="6"/>
     </row>
     <row r="222" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B222" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="D222" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E222" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G222" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L222/13650)/0.3)*0.0001)/K222)*1000000000</f>
+        <v>7.5212211647959499</v>
       </c>
       <c r="H222" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M222/13650)/0.3)*0.0001)/K222)*1000000000</f>
+        <v>7.9584031366419339E-2</v>
       </c>
       <c r="I222" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G222&gt;(3*H222)</f>
+        <v>1</v>
       </c>
       <c r="J222" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K222" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L222" s="10"/>
-      <c r="M222" s="10"/>
+        <f>J222*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L222" s="10">
+        <v>3.69592808038073E-4</v>
+      </c>
+      <c r="M222" s="10">
+        <v>3.9107593013458456E-6</v>
+      </c>
       <c r="N222" s="6"/>
     </row>
     <row r="223" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B223" s="14" t="s">
         <v>101</v>
@@ -11885,867 +11972,1000 @@
         <v>48</v>
       </c>
       <c r="G223" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L223/13650)/0.3)*0.0001)/K223)*1000000000</f>
+        <v>3.1235290357447618</v>
       </c>
       <c r="H223" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M223/13650)/0.3)*0.0001)/K223)*1000000000</f>
+        <v>7.5636624150308487E-2</v>
       </c>
       <c r="I223" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G223&gt;(3*H223)</f>
+        <v>1</v>
       </c>
       <c r="J223" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K223" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L223" s="10"/>
-      <c r="M223" s="10"/>
+        <f>J223*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L223" s="10">
+        <v>1.5349021681649759E-4</v>
+      </c>
+      <c r="M223" s="10">
+        <v>3.7167837107461591E-6</v>
+      </c>
       <c r="N223" s="6"/>
     </row>
     <row r="224" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B224" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D224" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E224" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G224" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L224/13650)/0.3)*0.0001)/K224)*1000000000</f>
+        <v>19.758675231969789</v>
       </c>
       <c r="H224" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M224/13650)/0.3)*0.0001)/K224)*1000000000</f>
+        <v>0.19513152642086132</v>
       </c>
       <c r="I224" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G224&gt;(3*H224)</f>
+        <v>1</v>
       </c>
       <c r="J224" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K224" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L224" s="10"/>
-      <c r="M224" s="10"/>
+        <f>J224*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L224" s="10">
+        <v>9.7094130089899551E-4</v>
+      </c>
+      <c r="M224" s="10">
+        <v>9.5887632083211237E-6</v>
+      </c>
       <c r="N224" s="6"/>
     </row>
     <row r="225" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D225" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E225" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F225" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G225" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L225/13650)/0.3)*0.0001)/K225)*1000000000</f>
+        <v>0.73931591647086459</v>
       </c>
       <c r="H225" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M225/13650)/0.3)*0.0001)/K225)*1000000000</f>
+        <v>4.979689686046479E-2</v>
       </c>
       <c r="I225" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G225&gt;(3*H225)</f>
+        <v>1</v>
       </c>
       <c r="J225" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K225" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L225" s="10"/>
-      <c r="M225" s="10"/>
+        <f>J225*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L225" s="10">
+        <v>3.632998413537829E-5</v>
+      </c>
+      <c r="M225" s="10">
+        <v>2.4470195117232397E-6</v>
+      </c>
       <c r="N225" s="6"/>
     </row>
     <row r="226" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B226" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D226" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E226" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G226" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L226/13650)/0.3)*0.0001)/K226)*1000000000</f>
+        <v>9.9899121580771055</v>
       </c>
       <c r="H226" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M226/13650)/0.3)*0.0001)/K226)*1000000000</f>
+        <v>0.10389945265234399</v>
       </c>
       <c r="I226" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G226&gt;(3*H226)</f>
+        <v>1</v>
       </c>
       <c r="J226" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K226" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L226" s="10"/>
-      <c r="M226" s="10"/>
+        <f>J226*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L226" s="10">
+        <v>4.9090428344790893E-4</v>
+      </c>
+      <c r="M226" s="10">
+        <v>5.1056191033361842E-6</v>
+      </c>
       <c r="N226" s="6"/>
     </row>
-    <row r="227" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B227" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D227" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E227" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F227" s="18" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G227" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L227/13650)/0.3)*0.0001)/K227)*1000000000</f>
+        <v>17.07044938139596</v>
       </c>
       <c r="H227" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M227/13650)/0.3)*0.0001)/K227)*1000000000</f>
+        <v>0.1760951962367085</v>
       </c>
       <c r="I227" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G227&gt;(3*H227)</f>
+        <v>1</v>
       </c>
       <c r="J227" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K227" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L227" s="10"/>
-      <c r="M227" s="10"/>
+        <f>J227*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L227" s="10">
+        <v>8.3884188260179753E-4</v>
+      </c>
+      <c r="M227" s="10">
+        <v>8.6533179430718557E-6</v>
+      </c>
       <c r="N227" s="6"/>
+      <c r="O227" s="7"/>
     </row>
     <row r="228" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="13">
-        <v>44915</v>
-      </c>
-      <c r="B228" s="14" t="s">
+        <v>44917</v>
+      </c>
+      <c r="B228" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D228" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D228" s="32" t="s">
         <v>308</v>
       </c>
       <c r="E228" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G228" s="9">
-        <f t="shared" si="0"/>
+        <f>((((L228/13650)/0.3)*0.0001)/K228)*1000000000</f>
+        <v>-8.1787495854133502E-2</v>
+      </c>
+      <c r="H228" s="9">
+        <f>((((M228/13650)/0.3)*0.0001)/K228)*1000000000</f>
+        <v>0.12399935203000301</v>
+      </c>
+      <c r="I228" s="9" t="b">
+        <f>G228&gt;(3*H228)</f>
         <v>0</v>
       </c>
-      <c r="H228" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I228" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J228" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K228" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L228" s="10"/>
-      <c r="M228" s="10"/>
+        <f>J228*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L228" s="10">
+        <v>-4.0190375462721208E-6</v>
+      </c>
+      <c r="M228" s="10">
+        <v>6.0933281587543477E-6</v>
+      </c>
       <c r="N228" s="6"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="13">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="B229" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D229" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D229" s="32" t="s">
         <v>308</v>
       </c>
       <c r="E229" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="F229" s="18" t="s">
         <v>48</v>
       </c>
       <c r="G229" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L229/13650)/0.3)*0.0001)/K229)*1000000000</f>
+        <v>2.6446417244936251</v>
       </c>
       <c r="H229" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M229/13650)/0.3)*0.0001)/K229)*1000000000</f>
+        <v>0.11712253485341166</v>
       </c>
       <c r="I229" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G229&gt;(3*H229)</f>
+        <v>1</v>
       </c>
       <c r="J229" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K229" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L229" s="10"/>
-      <c r="M229" s="10"/>
+        <f>J229*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L229" s="10">
+        <v>1.2995769434161672E-4</v>
+      </c>
+      <c r="M229" s="10">
+        <v>5.7554013626966487E-6</v>
+      </c>
       <c r="N229" s="6"/>
-      <c r="O229" s="7"/>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B230" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D230" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E230" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F230" s="18" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G230" s="9">
-        <f t="shared" si="0"/>
+        <f>((((L230/13650)/0.3)*0.0001)/K230)*1000000000</f>
+        <v>-1.4899314211847352</v>
+      </c>
+      <c r="H230" s="9">
+        <f>((((M230/13650)/0.3)*0.0001)/K230)*1000000000</f>
+        <v>7.5976603278073845E-2</v>
+      </c>
+      <c r="I230" s="9" t="b">
+        <f>G230&gt;(3*H230)</f>
         <v>0</v>
       </c>
-      <c r="H230" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I230" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J230" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K230" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L230" s="10"/>
-      <c r="M230" s="10"/>
+        <f>J230*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L230" s="10">
+        <v>-7.3215230037017886E-5</v>
+      </c>
+      <c r="M230" s="10">
+        <v>3.7334902850845484E-6</v>
+      </c>
       <c r="N230" s="6"/>
-      <c r="O230" s="7"/>
     </row>
     <row r="231" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="13">
-        <v>44915</v>
-      </c>
-      <c r="B231" s="14" t="s">
+        <v>44917</v>
+      </c>
+      <c r="B231" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D231" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D231" s="32" t="s">
         <v>308</v>
       </c>
       <c r="E231" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="F231" s="18" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G231" s="9">
-        <f t="shared" si="0"/>
+        <f>((((L231/13650)/0.3)*0.0001)/K231)*1000000000</f>
+        <v>-1.3381940933501022</v>
+      </c>
+      <c r="H231" s="9">
+        <f>((((M231/13650)/0.3)*0.0001)/K231)*1000000000</f>
+        <v>9.5328997970927684E-2</v>
+      </c>
+      <c r="I231" s="9" t="b">
+        <f>G231&gt;(3*H231)</f>
         <v>0</v>
       </c>
-      <c r="H231" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I231" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J231" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K231" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L231" s="10"/>
-      <c r="M231" s="10"/>
+        <f>J231*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L231" s="10">
+        <v>-6.5758857747224013E-5</v>
+      </c>
+      <c r="M231" s="10">
+        <v>4.6844669602913863E-6</v>
+      </c>
       <c r="N231" s="6"/>
     </row>
     <row r="232" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B232" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D232" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E232" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G232" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L232/13650)/0.3)*0.0001)/K232)*1000000000</f>
+        <v>4.3939255996368276</v>
       </c>
       <c r="H232" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M232/13650)/0.3)*0.0001)/K232)*1000000000</f>
+        <v>8.8389424542303668E-2</v>
       </c>
       <c r="I232" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G232&gt;(3*H232)</f>
+        <v>1</v>
       </c>
       <c r="J232" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K232" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L232" s="10"/>
-      <c r="M232" s="10"/>
-      <c r="N232" s="6"/>
+        <f>J232*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L232" s="10">
+        <v>2.1591750396615373E-4</v>
+      </c>
+      <c r="M232" s="10">
+        <v>4.3434563220088013E-6</v>
+      </c>
     </row>
     <row r="233" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B233" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D233" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E233" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G233" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L233/13650)/0.3)*0.0001)/K233)*1000000000</f>
+        <v>4.0274960951850876</v>
       </c>
       <c r="H233" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M233/13650)/0.3)*0.0001)/K233)*1000000000</f>
+        <v>0.16012847544443903</v>
       </c>
       <c r="I233" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G233&gt;(3*H233)</f>
+        <v>1</v>
       </c>
       <c r="J233" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K233" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L233" s="10"/>
-      <c r="M233" s="10"/>
-      <c r="N233" s="6"/>
+        <f>J233*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L233" s="10">
+        <v>1.979111581173952E-4</v>
+      </c>
+      <c r="M233" s="10">
+        <v>7.8687132833397345E-6</v>
+      </c>
     </row>
     <row r="234" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B234" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D234" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E234" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F234" s="18" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="G234" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L234/13650)/0.3)*0.0001)/K234)*1000000000</f>
+        <v>40.414860615812465</v>
       </c>
       <c r="H234" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M234/13650)/0.3)*0.0001)/K234)*1000000000</f>
+        <v>0.83065053386728283</v>
       </c>
       <c r="I234" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G234&gt;(3*H234)</f>
+        <v>1</v>
       </c>
       <c r="J234" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K234" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L234" s="10"/>
-      <c r="M234" s="10"/>
-      <c r="N234" s="6"/>
+        <f>J234*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L234" s="10">
+        <v>1.9859862506610244E-3</v>
+      </c>
+      <c r="M234" s="10">
+        <v>4.0818167234238279E-5</v>
+      </c>
     </row>
     <row r="235" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="13">
-        <v>44915</v>
-      </c>
-      <c r="B235" s="14" t="s">
+        <v>44917</v>
+      </c>
+      <c r="B235" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D235" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D235" s="32" t="s">
         <v>308</v>
       </c>
       <c r="E235" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="F235" s="18" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="G235" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L235/13650)/0.3)*0.0001)/K235)*1000000000</f>
+        <v>17.460016137964296</v>
       </c>
       <c r="H235" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M235/13650)/0.3)*0.0001)/K235)*1000000000</f>
+        <v>0.49252497424636094</v>
       </c>
       <c r="I235" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G235&gt;(3*H235)</f>
+        <v>1</v>
       </c>
       <c r="J235" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K235" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L235" s="10"/>
-      <c r="M235" s="10"/>
-      <c r="N235" s="6"/>
+        <f>J235*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L235" s="10">
+        <v>8.5798519301956552E-4</v>
+      </c>
+      <c r="M235" s="10">
+        <v>2.4202677234466175E-5</v>
+      </c>
     </row>
     <row r="236" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="13">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="B236" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D236" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D236" s="32" t="s">
         <v>308</v>
       </c>
       <c r="E236" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="F236" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G236" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L236/13650)/0.3)*0.0001)/K236)*1000000000</f>
+        <v>37.694888303032144</v>
       </c>
       <c r="H236" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M236/13650)/0.3)*0.0001)/K236)*1000000000</f>
+        <v>0.75568267824510127</v>
       </c>
       <c r="I236" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G236&gt;(3*H236)</f>
+        <v>1</v>
       </c>
       <c r="J236" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K236" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L236" s="10"/>
-      <c r="M236" s="10"/>
-      <c r="N236" s="6"/>
+        <f>J236*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L236" s="10">
+        <v>1.8523268112109997E-3</v>
+      </c>
+      <c r="M236" s="10">
+        <v>3.7134246808964271E-5</v>
+      </c>
     </row>
     <row r="237" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B237" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D237" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E237" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F237" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G237" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L237/13650)/0.3)*0.0001)/K237)*1000000000</f>
+        <v>0.96799805948405215</v>
       </c>
       <c r="H237" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M237/13650)/0.3)*0.0001)/K237)*1000000000</f>
+        <v>0.18024286739012976</v>
       </c>
       <c r="I237" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G237&gt;(3*H237)</f>
+        <v>1</v>
       </c>
       <c r="J237" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K237" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L237" s="10"/>
-      <c r="M237" s="10"/>
+        <f>J237*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L237" s="10">
+        <v>4.7567424643046326E-5</v>
+      </c>
+      <c r="M237" s="10">
+        <v>8.8571345035509769E-6</v>
+      </c>
     </row>
     <row r="238" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B238" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D238" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E238" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F238" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G238" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L238/13650)/0.3)*0.0001)/K238)*1000000000</f>
+        <v>2.0376924131551277</v>
       </c>
       <c r="H238" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M238/13650)/0.3)*0.0001)/K238)*1000000000</f>
+        <v>5.5673565523749899E-2</v>
       </c>
       <c r="I238" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G238&gt;(3*H238)</f>
+        <v>1</v>
       </c>
       <c r="J238" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K238" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L238" s="10"/>
-      <c r="M238" s="10"/>
+        <f>J238*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L238" s="10">
+        <v>1.0013220518244297E-4</v>
+      </c>
+      <c r="M238" s="10">
+        <v>2.73579900983707E-6</v>
+      </c>
+      <c r="N238" s="6"/>
     </row>
     <row r="239" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B239" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D239" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E239" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G239" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L239/13650)/0.3)*0.0001)/K239)*1000000000</f>
+        <v>0.49180112638601664</v>
       </c>
       <c r="H239" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M239/13650)/0.3)*0.0001)/K239)*1000000000</f>
+        <v>5.5723475905110155E-2</v>
       </c>
       <c r="I239" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G239&gt;(3*H239)</f>
+        <v>1</v>
       </c>
       <c r="J239" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K239" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L239" s="10"/>
-      <c r="M239" s="10"/>
+        <f>J239*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L239" s="10">
+        <v>2.4167107350608858E-5</v>
+      </c>
+      <c r="M239" s="10">
+        <v>2.7382516059771133E-6</v>
+      </c>
+      <c r="N239" s="6"/>
     </row>
     <row r="240" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B240" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D240" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E240" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F240" s="18" t="s">
         <v>47</v>
       </c>
       <c r="G240" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>((((L240/13650)/0.3)*0.0001)/K240)*1000000000</f>
+        <v>0.93356121912440815</v>
       </c>
       <c r="H240" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>((((M240/13650)/0.3)*0.0001)/K240)*1000000000</f>
+        <v>5.8264768726226011E-2</v>
       </c>
       <c r="I240" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>G240&gt;(3*H240)</f>
+        <v>1</v>
       </c>
       <c r="J240" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K240" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L240" s="10"/>
-      <c r="M240" s="10"/>
+        <f>J240*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L240" s="10">
+        <v>4.5875198307773418E-5</v>
+      </c>
+      <c r="M240" s="10">
+        <v>2.8631307352067463E-6</v>
+      </c>
+      <c r="N240"/>
     </row>
     <row r="241" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B241" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D241" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E241" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="F241" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G241" s="9">
-        <f t="shared" si="0"/>
+        <f>((((L241/13650)/0.3)*0.0001)/K241)*1000000000</f>
+        <v>-1.4689464715905436</v>
+      </c>
+      <c r="H241" s="9">
+        <f>((((M241/13650)/0.3)*0.0001)/K241)*1000000000</f>
+        <v>6.9007641851417389E-2</v>
+      </c>
+      <c r="I241" s="9" t="b">
+        <f>G241&gt;(3*H241)</f>
         <v>0</v>
       </c>
-      <c r="H241" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I241" s="9" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="J241" s="2">
-        <f t="shared" si="3"/>
+        <f>0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K241" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L241" s="10"/>
-      <c r="M241" s="10"/>
+        <f>J241*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L241" s="10">
+        <v>-7.2184029613959314E-5</v>
+      </c>
+      <c r="M241" s="10">
+        <v>3.39103552057865E-6</v>
+      </c>
+      <c r="N241"/>
+      <c r="O241"/>
     </row>
     <row r="242" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="13">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B242" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D242" s="14" t="s">
         <v>308</v>
       </c>
       <c r="E242" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="G242" s="9">
-        <f t="shared" si="0"/>
+        <f>((((L242/13650)/0.3)*0.0001)/K242)*1000000000</f>
+        <v>-1.3607932698360823</v>
+      </c>
+      <c r="H242" s="9">
+        <f>((((M242/13650)/0.3)*0.0001)/K242)*1000000000</f>
+        <v>5.5079310080197889E-2</v>
+      </c>
+      <c r="I242" s="9" t="b">
+        <f>G242&gt;(3*H242)</f>
         <v>0</v>
       </c>
-      <c r="H242" s="9">
-        <f t="shared" si="1"/>
+      <c r="J242" s="2">
+        <f>0.8/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K242" s="2">
+        <f>J242*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L242" s="10">
+        <v>-6.6869381279745081E-5</v>
+      </c>
+      <c r="M242" s="10">
+        <v>2.7065972973409243E-6</v>
+      </c>
+      <c r="N242"/>
+      <c r="O242"/>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A243" s="13">
+        <v>44916</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D243" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E243" t="s">
+        <v>295</v>
+      </c>
+      <c r="F243" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G243" s="9">
+        <f>((((L243/13650)/0.3)*0.0001)/K243)*1000000000</f>
+        <v>-1.4038393202856134</v>
+      </c>
+      <c r="H243" s="9">
+        <f>((((M243/13650)/0.3)*0.0001)/K243)*1000000000</f>
+        <v>7.5310358877579336E-2</v>
+      </c>
+      <c r="I243" s="9" t="b">
+        <f>G243&gt;(3*H243)</f>
         <v>0</v>
       </c>
-      <c r="I242" s="9" t="b">
-        <f t="shared" si="2"/>
+      <c r="J243" s="2">
+        <f>0.8/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K243" s="2">
+        <f>J243*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L243" s="10">
+        <v>-6.898466419883504E-5</v>
+      </c>
+      <c r="M243" s="10">
+        <v>3.7007510352442489E-6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A244" s="13">
+        <v>44916</v>
+      </c>
+      <c r="B244" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E244" t="s">
+        <v>298</v>
+      </c>
+      <c r="F244" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G244" s="9">
+        <f>((((L244/13650)/0.3)*0.0001)/K244)*1000000000</f>
+        <v>-1.1078977234450529</v>
+      </c>
+      <c r="H244" s="9">
+        <f>((((M244/13650)/0.3)*0.0001)/K244)*1000000000</f>
+        <v>5.2273567460769811E-2</v>
+      </c>
+      <c r="I244" s="9" t="b">
+        <f>G244&gt;(3*H244)</f>
         <v>0</v>
       </c>
-      <c r="J242" s="2">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="K242" s="2">
-        <f t="shared" si="4"/>
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="L242" s="10"/>
-      <c r="M242" s="10"/>
-    </row>
-    <row r="243" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="13"/>
-      <c r="B243" s="13"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="4"/>
-      <c r="F243" s="2"/>
-      <c r="G243" s="9"/>
-      <c r="H243" s="9"/>
-      <c r="I243" s="9"/>
-      <c r="J243" s="2"/>
-      <c r="K243" s="2"/>
-      <c r="L243" s="10"/>
-      <c r="M243" s="10"/>
-    </row>
-    <row r="244" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244"/>
-      <c r="B244"/>
-      <c r="C244"/>
-      <c r="D244"/>
-      <c r="E244"/>
-      <c r="F244" s="18"/>
-      <c r="G244"/>
-      <c r="H244"/>
-      <c r="I244"/>
       <c r="J244" s="2">
         <f>0.8/2</f>
         <v>0.4</v>
@@ -12754,21 +12974,44 @@
         <f>J244*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="L244"/>
-      <c r="M244"/>
-      <c r="N244"/>
-      <c r="O244"/>
-    </row>
-    <row r="245" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245"/>
-      <c r="B245"/>
-      <c r="C245"/>
-      <c r="D245"/>
-      <c r="E245"/>
-      <c r="F245" s="18"/>
-      <c r="G245"/>
-      <c r="H245"/>
-      <c r="I245"/>
+      <c r="L244" s="10">
+        <v>-5.4442094130089897E-5</v>
+      </c>
+      <c r="M244" s="10">
+        <v>2.5687231050222286E-6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A245" s="13">
+        <v>44916</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D245" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" s="9">
+        <f>((((L245/13650)/0.3)*0.0001)/K245)*1000000000</f>
+        <v>9.4582934350253041</v>
+      </c>
+      <c r="H245" s="9">
+        <f>((((M245/13650)/0.3)*0.0001)/K245)*1000000000</f>
+        <v>0.31115189582300218</v>
+      </c>
+      <c r="I245" s="9" t="b">
+        <f>G245&gt;(3*H245)</f>
+        <v>1</v>
+      </c>
       <c r="J245" s="2">
         <f>0.8/2</f>
         <v>0.4</v>
@@ -12777,23 +13020,166 @@
         <f>J245*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="L245"/>
-      <c r="M245"/>
-      <c r="N245"/>
-      <c r="O245"/>
+      <c r="L245" s="10">
+        <v>4.6478053939714336E-4</v>
+      </c>
+      <c r="M245" s="10">
+        <v>1.5290004160742325E-5</v>
+      </c>
+      <c r="N245" s="7"/>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A246" s="13">
+        <v>44916</v>
+      </c>
+      <c r="B246" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D246" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" s="9">
+        <f>((((L246/13650)/0.3)*0.0001)/K246)*1000000000</f>
+        <v>9.9576276202399701</v>
+      </c>
+      <c r="H246" s="9">
+        <f>((((M246/13650)/0.3)*0.0001)/K246)*1000000000</f>
+        <v>0.21411729731881068</v>
+      </c>
+      <c r="I246" s="9" t="b">
+        <f>G246&gt;(3*H246)</f>
+        <v>1</v>
+      </c>
+      <c r="J246" s="2">
+        <f>0.8/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K246" s="2">
+        <f>J246*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L246" s="10">
+        <v>4.8931782125859224E-4</v>
+      </c>
+      <c r="M246" s="10">
+        <v>1.0521723990246358E-5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A247" s="13">
+        <v>44917</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D247" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" s="9">
+        <f>((((L247/13650)/0.3)*0.0001)/K247)*1000000000</f>
+        <v>8.8109884513903669</v>
+      </c>
+      <c r="H247" s="9">
+        <f>((((M247/13650)/0.3)*0.0001)/K247)*1000000000</f>
+        <v>0.2734560277914202</v>
+      </c>
+      <c r="I247" s="9" t="b">
+        <f>G247&gt;(3*H247)</f>
+        <v>1</v>
+      </c>
+      <c r="J247" s="2">
+        <f>0.8/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K247" s="2">
+        <f>J247*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L247" s="10">
+        <v>4.3297197250132267E-4</v>
+      </c>
+      <c r="M247" s="10">
+        <v>1.343762920567039E-5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A248" s="13">
+        <v>44917</v>
+      </c>
+      <c r="B248" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D248" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" s="9">
+        <f>((((L248/13650)/0.3)*0.0001)/K248)*1000000000</f>
+        <v>11.566473755791582</v>
+      </c>
+      <c r="H248" s="9">
+        <f>((((M248/13650)/0.3)*0.0001)/K248)*1000000000</f>
+        <v>0.37459497109191064</v>
+      </c>
+      <c r="I248" s="9" t="b">
+        <f>G248&gt;(3*H248)</f>
+        <v>1</v>
+      </c>
+      <c r="J248" s="2">
+        <f>0.8/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K248" s="2">
+        <f>J248*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L248" s="10">
+        <v>5.6837652035959829E-4</v>
+      </c>
+      <c r="M248" s="10">
+        <v>1.840759687945649E-5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D251" s="32"/>
     </row>
   </sheetData>
-  <sortState ref="A2:T245">
-    <sortCondition ref="A2:A245"/>
-    <sortCondition ref="B2:B245"/>
+  <sortState ref="A220:M251">
+    <sortCondition ref="E220:E251"/>
   </sortState>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14383,22 +14769,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J30">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H30">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14409,10 +14795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U154"/>
+  <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22127,53 +22513,225 @@
       </c>
       <c r="S154" s="10"/>
     </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="19">
+        <v>44916</v>
+      </c>
+      <c r="B155" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E155" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G155" s="21">
+        <f>((((L155/13650)/0.3)*0.0001)/K155)*1000000000</f>
+        <v>1.5727950683000989</v>
+      </c>
+      <c r="H155" s="21">
+        <f>((((M155/13650)/0.3)*0.0001)/K155)*1000000000</f>
+        <v>0.44174238573073343</v>
+      </c>
+      <c r="I155" s="9" t="b">
+        <f>G155&gt;(3*H155)</f>
+        <v>1</v>
+      </c>
+      <c r="J155" s="2">
+        <f>0.8/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K155" s="2">
+        <f>J155*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L155" s="10">
+        <v>7.7287149656266865E-5</v>
+      </c>
+      <c r="M155" s="10">
+        <v>2.1707220834808238E-5</v>
+      </c>
+      <c r="N155" s="6"/>
+      <c r="O155" s="7"/>
+    </row>
+    <row r="156" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="19">
+        <v>44901</v>
+      </c>
+      <c r="B156" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E156" s="17">
+        <v>2669</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G156" s="21">
+        <f>((((L156/13650)/0.3)*0.0001)/K156)*1000000000</f>
+        <v>6.8335605088611029E-2</v>
+      </c>
+      <c r="H156" s="21">
+        <f>((((M156/13650)/0.3)*0.0001)/K156)*1000000000</f>
+        <v>0.53531685323523259</v>
+      </c>
+      <c r="I156" s="9" t="b">
+        <f>G156&gt;(3*H156)</f>
+        <v>0</v>
+      </c>
+      <c r="J156" s="2">
+        <f>0.8/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K156" s="2">
+        <f>J156*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L156" s="10">
+        <v>3.3580116340543468E-6</v>
+      </c>
+      <c r="M156" s="10">
+        <v>2.6305470167979331E-5</v>
+      </c>
+      <c r="N156" s="6"/>
+    </row>
+    <row r="157" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="19">
+        <v>44902</v>
+      </c>
+      <c r="B157" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E157" s="17">
+        <v>2673</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G157" s="21">
+        <f>((((L157/13650)/0.3)*0.0001)/K157)*1000000000</f>
+        <v>-1.7584311608637091</v>
+      </c>
+      <c r="H157" s="21">
+        <f>((((M157/13650)/0.3)*0.0001)/K157)*1000000000</f>
+        <v>0.96137084633156444</v>
+      </c>
+      <c r="I157" s="9" t="b">
+        <f>G157&gt;(3*H157)</f>
+        <v>0</v>
+      </c>
+      <c r="J157" s="2">
+        <f>0.8/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K157" s="2">
+        <f>J157*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L157" s="10">
+        <v>-8.6409307244842665E-5</v>
+      </c>
+      <c r="M157" s="10">
+        <v>4.7241763388733077E-5</v>
+      </c>
+      <c r="N157" s="6"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J4">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H4">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
+  <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="J6:J154">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
+  <conditionalFormatting sqref="H6:H154">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J4">
+  <conditionalFormatting sqref="I155">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H4">
+  <conditionalFormatting sqref="G155">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="I156">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="G156">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J154">
+  <conditionalFormatting sqref="I157">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H154">
+  <conditionalFormatting sqref="G157">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.Thiaminase Summary Data Sheet.xlsx
+++ b/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.Thiaminase Summary Data Sheet.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="327">
   <si>
     <t>ANALYSIS DATE</t>
   </si>
@@ -982,6 +982,42 @@
   </si>
   <si>
     <t>12-22 Pacific Herring 02</t>
+  </si>
+  <si>
+    <t>RASM 06</t>
+  </si>
+  <si>
+    <t>AukeBay</t>
+  </si>
+  <si>
+    <t>ABCap21-05</t>
+  </si>
+  <si>
+    <t>ABCap22-01</t>
+  </si>
+  <si>
+    <t>ABCap21-06</t>
+  </si>
+  <si>
+    <t>ABCap21-01</t>
+  </si>
+  <si>
+    <t>ABCap22-04</t>
+  </si>
+  <si>
+    <t>ABCap21-02</t>
+  </si>
+  <si>
+    <t>ABCap22-03</t>
+  </si>
+  <si>
+    <t>ABCap21-03</t>
+  </si>
+  <si>
+    <t>ABCap22-02</t>
+  </si>
+  <si>
+    <t>ABCap21-04</t>
   </si>
 </sst>
 </file>
@@ -1652,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O251"/>
+  <dimension ref="A1:O269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O155" sqref="O155"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="E262" sqref="E262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,23 +1768,23 @@
         <v>9</v>
       </c>
       <c r="G2" s="9">
-        <f>((((L2/13650)/0.3)*0.0001)/K2)*1000000000</f>
+        <f t="shared" ref="G2:G65" si="0">((((L2/13650)/0.3)*0.0001)/K2)*1000000000</f>
         <v>14.488448628233549</v>
       </c>
       <c r="H2" s="9">
-        <f>((((M2/13650)/0.3)*0.0001)/K2)*1000000000</f>
+        <f t="shared" ref="H2:H65" si="1">((((M2/13650)/0.3)*0.0001)/K2)*1000000000</f>
         <v>0</v>
       </c>
       <c r="I2" s="9" t="b">
-        <f>G2&gt;(3*H2)</f>
+        <f t="shared" ref="I2:I65" si="2">G2&gt;(3*H2)</f>
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <f>0.8/2</f>
+        <f t="shared" ref="J2:J65" si="3">0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K2" s="2">
-        <f>J2*0.003</f>
+        <f t="shared" ref="K2:K65" si="4">J2*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L2" s="10">
@@ -1772,23 +1808,23 @@
         <v>9</v>
       </c>
       <c r="G3" s="9">
-        <f>((((L3/13650)/0.3)*0.0001)/K3)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>16.091286252576506</v>
       </c>
       <c r="H3" s="9">
-        <f>((((M3/13650)/0.3)*0.0001)/K3)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.147999714531206</v>
       </c>
       <c r="I3" s="9" t="b">
-        <f>G3&gt;(3*H3)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K3" s="2">
-        <f>J3*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L3" s="10">
@@ -1814,23 +1850,23 @@
         <v>9</v>
       </c>
       <c r="G4" s="9">
-        <f>((((L4/13650)/0.3)*0.0001)/K4)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>18.761083012801627</v>
       </c>
       <c r="H4" s="9">
-        <f>((((M4/13650)/0.3)*0.0001)/K4)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.32082745183962158</v>
       </c>
       <c r="I4" s="9" t="b">
-        <f>G4&gt;(3*H4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K4" s="2">
-        <f>J4*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L4" s="10">
@@ -1859,23 +1895,23 @@
         <v>9</v>
       </c>
       <c r="G5" s="9">
-        <f>((((L5/13650)/0.3)*0.0001)/K5)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>18.022843247592018</v>
       </c>
       <c r="H5" s="9">
-        <f>((((M5/13650)/0.3)*0.0001)/K5)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.31193944661956641</v>
       </c>
       <c r="I5" s="9" t="b">
-        <f>G5&gt;(3*H5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K5" s="2">
-        <f>J5*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L5" s="10">
@@ -1904,23 +1940,23 @@
         <v>9</v>
       </c>
       <c r="G6" s="9">
-        <f>((((L6/13650)/0.3)*0.0001)/K6)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>14.863263144595813</v>
       </c>
       <c r="H6" s="9">
-        <f>((((M6/13650)/0.3)*0.0001)/K6)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.34582388182700557</v>
       </c>
       <c r="I6" s="9" t="b">
-        <f>G6&gt;(3*H6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K6" s="2">
-        <f>J6*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L6" s="10">
@@ -1949,23 +1985,23 @@
         <v>9</v>
       </c>
       <c r="G7" s="9">
-        <f>((((L7/13650)/0.3)*0.0001)/K7)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>14.87940541351437</v>
       </c>
       <c r="H7" s="9">
-        <f>((((M7/13650)/0.3)*0.0001)/K7)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.16141404022430658</v>
       </c>
       <c r="I7" s="9" t="b">
-        <f>G7&gt;(3*H7)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K7" s="2">
-        <f>J7*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L7" s="10">
@@ -1994,23 +2030,23 @@
         <v>9</v>
       </c>
       <c r="G8" s="9">
-        <f>((((L8/13650)/0.3)*0.0001)/K8)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>15.732255288045859</v>
       </c>
       <c r="H8" s="9">
-        <f>((((M8/13650)/0.3)*0.0001)/K8)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.33303873591945754</v>
       </c>
       <c r="I8" s="9" t="b">
-        <f>G8&gt;(3*H8)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K8" s="2">
-        <f>J8*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L8" s="10">
@@ -2039,23 +2075,23 @@
         <v>9</v>
       </c>
       <c r="G9" s="9">
-        <f>((((L9/13650)/0.3)*0.0001)/K9)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>18.241840029254043</v>
       </c>
       <c r="H9" s="9">
-        <f>((((M9/13650)/0.3)*0.0001)/K9)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.31655345501906124</v>
       </c>
       <c r="I9" s="9" t="b">
-        <f>G9&gt;(3*H9)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K9" s="2">
-        <f>J9*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L9" s="10">
@@ -2082,23 +2118,23 @@
         <v>9</v>
       </c>
       <c r="G10" s="9">
-        <f>((((L10/13650)/0.3)*0.0001)/K10)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>15.421785649178529</v>
       </c>
       <c r="H10" s="9">
-        <f>((((M10/13650)/0.3)*0.0001)/K10)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.44325319290319432</v>
       </c>
       <c r="I10" s="9" t="b">
-        <f>G10&gt;(3*H10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K10" s="2">
-        <f>J10*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L10" s="10">
@@ -2124,23 +2160,23 @@
         <v>9</v>
       </c>
       <c r="G11" s="9">
-        <f>((((L11/13650)/0.3)*0.0001)/K11)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>5.7880795585713551</v>
       </c>
       <c r="H11" s="9">
-        <f>((((M11/13650)/0.3)*0.0001)/K11)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.15875759749119589</v>
       </c>
       <c r="I11" s="9" t="b">
-        <f>G11&gt;(3*H11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K11" s="2">
-        <f>J11*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L11" s="10">
@@ -2166,23 +2202,23 @@
         <v>9</v>
       </c>
       <c r="G12" s="9">
-        <f>((((L12/13650)/0.3)*0.0001)/K12)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>6.2067023991931292</v>
       </c>
       <c r="H12" s="9">
-        <f>((((M12/13650)/0.3)*0.0001)/K12)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.23077912411095974</v>
       </c>
       <c r="I12" s="9" t="b">
-        <f>G12&gt;(3*H12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K12" s="2">
-        <f>J12*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L12" s="10">
@@ -2208,23 +2244,23 @@
         <v>9</v>
       </c>
       <c r="G13" s="9">
-        <f>((((L13/13650)/0.3)*0.0001)/K13)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>7.2403456856127564</v>
       </c>
       <c r="H13" s="9">
-        <f>((((M13/13650)/0.3)*0.0001)/K13)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.55370102799372622</v>
       </c>
       <c r="I13" s="9" t="b">
-        <f>G13&gt;(3*H13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K13" s="2">
-        <f>J13*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L13" s="10">
@@ -2250,23 +2286,23 @@
         <v>9</v>
       </c>
       <c r="G14" s="9">
-        <f>((((L14/13650)/0.3)*0.0001)/K14)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>10.603856452613721</v>
       </c>
       <c r="H14" s="9">
-        <f>((((M14/13650)/0.3)*0.0001)/K14)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.45409783276237131</v>
       </c>
       <c r="I14" s="9" t="b">
-        <f>G14&gt;(3*H14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K14" s="2">
-        <f>J14*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L14" s="10">
@@ -2292,23 +2328,23 @@
         <v>9</v>
       </c>
       <c r="G15" s="9">
-        <f>((((L15/13650)/0.3)*0.0001)/K15)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>9.9753841160504138</v>
       </c>
       <c r="H15" s="9">
-        <f>((((M15/13650)/0.3)*0.0001)/K15)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.33555740566214959</v>
       </c>
       <c r="I15" s="9" t="b">
-        <f>G15&gt;(3*H15)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K15" s="2">
-        <f>J15*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L15" s="10">
@@ -2334,23 +2370,23 @@
         <v>9</v>
       </c>
       <c r="G16" s="9">
-        <f>((((L16/13650)/0.3)*0.0001)/K16)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>10.624841402207863</v>
       </c>
       <c r="H16" s="9">
-        <f>((((M16/13650)/0.3)*0.0001)/K16)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.20541483111843958</v>
       </c>
       <c r="I16" s="9" t="b">
-        <f>G16&gt;(3*H16)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K16" s="2">
-        <f>J16*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L16" s="10">
@@ -2379,23 +2415,23 @@
         <v>9</v>
       </c>
       <c r="G17" s="9">
-        <f>((((L17/13650)/0.3)*0.0001)/K17)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>14.152465236547766</v>
       </c>
       <c r="H17" s="9">
-        <f>((((M17/13650)/0.3)*0.0001)/K17)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.28393703075150151</v>
       </c>
       <c r="I17" s="9" t="b">
-        <f>G17&gt;(3*H17)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K17" s="2">
-        <f>J17*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L17" s="10">
@@ -2424,23 +2460,23 @@
         <v>48</v>
       </c>
       <c r="G18" s="9">
-        <f>((((L18/13650)/0.3)*0.0001)/K18)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-0.39763789102766162</v>
       </c>
       <c r="H18" s="9">
-        <f>((((M18/13650)/0.3)*0.0001)/K18)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.4270041605784238E-2</v>
       </c>
       <c r="I18" s="9" t="b">
-        <f>G18&gt;(3*H18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K18" s="2">
-        <f>J18*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L18" s="10">
@@ -2466,23 +2502,23 @@
         <v>48</v>
       </c>
       <c r="G19" s="9">
-        <f>((((L19/13650)/0.3)*0.0001)/K19)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.76514354674055818</v>
       </c>
       <c r="H19" s="9">
-        <f>((((M19/13650)/0.3)*0.0001)/K19)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.9322212119731972E-2</v>
       </c>
       <c r="I19" s="9" t="b">
-        <f>G19&gt;(3*H19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J19" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K19" s="2">
-        <f>J19*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L19" s="10">
@@ -2508,23 +2544,23 @@
         <v>47</v>
       </c>
       <c r="G20" s="9">
-        <f>((((L20/13650)/0.3)*0.0001)/K20)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.12644777319553635</v>
       </c>
       <c r="H20" s="9">
-        <f>((((M20/13650)/0.3)*0.0001)/K20)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.7028235849867907E-2</v>
       </c>
       <c r="I20" s="9" t="b">
-        <f>G20&gt;(3*H20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K20" s="2">
-        <f>J20*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L20" s="10">
@@ -2550,23 +2586,23 @@
         <v>9</v>
       </c>
       <c r="G21" s="9">
-        <f>((((L21/13650)/0.3)*0.0001)/K21)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.4856268161398027</v>
       </c>
       <c r="H21" s="9">
-        <f>((((M21/13650)/0.3)*0.0001)/K21)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>8.3536471120056674E-2</v>
       </c>
       <c r="I21" s="9" t="b">
-        <f>G21&gt;(3*H21)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K21" s="2">
-        <f>J21*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L21" s="10">
@@ -2592,23 +2628,23 @@
         <v>50</v>
       </c>
       <c r="G22" s="9">
-        <f>((((L22/13650)/0.3)*0.0001)/K22)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.52085721043943667</v>
       </c>
       <c r="H22" s="9">
-        <f>((((M22/13650)/0.3)*0.0001)/K22)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.4203552320637359E-2</v>
       </c>
       <c r="I22" s="9" t="b">
-        <f>G22&gt;(3*H22)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K22" s="2">
-        <f>J22*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L22" s="10">
@@ -2634,23 +2670,23 @@
         <v>50</v>
       </c>
       <c r="G23" s="9">
-        <f>((((L23/13650)/0.3)*0.0001)/K23)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.52677604237626818</v>
       </c>
       <c r="H23" s="9">
-        <f>((((M23/13650)/0.3)*0.0001)/K23)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.1452275859895036E-2</v>
       </c>
       <c r="I23" s="9" t="b">
-        <f>G23&gt;(3*H23)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J23" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K23" s="2">
-        <f>J23*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L23" s="10">
@@ -2676,23 +2712,23 @@
         <v>47</v>
       </c>
       <c r="G24" s="9">
-        <f>((((L24/13650)/0.3)*0.0001)/K24)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.97337881579023167</v>
       </c>
       <c r="H24" s="9">
-        <f>((((M24/13650)/0.3)*0.0001)/K24)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.647106655568118E-2</v>
       </c>
       <c r="I24" s="9" t="b">
-        <f>G24&gt;(3*H24)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K24" s="2">
-        <f>J24*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L24" s="10">
@@ -2718,23 +2754,23 @@
         <v>47</v>
       </c>
       <c r="G25" s="9">
-        <f>((((L25/13650)/0.3)*0.0001)/K25)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-0.83939798376602026</v>
       </c>
       <c r="H25" s="9">
-        <f>((((M25/13650)/0.3)*0.0001)/K25)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>6.1665200508018714E-2</v>
       </c>
       <c r="I25" s="9" t="b">
-        <f>G25&gt;(3*H25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K25" s="2">
-        <f>J25*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L25" s="10">
@@ -2763,23 +2799,23 @@
         <v>47</v>
       </c>
       <c r="G26" s="9">
-        <f>((((L26/13650)/0.3)*0.0001)/K26)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.60049240377109858</v>
       </c>
       <c r="H26" s="9">
-        <f>((((M26/13650)/0.3)*0.0001)/K26)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.8872591103168115E-2</v>
       </c>
       <c r="I26" s="9" t="b">
-        <f>G26&gt;(3*H26)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J26" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K26" s="2">
-        <f>J26*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L26" s="10">
@@ -2805,23 +2841,23 @@
         <v>47</v>
       </c>
       <c r="G27" s="9">
-        <f>((((L27/13650)/0.3)*0.0001)/K27)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.99221146286190276</v>
       </c>
       <c r="H27" s="9">
-        <f>((((M27/13650)/0.3)*0.0001)/K27)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.9371429545129632E-2</v>
       </c>
       <c r="I27" s="9" t="b">
-        <f>G27&gt;(3*H27)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J27" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K27" s="2">
-        <f>J27*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L27" s="10">
@@ -2847,23 +2883,23 @@
         <v>47</v>
       </c>
       <c r="G28" s="9">
-        <f>((((L28/13650)/0.3)*0.0001)/K28)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.9101684886983745</v>
       </c>
       <c r="H28" s="9">
-        <f>((((M28/13650)/0.3)*0.0001)/K28)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.3829446434238169E-2</v>
       </c>
       <c r="I28" s="9" t="b">
-        <f>G28&gt;(3*H28)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J28" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K28" s="2">
-        <f>J28*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L28" s="10">
@@ -2889,23 +2925,23 @@
         <v>47</v>
       </c>
       <c r="G29" s="9">
-        <f>((((L29/13650)/0.3)*0.0001)/K29)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-0.45144545408955677</v>
       </c>
       <c r="H29" s="9">
-        <f>((((M29/13650)/0.3)*0.0001)/K29)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.2748567936245221E-2</v>
       </c>
       <c r="I29" s="9" t="b">
-        <f>G29&gt;(3*H29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K29" s="2">
-        <f>J29*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L29" s="10">
@@ -2931,23 +2967,23 @@
         <v>47</v>
       </c>
       <c r="G30" s="9">
-        <f>((((L30/13650)/0.3)*0.0001)/K30)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.66398532818416822</v>
       </c>
       <c r="H30" s="9">
-        <f>((((M30/13650)/0.3)*0.0001)/K30)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.7671254806592137E-2</v>
       </c>
       <c r="I30" s="9" t="b">
-        <f>G30&gt;(3*H30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J30" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K30" s="2">
-        <f>J30*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L30" s="10">
@@ -2973,23 +3009,23 @@
         <v>47</v>
       </c>
       <c r="G31" s="9">
-        <f>((((L31/13650)/0.3)*0.0001)/K31)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-0.31692654643473939</v>
       </c>
       <c r="H31" s="9">
-        <f>((((M31/13650)/0.3)*0.0001)/K31)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.9132961770919199E-2</v>
       </c>
       <c r="I31" s="9" t="b">
-        <f>G31&gt;(3*H31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K31" s="2">
-        <f>J31*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L31" s="10">
@@ -3015,23 +3051,23 @@
         <v>57</v>
       </c>
       <c r="G32" s="9">
-        <f>((((L32/13650)/0.3)*0.0001)/K32)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>7.8112439296997458</v>
       </c>
       <c r="H32" s="9">
-        <f>((((M32/13650)/0.3)*0.0001)/K32)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.3548434801813274E-2</v>
       </c>
       <c r="I32" s="9" t="b">
-        <f>G32&gt;(3*H32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J32" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K32" s="2">
-        <f>J32*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L32" s="10">
@@ -3057,23 +3093,23 @@
         <v>57</v>
       </c>
       <c r="G33" s="9">
-        <f>((((L33/13650)/0.3)*0.0001)/K33)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.75438203412817473</v>
       </c>
       <c r="H33" s="9">
-        <f>((((M33/13650)/0.3)*0.0001)/K33)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.2080079965749999E-2</v>
       </c>
       <c r="I33" s="9" t="b">
-        <f>G33&gt;(3*H33)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J33" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K33" s="2">
-        <f>J33*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L33" s="10">
@@ -3099,23 +3135,23 @@
         <v>50</v>
       </c>
       <c r="G34" s="9">
-        <f>((((L34/13650)/0.3)*0.0001)/K34)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.9448879263791992</v>
       </c>
       <c r="H34" s="9">
-        <f>((((M34/13650)/0.3)*0.0001)/K34)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.435155010543311E-2</v>
       </c>
       <c r="I34" s="9" t="b">
-        <f>G34&gt;(3*H34)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J34" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K34" s="2">
-        <f>J34*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L34" s="10">
@@ -3141,23 +3177,23 @@
         <v>50</v>
       </c>
       <c r="G35" s="9">
-        <f>((((L35/13650)/0.3)*0.0001)/K35)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.1915820435122524</v>
       </c>
       <c r="H35" s="9">
-        <f>((((M35/13650)/0.3)*0.0001)/K35)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.1899394386354732E-2</v>
       </c>
       <c r="I35" s="9" t="b">
-        <f>G35&gt;(3*H35)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J35" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K35" s="2">
-        <f>J35*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L35" s="10">
@@ -3183,23 +3219,23 @@
         <v>49</v>
       </c>
       <c r="G36" s="9">
-        <f>((((L36/13650)/0.3)*0.0001)/K36)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-0.98898300907819836</v>
       </c>
       <c r="H36" s="9">
-        <f>((((M36/13650)/0.3)*0.0001)/K36)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.10438272343153079</v>
       </c>
       <c r="I36" s="9" t="b">
-        <f>G36&gt;(3*H36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K36" s="2">
-        <f>J36*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L36" s="10">
@@ -3228,23 +3264,23 @@
         <v>49</v>
       </c>
       <c r="G37" s="9">
-        <f>((((L37/13650)/0.3)*0.0001)/K37)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-0.40678517674815678</v>
       </c>
       <c r="H37" s="9">
-        <f>((((M37/13650)/0.3)*0.0001)/K37)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>6.8097245486183317E-2</v>
       </c>
       <c r="I37" s="9" t="b">
-        <f>G37&gt;(3*H37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K37" s="2">
-        <f>J37*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L37" s="10">
@@ -3277,23 +3313,23 @@
         <v>9</v>
       </c>
       <c r="G38" s="9">
-        <f>((((L38/13650)/0.3)*0.0001)/K38)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>18.662615172398368</v>
       </c>
       <c r="H38" s="9">
-        <f>((((M38/13650)/0.3)*0.0001)/K38)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.30188891704133403</v>
       </c>
       <c r="I38" s="9" t="b">
-        <f>G38&gt;(3*H38)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J38" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K38" s="2">
-        <f>J38*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L38" s="10">
@@ -3324,23 +3360,23 @@
         <v>9</v>
       </c>
       <c r="G39" s="9">
-        <f>((((L39/13650)/0.3)*0.0001)/K39)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>12.0362137813222</v>
       </c>
       <c r="H39" s="9">
-        <f>((((M39/13650)/0.3)*0.0001)/K39)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.33290906784011054</v>
       </c>
       <c r="I39" s="9" t="b">
-        <f>G39&gt;(3*H39)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J39" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K39" s="2">
-        <f>J39*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L39" s="10">
@@ -3371,23 +3407,23 @@
         <v>92</v>
       </c>
       <c r="G40" s="9">
-        <f>((((L40/13650)/0.3)*0.0001)/K40)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.2182032277219965</v>
       </c>
       <c r="H40" s="9">
-        <f>((((M40/13650)/0.3)*0.0001)/K40)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.10590949853768829</v>
       </c>
       <c r="I40" s="9" t="b">
-        <f>G40&gt;(3*H40)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J40" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K40" s="2">
-        <f>J40*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L40" s="10">
@@ -3418,23 +3454,23 @@
         <v>93</v>
       </c>
       <c r="G41" s="9">
-        <f>((((L41/13650)/0.3)*0.0001)/K41)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-2.5725395899906918</v>
       </c>
       <c r="H41" s="9">
-        <f>((((M41/13650)/0.3)*0.0001)/K41)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.14765946483785841</v>
       </c>
       <c r="I41" s="9" t="b">
-        <f>G41&gt;(3*H41)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K41" s="2">
-        <f>J41*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L41" s="10">
@@ -3465,23 +3501,23 @@
         <v>97</v>
       </c>
       <c r="G42" s="9">
-        <f>((((L42/13650)/0.3)*0.0001)/K42)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-1.4641037909149968</v>
       </c>
       <c r="H42" s="9">
-        <f>((((M42/13650)/0.3)*0.0001)/K42)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.0880848862680229E-2</v>
       </c>
       <c r="I42" s="9" t="b">
-        <f>G42&gt;(3*H42)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K42" s="2">
-        <f>J42*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L42" s="10">
@@ -3512,23 +3548,23 @@
         <v>92</v>
       </c>
       <c r="G43" s="9">
-        <f>((((L43/13650)/0.3)*0.0001)/K43)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.40086634481134548</v>
       </c>
       <c r="H43" s="9">
-        <f>((((M43/13650)/0.3)*0.0001)/K43)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>6.0769608756482331E-2</v>
       </c>
       <c r="I43" s="9" t="b">
-        <f>G43&gt;(3*H43)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J43" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K43" s="2">
-        <f>J43*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L43" s="10">
@@ -3559,23 +3595,23 @@
         <v>92</v>
       </c>
       <c r="G44" s="9">
-        <f>((((L44/13650)/0.3)*0.0001)/K44)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-1.6621156229828853</v>
       </c>
       <c r="H44" s="9">
-        <f>((((M44/13650)/0.3)*0.0001)/K44)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>9.264024229151098E-2</v>
       </c>
       <c r="I44" s="9" t="b">
-        <f>G44&gt;(3*H44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K44" s="2">
-        <f>J44*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L44" s="10">
@@ -3606,23 +3642,23 @@
         <v>92</v>
       </c>
       <c r="G45" s="9">
-        <f>((((L45/13650)/0.3)*0.0001)/K45)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.6583490935685388</v>
       </c>
       <c r="H45" s="9">
-        <f>((((M45/13650)/0.3)*0.0001)/K45)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.2559808957123467E-2</v>
       </c>
       <c r="I45" s="9" t="b">
-        <f>G45&gt;(3*H45)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J45" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K45" s="2">
-        <f>J45*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L45" s="10">
@@ -3653,23 +3689,23 @@
         <v>92</v>
       </c>
       <c r="G46" s="9">
-        <f>((((L46/13650)/0.3)*0.0001)/K46)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-5.9726394998733216E-2</v>
       </c>
       <c r="H46" s="9">
-        <f>((((M46/13650)/0.3)*0.0001)/K46)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.5051684159261684E-2</v>
       </c>
       <c r="I46" s="9" t="b">
-        <f>G46&gt;(3*H46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K46" s="2">
-        <f>J46*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L46" s="10">
@@ -3700,23 +3736,23 @@
         <v>92</v>
       </c>
       <c r="G47" s="9">
-        <f>((((L47/13650)/0.3)*0.0001)/K47)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.1334427563935793</v>
       </c>
       <c r="H47" s="9">
-        <f>((((M47/13650)/0.3)*0.0001)/K47)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1018688232613459</v>
       </c>
       <c r="I47" s="9" t="b">
-        <f>G47&gt;(3*H47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K47" s="2">
-        <f>J47*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L47" s="10">
@@ -3747,23 +3783,23 @@
         <v>92</v>
       </c>
       <c r="G48" s="9">
-        <f>((((L48/13650)/0.3)*0.0001)/K48)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>3.0584218844398716</v>
       </c>
       <c r="H48" s="9">
-        <f>((((M48/13650)/0.3)*0.0001)/K48)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.5284067329687145E-2</v>
       </c>
       <c r="I48" s="9" t="b">
-        <f>G48&gt;(3*H48)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J48" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K48" s="2">
-        <f>J48*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L48" s="10">
@@ -3794,23 +3830,23 @@
         <v>94</v>
       </c>
       <c r="G49" s="9">
-        <f>((((L49/13650)/0.3)*0.0001)/K49)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.47081617679184851</v>
       </c>
       <c r="H49" s="9">
-        <f>((((M49/13650)/0.3)*0.0001)/K49)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1627516914731961</v>
       </c>
       <c r="I49" s="9" t="b">
-        <f>G49&gt;(3*H49)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K49" s="2">
-        <f>J49*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L49" s="10">
@@ -3841,23 +3877,23 @@
         <v>94</v>
       </c>
       <c r="G50" s="9">
-        <f>((((L50/13650)/0.3)*0.0001)/K50)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.53430910120492237</v>
       </c>
       <c r="H50" s="9">
-        <f>((((M50/13650)/0.3)*0.0001)/K50)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.2693010374467983E-2</v>
       </c>
       <c r="I50" s="9" t="b">
-        <f>G50&gt;(3*H50)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J50" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K50" s="2">
-        <f>J50*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L50" s="10">
@@ -3888,23 +3924,23 @@
         <v>94</v>
       </c>
       <c r="G51" s="9">
-        <f>((((L51/13650)/0.3)*0.0001)/K51)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-1.4178292866817097</v>
       </c>
       <c r="H51" s="9">
-        <f>((((M51/13650)/0.3)*0.0001)/K51)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1062234556644929</v>
       </c>
       <c r="I51" s="9" t="b">
-        <f>G51&gt;(3*H51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K51" s="2">
-        <f>J51*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L51" s="10">
@@ -3935,23 +3971,23 @@
         <v>47</v>
       </c>
       <c r="G52" s="9">
-        <f>((((L52/13650)/0.3)*0.0001)/K52)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>4.9971083815610529</v>
       </c>
       <c r="H52" s="9">
-        <f>((((M52/13650)/0.3)*0.0001)/K52)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>9.9739901937496517E-2</v>
       </c>
       <c r="I52" s="9" t="b">
-        <f>G52&gt;(3*H52)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J52" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K52" s="2">
-        <f>J52*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L52" s="10">
@@ -3982,23 +4018,23 @@
         <v>96</v>
       </c>
       <c r="G53" s="9">
-        <f>((((L53/13650)/0.3)*0.0001)/K53)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-1.601313076722914</v>
       </c>
       <c r="H53" s="9">
-        <f>((((M53/13650)/0.3)*0.0001)/K53)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1250069403344149</v>
       </c>
       <c r="I53" s="9" t="b">
-        <f>G53&gt;(3*H53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K53" s="2">
-        <f>J53*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L53" s="10">
@@ -4029,23 +4065,23 @@
         <v>96</v>
       </c>
       <c r="G54" s="9">
-        <f>((((L54/13650)/0.3)*0.0001)/K54)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.63923384917568749</v>
       </c>
       <c r="H54" s="9">
-        <f>((((M54/13650)/0.3)*0.0001)/K54)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1062234556644929</v>
       </c>
       <c r="I54" s="9" t="b">
-        <f>G54&gt;(3*H54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J54" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K54" s="2">
-        <f>J54*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L54" s="10">
@@ -4076,23 +4112,23 @@
         <v>95</v>
       </c>
       <c r="G55" s="9">
-        <f>((((L55/13650)/0.3)*0.0001)/K55)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-1.4592611102394377</v>
       </c>
       <c r="H55" s="9">
-        <f>((((M55/13650)/0.3)*0.0001)/K55)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.19417224108533773</v>
       </c>
       <c r="I55" s="9" t="b">
-        <f>G55&gt;(3*H55)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K55" s="2">
-        <f>J55*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L55" s="10">
@@ -4123,23 +4159,23 @@
         <v>95</v>
       </c>
       <c r="G56" s="9">
-        <f>((((L56/13650)/0.3)*0.0001)/K56)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.94109427795308254</v>
       </c>
       <c r="H56" s="9">
-        <f>((((M56/13650)/0.3)*0.0001)/K56)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>6.421008261122628E-2</v>
       </c>
       <c r="I56" s="9" t="b">
-        <f>G56&gt;(3*H56)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J56" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K56" s="2">
-        <f>J56*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L56" s="10">
@@ -4170,23 +4206,23 @@
         <v>9</v>
       </c>
       <c r="G57" s="9">
-        <f>((((L57/13650)/0.3)*0.0001)/K57)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>14.815912489101288</v>
       </c>
       <c r="H57" s="9">
-        <f>((((M57/13650)/0.3)*0.0001)/K57)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.26448024316322977</v>
       </c>
       <c r="I57" s="9" t="b">
-        <f>G57&gt;(3*H57)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J57" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K57" s="2">
-        <f>J57*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L57" s="10">
@@ -4217,23 +4253,23 @@
         <v>9</v>
       </c>
       <c r="G58" s="9">
-        <f>((((L58/13650)/0.3)*0.0001)/K58)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>12.585589000184463</v>
       </c>
       <c r="H58" s="9">
-        <f>((((M58/13650)/0.3)*0.0001)/K58)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.32860536432043042</v>
       </c>
       <c r="I58" s="9" t="b">
-        <f>G58&gt;(3*H58)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J58" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K58" s="2">
-        <f>J58*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L58" s="10">
@@ -4264,23 +4300,23 @@
         <v>92</v>
       </c>
       <c r="G59" s="9">
-        <f>((((L59/13650)/0.3)*0.0001)/K59)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.4062742201293217</v>
       </c>
       <c r="H59" s="9">
-        <f>((((M59/13650)/0.3)*0.0001)/K59)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.114890281080342E-2</v>
       </c>
       <c r="I59" s="9" t="b">
-        <f>G59&gt;(3*H59)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J59" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K59" s="2">
-        <f>J59*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L59" s="10">
@@ -4311,23 +4347,23 @@
         <v>93</v>
       </c>
       <c r="G60" s="9">
-        <f>((((L60/13650)/0.3)*0.0001)/K60)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.4797079842029319</v>
       </c>
       <c r="H60" s="9">
-        <f>((((M60/13650)/0.3)*0.0001)/K60)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.18751827452181585</v>
       </c>
       <c r="I60" s="9" t="b">
-        <f>G60&gt;(3*H60)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J60" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K60" s="2">
-        <f>J60*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L60" s="10">
@@ -4358,23 +4394,23 @@
         <v>94</v>
       </c>
       <c r="G61" s="9">
-        <f>((((L61/13650)/0.3)*0.0001)/K61)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.436123858122804</v>
       </c>
       <c r="H61" s="9">
-        <f>((((M61/13650)/0.3)*0.0001)/K61)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.403149022444637E-2</v>
       </c>
       <c r="I61" s="9" t="b">
-        <f>G61&gt;(3*H61)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J61" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K61" s="2">
-        <f>J61*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L61" s="10">
@@ -4405,23 +4441,23 @@
         <v>92</v>
       </c>
       <c r="G62" s="27">
-        <f>((((L62/13650)/0.3)*0.0001)/K62)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.4520106487319775</v>
       </c>
       <c r="H62" s="27">
-        <f>((((M62/13650)/0.3)*0.0001)/K62)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.8403038449178905E-2</v>
       </c>
       <c r="I62" s="9" t="b">
-        <f>G62&gt;(3*H62)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J62" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K62" s="2">
-        <f>J62*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L62" s="10">
@@ -4452,23 +4488,23 @@
         <v>94</v>
       </c>
       <c r="G63" s="9">
-        <f>((((L63/13650)/0.3)*0.0001)/K63)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.7745734297822966</v>
       </c>
       <c r="H63" s="9">
-        <f>((((M63/13650)/0.3)*0.0001)/K63)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.9733665848480964E-2</v>
       </c>
       <c r="I63" s="9" t="b">
-        <f>G63&gt;(3*H63)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J63" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K63" s="2">
-        <f>J63*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L63" s="10">
@@ -4499,23 +4535,23 @@
         <v>94</v>
       </c>
       <c r="G64" s="9">
-        <f>((((L64/13650)/0.3)*0.0001)/K64)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>0.27764702539956587</v>
       </c>
       <c r="H64" s="9">
-        <f>((((M64/13650)/0.3)*0.0001)/K64)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.3932161142451547E-2</v>
       </c>
       <c r="I64" s="9" t="b">
-        <f>G64&gt;(3*H64)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J64" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K64" s="2">
-        <f>J64*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L64" s="10">
@@ -4546,23 +4582,23 @@
         <v>47</v>
       </c>
       <c r="G65" s="9">
-        <f>((((L65/13650)/0.3)*0.0001)/K65)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>-0.99543991664562703</v>
       </c>
       <c r="H65" s="9">
-        <f>((((M65/13650)/0.3)*0.0001)/K65)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.4898759780816282E-2</v>
       </c>
       <c r="I65" s="9" t="b">
-        <f>G65&gt;(3*H65)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K65" s="2">
-        <f>J65*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L65" s="10">
@@ -4593,23 +4629,23 @@
         <v>47</v>
       </c>
       <c r="G66" s="9">
-        <f>((((L66/13650)/0.3)*0.0001)/K66)*1000000000</f>
+        <f t="shared" ref="G66:G129" si="5">((((L66/13650)/0.3)*0.0001)/K66)*1000000000</f>
         <v>0.2184587060314519</v>
       </c>
       <c r="H66" s="9">
-        <f>((((M66/13650)/0.3)*0.0001)/K66)*1000000000</f>
+        <f t="shared" ref="H66:H129" si="6">((((M66/13650)/0.3)*0.0001)/K66)*1000000000</f>
         <v>7.4925093349732602E-2</v>
       </c>
       <c r="I66" s="9" t="b">
-        <f>G66&gt;(3*H66)</f>
+        <f t="shared" ref="I66:I129" si="7">G66&gt;(3*H66)</f>
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <f>0.8/2</f>
+        <f t="shared" ref="J66:J129" si="8">0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K66" s="2">
-        <f>J66*0.003</f>
+        <f t="shared" ref="K66:K129" si="9">J66*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L66" s="10">
@@ -4640,23 +4676,23 @@
         <v>96</v>
       </c>
       <c r="G67" s="9">
-        <f>((((L67/13650)/0.3)*0.0001)/K67)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.41270400868497092</v>
       </c>
       <c r="H67" s="9">
-        <f>((((M67/13650)/0.3)*0.0001)/K67)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5956664749621868E-2</v>
       </c>
       <c r="I67" s="9" t="b">
-        <f>G67&gt;(3*H67)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J67" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K67" s="2">
-        <f>J67*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L67" s="10">
@@ -4687,23 +4723,23 @@
         <v>49</v>
       </c>
       <c r="G68" s="9">
-        <f>((((L68/13650)/0.3)*0.0001)/K68)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.0271863788521767</v>
       </c>
       <c r="H68" s="9">
-        <f>((((M68/13650)/0.3)*0.0001)/K68)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.7906733318190372E-2</v>
       </c>
       <c r="I68" s="9" t="b">
-        <f>G68&gt;(3*H68)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J68" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K68" s="2">
-        <f>J68*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L68" s="10">
@@ -4734,23 +4770,23 @@
         <v>118</v>
       </c>
       <c r="G69" s="9">
-        <f>((((L69/13650)/0.3)*0.0001)/K69)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.5243682615443532</v>
       </c>
       <c r="H69" s="9">
-        <f>((((M69/13650)/0.3)*0.0001)/K69)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.1642871976655045E-2</v>
       </c>
       <c r="I69" s="9" t="b">
-        <f>G69&gt;(3*H69)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J69" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K69" s="2">
-        <f>J69*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L69" s="10">
@@ -4781,23 +4817,23 @@
         <v>118</v>
       </c>
       <c r="G70" s="9">
-        <f>((((L70/13650)/0.3)*0.0001)/K70)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-2.2513084385109767</v>
       </c>
       <c r="H70" s="9">
-        <f>((((M70/13650)/0.3)*0.0001)/K70)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.13514134350434909</v>
       </c>
       <c r="I70" s="9" t="b">
-        <f>G70&gt;(3*H70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K70" s="2">
-        <f>J70*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L70" s="10">
@@ -4828,23 +4864,23 @@
         <v>118</v>
       </c>
       <c r="G71" s="9">
-        <f>((((L71/13650)/0.3)*0.0001)/K71)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.5582670262733702</v>
       </c>
       <c r="H71" s="9">
-        <f>((((M71/13650)/0.3)*0.0001)/K71)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.217347787915842</v>
       </c>
       <c r="I71" s="9" t="b">
-        <f>G71&gt;(3*H71)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J71" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K71" s="2">
-        <f>J71*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L71" s="10">
@@ -4875,23 +4911,23 @@
         <v>118</v>
       </c>
       <c r="G72" s="9">
-        <f>((((L72/13650)/0.3)*0.0001)/K72)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-3.3317643047944285</v>
       </c>
       <c r="H72" s="9">
-        <f>((((M72/13650)/0.3)*0.0001)/K72)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>9.7661813554096352E-2</v>
       </c>
       <c r="I72" s="9" t="b">
-        <f>G72&gt;(3*H72)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J72" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K72" s="2">
-        <f>J72*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L72" s="10">
@@ -4922,23 +4958,23 @@
         <v>118</v>
       </c>
       <c r="G73" s="9">
-        <f>((((L73/13650)/0.3)*0.0001)/K73)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-4.0285722464464016</v>
       </c>
       <c r="H73" s="9">
-        <f>((((M73/13650)/0.3)*0.0001)/K73)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.3641100228839185E-2</v>
       </c>
       <c r="I73" s="9" t="b">
-        <f>G73&gt;(3*H73)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K73" s="2">
-        <f>J73*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L73" s="10">
@@ -4969,23 +5005,23 @@
         <v>118</v>
       </c>
       <c r="G74" s="9">
-        <f>((((L74/13650)/0.3)*0.0001)/K74)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.7336796818552589</v>
       </c>
       <c r="H74" s="9">
-        <f>((((M74/13650)/0.3)*0.0001)/K74)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>9.127027782246333E-2</v>
       </c>
       <c r="I74" s="9" t="b">
-        <f>G74&gt;(3*H74)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K74" s="2">
-        <f>J74*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L74" s="10">
@@ -5016,23 +5052,23 @@
         <v>118</v>
       </c>
       <c r="G75" s="9">
-        <f>((((L75/13650)/0.3)*0.0001)/K75)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-2.4670767663892996</v>
       </c>
       <c r="H75" s="9">
-        <f>((((M75/13650)/0.3)*0.0001)/K75)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>8.9608275443357727E-2</v>
       </c>
       <c r="I75" s="9" t="b">
-        <f>G75&gt;(3*H75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J75" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K75" s="2">
-        <f>J75*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L75" s="10">
@@ -5063,23 +5099,23 @@
         <v>118</v>
       </c>
       <c r="G76" s="9">
-        <f>((((L76/13650)/0.3)*0.0001)/K76)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.99221146286190964</v>
       </c>
       <c r="H76" s="9">
-        <f>((((M76/13650)/0.3)*0.0001)/K76)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.1317861367038156E-2</v>
       </c>
       <c r="I76" s="9" t="b">
-        <f>G76&gt;(3*H76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J76" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K76" s="2">
-        <f>J76*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L76" s="10">
@@ -5110,23 +5146,23 @@
         <v>9</v>
       </c>
       <c r="G77" s="9">
-        <f>((((L77/13650)/0.3)*0.0001)/K77)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>16.162177716910659</v>
       </c>
       <c r="H77" s="9">
-        <f>((((M77/13650)/0.3)*0.0001)/K77)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.30748746812105271</v>
       </c>
       <c r="I77" s="9" t="b">
-        <f>G77&gt;(3*H77)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J77" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K77" s="2">
-        <f>J77*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L77" s="10">
@@ -5157,23 +5193,23 @@
         <v>9</v>
       </c>
       <c r="G78" s="9">
-        <f>((((L78/13650)/0.3)*0.0001)/K78)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>11.749419470202128</v>
       </c>
       <c r="H78" s="9">
-        <f>((((M78/13650)/0.3)*0.0001)/K78)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.33392214437117579</v>
       </c>
       <c r="I78" s="9" t="b">
-        <f>G78&gt;(3*H78)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J78" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K78" s="2">
-        <f>J78*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L78" s="10">
@@ -5204,23 +5240,23 @@
         <v>93</v>
       </c>
       <c r="G79" s="9">
-        <f>((((L79/13650)/0.3)*0.0001)/K79)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.10628349655321</v>
       </c>
       <c r="H79" s="9">
-        <f>((((M79/13650)/0.3)*0.0001)/K79)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.0010978911677235E-2</v>
       </c>
       <c r="I79" s="9" t="b">
-        <f>G79&gt;(3*H79)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K79" s="2">
-        <f>J79*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L79" s="10">
@@ -5251,23 +5287,23 @@
         <v>141</v>
       </c>
       <c r="G80" s="9">
-        <f>((((L80/13650)/0.3)*0.0001)/K80)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.2112082445239489</v>
       </c>
       <c r="H80" s="9">
-        <f>((((M80/13650)/0.3)*0.0001)/K80)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.331920927666943E-2</v>
       </c>
       <c r="I80" s="9" t="b">
-        <f>G80&gt;(3*H80)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J80" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K80" s="2">
-        <f>J80*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L80" s="10">
@@ -5298,23 +5334,23 @@
         <v>93</v>
       </c>
       <c r="G81" s="9">
-        <f>((((L81/13650)/0.3)*0.0001)/K81)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.8681985895100424</v>
       </c>
       <c r="H81" s="9">
-        <f>((((M81/13650)/0.3)*0.0001)/K81)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.1836691952553105E-2</v>
       </c>
       <c r="I81" s="9" t="b">
-        <f>G81&gt;(3*H81)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J81" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K81" s="2">
-        <f>J81*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L81" s="10">
@@ -5345,23 +5381,23 @@
         <v>93</v>
       </c>
       <c r="G82" s="9">
-        <f>((((L82/13650)/0.3)*0.0001)/K82)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>2.2071862368002053</v>
       </c>
       <c r="H82" s="9">
-        <f>((((M82/13650)/0.3)*0.0001)/K82)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.6159970796824707E-2</v>
       </c>
       <c r="I82" s="9" t="b">
-        <f>G82&gt;(3*H82)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J82" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K82" s="2">
-        <f>J82*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L82" s="10">
@@ -5392,23 +5428,23 @@
         <v>93</v>
       </c>
       <c r="G83" s="9">
-        <f>((((L83/13650)/0.3)*0.0001)/K83)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.8625352358826619</v>
       </c>
       <c r="H83" s="9">
-        <f>((((M83/13650)/0.3)*0.0001)/K83)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>9.3923101169043177E-2</v>
       </c>
       <c r="I83" s="9" t="b">
-        <f>G83&gt;(3*H83)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J83" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K83" s="2">
-        <f>J83*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L83" s="10">
@@ -5439,23 +5475,23 @@
         <v>138</v>
       </c>
       <c r="G84" s="9">
-        <f>((((L84/13650)/0.3)*0.0001)/K84)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>4.5467390787327249</v>
       </c>
       <c r="H84" s="9">
-        <f>((((M84/13650)/0.3)*0.0001)/K84)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.14934311886561749</v>
       </c>
       <c r="I84" s="9" t="b">
-        <f>G84&gt;(3*H84)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J84" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K84" s="2">
-        <f>J84*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L84" s="10">
@@ -5486,23 +5522,23 @@
         <v>138</v>
       </c>
       <c r="G85" s="9">
-        <f>((((L85/13650)/0.3)*0.0001)/K85)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-9.8467840403326248E-2</v>
       </c>
       <c r="H85" s="9">
-        <f>((((M85/13650)/0.3)*0.0001)/K85)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.11453858335819792</v>
       </c>
       <c r="I85" s="9" t="b">
-        <f>G85&gt;(3*H85)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J85" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K85" s="2">
-        <f>J85*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L85" s="10">
@@ -5533,23 +5569,23 @@
         <v>140</v>
       </c>
       <c r="G86" s="9">
-        <f>((((L86/13650)/0.3)*0.0001)/K86)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.6126126649659156</v>
       </c>
       <c r="H86" s="9">
-        <f>((((M86/13650)/0.3)*0.0001)/K86)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.14447854176771352</v>
       </c>
       <c r="I86" s="9" t="b">
-        <f>G86&gt;(3*H86)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J86" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K86" s="2">
-        <f>J86*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L86" s="10">
@@ -5580,23 +5616,23 @@
         <v>140</v>
       </c>
       <c r="G87" s="9">
-        <f>((((L87/13650)/0.3)*0.0001)/K87)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.4484995976270778</v>
       </c>
       <c r="H87" s="9">
-        <f>((((M87/13650)/0.3)*0.0001)/K87)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.8699462318863499E-2</v>
       </c>
       <c r="I87" s="9" t="b">
-        <f>G87&gt;(3*H87)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J87" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K87" s="2">
-        <f>J87*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L87" s="10">
@@ -5627,23 +5663,23 @@
         <v>139</v>
       </c>
       <c r="G88" s="9">
-        <f>((((L88/13650)/0.3)*0.0001)/K88)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.23083444553563909</v>
       </c>
       <c r="H88" s="9">
-        <f>((((M88/13650)/0.3)*0.0001)/K88)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5766390385270814E-2</v>
       </c>
       <c r="I88" s="9" t="b">
-        <f>G88&gt;(3*H88)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J88" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K88" s="2">
-        <f>J88*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L88" s="10">
@@ -5674,23 +5710,23 @@
         <v>139</v>
       </c>
       <c r="G89" s="9">
-        <f>((((L89/13650)/0.3)*0.0001)/K89)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.1019788915082396</v>
       </c>
       <c r="H89" s="9">
-        <f>((((M89/13650)/0.3)*0.0001)/K89)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.3850531387157433E-2</v>
       </c>
       <c r="I89" s="9" t="b">
-        <f>G89&gt;(3*H89)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J89" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K89" s="2">
-        <f>J89*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L89" s="10">
@@ -5721,23 +5757,23 @@
         <v>139</v>
       </c>
       <c r="G90" s="9">
-        <f>((((L90/13650)/0.3)*0.0001)/K90)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-2.3024256234198019</v>
       </c>
       <c r="H90" s="9">
-        <f>((((M90/13650)/0.3)*0.0001)/K90)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.1684464546791313E-2</v>
       </c>
       <c r="I90" s="9" t="b">
-        <f>G90&gt;(3*H90)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J90" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K90" s="2">
-        <f>J90*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L90" s="10">
@@ -5768,23 +5804,23 @@
         <v>139</v>
       </c>
       <c r="G91" s="9">
-        <f>((((L91/13650)/0.3)*0.0001)/K91)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.5405105304629223</v>
       </c>
       <c r="H91" s="9">
-        <f>((((M91/13650)/0.3)*0.0001)/K91)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.8525638525418334E-2</v>
       </c>
       <c r="I91" s="9" t="b">
-        <f>G91&gt;(3*H91)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J91" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K91" s="2">
-        <f>J91*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L91" s="10">
@@ -5815,23 +5851,23 @@
         <v>139</v>
       </c>
       <c r="G92" s="9">
-        <f>((((L92/13650)/0.3)*0.0001)/K92)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.2908434378555829</v>
       </c>
       <c r="H92" s="9">
-        <f>((((M92/13650)/0.3)*0.0001)/K92)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.6666365374872255E-2</v>
       </c>
       <c r="I92" s="9" t="b">
-        <f>G92&gt;(3*H92)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J92" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K92" s="2">
-        <f>J92*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L92" s="10">
@@ -5862,23 +5898,23 @@
         <v>139</v>
       </c>
       <c r="G93" s="9">
-        <f>((((L93/13650)/0.3)*0.0001)/K93)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>2.1592975056750507</v>
       </c>
       <c r="H93" s="9">
-        <f>((((M93/13650)/0.3)*0.0001)/K93)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>8.0284344940113564E-2</v>
       </c>
       <c r="I93" s="9" t="b">
-        <f>G93&gt;(3*H93)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J93" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K93" s="2">
-        <f>J93*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L93" s="10">
@@ -5909,23 +5945,23 @@
         <v>139</v>
       </c>
       <c r="G94" s="9">
-        <f>((((L94/13650)/0.3)*0.0001)/K94)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.35459184057811755</v>
       </c>
       <c r="H94" s="9">
-        <f>((((M94/13650)/0.3)*0.0001)/K94)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.9396013638331066E-2</v>
       </c>
       <c r="I94" s="9" t="b">
-        <f>G94&gt;(3*H94)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J94" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K94" s="2">
-        <f>J94*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L94" s="10">
@@ -5956,23 +5992,23 @@
         <v>9</v>
       </c>
       <c r="G95" s="9">
-        <f>((((L95/13650)/0.3)*0.0001)/K95)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>18.337617491504307</v>
       </c>
       <c r="H95" s="9">
-        <f>((((M95/13650)/0.3)*0.0001)/K95)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.57343013949363353</v>
       </c>
       <c r="I95" s="9" t="b">
-        <f>G95&gt;(3*H95)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J95" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K95" s="2">
-        <f>J95*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L95" s="10">
@@ -5997,29 +6033,29 @@
         <v>102</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="F96" s="18" t="s">
         <v>9</v>
       </c>
       <c r="G96" s="9">
-        <f>((((L96/13650)/0.3)*0.0001)/K96)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>8.550021770539983</v>
       </c>
       <c r="H96" s="9">
-        <f>((((M96/13650)/0.3)*0.0001)/K96)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.20671359817577464</v>
       </c>
       <c r="I96" s="9" t="b">
-        <f>G96&gt;(3*H96)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J96" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K96" s="2">
-        <f>J96*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L96" s="10">
@@ -6050,23 +6086,23 @@
         <v>9</v>
       </c>
       <c r="G97" s="9">
-        <f>((((L97/13650)/0.3)*0.0001)/K97)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>16.141730842947137</v>
       </c>
       <c r="H97" s="9">
-        <f>((((M97/13650)/0.3)*0.0001)/K97)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.34759922205867994</v>
       </c>
       <c r="I97" s="9" t="b">
-        <f>G97&gt;(3*H97)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J97" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K97" s="2">
-        <f>J97*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L97" s="10">
@@ -6097,23 +6133,23 @@
         <v>9</v>
       </c>
       <c r="G98" s="9">
-        <f>((((L98/13650)/0.3)*0.0001)/K98)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>11.712292251689394</v>
       </c>
       <c r="H98" s="9">
-        <f>((((M98/13650)/0.3)*0.0001)/K98)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.33369698221663679</v>
       </c>
       <c r="I98" s="9" t="b">
-        <f>G98&gt;(3*H98)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J98" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K98" s="2">
-        <f>J98*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L98" s="10">
@@ -6144,23 +6180,23 @@
         <v>9</v>
       </c>
       <c r="G99" s="9">
-        <f>((((L99/13650)/0.3)*0.0001)/K99)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>13.579414689938226</v>
       </c>
       <c r="H99" s="9">
-        <f>((((M99/13650)/0.3)*0.0001)/K99)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.47019903602640267</v>
       </c>
       <c r="I99" s="9" t="b">
-        <f>G99&gt;(3*H99)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J99" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K99" s="2">
-        <f>J99*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L99" s="10">
@@ -6191,23 +6227,23 @@
         <v>9</v>
       </c>
       <c r="G100" s="9">
-        <f>((((L100/13650)/0.3)*0.0001)/K100)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>15.733331439307149</v>
       </c>
       <c r="H100" s="9">
-        <f>((((M100/13650)/0.3)*0.0001)/K100)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.28739092593006393</v>
       </c>
       <c r="I100" s="9" t="b">
-        <f>G100&gt;(3*H100)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J100" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K100" s="2">
-        <f>J100*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L100" s="10">
@@ -6238,23 +6274,23 @@
         <v>9</v>
       </c>
       <c r="G101" s="9">
-        <f>((((L101/13650)/0.3)*0.0001)/K101)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>16.514617254966236</v>
       </c>
       <c r="H101" s="9">
-        <f>((((M101/13650)/0.3)*0.0001)/K101)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.59216284403670394</v>
       </c>
       <c r="I101" s="9" t="b">
-        <f>G101&gt;(3*H101)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J101" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K101" s="2">
-        <f>J101*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L101" s="10">
@@ -6285,23 +6321,23 @@
         <v>141</v>
       </c>
       <c r="G102" s="9">
-        <f>((((L102/13650)/0.3)*0.0001)/K102)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.59026896678931895</v>
       </c>
       <c r="H102" s="9">
-        <f>((((M102/13650)/0.3)*0.0001)/K102)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.971456257139568E-2</v>
       </c>
       <c r="I102" s="9" t="b">
-        <f>G102&gt;(3*H102)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J102" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K102" s="2">
-        <f>J102*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L102" s="10">
@@ -6332,23 +6368,23 @@
         <v>97</v>
       </c>
       <c r="G103" s="9">
-        <f>((((L103/13650)/0.3)*0.0001)/K103)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.1912994461910478</v>
       </c>
       <c r="H103" s="9">
-        <f>((((M103/13650)/0.3)*0.0001)/K103)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.1444883843080123E-2</v>
       </c>
       <c r="I103" s="9" t="b">
-        <f>G103&gt;(3*H103)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J103" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K103" s="2">
-        <f>J103*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L103" s="10">
@@ -6379,23 +6415,23 @@
         <v>97</v>
       </c>
       <c r="G104" s="9">
-        <f>((((L104/13650)/0.3)*0.0001)/K104)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.99974452169057515</v>
       </c>
       <c r="H104" s="9">
-        <f>((((M104/13650)/0.3)*0.0001)/K104)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.0297032996317973E-2</v>
       </c>
       <c r="I104" s="9" t="b">
-        <f>G104&gt;(3*H104)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J104" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K104" s="2">
-        <f>J104*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L104" s="10">
@@ -6426,23 +6462,23 @@
         <v>97</v>
       </c>
       <c r="G105" s="9">
-        <f>((((L105/13650)/0.3)*0.0001)/K105)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.8014772113132345</v>
       </c>
       <c r="H105" s="9">
-        <f>((((M105/13650)/0.3)*0.0001)/K105)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.290051072097459E-2</v>
       </c>
       <c r="I105" s="9" t="b">
-        <f>G105&gt;(3*H105)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J105" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K105" s="2">
-        <f>J105*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L105" s="10">
@@ -6473,23 +6509,23 @@
         <v>97</v>
       </c>
       <c r="G106" s="9">
-        <f>((((L106/13650)/0.3)*0.0001)/K106)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.7245323961347272</v>
       </c>
       <c r="H106" s="9">
-        <f>((((M106/13650)/0.3)*0.0001)/K106)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.597518231921728E-2</v>
       </c>
       <c r="I106" s="9" t="b">
-        <f>G106&gt;(3*H106)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J106" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K106" s="2">
-        <f>J106*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L106" s="10">
@@ -6520,23 +6556,23 @@
         <v>150</v>
       </c>
       <c r="G107" s="9">
-        <f>((((L107/13650)/0.3)*0.0001)/K107)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.82217956358622934</v>
       </c>
       <c r="H107" s="9">
-        <f>((((M107/13650)/0.3)*0.0001)/K107)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5904241467598426E-2</v>
       </c>
       <c r="I107" s="9" t="b">
-        <f>G107&gt;(3*H107)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J107" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K107" s="2">
-        <f>J107*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L107" s="10">
@@ -6567,23 +6603,23 @@
         <v>150</v>
       </c>
       <c r="G108" s="9">
-        <f>((((L108/13650)/0.3)*0.0001)/K108)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.5679523876245294</v>
       </c>
       <c r="H108" s="9">
-        <f>((((M108/13650)/0.3)*0.0001)/K108)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.296782580111239E-2</v>
       </c>
       <c r="I108" s="9" t="b">
-        <f>G108&gt;(3*H108)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J108" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K108" s="2">
-        <f>J108*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L108" s="10">
@@ -6614,23 +6650,23 @@
         <v>9</v>
       </c>
       <c r="G109" s="9">
-        <f>((((L109/13650)/0.3)*0.0001)/K109)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>33.890155518923343</v>
       </c>
       <c r="H109" s="9">
-        <f>((((M109/13650)/0.3)*0.0001)/K109)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.85710184516750565</v>
       </c>
       <c r="I109" s="9" t="b">
-        <f>G109&gt;(3*H109)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J109" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K109" s="2">
-        <f>J109*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L109" s="10">
@@ -6661,23 +6697,23 @@
         <v>48</v>
       </c>
       <c r="G110" s="9">
-        <f>((((L110/13650)/0.3)*0.0001)/K110)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.44767892467522685</v>
       </c>
       <c r="H110" s="9">
-        <f>((((M110/13650)/0.3)*0.0001)/K110)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.4701908793945972E-2</v>
       </c>
       <c r="I110" s="9" t="b">
-        <f>G110&gt;(3*H110)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J110" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K110" s="2">
-        <f>J110*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L110" s="10">
@@ -6708,23 +6744,23 @@
         <v>48</v>
       </c>
       <c r="G111" s="9">
-        <f>((((L111/13650)/0.3)*0.0001)/K111)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.76514354674053731</v>
       </c>
       <c r="H111" s="9">
-        <f>((((M111/13650)/0.3)*0.0001)/K111)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.0131153651981887E-2</v>
       </c>
       <c r="I111" s="9" t="b">
-        <f>G111&gt;(3*H111)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J111" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K111" s="2">
-        <f>J111*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L111" s="10">
@@ -6755,23 +6791,23 @@
         <v>47</v>
       </c>
       <c r="G112" s="9">
-        <f>((((L112/13650)/0.3)*0.0001)/K112)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.62954848782453643</v>
       </c>
       <c r="H112" s="9">
-        <f>((((M112/13650)/0.3)*0.0001)/K112)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.21023381781413969</v>
       </c>
       <c r="I112" s="9" t="b">
-        <f>G112&gt;(3*H112)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J112" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K112" s="2">
-        <f>J112*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L112" s="10">
@@ -6802,23 +6838,23 @@
         <v>97</v>
       </c>
       <c r="G113" s="9">
-        <f>((((L113/13650)/0.3)*0.0001)/K113)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.78935695011849238</v>
       </c>
       <c r="H113" s="9">
-        <f>((((M113/13650)/0.3)*0.0001)/K113)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.0142816683929963E-2</v>
       </c>
       <c r="I113" s="9" t="b">
-        <f>G113&gt;(3*H113)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J113" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K113" s="2">
-        <f>J113*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L113" s="10">
@@ -6849,23 +6885,23 @@
         <v>47</v>
       </c>
       <c r="G114" s="9">
-        <f>((((L114/13650)/0.3)*0.0001)/K114)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>2.0323116568489379</v>
       </c>
       <c r="H114" s="9">
-        <f>((((M114/13650)/0.3)*0.0001)/K114)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.3414471979116508E-2</v>
       </c>
       <c r="I114" s="9" t="b">
-        <f>G114&gt;(3*H114)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J114" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K114" s="2">
-        <f>J114*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L114" s="10">
@@ -6896,23 +6932,23 @@
         <v>47</v>
       </c>
       <c r="G115" s="9">
-        <f>((((L115/13650)/0.3)*0.0001)/K115)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-5.0579109278236604E-2</v>
       </c>
       <c r="H115" s="9">
-        <f>((((M115/13650)/0.3)*0.0001)/K115)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.398749317918058E-2</v>
       </c>
       <c r="I115" s="9" t="b">
-        <f>G115&gt;(3*H115)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J115" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K115" s="2">
-        <f>J115*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L115" s="10">
@@ -6943,23 +6979,23 @@
         <v>47</v>
       </c>
       <c r="G116" s="9">
-        <f>((((L116/13650)/0.3)*0.0001)/K116)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-2.0220882198671752</v>
       </c>
       <c r="H116" s="9">
-        <f>((((M116/13650)/0.3)*0.0001)/K116)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.6412202431586631E-2</v>
       </c>
       <c r="I116" s="9" t="b">
-        <f>G116&gt;(3*H116)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J116" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K116" s="2">
-        <f>J116*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L116" s="10">
@@ -6990,23 +7026,23 @@
         <v>97</v>
       </c>
       <c r="G117" s="9">
-        <f>((((L117/13650)/0.3)*0.0001)/K117)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.12321931941184838</v>
       </c>
       <c r="H117" s="9">
-        <f>((((M117/13650)/0.3)*0.0001)/K117)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.098568884215865E-2</v>
       </c>
       <c r="I117" s="9" t="b">
-        <f>G117&gt;(3*H117)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J117" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K117" s="2">
-        <f>J117*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L117" s="10">
@@ -7037,23 +7073,23 @@
         <v>97</v>
       </c>
       <c r="G118" s="9">
-        <f>((((L118/13650)/0.3)*0.0001)/K118)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.171390647858171</v>
       </c>
       <c r="H118" s="9">
-        <f>((((M118/13650)/0.3)*0.0001)/K118)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.64866051153786E-2</v>
       </c>
       <c r="I118" s="9" t="b">
-        <f>G118&gt;(3*H118)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J118" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K118" s="2">
-        <f>J118*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L118" s="10">
@@ -7084,23 +7120,23 @@
         <v>118</v>
       </c>
       <c r="G119" s="9">
-        <f>((((L119/13650)/0.3)*0.0001)/K119)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.18348379004117296</v>
       </c>
       <c r="H119" s="9">
-        <f>((((M119/13650)/0.3)*0.0001)/K119)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.13162520308545222</v>
       </c>
       <c r="I119" s="9" t="b">
-        <f>G119&gt;(3*H119)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J119" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K119" s="2">
-        <f>J119*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L119" s="10">
@@ -7131,23 +7167,23 @@
         <v>118</v>
       </c>
       <c r="G120" s="9">
-        <f>((((L120/13650)/0.3)*0.0001)/K120)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.6747468407965318</v>
       </c>
       <c r="H120" s="9">
-        <f>((((M120/13650)/0.3)*0.0001)/K120)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5698812639065655E-2</v>
       </c>
       <c r="I120" s="9" t="b">
-        <f>G120&gt;(3*H120)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J120" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K120" s="2">
-        <f>J120*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L120" s="10">
@@ -7178,23 +7214,23 @@
         <v>9</v>
       </c>
       <c r="G121" s="9">
-        <f>((((L121/13650)/0.3)*0.0001)/K121)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>18.961247147392047</v>
       </c>
       <c r="H121" s="9">
-        <f>((((M121/13650)/0.3)*0.0001)/K121)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.31903676841278861</v>
       </c>
       <c r="I121" s="9" t="b">
-        <f>G121&gt;(3*H121)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J121" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K121" s="2">
-        <f>J121*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L121" s="10">
@@ -7225,23 +7261,23 @@
         <v>9</v>
       </c>
       <c r="G122" s="9">
-        <f>((((L122/13650)/0.3)*0.0001)/K122)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>11.240399923636305</v>
       </c>
       <c r="H122" s="9">
-        <f>((((M122/13650)/0.3)*0.0001)/K122)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.31416569958250989</v>
       </c>
       <c r="I122" s="9" t="b">
-        <f>G122&gt;(3*H122)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J122" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K122" s="2">
-        <f>J122*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L122" s="10">
@@ -7272,23 +7308,23 @@
         <v>93</v>
       </c>
       <c r="G123" s="9">
-        <f>((((L123/13650)/0.3)*0.0001)/K123)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.3053714798822724</v>
       </c>
       <c r="H123" s="9">
-        <f>((((M123/13650)/0.3)*0.0001)/K123)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.26888495840683646</v>
       </c>
       <c r="I123" s="9" t="b">
-        <f>G123&gt;(3*H123)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J123" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K123" s="2">
-        <f>J123*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L123" s="10">
@@ -7319,23 +7355,23 @@
         <v>93</v>
       </c>
       <c r="G124" s="9">
-        <f>((((L124/13650)/0.3)*0.0001)/K124)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>2.1447694636483852</v>
       </c>
       <c r="H124" s="9">
-        <f>((((M124/13650)/0.3)*0.0001)/K124)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.19673823260850465</v>
       </c>
       <c r="I124" s="9" t="b">
-        <f>G124&gt;(3*H124)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J124" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K124" s="2">
-        <f>J124*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L124" s="10">
@@ -7366,23 +7402,23 @@
         <v>171</v>
       </c>
       <c r="G125" s="9">
-        <f>((((L125/13650)/0.3)*0.0001)/K125)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.0863746982202935</v>
       </c>
       <c r="H125" s="9">
-        <f>((((M125/13650)/0.3)*0.0001)/K125)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.0426617340075715E-2</v>
       </c>
       <c r="I125" s="9" t="b">
-        <f>G125&gt;(3*H125)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J125" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K125" s="2">
-        <f>J125*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L125" s="10">
@@ -7413,23 +7449,23 @@
         <v>140</v>
       </c>
       <c r="G126" s="9">
-        <f>((((L126/13650)/0.3)*0.0001)/K126)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.4754033791579981</v>
       </c>
       <c r="H126" s="9">
-        <f>((((M126/13650)/0.3)*0.0001)/K126)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.13350525737807176</v>
       </c>
       <c r="I126" s="9" t="b">
-        <f>G126&gt;(3*H126)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J126" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K126" s="2">
-        <f>J126*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L126" s="10">
@@ -7460,23 +7496,23 @@
         <v>140</v>
       </c>
       <c r="G127" s="9">
-        <f>((((L127/13650)/0.3)*0.0001)/K127)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.49718188269220903</v>
       </c>
       <c r="H127" s="9">
-        <f>((((M127/13650)/0.3)*0.0001)/K127)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.3466950497634789E-2</v>
       </c>
       <c r="I127" s="9" t="b">
-        <f>G127&gt;(3*H127)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J127" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K127" s="2">
-        <f>J127*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L127" s="10">
@@ -7507,23 +7543,23 @@
         <v>140</v>
       </c>
       <c r="G128" s="9">
-        <f>((((L128/13650)/0.3)*0.0001)/K128)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.17487457995126587</v>
       </c>
       <c r="H128" s="9">
-        <f>((((M128/13650)/0.3)*0.0001)/K128)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>8.4062798028649868E-2</v>
       </c>
       <c r="I128" s="9" t="b">
-        <f>G128&gt;(3*H128)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J128" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K128" s="2">
-        <f>J128*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L128" s="10">
@@ -7554,23 +7590,23 @@
         <v>140</v>
       </c>
       <c r="G129" s="9">
-        <f>((((L129/13650)/0.3)*0.0001)/K129)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.9741994887420549</v>
       </c>
       <c r="H129" s="9">
-        <f>((((M129/13650)/0.3)*0.0001)/K129)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.9683655729574764E-2</v>
       </c>
       <c r="I129" s="9" t="b">
-        <f>G129&gt;(3*H129)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J129" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K129" s="2">
-        <f>J129*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L129" s="10">
@@ -7601,23 +7637,23 @@
         <v>140</v>
       </c>
       <c r="G130" s="9">
-        <f>((((L130/13650)/0.3)*0.0001)/K130)*1000000000</f>
+        <f t="shared" ref="G130:G193" si="10">((((L130/13650)/0.3)*0.0001)/K130)*1000000000</f>
         <v>-1.1202734629493056</v>
       </c>
       <c r="H130" s="9">
-        <f>((((M130/13650)/0.3)*0.0001)/K130)*1000000000</f>
+        <f t="shared" ref="H130:H193" si="11">((((M130/13650)/0.3)*0.0001)/K130)*1000000000</f>
         <v>6.4195445691635614E-2</v>
       </c>
       <c r="I130" s="9" t="b">
-        <f>G130&gt;(3*H130)</f>
+        <f t="shared" ref="I130:I193" si="12">G130&gt;(3*H130)</f>
         <v>0</v>
       </c>
       <c r="J130" s="2">
-        <f>0.8/2</f>
+        <f t="shared" ref="J130:J193" si="13">0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K130" s="2">
-        <f>J130*0.003</f>
+        <f t="shared" ref="K130:K193" si="14">J130*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L130" s="10">
@@ -7648,23 +7684,23 @@
         <v>140</v>
       </c>
       <c r="G131" s="9">
-        <f>((((L131/13650)/0.3)*0.0001)/K131)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.1165069335349984</v>
       </c>
       <c r="H131" s="9">
-        <f>((((M131/13650)/0.3)*0.0001)/K131)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.7339661351592264E-2</v>
       </c>
       <c r="I131" s="9" t="b">
-        <f>G131&gt;(3*H131)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J131" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K131" s="2">
-        <f>J131*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L131" s="10">
@@ -7695,23 +7731,23 @@
         <v>140</v>
       </c>
       <c r="G132" s="9">
-        <f>((((L132/13650)/0.3)*0.0001)/K132)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.49933418521466899</v>
       </c>
       <c r="H132" s="9">
-        <f>((((M132/13650)/0.3)*0.0001)/K132)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>8.4033050435616333E-2</v>
       </c>
       <c r="I132" s="9" t="b">
-        <f>G132&gt;(3*H132)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J132" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K132" s="2">
-        <f>J132*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L132" s="10">
@@ -7742,23 +7778,23 @@
         <v>140</v>
       </c>
       <c r="G133" s="9">
-        <f>((((L133/13650)/0.3)*0.0001)/K133)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-2.9680251784958211</v>
       </c>
       <c r="H133" s="9">
-        <f>((((M133/13650)/0.3)*0.0001)/K133)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.000366267602196E-2</v>
       </c>
       <c r="I133" s="9" t="b">
-        <f>G133&gt;(3*H133)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J133" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K133" s="2">
-        <f>J133*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L133" s="10">
@@ -7789,23 +7825,23 @@
         <v>170</v>
       </c>
       <c r="G134" s="9">
-        <f>((((L134/13650)/0.3)*0.0001)/K134)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.824614463429894</v>
       </c>
       <c r="H134" s="9">
-        <f>((((M134/13650)/0.3)*0.0001)/K134)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.5142530201041838E-2</v>
       </c>
       <c r="I134" s="9" t="b">
-        <f>G134&gt;(3*H134)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J134" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K134" s="2">
-        <f>J134*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L134" s="10">
@@ -7836,23 +7872,23 @@
         <v>170</v>
       </c>
       <c r="G135" s="9">
-        <f>((((L135/13650)/0.3)*0.0001)/K135)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.7686545978454988</v>
       </c>
       <c r="H135" s="9">
-        <f>((((M135/13650)/0.3)*0.0001)/K135)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.5532358372740669E-2</v>
       </c>
       <c r="I135" s="9" t="b">
-        <f>G135&gt;(3*H135)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J135" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K135" s="2">
-        <f>J135*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L135" s="10">
@@ -7883,23 +7919,23 @@
         <v>170</v>
       </c>
       <c r="G136" s="9">
-        <f>((((L136/13650)/0.3)*0.0001)/K136)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.89051516867486968</v>
       </c>
       <c r="H136" s="9">
-        <f>((((M136/13650)/0.3)*0.0001)/K136)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.17052140510477204</v>
       </c>
       <c r="I136" s="9" t="b">
-        <f>G136&gt;(3*H136)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J136" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K136" s="2">
-        <f>J136*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L136" s="10">
@@ -7930,23 +7966,23 @@
         <v>170</v>
       </c>
       <c r="G137" s="9">
-        <f>((((L137/13650)/0.3)*0.0001)/K137)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.850186615390216</v>
       </c>
       <c r="H137" s="9">
-        <f>((((M137/13650)/0.3)*0.0001)/K137)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.7767247272341782E-2</v>
       </c>
       <c r="I137" s="9" t="b">
-        <f>G137&gt;(3*H137)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J137" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K137" s="2">
-        <f>J137*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L137" s="10">
@@ -7977,23 +8013,23 @@
         <v>170</v>
       </c>
       <c r="G138" s="9">
-        <f>((((L138/13650)/0.3)*0.0001)/K138)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.5956768421073018</v>
       </c>
       <c r="H138" s="9">
-        <f>((((M138/13650)/0.3)*0.0001)/K138)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.5612907247477559E-2</v>
       </c>
       <c r="I138" s="9" t="b">
-        <f>G138&gt;(3*H138)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J138" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K138" s="2">
-        <f>J138*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L138" s="10">
@@ -8024,23 +8060,23 @@
         <v>170</v>
       </c>
       <c r="G139" s="9">
-        <f>((((L139/13650)/0.3)*0.0001)/K139)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.0043317240567338</v>
       </c>
       <c r="H139" s="9">
-        <f>((((M139/13650)/0.3)*0.0001)/K139)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.7241747529759801E-2</v>
       </c>
       <c r="I139" s="9" t="b">
-        <f>G139&gt;(3*H139)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J139" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K139" s="2">
-        <f>J139*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L139" s="10">
@@ -8071,23 +8107,23 @@
         <v>170</v>
       </c>
       <c r="G140" s="9">
-        <f>((((L140/13650)/0.3)*0.0001)/K140)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.414062757267422</v>
       </c>
       <c r="H140" s="9">
-        <f>((((M140/13650)/0.3)*0.0001)/K140)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.10277380626591473</v>
       </c>
       <c r="I140" s="9" t="b">
-        <f>G140&gt;(3*H140)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J140" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K140" s="2">
-        <f>J140*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L140" s="10">
@@ -8118,23 +8154,23 @@
         <v>170</v>
       </c>
       <c r="G141" s="9">
-        <f>((((L141/13650)/0.3)*0.0001)/K141)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.874655497077494</v>
       </c>
       <c r="H141" s="9">
-        <f>((((M141/13650)/0.3)*0.0001)/K141)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.10278115914424069</v>
       </c>
       <c r="I141" s="9" t="b">
-        <f>G141&gt;(3*H141)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J141" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K141" s="2">
-        <f>J141*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L141" s="10">
@@ -8165,23 +8201,23 @@
         <v>9</v>
       </c>
       <c r="G142" s="9">
-        <f>((((L142/13650)/0.3)*0.0001)/K142)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>16.730923658475241</v>
       </c>
       <c r="H142" s="9">
-        <f>((((M142/13650)/0.3)*0.0001)/K142)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.28056019306168167</v>
       </c>
       <c r="I142" s="9" t="b">
-        <f>G142&gt;(3*H142)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J142" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K142" s="2">
-        <f>J142*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L142" s="10">
@@ -8212,23 +8248,23 @@
         <v>9</v>
       </c>
       <c r="G143" s="9">
-        <f>((((L143/13650)/0.3)*0.0001)/K143)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>12.712036773379973</v>
       </c>
       <c r="H143" s="9">
-        <f>((((M143/13650)/0.3)*0.0001)/K143)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.3093024335555174</v>
       </c>
       <c r="I143" s="9" t="b">
-        <f>G143&gt;(3*H143)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J143" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K143" s="2">
-        <f>J143*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L143" s="10">
@@ -8259,23 +8295,23 @@
         <v>93</v>
       </c>
       <c r="G144" s="9">
-        <f>((((L144/13650)/0.3)*0.0001)/K144)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>3.1805650525904561</v>
       </c>
       <c r="H144" s="9">
-        <f>((((M144/13650)/0.3)*0.0001)/K144)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.12335425229577716</v>
       </c>
       <c r="I144" s="9" t="b">
-        <f>G144&gt;(3*H144)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J144" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K144" s="2">
-        <f>J144*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L144" s="10">
@@ -8306,23 +8342,23 @@
         <v>93</v>
       </c>
       <c r="G145" s="9">
-        <f>((((L145/13650)/0.3)*0.0001)/K145)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.18886454634734826</v>
       </c>
       <c r="H145" s="9">
-        <f>((((M145/13650)/0.3)*0.0001)/K145)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.9885928232139641E-2</v>
       </c>
       <c r="I145" s="9" t="b">
-        <f>G145&gt;(3*H145)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J145" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K145" s="2">
-        <f>J145*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L145" s="10">
@@ -8353,23 +8389,23 @@
         <v>93</v>
       </c>
       <c r="G146" s="9">
-        <f>((((L146/13650)/0.3)*0.0001)/K146)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.6707248330727729</v>
       </c>
       <c r="H146" s="9">
-        <f>((((M146/13650)/0.3)*0.0001)/K146)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.15257069298840642</v>
       </c>
       <c r="I146" s="9" t="b">
-        <f>G146&gt;(3*H146)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J146" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K146" s="2">
-        <f>J146*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L146" s="10">
@@ -8400,23 +8436,23 @@
         <v>93</v>
       </c>
       <c r="G147" s="9">
-        <f>((((L147/13650)/0.3)*0.0001)/K147)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-3.5927309856447751</v>
       </c>
       <c r="H147" s="9">
-        <f>((((M147/13650)/0.3)*0.0001)/K147)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.16022614336774038</v>
       </c>
       <c r="I147" s="9" t="b">
-        <f>G147&gt;(3*H147)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J147" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K147" s="2">
-        <f>J147*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L147" s="10">
@@ -8447,23 +8483,23 @@
         <v>138</v>
       </c>
       <c r="G148" s="9">
-        <f>((((L148/13650)/0.3)*0.0001)/K148)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.2892292109637393</v>
       </c>
       <c r="H148" s="9">
-        <f>((((M148/13650)/0.3)*0.0001)/K148)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.15243762273748374</v>
       </c>
       <c r="I148" s="9" t="b">
-        <f>G148&gt;(3*H148)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J148" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K148" s="2">
-        <f>J148*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L148" s="10">
@@ -8494,23 +8530,23 @@
         <v>138</v>
       </c>
       <c r="G149" s="9">
-        <f>((((L149/13650)/0.3)*0.0001)/K149)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-3.7503871454162132</v>
       </c>
       <c r="H149" s="9">
-        <f>((((M149/13650)/0.3)*0.0001)/K149)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.17966559182253639</v>
       </c>
       <c r="I149" s="9" t="b">
-        <f>G149&gt;(3*H149)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J149" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K149" s="2">
-        <f>J149*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L149" s="10">
@@ -8541,23 +8577,23 @@
         <v>138</v>
       </c>
       <c r="G150" s="9">
-        <f>((((L150/13650)/0.3)*0.0001)/K150)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>4.6032370199477564</v>
       </c>
       <c r="H150" s="9">
-        <f>((((M150/13650)/0.3)*0.0001)/K150)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.44423319019768764</v>
       </c>
       <c r="I150" s="9" t="b">
-        <f>G150&gt;(3*H150)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J150" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K150" s="2">
-        <f>J150*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L150" s="10">
@@ -8588,23 +8624,23 @@
         <v>138</v>
       </c>
       <c r="G151" s="9">
-        <f>((((L151/13650)/0.3)*0.0001)/K151)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.46274504233256003</v>
       </c>
       <c r="H151" s="9">
-        <f>((((M151/13650)/0.3)*0.0001)/K151)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.221556793463299E-2</v>
       </c>
       <c r="I151" s="9" t="b">
-        <f>G151&gt;(3*H151)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J151" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K151" s="2">
-        <f>J151*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L151" s="10">
@@ -8635,23 +8671,23 @@
         <v>138</v>
       </c>
       <c r="G152" s="9">
-        <f>((((L152/13650)/0.3)*0.0001)/K152)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>3.8370173219459236</v>
       </c>
       <c r="H152" s="9">
-        <f>((((M152/13650)/0.3)*0.0001)/K152)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.18578702545718273</v>
       </c>
       <c r="I152" s="9" t="b">
-        <f>G152&gt;(3*H152)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J152" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K152" s="2">
-        <f>J152*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L152" s="10">
@@ -8682,23 +8718,23 @@
         <v>138</v>
       </c>
       <c r="G153" s="9">
-        <f>((((L153/13650)/0.3)*0.0001)/K153)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-3.2273776324543242</v>
       </c>
       <c r="H153" s="9">
-        <f>((((M153/13650)/0.3)*0.0001)/K153)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.12965421997935228</v>
       </c>
       <c r="I153" s="9" t="b">
-        <f>G153&gt;(3*H153)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J153" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K153" s="2">
-        <f>J153*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L153" s="10">
@@ -8729,23 +8765,23 @@
         <v>138</v>
       </c>
       <c r="G154" s="9">
-        <f>((((L154/13650)/0.3)*0.0001)/K154)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>4.0958317002738163</v>
       </c>
       <c r="H154" s="9">
-        <f>((((M154/13650)/0.3)*0.0001)/K154)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>8.2263705604243315E-2</v>
       </c>
       <c r="I154" s="9" t="b">
-        <f>G154&gt;(3*H154)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J154" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K154" s="2">
-        <f>J154*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L154" s="10">
@@ -8776,23 +8812,23 @@
         <v>171</v>
       </c>
       <c r="G155" s="9">
-        <f>((((L155/13650)/0.3)*0.0001)/K155)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.3648423965716261</v>
       </c>
       <c r="H155" s="9">
-        <f>((((M155/13650)/0.3)*0.0001)/K155)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.15406062962650127</v>
       </c>
       <c r="I155" s="9" t="b">
-        <f>G155&gt;(3*H155)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J155" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K155" s="2">
-        <f>J155*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L155" s="10">
@@ -8823,23 +8859,23 @@
         <v>171</v>
       </c>
       <c r="G156" s="9">
-        <f>((((L156/13650)/0.3)*0.0001)/K156)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.7958409766976646</v>
       </c>
       <c r="H156" s="9">
-        <f>((((M156/13650)/0.3)*0.0001)/K156)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.3063609335972742E-2</v>
       </c>
       <c r="I156" s="9" t="b">
-        <f>G156&gt;(3*H156)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J156" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K156" s="2">
-        <f>J156*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L156" s="10">
@@ -8870,23 +8906,23 @@
         <v>171</v>
       </c>
       <c r="G157" s="9">
-        <f>((((L157/13650)/0.3)*0.0001)/K157)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.6954763120812795</v>
       </c>
       <c r="H157" s="9">
-        <f>((((M157/13650)/0.3)*0.0001)/K157)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>9.9939159974424346E-2</v>
       </c>
       <c r="I157" s="9" t="b">
-        <f>G157&gt;(3*H157)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J157" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K157" s="2">
-        <f>J157*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L157" s="10">
@@ -8917,23 +8953,23 @@
         <v>171</v>
       </c>
       <c r="G158" s="9">
-        <f>((((L158/13650)/0.3)*0.0001)/K158)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.86307331151328692</v>
       </c>
       <c r="H158" s="9">
-        <f>((((M158/13650)/0.3)*0.0001)/K158)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.2539731093462938E-2</v>
       </c>
       <c r="I158" s="9" t="b">
-        <f>G158&gt;(3*H158)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J158" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K158" s="2">
-        <f>J158*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L158" s="10">
@@ -8964,23 +9000,23 @@
         <v>171</v>
       </c>
       <c r="G159" s="9">
-        <f>((((L159/13650)/0.3)*0.0001)/K159)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.23944365562556721</v>
       </c>
       <c r="H159" s="9">
-        <f>((((M159/13650)/0.3)*0.0001)/K159)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.885721045671858E-2</v>
       </c>
       <c r="I159" s="9" t="b">
-        <f>G159&gt;(3*H159)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J159" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K159" s="2">
-        <f>J159*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L159" s="10">
@@ -9011,23 +9047,23 @@
         <v>171</v>
       </c>
       <c r="G160" s="9">
-        <f>((((L160/13650)/0.3)*0.0001)/K160)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>3.6314724310493833</v>
       </c>
       <c r="H160" s="9">
-        <f>((((M160/13650)/0.3)*0.0001)/K160)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.5517386113777568E-2</v>
       </c>
       <c r="I160" s="9" t="b">
-        <f>G160&gt;(3*H160)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J160" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K160" s="2">
-        <f>J160*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L160" s="10">
@@ -9058,23 +9094,23 @@
         <v>170</v>
       </c>
       <c r="G161" s="9">
-        <f>((((L161/13650)/0.3)*0.0001)/K161)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.8117006482950349</v>
       </c>
       <c r="H161" s="9">
-        <f>((((M161/13650)/0.3)*0.0001)/K161)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.3321884292776141E-2</v>
       </c>
       <c r="I161" s="9" t="b">
-        <f>G161&gt;(3*H161)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J161" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K161" s="2">
-        <f>J161*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L161" s="10">
@@ -9105,23 +9141,23 @@
         <v>9</v>
       </c>
       <c r="G162" s="9">
-        <f>((((L162/13650)/0.3)*0.0001)/K162)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>15.428242556745991</v>
       </c>
       <c r="H162" s="9">
-        <f>((((M162/13650)/0.3)*0.0001)/K162)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.27554045230411733</v>
       </c>
       <c r="I162" s="9" t="b">
-        <f>G162&gt;(3*H162)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J162" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K162" s="2">
-        <f>J162*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L162" s="10">
@@ -9152,23 +9188,23 @@
         <v>9</v>
       </c>
       <c r="G163" s="9">
-        <f>((((L163/13650)/0.3)*0.0001)/K163)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>15.366363859224775</v>
       </c>
       <c r="H163" s="9">
-        <f>((((M163/13650)/0.3)*0.0001)/K163)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.36688412728257241</v>
       </c>
       <c r="I163" s="9" t="b">
-        <f>G163&gt;(3*H163)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J163" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K163" s="2">
-        <f>J163*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L163" s="10">
@@ -9199,23 +9235,23 @@
         <v>48</v>
       </c>
       <c r="G164" s="9">
-        <f>((((L164/13650)/0.3)*0.0001)/K164)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.2537162193428821</v>
       </c>
       <c r="H164" s="9">
-        <f>((((M164/13650)/0.3)*0.0001)/K164)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.16855178096710127</v>
       </c>
       <c r="I164" s="9" t="b">
-        <f>G164&gt;(3*H164)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J164" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K164" s="2">
-        <f>J164*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L164" s="10">
@@ -9246,23 +9282,23 @@
         <v>48</v>
       </c>
       <c r="G165" s="9">
-        <f>((((L165/13650)/0.3)*0.0001)/K165)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>7.479251265608565E-2</v>
       </c>
       <c r="H165" s="9">
-        <f>((((M165/13650)/0.3)*0.0001)/K165)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.11743518005809152</v>
       </c>
       <c r="I165" s="9" t="b">
-        <f>G165&gt;(3*H165)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J165" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K165" s="2">
-        <f>J165*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L165" s="10">
@@ -9293,23 +9329,23 @@
         <v>48</v>
       </c>
       <c r="G166" s="9">
-        <f>((((L166/13650)/0.3)*0.0001)/K166)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.6276787826232588</v>
       </c>
       <c r="H166" s="9">
-        <f>((((M166/13650)/0.3)*0.0001)/K166)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>8.6406023508171795E-2</v>
       </c>
       <c r="I166" s="9" t="b">
-        <f>G166&gt;(3*H166)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J166" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K166" s="2">
-        <f>J166*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L166" s="10">
@@ -9340,23 +9376,23 @@
         <v>48</v>
       </c>
       <c r="G167" s="9">
-        <f>((((L167/13650)/0.3)*0.0001)/K167)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.40839940364001476</v>
       </c>
       <c r="H167" s="9">
-        <f>((((M167/13650)/0.3)*0.0001)/K167)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>9.3050386294317028E-2</v>
       </c>
       <c r="I167" s="9" t="b">
-        <f>G167&gt;(3*H167)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J167" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K167" s="2">
-        <f>J167*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L167" s="10">
@@ -9387,23 +9423,23 @@
         <v>61</v>
       </c>
       <c r="G168" s="9">
-        <f>((((L168/13650)/0.3)*0.0001)/K168)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.7083901272161466</v>
       </c>
       <c r="H168" s="9">
-        <f>((((M168/13650)/0.3)*0.0001)/K168)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.18710008178376603</v>
       </c>
       <c r="I168" s="9" t="b">
-        <f>G168&gt;(3*H168)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J168" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K168" s="2">
-        <f>J168*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L168" s="10">
@@ -9434,23 +9470,23 @@
         <v>61</v>
       </c>
       <c r="G169" s="9">
-        <f>((((L169/13650)/0.3)*0.0001)/K169)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.80011846273083398</v>
       </c>
       <c r="H169" s="9">
-        <f>((((M169/13650)/0.3)*0.0001)/K169)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.4810719543343054E-2</v>
       </c>
       <c r="I169" s="9" t="b">
-        <f>G169&gt;(3*H169)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J169" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K169" s="2">
-        <f>J169*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L169" s="10">
@@ -9481,23 +9517,23 @@
         <v>61</v>
       </c>
       <c r="G170" s="9">
-        <f>((((L170/13650)/0.3)*0.0001)/K170)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.39656173976636394</v>
       </c>
       <c r="H170" s="9">
-        <f>((((M170/13650)/0.3)*0.0001)/K170)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.10596941460876029</v>
       </c>
       <c r="I170" s="9" t="b">
-        <f>G170&gt;(3*H170)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J170" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K170" s="2">
-        <f>J170*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L170" s="10">
@@ -9528,23 +9564,23 @@
         <v>48</v>
       </c>
       <c r="G171" s="9">
-        <f>((((L171/13650)/0.3)*0.0001)/K171)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.1810760092092525</v>
       </c>
       <c r="H171" s="9">
-        <f>((((M171/13650)/0.3)*0.0001)/K171)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.074941763888965E-2</v>
       </c>
       <c r="I171" s="9" t="b">
-        <f>G171&gt;(3*H171)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J171" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K171" s="2">
-        <f>J171*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L171" s="10">
@@ -9575,23 +9611,23 @@
         <v>48</v>
       </c>
       <c r="G172" s="9">
-        <f>((((L172/13650)/0.3)*0.0001)/K172)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>3.4436840359632119E-2</v>
       </c>
       <c r="H172" s="9">
-        <f>((((M172/13650)/0.3)*0.0001)/K172)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.7387199162651438E-2</v>
       </c>
       <c r="I172" s="9" t="b">
-        <f>G172&gt;(3*H172)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J172" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K172" s="2">
-        <f>J172*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L172" s="10">
@@ -9622,23 +9658,23 @@
         <v>48</v>
       </c>
       <c r="G173" s="9">
-        <f>((((L173/13650)/0.3)*0.0001)/K173)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.0390240427257962</v>
       </c>
       <c r="H173" s="9">
-        <f>((((M173/13650)/0.3)*0.0001)/K173)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.7715745849999216E-2</v>
       </c>
       <c r="I173" s="9" t="b">
-        <f>G173&gt;(3*H173)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J173" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K173" s="2">
-        <f>J173*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L173" s="10">
@@ -9669,23 +9705,23 @@
         <v>50</v>
       </c>
       <c r="G174" s="9">
-        <f>((((L174/13650)/0.3)*0.0001)/K174)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.505791092782095</v>
       </c>
       <c r="H174" s="9">
-        <f>((((M174/13650)/0.3)*0.0001)/K174)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.9745387176976634E-2</v>
       </c>
       <c r="I174" s="9" t="b">
-        <f>G174&gt;(3*H174)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J174" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K174" s="2">
-        <f>J174*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L174" s="10">
@@ -9716,23 +9752,23 @@
         <v>50</v>
       </c>
       <c r="G175" s="9">
-        <f>((((L175/13650)/0.3)*0.0001)/K175)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.7708069003679674</v>
       </c>
       <c r="H175" s="9">
-        <f>((((M175/13650)/0.3)*0.0001)/K175)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.1152936278893115E-2</v>
       </c>
       <c r="I175" s="9" t="b">
-        <f>G175&gt;(3*H175)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J175" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K175" s="2">
-        <f>J175*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L175" s="10">
@@ -9763,23 +9799,23 @@
         <v>118</v>
       </c>
       <c r="G176" s="9">
-        <f>((((L176/13650)/0.3)*0.0001)/K176)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.5025897580101497</v>
       </c>
       <c r="H176" s="9">
-        <f>((((M176/13650)/0.3)*0.0001)/K176)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.10380955797890778</v>
       </c>
       <c r="I176" s="9" t="b">
-        <f>G176&gt;(3*H176)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J176" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K176" s="2">
-        <f>J176*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L176" s="10">
@@ -9810,23 +9846,23 @@
         <v>118</v>
       </c>
       <c r="G177" s="9">
-        <f>((((L177/13650)/0.3)*0.0001)/K177)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>3.5975736663203985</v>
       </c>
       <c r="H177" s="9">
-        <f>((((M177/13650)/0.3)*0.0001)/K177)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>9.9515617256373243E-2</v>
       </c>
       <c r="I177" s="9" t="b">
-        <f>G177&gt;(3*H177)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J177" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K177" s="2">
-        <f>J177*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L177" s="10">
@@ -9857,23 +9893,23 @@
         <v>61</v>
       </c>
       <c r="G178" s="9">
-        <f>((((L178/13650)/0.3)*0.0001)/K178)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-2.3363243881488271</v>
       </c>
       <c r="H178" s="9">
-        <f>((((M178/13650)/0.3)*0.0001)/K178)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.8405405094133648E-2</v>
       </c>
       <c r="I178" s="9" t="b">
-        <f>G178&gt;(3*H178)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J178" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K178" s="2">
-        <f>J178*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L178" s="10">
@@ -9904,23 +9940,23 @@
         <v>61</v>
       </c>
       <c r="G179" s="9">
-        <f>((((L179/13650)/0.3)*0.0001)/K179)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.6944001608200563</v>
       </c>
       <c r="H179" s="9">
-        <f>((((M179/13650)/0.3)*0.0001)/K179)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.5491285863533306E-2</v>
       </c>
       <c r="I179" s="9" t="b">
-        <f>G179&gt;(3*H179)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J179" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K179" s="2">
-        <f>J179*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L179" s="10">
@@ -9951,23 +9987,23 @@
         <v>61</v>
       </c>
       <c r="G180" s="9">
-        <f>((((L180/13650)/0.3)*0.0001)/K180)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.1606291352457432</v>
       </c>
       <c r="H180" s="9">
-        <f>((((M180/13650)/0.3)*0.0001)/K180)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.4578612892509726E-2</v>
       </c>
       <c r="I180" s="9" t="b">
-        <f>G180&gt;(3*H180)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J180" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K180" s="2">
-        <f>J180*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L180" s="10">
@@ -9998,23 +10034,23 @@
         <v>47</v>
       </c>
       <c r="G181" s="9">
-        <f>((((L181/13650)/0.3)*0.0001)/K181)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-6.5386950632852194</v>
       </c>
       <c r="H181" s="9">
-        <f>((((M181/13650)/0.3)*0.0001)/K181)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.6206738565238172E-2</v>
       </c>
       <c r="I181" s="9" t="b">
-        <f>G181&gt;(3*H181)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J181" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K181" s="2">
-        <f>J181*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L181" s="10">
@@ -10045,23 +10081,23 @@
         <v>9</v>
       </c>
       <c r="G182" s="9">
-        <f>((((L182/13650)/0.3)*0.0001)/K182)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>15.489583178636575</v>
       </c>
       <c r="H182" s="9">
-        <f>((((M182/13650)/0.3)*0.0001)/K182)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.26240662754983324</v>
       </c>
       <c r="I182" s="9" t="b">
-        <f>G182&gt;(3*H182)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J182" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K182" s="2">
-        <f>J182*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L182" s="10">
@@ -10092,23 +10128,23 @@
         <v>9</v>
       </c>
       <c r="G183" s="9">
-        <f>((((L183/13650)/0.3)*0.0001)/K183)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>10.957910217561173</v>
       </c>
       <c r="H183" s="9">
-        <f>((((M183/13650)/0.3)*0.0001)/K183)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.28918278604340825</v>
       </c>
       <c r="I183" s="9" t="b">
-        <f>G183&gt;(3*H183)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J183" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K183" s="2">
-        <f>J183*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L183" s="10">
@@ -10139,23 +10175,23 @@
         <v>93</v>
       </c>
       <c r="G184" s="9">
-        <f>((((L184/13650)/0.3)*0.0001)/K184)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.0971362108326497</v>
       </c>
       <c r="H184" s="9">
-        <f>((((M184/13650)/0.3)*0.0001)/K184)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.20117632647430156</v>
       </c>
       <c r="I184" s="9" t="b">
-        <f>G184&gt;(3*H184)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J184" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K184" s="2">
-        <f>J184*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L184" s="10">
@@ -10186,23 +10222,23 @@
         <v>93</v>
       </c>
       <c r="G185" s="9">
-        <f>((((L185/13650)/0.3)*0.0001)/K185)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-3.9984400111317462</v>
       </c>
       <c r="H185" s="9">
-        <f>((((M185/13650)/0.3)*0.0001)/K185)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.12413586820020726</v>
       </c>
       <c r="I185" s="9" t="b">
-        <f>G185&gt;(3*H185)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J185" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K185" s="2">
-        <f>J185*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L185" s="10">
@@ -10233,23 +10269,23 @@
         <v>93</v>
       </c>
       <c r="G186" s="9">
-        <f>((((L186/13650)/0.3)*0.0001)/K186)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>3.5695937335281607</v>
       </c>
       <c r="H186" s="9">
-        <f>((((M186/13650)/0.3)*0.0001)/K186)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.11285560907199926</v>
       </c>
       <c r="I186" s="9" t="b">
-        <f>G186&gt;(3*H186)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J186" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K186" s="2">
-        <f>J186*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L186" s="10">
@@ -10280,23 +10316,23 @@
         <v>93</v>
       </c>
       <c r="G187" s="9">
-        <f>((((L187/13650)/0.3)*0.0001)/K187)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.25773822706661137</v>
       </c>
       <c r="H187" s="9">
-        <f>((((M187/13650)/0.3)*0.0001)/K187)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.15183081061913123</v>
       </c>
       <c r="I187" s="9" t="b">
-        <f>G187&gt;(3*H187)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J187" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K187" s="2">
-        <f>J187*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L187" s="10">
@@ -10327,23 +10363,23 @@
         <v>93</v>
       </c>
       <c r="G188" s="9">
-        <f>((((L188/13650)/0.3)*0.0001)/K188)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>4.8475233562488587</v>
       </c>
       <c r="H188" s="9">
-        <f>((((M188/13650)/0.3)*0.0001)/K188)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>4.6491125675615752E-2</v>
       </c>
       <c r="I188" s="9" t="b">
-        <f>G188&gt;(3*H188)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J188" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K188" s="2">
-        <f>J188*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L188" s="10">
@@ -10374,23 +10410,23 @@
         <v>93</v>
       </c>
       <c r="G189" s="9">
-        <f>((((L189/13650)/0.3)*0.0001)/K189)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.5461738840903267</v>
       </c>
       <c r="H189" s="9">
-        <f>((((M189/13650)/0.3)*0.0001)/K189)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>8.2482933535529462E-2</v>
       </c>
       <c r="I189" s="9" t="b">
-        <f>G189&gt;(3*H189)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J189" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K189" s="2">
-        <f>J189*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L189" s="10">
@@ -10421,23 +10457,23 @@
         <v>47</v>
       </c>
       <c r="G190" s="9">
-        <f>((((L190/13650)/0.3)*0.0001)/K190)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-5.5674685500174732</v>
       </c>
       <c r="H190" s="9">
-        <f>((((M190/13650)/0.3)*0.0001)/K190)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.19449110723680377</v>
       </c>
       <c r="I190" s="9" t="b">
-        <f>G190&gt;(3*H190)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J190" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K190" s="2">
-        <f>J190*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L190" s="10">
@@ -10468,23 +10504,23 @@
         <v>96</v>
       </c>
       <c r="G191" s="9">
-        <f>((((L191/13650)/0.3)*0.0001)/K191)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.8326855978892256</v>
       </c>
       <c r="H191" s="9">
-        <f>((((M191/13650)/0.3)*0.0001)/K191)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.2297200393431515E-2</v>
       </c>
       <c r="I191" s="9" t="b">
-        <f>G191&gt;(3*H191)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J191" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K191" s="2">
-        <f>J191*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L191" s="10">
@@ -10515,23 +10551,23 @@
         <v>93</v>
       </c>
       <c r="G192" s="9">
-        <f>((((L192/13650)/0.3)*0.0001)/K192)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>4.8792698184554268</v>
       </c>
       <c r="H192" s="9">
-        <f>((((M192/13650)/0.3)*0.0001)/K192)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.10542633758623529</v>
       </c>
       <c r="I192" s="9" t="b">
-        <f>G192&gt;(3*H192)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J192" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K192" s="2">
-        <f>J192*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L192" s="10">
@@ -10562,23 +10598,23 @@
         <v>93</v>
       </c>
       <c r="G193" s="9">
-        <f>((((L193/13650)/0.3)*0.0001)/K193)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.30347465566930809</v>
       </c>
       <c r="H193" s="9">
-        <f>((((M193/13650)/0.3)*0.0001)/K193)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.1807396614772574</v>
       </c>
       <c r="I193" s="9" t="b">
-        <f>G193&gt;(3*H193)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J193" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K193" s="2">
-        <f>J193*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L193" s="10">
@@ -10609,23 +10645,23 @@
         <v>93</v>
       </c>
       <c r="G194" s="9">
-        <f>((((L194/13650)/0.3)*0.0001)/K194)*1000000000</f>
+        <f t="shared" ref="G194:G248" si="15">((((L194/13650)/0.3)*0.0001)/K194)*1000000000</f>
         <v>-0.36750565571298938</v>
       </c>
       <c r="H194" s="9">
-        <f>((((M194/13650)/0.3)*0.0001)/K194)*1000000000</f>
+        <f t="shared" ref="H194:H248" si="16">((((M194/13650)/0.3)*0.0001)/K194)*1000000000</f>
         <v>7.2268245687030774E-2</v>
       </c>
       <c r="I194" s="9" t="b">
-        <f>G194&gt;(3*H194)</f>
+        <f t="shared" ref="I194:I257" si="17">G194&gt;(3*H194)</f>
         <v>0</v>
       </c>
       <c r="J194" s="2">
-        <f>0.8/2</f>
+        <f t="shared" ref="J194:J257" si="18">0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K194" s="2">
-        <f>J194*0.003</f>
+        <f t="shared" ref="K194:K257" si="19">J194*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L194" s="10">
@@ -10656,23 +10692,23 @@
         <v>93</v>
       </c>
       <c r="G195" s="9">
-        <f>((((L195/13650)/0.3)*0.0001)/K195)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.0931142031088692</v>
       </c>
       <c r="H195" s="9">
-        <f>((((M195/13650)/0.3)*0.0001)/K195)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.12780124193662235</v>
       </c>
       <c r="I195" s="9" t="b">
-        <f>G195&gt;(3*H195)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J195" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K195" s="2">
-        <f>J195*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L195" s="10">
@@ -10703,23 +10739,23 @@
         <v>138</v>
       </c>
       <c r="G196" s="9">
-        <f>((((L196/13650)/0.3)*0.0001)/K196)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.947578304532299</v>
       </c>
       <c r="H196" s="9">
-        <f>((((M196/13650)/0.3)*0.0001)/K196)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.19758958528674772</v>
       </c>
       <c r="I196" s="9" t="b">
-        <f>G196&gt;(3*H196)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J196" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K196" s="2">
-        <f>J196*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L196" s="10">
@@ -10750,23 +10786,23 @@
         <v>138</v>
       </c>
       <c r="G197" s="9">
-        <f>((((L197/13650)/0.3)*0.0001)/K197)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.25773822706661137</v>
       </c>
       <c r="H197" s="9">
-        <f>((((M197/13650)/0.3)*0.0001)/K197)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.15183081061913123</v>
       </c>
       <c r="I197" s="9" t="b">
-        <f>G197&gt;(3*H197)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J197" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K197" s="2">
-        <f>J197*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L197" s="10">
@@ -10797,23 +10833,23 @@
         <v>171</v>
       </c>
       <c r="G198" s="9">
-        <f>((((L198/13650)/0.3)*0.0001)/K198)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.17971726062680624</v>
       </c>
       <c r="H198" s="9">
-        <f>((((M198/13650)/0.3)*0.0001)/K198)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.35227331431328113</v>
       </c>
       <c r="I198" s="9" t="b">
-        <f>G198&gt;(3*H198)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J198" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K198" s="2">
-        <f>J198*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L198" s="10">
@@ -10844,23 +10880,23 @@
         <v>171</v>
       </c>
       <c r="G199" s="9">
-        <f>((((L199/13650)/0.3)*0.0001)/K199)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>8.1028809214953643</v>
       </c>
       <c r="H199" s="9">
-        <f>((((M199/13650)/0.3)*0.0001)/K199)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.273951797716178</v>
       </c>
       <c r="I199" s="9" t="b">
-        <f>G199&gt;(3*H199)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J199" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K199" s="2">
-        <f>J199*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L199" s="10">
@@ -10891,23 +10927,23 @@
         <v>9</v>
       </c>
       <c r="G200" s="9">
-        <f>((((L200/13650)/0.3)*0.0001)/K200)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>32.977579249393088</v>
       </c>
       <c r="H200" s="9">
-        <f>((((M200/13650)/0.3)*0.0001)/K200)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.95788947544723824</v>
       </c>
       <c r="I200" s="9" t="b">
-        <f>G200&gt;(3*H200)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J200" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K200" s="2">
-        <f>J200*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L200" s="10">
@@ -10938,23 +10974,23 @@
         <v>9</v>
       </c>
       <c r="G201" s="9">
-        <f>((((L201/13650)/0.3)*0.0001)/K201)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>11.577773344034592</v>
       </c>
       <c r="H201" s="9">
-        <f>((((M201/13650)/0.3)*0.0001)/K201)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.37109470727903182</v>
       </c>
       <c r="I201" s="9" t="b">
-        <f>G201&gt;(3*H201)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J201" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K201" s="2">
-        <f>J201*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L201" s="10">
@@ -10985,23 +11021,23 @@
         <v>9</v>
       </c>
       <c r="G202" s="9">
-        <f>((((L202/13650)/0.3)*0.0001)/K202)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>12.90412977351107</v>
       </c>
       <c r="H202" s="9">
-        <f>((((M202/13650)/0.3)*0.0001)/K202)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.29461487399422653</v>
       </c>
       <c r="I202" s="9" t="b">
-        <f>G202&gt;(3*H202)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J202" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K202" s="2">
-        <f>J202*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L202" s="10">
@@ -11032,23 +11068,23 @@
         <v>93</v>
       </c>
       <c r="G203" s="9">
-        <f>((((L203/13650)/0.3)*0.0001)/K203)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.88405826110743646</v>
       </c>
       <c r="H203" s="9">
-        <f>((((M203/13650)/0.3)*0.0001)/K203)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>9.7523913889662223E-2</v>
       </c>
       <c r="I203" s="9" t="b">
-        <f>G203&gt;(3*H203)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J203" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K203" s="2">
-        <f>J203*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L203" s="10">
@@ -11079,23 +11115,23 @@
         <v>93</v>
       </c>
       <c r="G204" s="9">
-        <f>((((L204/13650)/0.3)*0.0001)/K204)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-2.0102505559935673</v>
       </c>
       <c r="H204" s="9">
-        <f>((((M204/13650)/0.3)*0.0001)/K204)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.16760940613430572</v>
       </c>
       <c r="I204" s="9" t="b">
-        <f>G204&gt;(3*H204)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J204" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K204" s="2">
-        <f>J204*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L204" s="10">
@@ -11126,23 +11162,23 @@
         <v>93</v>
       </c>
       <c r="G205" s="9">
-        <f>((((L205/13650)/0.3)*0.0001)/K205)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.11514818495253451</v>
       </c>
       <c r="H205" s="9">
-        <f>((((M205/13650)/0.3)*0.0001)/K205)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.0346696336917192E-2</v>
       </c>
       <c r="I205" s="9" t="b">
-        <f>G205&gt;(3*H205)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J205" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K205" s="2">
-        <f>J205*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L205" s="10">
@@ -11173,23 +11209,23 @@
         <v>93</v>
       </c>
       <c r="G206" s="9">
-        <f>((((L206/13650)/0.3)*0.0001)/K206)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>7.1983757864244327</v>
       </c>
       <c r="H206" s="9">
-        <f>((((M206/13650)/0.3)*0.0001)/K206)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.22231911993605874</v>
       </c>
       <c r="I206" s="9" t="b">
-        <f>G206&gt;(3*H206)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J206" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K206" s="2">
-        <f>J206*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L206" s="10">
@@ -11220,23 +11256,23 @@
         <v>139</v>
       </c>
       <c r="G207" s="9">
-        <f>((((L207/13650)/0.3)*0.0001)/K207)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.3387321689807183</v>
       </c>
       <c r="H207" s="9">
-        <f>((((M207/13650)/0.3)*0.0001)/K207)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>6.3967243777786634E-2</v>
       </c>
       <c r="I207" s="9" t="b">
-        <f>G207&gt;(3*H207)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J207" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K207" s="2">
-        <f>J207*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L207" s="10">
@@ -11267,23 +11303,23 @@
         <v>139</v>
       </c>
       <c r="G208" s="9">
-        <f>((((L208/13650)/0.3)*0.0001)/K208)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.1878155140979052</v>
       </c>
       <c r="H208" s="9">
-        <f>((((M208/13650)/0.3)*0.0001)/K208)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.2325407996673672E-2</v>
       </c>
       <c r="I208" s="9" t="b">
-        <f>G208&gt;(3*H208)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J208" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K208" s="2">
-        <f>J208*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L208" s="10">
@@ -11314,23 +11350,23 @@
         <v>139</v>
       </c>
       <c r="G209" s="9">
-        <f>((((L209/13650)/0.3)*0.0001)/K209)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.95239386619608624</v>
       </c>
       <c r="H209" s="9">
-        <f>((((M209/13650)/0.3)*0.0001)/K209)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.7796504436226678E-2</v>
       </c>
       <c r="I209" s="9" t="b">
-        <f>G209&gt;(3*H209)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J209" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K209" s="2">
-        <f>J209*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L209" s="10">
@@ -11361,23 +11397,23 @@
         <v>9</v>
       </c>
       <c r="G210" s="9">
-        <f>((((L210/13650)/0.3)*0.0001)/K210)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>7.5083073496611252</v>
       </c>
       <c r="H210" s="9">
-        <f>((((M210/13650)/0.3)*0.0001)/K210)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.12540514198786656</v>
       </c>
       <c r="I210" s="9" t="b">
-        <f>G210&gt;(3*H210)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J210" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K210" s="2">
-        <f>J210*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L210" s="10">
@@ -11408,23 +11444,23 @@
         <v>9</v>
       </c>
       <c r="G211" s="9">
-        <f>((((L211/13650)/0.3)*0.0001)/K211)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>17.298593448778551</v>
       </c>
       <c r="H211" s="9">
-        <f>((((M211/13650)/0.3)*0.0001)/K211)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.28832511095129792</v>
       </c>
       <c r="I211" s="9" t="b">
-        <f>G211&gt;(3*H211)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J211" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K211" s="2">
-        <f>J211*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L211" s="10">
@@ -11455,23 +11491,23 @@
         <v>9</v>
       </c>
       <c r="G212" s="9">
-        <f>((((L212/13650)/0.3)*0.0001)/K212)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>29.029718347539568</v>
       </c>
       <c r="H212" s="9">
-        <f>((((M212/13650)/0.3)*0.0001)/K212)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.68613563399792898</v>
       </c>
       <c r="I212" s="9" t="b">
-        <f>G212&gt;(3*H212)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J212" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K212" s="2">
-        <f>J212*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L212" s="10">
@@ -11502,23 +11538,23 @@
         <v>9</v>
       </c>
       <c r="G213" s="9">
-        <f>((((L213/13650)/0.3)*0.0001)/K213)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>15.226464195263775</v>
       </c>
       <c r="H213" s="9">
-        <f>((((M213/13650)/0.3)*0.0001)/K213)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.24832094756704609</v>
       </c>
       <c r="I213" s="9" t="b">
-        <f>G213&gt;(3*H213)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J213" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K213" s="2">
-        <f>J213*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L213" s="10">
@@ -11549,23 +11585,23 @@
         <v>9</v>
       </c>
       <c r="G214" s="9">
-        <f>((((L214/13650)/0.3)*0.0001)/K214)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>12.236915991543185</v>
       </c>
       <c r="H214" s="9">
-        <f>((((M214/13650)/0.3)*0.0001)/K214)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.2835911652993881</v>
       </c>
       <c r="I214" s="9" t="b">
-        <f>G214&gt;(3*H214)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J214" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K214" s="2">
-        <f>J214*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L214" s="10">
@@ -11596,23 +11632,23 @@
         <v>9</v>
       </c>
       <c r="G215" s="9">
-        <f>((((L215/13650)/0.3)*0.0001)/K215)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>20.390914097947395</v>
       </c>
       <c r="H215" s="9">
-        <f>((((M215/13650)/0.3)*0.0001)/K215)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.46274962348198839</v>
       </c>
       <c r="I215" s="9" t="b">
-        <f>G215&gt;(3*H215)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J215" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K215" s="2">
-        <f>J215*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L215" s="10">
@@ -11643,23 +11679,23 @@
         <v>9</v>
       </c>
       <c r="G216" s="9">
-        <f>((((L216/13650)/0.3)*0.0001)/K216)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>18.318246768802041</v>
       </c>
       <c r="H216" s="9">
-        <f>((((M216/13650)/0.3)*0.0001)/K216)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.53027445591523659</v>
       </c>
       <c r="I216" s="9" t="b">
-        <f>G216&gt;(3*H216)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J216" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K216" s="2">
-        <f>J216*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L216" s="10">
@@ -11690,23 +11726,23 @@
         <v>47</v>
       </c>
       <c r="G217" s="9">
-        <f>((((L217/13650)/0.3)*0.0001)/K217)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.56659363904206828</v>
       </c>
       <c r="H217" s="9">
-        <f>((((M217/13650)/0.3)*0.0001)/K217)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>4.2101522492744986E-2</v>
       </c>
       <c r="I217" s="9" t="b">
-        <f>G217&gt;(3*H217)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J217" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K217" s="2">
-        <f>J217*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L217" s="10">
@@ -11737,23 +11773,23 @@
         <v>93</v>
       </c>
       <c r="G218" s="9">
-        <f>((((L218/13650)/0.3)*0.0001)/K218)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.96961228637590258</v>
       </c>
       <c r="H218" s="9">
-        <f>((((M218/13650)/0.3)*0.0001)/K218)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>6.2370055357703229E-2</v>
       </c>
       <c r="I218" s="9" t="b">
-        <f>G218&gt;(3*H218)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J218" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K218" s="2">
-        <f>J218*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L218" s="10">
@@ -11784,23 +11820,23 @@
         <v>93</v>
       </c>
       <c r="G219" s="9">
-        <f>((((L219/13650)/0.3)*0.0001)/K219)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-8.9874772582334526</v>
       </c>
       <c r="H219" s="9">
-        <f>((((M219/13650)/0.3)*0.0001)/K219)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.2109251237369672</v>
       </c>
       <c r="I219" s="9" t="b">
-        <f>G219&gt;(3*H219)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J219" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K219" s="2">
-        <f>J219*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L219" s="10">
@@ -11831,23 +11867,23 @@
         <v>48</v>
       </c>
       <c r="G220" s="9">
-        <f>((((L220/13650)/0.3)*0.0001)/K220)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.6744913624871316</v>
       </c>
       <c r="H220" s="9">
-        <f>((((M220/13650)/0.3)*0.0001)/K220)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.12049050115527893</v>
       </c>
       <c r="I220" s="9" t="b">
-        <f>G220&gt;(3*H220)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J220" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K220" s="2">
-        <f>J220*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L220" s="10">
@@ -11878,23 +11914,23 @@
         <v>48</v>
       </c>
       <c r="G221" s="9">
-        <f>((((L221/13650)/0.3)*0.0001)/K221)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>11.973797008170333</v>
       </c>
       <c r="H221" s="9">
-        <f>((((M221/13650)/0.3)*0.0001)/K221)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.16142498435082128</v>
       </c>
       <c r="I221" s="9" t="b">
-        <f>G221&gt;(3*H221)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J221" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K221" s="2">
-        <f>J221*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L221" s="10">
@@ -11925,23 +11961,23 @@
         <v>48</v>
       </c>
       <c r="G222" s="9">
-        <f>((((L222/13650)/0.3)*0.0001)/K222)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>7.5212211647959499</v>
       </c>
       <c r="H222" s="9">
-        <f>((((M222/13650)/0.3)*0.0001)/K222)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>7.9584031366419339E-2</v>
       </c>
       <c r="I222" s="9" t="b">
-        <f>G222&gt;(3*H222)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J222" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K222" s="2">
-        <f>J222*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L222" s="10">
@@ -11972,23 +12008,23 @@
         <v>48</v>
       </c>
       <c r="G223" s="9">
-        <f>((((L223/13650)/0.3)*0.0001)/K223)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>3.1235290357447618</v>
       </c>
       <c r="H223" s="9">
-        <f>((((M223/13650)/0.3)*0.0001)/K223)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>7.5636624150308487E-2</v>
       </c>
       <c r="I223" s="9" t="b">
-        <f>G223&gt;(3*H223)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J223" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K223" s="2">
-        <f>J223*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L223" s="10">
@@ -12019,23 +12055,23 @@
         <v>48</v>
       </c>
       <c r="G224" s="9">
-        <f>((((L224/13650)/0.3)*0.0001)/K224)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>19.758675231969789</v>
       </c>
       <c r="H224" s="9">
-        <f>((((M224/13650)/0.3)*0.0001)/K224)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.19513152642086132</v>
       </c>
       <c r="I224" s="9" t="b">
-        <f>G224&gt;(3*H224)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J224" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K224" s="2">
-        <f>J224*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L224" s="10">
@@ -12066,23 +12102,23 @@
         <v>48</v>
       </c>
       <c r="G225" s="9">
-        <f>((((L225/13650)/0.3)*0.0001)/K225)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.73931591647086459</v>
       </c>
       <c r="H225" s="9">
-        <f>((((M225/13650)/0.3)*0.0001)/K225)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>4.979689686046479E-2</v>
       </c>
       <c r="I225" s="9" t="b">
-        <f>G225&gt;(3*H225)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J225" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K225" s="2">
-        <f>J225*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L225" s="10">
@@ -12113,23 +12149,23 @@
         <v>48</v>
       </c>
       <c r="G226" s="9">
-        <f>((((L226/13650)/0.3)*0.0001)/K226)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>9.9899121580771055</v>
       </c>
       <c r="H226" s="9">
-        <f>((((M226/13650)/0.3)*0.0001)/K226)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.10389945265234399</v>
       </c>
       <c r="I226" s="9" t="b">
-        <f>G226&gt;(3*H226)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J226" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K226" s="2">
-        <f>J226*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L226" s="10">
@@ -12160,23 +12196,23 @@
         <v>48</v>
       </c>
       <c r="G227" s="9">
-        <f>((((L227/13650)/0.3)*0.0001)/K227)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>17.07044938139596</v>
       </c>
       <c r="H227" s="9">
-        <f>((((M227/13650)/0.3)*0.0001)/K227)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.1760951962367085</v>
       </c>
       <c r="I227" s="9" t="b">
-        <f>G227&gt;(3*H227)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J227" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K227" s="2">
-        <f>J227*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L227" s="10">
@@ -12208,23 +12244,23 @@
         <v>48</v>
       </c>
       <c r="G228" s="9">
-        <f>((((L228/13650)/0.3)*0.0001)/K228)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-8.1787495854133502E-2</v>
       </c>
       <c r="H228" s="9">
-        <f>((((M228/13650)/0.3)*0.0001)/K228)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.12399935203000301</v>
       </c>
       <c r="I228" s="9" t="b">
-        <f>G228&gt;(3*H228)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J228" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K228" s="2">
-        <f>J228*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L228" s="10">
@@ -12255,23 +12291,23 @@
         <v>48</v>
       </c>
       <c r="G229" s="9">
-        <f>((((L229/13650)/0.3)*0.0001)/K229)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.6446417244936251</v>
       </c>
       <c r="H229" s="9">
-        <f>((((M229/13650)/0.3)*0.0001)/K229)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.11712253485341166</v>
       </c>
       <c r="I229" s="9" t="b">
-        <f>G229&gt;(3*H229)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J229" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K229" s="2">
-        <f>J229*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L229" s="10">
@@ -12302,23 +12338,23 @@
         <v>93</v>
       </c>
       <c r="G230" s="9">
-        <f>((((L230/13650)/0.3)*0.0001)/K230)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.4899314211847352</v>
       </c>
       <c r="H230" s="9">
-        <f>((((M230/13650)/0.3)*0.0001)/K230)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>7.5976603278073845E-2</v>
       </c>
       <c r="I230" s="9" t="b">
-        <f>G230&gt;(3*H230)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J230" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K230" s="2">
-        <f>J230*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L230" s="10">
@@ -12349,23 +12385,23 @@
         <v>93</v>
       </c>
       <c r="G231" s="9">
-        <f>((((L231/13650)/0.3)*0.0001)/K231)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.3381940933501022</v>
       </c>
       <c r="H231" s="9">
-        <f>((((M231/13650)/0.3)*0.0001)/K231)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>9.5328997970927684E-2</v>
       </c>
       <c r="I231" s="9" t="b">
-        <f>G231&gt;(3*H231)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J231" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K231" s="2">
-        <f>J231*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L231" s="10">
@@ -12396,23 +12432,23 @@
         <v>9</v>
       </c>
       <c r="G232" s="9">
-        <f>((((L232/13650)/0.3)*0.0001)/K232)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>4.3939255996368276</v>
       </c>
       <c r="H232" s="9">
-        <f>((((M232/13650)/0.3)*0.0001)/K232)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>8.8389424542303668E-2</v>
       </c>
       <c r="I232" s="9" t="b">
-        <f>G232&gt;(3*H232)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J232" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K232" s="2">
-        <f>J232*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L232" s="10">
@@ -12442,23 +12478,23 @@
         <v>9</v>
       </c>
       <c r="G233" s="9">
-        <f>((((L233/13650)/0.3)*0.0001)/K233)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>4.0274960951850876</v>
       </c>
       <c r="H233" s="9">
-        <f>((((M233/13650)/0.3)*0.0001)/K233)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.16012847544443903</v>
       </c>
       <c r="I233" s="9" t="b">
-        <f>G233&gt;(3*H233)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J233" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K233" s="2">
-        <f>J233*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L233" s="10">
@@ -12488,23 +12524,23 @@
         <v>9</v>
       </c>
       <c r="G234" s="9">
-        <f>((((L234/13650)/0.3)*0.0001)/K234)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>40.414860615812465</v>
       </c>
       <c r="H234" s="9">
-        <f>((((M234/13650)/0.3)*0.0001)/K234)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.83065053386728283</v>
       </c>
       <c r="I234" s="9" t="b">
-        <f>G234&gt;(3*H234)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J234" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K234" s="2">
-        <f>J234*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L234" s="10">
@@ -12534,23 +12570,23 @@
         <v>9</v>
       </c>
       <c r="G235" s="9">
-        <f>((((L235/13650)/0.3)*0.0001)/K235)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>17.460016137964296</v>
       </c>
       <c r="H235" s="9">
-        <f>((((M235/13650)/0.3)*0.0001)/K235)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.49252497424636094</v>
       </c>
       <c r="I235" s="9" t="b">
-        <f>G235&gt;(3*H235)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J235" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K235" s="2">
-        <f>J235*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L235" s="10">
@@ -12580,23 +12616,23 @@
         <v>9</v>
       </c>
       <c r="G236" s="9">
-        <f>((((L236/13650)/0.3)*0.0001)/K236)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>37.694888303032144</v>
       </c>
       <c r="H236" s="9">
-        <f>((((M236/13650)/0.3)*0.0001)/K236)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.75568267824510127</v>
       </c>
       <c r="I236" s="9" t="b">
-        <f>G236&gt;(3*H236)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J236" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K236" s="2">
-        <f>J236*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L236" s="10">
@@ -12626,23 +12662,23 @@
         <v>47</v>
       </c>
       <c r="G237" s="9">
-        <f>((((L237/13650)/0.3)*0.0001)/K237)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.96799805948405215</v>
       </c>
       <c r="H237" s="9">
-        <f>((((M237/13650)/0.3)*0.0001)/K237)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.18024286739012976</v>
       </c>
       <c r="I237" s="9" t="b">
-        <f>G237&gt;(3*H237)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J237" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K237" s="2">
-        <f>J237*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L237" s="10">
@@ -12672,23 +12708,23 @@
         <v>47</v>
       </c>
       <c r="G238" s="9">
-        <f>((((L238/13650)/0.3)*0.0001)/K238)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.0376924131551277</v>
       </c>
       <c r="H238" s="9">
-        <f>((((M238/13650)/0.3)*0.0001)/K238)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.5673565523749899E-2</v>
       </c>
       <c r="I238" s="9" t="b">
-        <f>G238&gt;(3*H238)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J238" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K238" s="2">
-        <f>J238*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L238" s="10">
@@ -12719,23 +12755,23 @@
         <v>47</v>
       </c>
       <c r="G239" s="9">
-        <f>((((L239/13650)/0.3)*0.0001)/K239)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.49180112638601664</v>
       </c>
       <c r="H239" s="9">
-        <f>((((M239/13650)/0.3)*0.0001)/K239)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.5723475905110155E-2</v>
       </c>
       <c r="I239" s="9" t="b">
-        <f>G239&gt;(3*H239)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J239" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K239" s="2">
-        <f>J239*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L239" s="10">
@@ -12766,23 +12802,23 @@
         <v>47</v>
       </c>
       <c r="G240" s="9">
-        <f>((((L240/13650)/0.3)*0.0001)/K240)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.93356121912440815</v>
       </c>
       <c r="H240" s="9">
-        <f>((((M240/13650)/0.3)*0.0001)/K240)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.8264768726226011E-2</v>
       </c>
       <c r="I240" s="9" t="b">
-        <f>G240&gt;(3*H240)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J240" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K240" s="2">
-        <f>J240*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L240" s="10">
@@ -12813,23 +12849,23 @@
         <v>47</v>
       </c>
       <c r="G241" s="9">
-        <f>((((L241/13650)/0.3)*0.0001)/K241)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.4689464715905436</v>
       </c>
       <c r="H241" s="9">
-        <f>((((M241/13650)/0.3)*0.0001)/K241)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>6.9007641851417389E-2</v>
       </c>
       <c r="I241" s="9" t="b">
-        <f>G241&gt;(3*H241)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J241" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K241" s="2">
-        <f>J241*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L241" s="10">
@@ -12861,23 +12897,23 @@
         <v>47</v>
       </c>
       <c r="G242" s="9">
-        <f>((((L242/13650)/0.3)*0.0001)/K242)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.3607932698360823</v>
       </c>
       <c r="H242" s="9">
-        <f>((((M242/13650)/0.3)*0.0001)/K242)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.5079310080197889E-2</v>
       </c>
       <c r="I242" s="9" t="b">
-        <f>G242&gt;(3*H242)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J242" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K242" s="2">
-        <f>J242*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L242" s="10">
@@ -12909,23 +12945,23 @@
         <v>47</v>
       </c>
       <c r="G243" s="9">
-        <f>((((L243/13650)/0.3)*0.0001)/K243)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.4038393202856134</v>
       </c>
       <c r="H243" s="9">
-        <f>((((M243/13650)/0.3)*0.0001)/K243)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>7.5310358877579336E-2</v>
       </c>
       <c r="I243" s="9" t="b">
-        <f>G243&gt;(3*H243)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J243" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K243" s="2">
-        <f>J243*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L243" s="10">
@@ -12955,23 +12991,23 @@
         <v>47</v>
       </c>
       <c r="G244" s="9">
-        <f>((((L244/13650)/0.3)*0.0001)/K244)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.1078977234450529</v>
       </c>
       <c r="H244" s="9">
-        <f>((((M244/13650)/0.3)*0.0001)/K244)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.2273567460769811E-2</v>
       </c>
       <c r="I244" s="9" t="b">
-        <f>G244&gt;(3*H244)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J244" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K244" s="2">
-        <f>J244*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L244" s="10">
@@ -13001,23 +13037,23 @@
         <v>9</v>
       </c>
       <c r="G245" s="9">
-        <f>((((L245/13650)/0.3)*0.0001)/K245)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>9.4582934350253041</v>
       </c>
       <c r="H245" s="9">
-        <f>((((M245/13650)/0.3)*0.0001)/K245)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.31115189582300218</v>
       </c>
       <c r="I245" s="9" t="b">
-        <f>G245&gt;(3*H245)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J245" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K245" s="2">
-        <f>J245*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L245" s="10">
@@ -13048,23 +13084,23 @@
         <v>9</v>
       </c>
       <c r="G246" s="9">
-        <f>((((L246/13650)/0.3)*0.0001)/K246)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>9.9576276202399701</v>
       </c>
       <c r="H246" s="9">
-        <f>((((M246/13650)/0.3)*0.0001)/K246)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.21411729731881068</v>
       </c>
       <c r="I246" s="9" t="b">
-        <f>G246&gt;(3*H246)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J246" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K246" s="2">
-        <f>J246*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L246" s="10">
@@ -13094,23 +13130,23 @@
         <v>9</v>
       </c>
       <c r="G247" s="9">
-        <f>((((L247/13650)/0.3)*0.0001)/K247)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>8.8109884513903669</v>
       </c>
       <c r="H247" s="9">
-        <f>((((M247/13650)/0.3)*0.0001)/K247)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.2734560277914202</v>
       </c>
       <c r="I247" s="9" t="b">
-        <f>G247&gt;(3*H247)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J247" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K247" s="2">
-        <f>J247*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L247" s="10">
@@ -13140,23 +13176,23 @@
         <v>9</v>
       </c>
       <c r="G248" s="9">
-        <f>((((L248/13650)/0.3)*0.0001)/K248)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>11.566473755791582</v>
       </c>
       <c r="H248" s="9">
-        <f>((((M248/13650)/0.3)*0.0001)/K248)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.37459497109191064</v>
       </c>
       <c r="I248" s="9" t="b">
-        <f>G248&gt;(3*H248)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J248" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K248" s="2">
-        <f>J248*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L248" s="10">
@@ -13166,8 +13202,670 @@
         <v>1.840759687945649E-5</v>
       </c>
     </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A249" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B249" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C249" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D249" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" s="9">
+        <f t="shared" ref="G249:G262" si="20">((((L249/13650)/0.3)*0.0001)/K249)*1000000000</f>
+        <v>9.6896659561915648</v>
+      </c>
+      <c r="H249" s="9">
+        <f t="shared" ref="H249:H262" si="21">((((M249/13650)/0.3)*0.0001)/K249)*1000000000</f>
+        <v>0.27617182903205068</v>
+      </c>
+      <c r="I249" s="9" t="b">
+        <f t="shared" ref="I249:I262" si="22">G249&gt;(3*H249)</f>
+        <v>1</v>
+      </c>
+      <c r="J249" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K249" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L249" s="10">
+        <v>4.7615018508725352E-4</v>
+      </c>
+      <c r="M249" s="10">
+        <v>1.357108367863497E-5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A250" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B250" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C250" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D250" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E250" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="F250" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G250" s="9">
+        <f t="shared" si="20"/>
+        <v>8.4224978460832443</v>
+      </c>
+      <c r="H250" s="9">
+        <f t="shared" si="21"/>
+        <v>0.20586235101455455</v>
+      </c>
+      <c r="I250" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J250" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K250" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L250" s="10">
+        <v>4.138815441565306E-4</v>
+      </c>
+      <c r="M250" s="10">
+        <v>1.0116075928855211E-5</v>
+      </c>
+    </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D251" s="32"/>
+      <c r="A251" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C251" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D251" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" s="9">
+        <f t="shared" si="20"/>
+        <v>10.321366746538587</v>
+      </c>
+      <c r="H251" s="9">
+        <f t="shared" si="21"/>
+        <v>0.25574601070881786</v>
+      </c>
+      <c r="I251" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J251" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K251" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L251" s="10">
+        <v>5.071919619249062E-4</v>
+      </c>
+      <c r="M251" s="10">
+        <v>1.2567358966231311E-5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A252" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D252" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E252" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="F252" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G252" s="9">
+        <f t="shared" si="20"/>
+        <v>12.578594016986372</v>
+      </c>
+      <c r="H252" s="9">
+        <f t="shared" si="21"/>
+        <v>0.20310038402181521</v>
+      </c>
+      <c r="I252" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J252" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K252" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L252" s="10">
+        <v>6.1811210999471037E-4</v>
+      </c>
+      <c r="M252" s="10">
+        <v>9.9803528708320003E-6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A253" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B253" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C253" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D253" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E253" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" s="9">
+        <f t="shared" si="20"/>
+        <v>10.984813999092127</v>
+      </c>
+      <c r="H253" s="9">
+        <f t="shared" si="21"/>
+        <v>0.16065959970068847</v>
+      </c>
+      <c r="I253" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J253" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K253" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L253" s="10">
+        <v>5.3979375991538702E-4</v>
+      </c>
+      <c r="M253" s="10">
+        <v>7.8948127292918309E-6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A254" s="19">
+        <v>44932</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D254" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E254" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F254" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G254" s="21">
+        <f t="shared" si="20"/>
+        <v>-1.1972182781278682</v>
+      </c>
+      <c r="H254" s="21">
+        <f t="shared" si="21"/>
+        <v>2.0168971761068062</v>
+      </c>
+      <c r="I254" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J254" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K254" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L254" s="10">
+        <v>-5.883130618720344E-5</v>
+      </c>
+      <c r="M254" s="10">
+        <v>9.9110327233888442E-5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A255" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B255" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C255" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D255" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E255" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G255" s="9">
+        <f t="shared" si="20"/>
+        <v>9.3458356282258617</v>
+      </c>
+      <c r="H255" s="9">
+        <f t="shared" si="21"/>
+        <v>0.42505365170132825</v>
+      </c>
+      <c r="I255" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J255" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K255" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L255" s="10">
+        <v>4.5925436277101877E-4</v>
+      </c>
+      <c r="M255" s="10">
+        <v>2.0887136444603271E-5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A256" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B256" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C256" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D256" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E256" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F256" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G256" s="9">
+        <f t="shared" si="20"/>
+        <v>1.2589419369080783</v>
+      </c>
+      <c r="H256" s="9">
+        <f t="shared" si="21"/>
+        <v>6.249071360415881E-2</v>
+      </c>
+      <c r="I256" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J256" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K256" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L256" s="10">
+        <v>6.1864406779662962E-5</v>
+      </c>
+      <c r="M256" s="10">
+        <v>3.0707936665083638E-6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C257" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D257" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E257" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="F257" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G257" s="9">
+        <f t="shared" si="20"/>
+        <v>20.189135736465172</v>
+      </c>
+      <c r="H257" s="9">
+        <f t="shared" si="21"/>
+        <v>0.2306843112175774</v>
+      </c>
+      <c r="I257" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J257" s="2">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="K257" s="2">
+        <f t="shared" si="19"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L257" s="10">
+        <v>9.9209413008989849E-4</v>
+      </c>
+      <c r="M257" s="10">
+        <v>1.1335827053231755E-5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B258" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C258" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D258" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E258" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="F258" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G258" s="9">
+        <f t="shared" si="20"/>
+        <v>2.6408751950792912</v>
+      </c>
+      <c r="H258" s="9">
+        <f t="shared" si="21"/>
+        <v>6.8840898183485905E-2</v>
+      </c>
+      <c r="I258" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J258" s="2">
+        <f t="shared" ref="J258:J262" si="23">0.8/2</f>
+        <v>0.4</v>
+      </c>
+      <c r="K258" s="2">
+        <f t="shared" ref="K258:K262" si="24">J258*0.003</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L258" s="10">
+        <v>1.2977260708619637E-4</v>
+      </c>
+      <c r="M258" s="10">
+        <v>3.3828417367364975E-6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B259" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C259" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D259" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E259" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="F259" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G259" s="9">
+        <f t="shared" si="20"/>
+        <v>11.498676226333506</v>
+      </c>
+      <c r="H259" s="9">
+        <f t="shared" si="21"/>
+        <v>0.31425565683412832</v>
+      </c>
+      <c r="I259" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J259" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K259" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L259" s="10">
+        <v>5.6504494976202847E-4</v>
+      </c>
+      <c r="M259" s="10">
+        <v>1.5442522976829064E-5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B260" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C260" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D260" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E260" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="F260" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G260" s="9">
+        <f t="shared" si="20"/>
+        <v>13.596095034487421</v>
+      </c>
+      <c r="H260" s="9">
+        <f t="shared" si="21"/>
+        <v>0.30477173193075263</v>
+      </c>
+      <c r="I260" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J260" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K260" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L260" s="10">
+        <v>6.6811210999471191E-4</v>
+      </c>
+      <c r="M260" s="10">
+        <v>1.4976482907077185E-5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B261" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C261" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D261" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E261" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F261" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G261" s="9">
+        <f t="shared" si="20"/>
+        <v>10.746984570358435</v>
+      </c>
+      <c r="H261" s="9">
+        <f t="shared" si="21"/>
+        <v>0.17560427917458041</v>
+      </c>
+      <c r="I261" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J261" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K261" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L261" s="10">
+        <v>5.2810682178741348E-4</v>
+      </c>
+      <c r="M261" s="10">
+        <v>8.6291942786388815E-6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" s="13">
+        <v>44932</v>
+      </c>
+      <c r="B262" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C262" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D262" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E262" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="F262" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G262" s="9">
+        <f t="shared" si="20"/>
+        <v>5.2510800792133248</v>
+      </c>
+      <c r="H262" s="9">
+        <f t="shared" si="21"/>
+        <v>8.7059617941322498E-2</v>
+      </c>
+      <c r="I262" s="9" t="b">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J262" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K262" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L262" s="10">
+        <v>2.5803807509254274E-4</v>
+      </c>
+      <c r="M262" s="10">
+        <v>4.2781096256365879E-6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" s="13"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" s="13"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" s="13"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A267" s="13"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" s="13"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A269" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A220:M251">
@@ -14797,8 +15495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.Thiaminase Summary Data Sheet.xlsx
+++ b/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.Thiaminase Summary Data Sheet.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="374">
   <si>
     <t>ANALYSIS DATE</t>
   </si>
@@ -1096,6 +1096,69 @@
   </si>
   <si>
     <t>HERRING YOY</t>
+  </si>
+  <si>
+    <t>CF16-1192</t>
+  </si>
+  <si>
+    <t>CF16-1135</t>
+  </si>
+  <si>
+    <t>CF16-1190</t>
+  </si>
+  <si>
+    <t>CF16-1152</t>
+  </si>
+  <si>
+    <t>CF16-1194</t>
+  </si>
+  <si>
+    <t>CF16-1119</t>
+  </si>
+  <si>
+    <t>CF16-1193</t>
+  </si>
+  <si>
+    <t>CF16-1195</t>
+  </si>
+  <si>
+    <t>CF16-1120</t>
+  </si>
+  <si>
+    <t>CF16-1151</t>
+  </si>
+  <si>
+    <t>CF16-1191</t>
+  </si>
+  <si>
+    <t>CF16-1118</t>
+  </si>
+  <si>
+    <t>CF16-1122</t>
+  </si>
+  <si>
+    <t>CF16-1137</t>
+  </si>
+  <si>
+    <t>CF16-1123</t>
+  </si>
+  <si>
+    <t>CF16-1136</t>
+  </si>
+  <si>
+    <t>CF16-1134</t>
+  </si>
+  <si>
+    <t>NBS2015</t>
+  </si>
+  <si>
+    <t>Herring Juvenile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rainbow Smelt</t>
+  </si>
+  <si>
+    <t>CF16-1153</t>
   </si>
 </sst>
 </file>
@@ -1766,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O286"/>
+  <dimension ref="A1:O310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="G272" sqref="E272:G273"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="O303" sqref="O303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,23 +1909,23 @@
         <v>9</v>
       </c>
       <c r="G2" s="9">
-        <f>((((L2/13650)/0.3)*0.0001)/K2)*1000000000</f>
+        <f t="shared" ref="G2:G7" si="0">((((L2/13650)/0.3)*0.0001)/K2)*1000000000</f>
         <v>14.488448628233549</v>
       </c>
       <c r="H2" s="9">
-        <f>((((M2/13650)/0.3)*0.0001)/K2)*1000000000</f>
+        <f t="shared" ref="H2:H65" si="1">((((M2/13650)/0.3)*0.0001)/K2)*1000000000</f>
         <v>0</v>
       </c>
       <c r="I2" s="9" t="b">
-        <f>G2&gt;(3*H2)</f>
+        <f t="shared" ref="I2:I65" si="2">G2&gt;(3*H2)</f>
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <f>0.8/2</f>
+        <f t="shared" ref="J2:J65" si="3">0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K2" s="2">
-        <f>J2*0.003</f>
+        <f t="shared" ref="K2:K65" si="4">J2*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L2" s="10">
@@ -1886,23 +1949,23 @@
         <v>9</v>
       </c>
       <c r="G3" s="9">
-        <f>((((L3/13650)/0.3)*0.0001)/K3)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>16.091286252576506</v>
       </c>
       <c r="H3" s="9">
-        <f>((((M3/13650)/0.3)*0.0001)/K3)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.147999714531206</v>
       </c>
       <c r="I3" s="9" t="b">
-        <f>G3&gt;(3*H3)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K3" s="2">
-        <f>J3*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L3" s="10">
@@ -1928,23 +1991,23 @@
         <v>9</v>
       </c>
       <c r="G4" s="9">
-        <f>((((L4/13650)/0.3)*0.0001)/K4)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>18.761083012801627</v>
       </c>
       <c r="H4" s="9">
-        <f>((((M4/13650)/0.3)*0.0001)/K4)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.32082745183962158</v>
       </c>
       <c r="I4" s="9" t="b">
-        <f>G4&gt;(3*H4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K4" s="2">
-        <f>J4*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L4" s="10">
@@ -1973,23 +2036,23 @@
         <v>9</v>
       </c>
       <c r="G5" s="9">
-        <f>((((L5/13650)/0.3)*0.0001)/K5)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>18.022843247592018</v>
       </c>
       <c r="H5" s="9">
-        <f>((((M5/13650)/0.3)*0.0001)/K5)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.31193944661956641</v>
       </c>
       <c r="I5" s="9" t="b">
-        <f>G5&gt;(3*H5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K5" s="2">
-        <f>J5*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L5" s="10">
@@ -2018,23 +2081,23 @@
         <v>9</v>
       </c>
       <c r="G6" s="9">
-        <f>((((L6/13650)/0.3)*0.0001)/K6)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>14.863263144595813</v>
       </c>
       <c r="H6" s="9">
-        <f>((((M6/13650)/0.3)*0.0001)/K6)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.34582388182700557</v>
       </c>
       <c r="I6" s="9" t="b">
-        <f>G6&gt;(3*H6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K6" s="2">
-        <f>J6*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L6" s="10">
@@ -2063,23 +2126,23 @@
         <v>9</v>
       </c>
       <c r="G7" s="9">
-        <f>((((L7/13650)/0.3)*0.0001)/K7)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>14.87940541351437</v>
       </c>
       <c r="H7" s="9">
-        <f>((((M7/13650)/0.3)*0.0001)/K7)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.16141404022430658</v>
       </c>
       <c r="I7" s="9" t="b">
-        <f>G7&gt;(3*H7)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K7" s="2">
-        <f>J7*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L7" s="10">
@@ -2112,19 +2175,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="H8" s="9">
-        <f>((((M8/13650)/0.3)*0.0001)/K8)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.33303873591945754</v>
       </c>
       <c r="I8" s="9" t="e">
-        <f>G8&gt;(3*H8)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="J8" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K8" s="2">
-        <f>J8*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L8" s="10">
@@ -2153,23 +2216,23 @@
         <v>9</v>
       </c>
       <c r="G9" s="9">
-        <f>((((L9/13650)/0.3)*0.0001)/K9)*1000000000</f>
+        <f t="shared" ref="G9:G72" si="5">((((L9/13650)/0.3)*0.0001)/K9)*1000000000</f>
         <v>18.241840029254043</v>
       </c>
       <c r="H9" s="9">
-        <f>((((M9/13650)/0.3)*0.0001)/K9)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.31655345501906124</v>
       </c>
       <c r="I9" s="9" t="b">
-        <f>G9&gt;(3*H9)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K9" s="2">
-        <f>J9*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L9" s="10">
@@ -2198,23 +2261,23 @@
         <v>9</v>
       </c>
       <c r="G10" s="9">
-        <f>((((L10/13650)/0.3)*0.0001)/K10)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>5.7880795585713551</v>
       </c>
       <c r="H10" s="9">
-        <f>((((M10/13650)/0.3)*0.0001)/K10)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.15875759749119589</v>
       </c>
       <c r="I10" s="9" t="b">
-        <f>G10&gt;(3*H10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K10" s="2">
-        <f>J10*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L10" s="10">
@@ -2240,23 +2303,23 @@
         <v>9</v>
       </c>
       <c r="G11" s="9">
-        <f>((((L11/13650)/0.3)*0.0001)/K11)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>6.2067023991931292</v>
       </c>
       <c r="H11" s="9">
-        <f>((((M11/13650)/0.3)*0.0001)/K11)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.23077912411095974</v>
       </c>
       <c r="I11" s="9" t="b">
-        <f>G11&gt;(3*H11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K11" s="2">
-        <f>J11*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L11" s="10">
@@ -2282,23 +2345,23 @@
         <v>9</v>
       </c>
       <c r="G12" s="9">
-        <f>((((L12/13650)/0.3)*0.0001)/K12)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>7.2403456856127564</v>
       </c>
       <c r="H12" s="9">
-        <f>((((M12/13650)/0.3)*0.0001)/K12)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.55370102799372622</v>
       </c>
       <c r="I12" s="9" t="b">
-        <f>G12&gt;(3*H12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K12" s="2">
-        <f>J12*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L12" s="10">
@@ -2324,23 +2387,23 @@
         <v>9</v>
       </c>
       <c r="G13" s="9">
-        <f>((((L13/13650)/0.3)*0.0001)/K13)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>10.603856452613721</v>
       </c>
       <c r="H13" s="9">
-        <f>((((M13/13650)/0.3)*0.0001)/K13)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.45409783276237131</v>
       </c>
       <c r="I13" s="9" t="b">
-        <f>G13&gt;(3*H13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K13" s="2">
-        <f>J13*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L13" s="10">
@@ -2366,23 +2429,23 @@
         <v>9</v>
       </c>
       <c r="G14" s="9">
-        <f>((((L14/13650)/0.3)*0.0001)/K14)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>9.9753841160504138</v>
       </c>
       <c r="H14" s="9">
-        <f>((((M14/13650)/0.3)*0.0001)/K14)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.33555740566214959</v>
       </c>
       <c r="I14" s="9" t="b">
-        <f>G14&gt;(3*H14)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K14" s="2">
-        <f>J14*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L14" s="10">
@@ -2406,23 +2469,23 @@
         <v>9</v>
       </c>
       <c r="G15" s="9">
-        <f>((((L15/13650)/0.3)*0.0001)/K15)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>15.421785649178529</v>
       </c>
       <c r="H15" s="9">
-        <f>((((M15/13650)/0.3)*0.0001)/K15)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.44325319290319432</v>
       </c>
       <c r="I15" s="9" t="b">
-        <f>G15&gt;(3*H15)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K15" s="2">
-        <f>J15*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L15" s="10">
@@ -2448,23 +2511,23 @@
         <v>9</v>
       </c>
       <c r="G16" s="9">
-        <f>((((L16/13650)/0.3)*0.0001)/K16)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>10.624841402207863</v>
       </c>
       <c r="H16" s="9">
-        <f>((((M16/13650)/0.3)*0.0001)/K16)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.20541483111843958</v>
       </c>
       <c r="I16" s="9" t="b">
-        <f>G16&gt;(3*H16)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K16" s="2">
-        <f>J16*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L16" s="10">
@@ -2493,23 +2556,23 @@
         <v>9</v>
       </c>
       <c r="G17" s="9">
-        <f>((((L17/13650)/0.3)*0.0001)/K17)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>14.152465236547766</v>
       </c>
       <c r="H17" s="9">
-        <f>((((M17/13650)/0.3)*0.0001)/K17)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.28393703075150151</v>
       </c>
       <c r="I17" s="9" t="b">
-        <f>G17&gt;(3*H17)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K17" s="2">
-        <f>J17*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L17" s="10">
@@ -2538,23 +2601,23 @@
         <v>48</v>
       </c>
       <c r="G18" s="9">
-        <f>((((L18/13650)/0.3)*0.0001)/K18)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.39763789102766162</v>
       </c>
       <c r="H18" s="9">
-        <f>((((M18/13650)/0.3)*0.0001)/K18)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.4270041605784238E-2</v>
       </c>
       <c r="I18" s="9" t="b">
-        <f>G18&gt;(3*H18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K18" s="2">
-        <f>J18*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L18" s="10">
@@ -2580,23 +2643,23 @@
         <v>48</v>
       </c>
       <c r="G19" s="9">
-        <f>((((L19/13650)/0.3)*0.0001)/K19)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.76514354674055818</v>
       </c>
       <c r="H19" s="9">
-        <f>((((M19/13650)/0.3)*0.0001)/K19)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.9322212119731972E-2</v>
       </c>
       <c r="I19" s="9" t="b">
-        <f>G19&gt;(3*H19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J19" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K19" s="2">
-        <f>J19*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L19" s="10">
@@ -2622,23 +2685,23 @@
         <v>47</v>
       </c>
       <c r="G20" s="9">
-        <f>((((L20/13650)/0.3)*0.0001)/K20)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.12644777319553635</v>
       </c>
       <c r="H20" s="9">
-        <f>((((M20/13650)/0.3)*0.0001)/K20)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.7028235849867907E-2</v>
       </c>
       <c r="I20" s="9" t="b">
-        <f>G20&gt;(3*H20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K20" s="2">
-        <f>J20*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L20" s="10">
@@ -2664,23 +2727,23 @@
         <v>9</v>
       </c>
       <c r="G21" s="9">
-        <f>((((L21/13650)/0.3)*0.0001)/K21)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.4856268161398027</v>
       </c>
       <c r="H21" s="9">
-        <f>((((M21/13650)/0.3)*0.0001)/K21)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>8.3536471120056674E-2</v>
       </c>
       <c r="I21" s="9" t="b">
-        <f>G21&gt;(3*H21)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K21" s="2">
-        <f>J21*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L21" s="10">
@@ -2706,23 +2769,23 @@
         <v>50</v>
       </c>
       <c r="G22" s="9">
-        <f>((((L22/13650)/0.3)*0.0001)/K22)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.52085721043943667</v>
       </c>
       <c r="H22" s="9">
-        <f>((((M22/13650)/0.3)*0.0001)/K22)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.4203552320637359E-2</v>
       </c>
       <c r="I22" s="9" t="b">
-        <f>G22&gt;(3*H22)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K22" s="2">
-        <f>J22*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L22" s="10">
@@ -2748,23 +2811,23 @@
         <v>50</v>
       </c>
       <c r="G23" s="9">
-        <f>((((L23/13650)/0.3)*0.0001)/K23)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.52677604237626818</v>
       </c>
       <c r="H23" s="9">
-        <f>((((M23/13650)/0.3)*0.0001)/K23)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.1452275859895036E-2</v>
       </c>
       <c r="I23" s="9" t="b">
-        <f>G23&gt;(3*H23)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J23" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K23" s="2">
-        <f>J23*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L23" s="10">
@@ -2790,23 +2853,23 @@
         <v>47</v>
       </c>
       <c r="G24" s="9">
-        <f>((((L24/13650)/0.3)*0.0001)/K24)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.97337881579023167</v>
       </c>
       <c r="H24" s="9">
-        <f>((((M24/13650)/0.3)*0.0001)/K24)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.647106655568118E-2</v>
       </c>
       <c r="I24" s="9" t="b">
-        <f>G24&gt;(3*H24)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J24" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K24" s="2">
-        <f>J24*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L24" s="10">
@@ -2832,23 +2895,23 @@
         <v>47</v>
       </c>
       <c r="G25" s="9">
-        <f>((((L25/13650)/0.3)*0.0001)/K25)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.83939798376602026</v>
       </c>
       <c r="H25" s="9">
-        <f>((((M25/13650)/0.3)*0.0001)/K25)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>6.1665200508018714E-2</v>
       </c>
       <c r="I25" s="9" t="b">
-        <f>G25&gt;(3*H25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K25" s="2">
-        <f>J25*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L25" s="10">
@@ -2877,23 +2940,23 @@
         <v>47</v>
       </c>
       <c r="G26" s="9">
-        <f>((((L26/13650)/0.3)*0.0001)/K26)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.60049240377109858</v>
       </c>
       <c r="H26" s="9">
-        <f>((((M26/13650)/0.3)*0.0001)/K26)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.8872591103168115E-2</v>
       </c>
       <c r="I26" s="9" t="b">
-        <f>G26&gt;(3*H26)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J26" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K26" s="2">
-        <f>J26*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L26" s="10">
@@ -2919,23 +2982,23 @@
         <v>47</v>
       </c>
       <c r="G27" s="9">
-        <f>((((L27/13650)/0.3)*0.0001)/K27)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.99221146286190276</v>
       </c>
       <c r="H27" s="9">
-        <f>((((M27/13650)/0.3)*0.0001)/K27)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.9371429545129632E-2</v>
       </c>
       <c r="I27" s="9" t="b">
-        <f>G27&gt;(3*H27)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J27" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K27" s="2">
-        <f>J27*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L27" s="10">
@@ -2961,23 +3024,23 @@
         <v>47</v>
       </c>
       <c r="G28" s="9">
-        <f>((((L28/13650)/0.3)*0.0001)/K28)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.9101684886983745</v>
       </c>
       <c r="H28" s="9">
-        <f>((((M28/13650)/0.3)*0.0001)/K28)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.3829446434238169E-2</v>
       </c>
       <c r="I28" s="9" t="b">
-        <f>G28&gt;(3*H28)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J28" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K28" s="2">
-        <f>J28*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L28" s="10">
@@ -3003,23 +3066,23 @@
         <v>47</v>
       </c>
       <c r="G29" s="9">
-        <f>((((L29/13650)/0.3)*0.0001)/K29)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.45144545408955677</v>
       </c>
       <c r="H29" s="9">
-        <f>((((M29/13650)/0.3)*0.0001)/K29)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.2748567936245221E-2</v>
       </c>
       <c r="I29" s="9" t="b">
-        <f>G29&gt;(3*H29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K29" s="2">
-        <f>J29*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L29" s="10">
@@ -3045,23 +3108,23 @@
         <v>47</v>
       </c>
       <c r="G30" s="9">
-        <f>((((L30/13650)/0.3)*0.0001)/K30)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.66398532818416822</v>
       </c>
       <c r="H30" s="9">
-        <f>((((M30/13650)/0.3)*0.0001)/K30)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.7671254806592137E-2</v>
       </c>
       <c r="I30" s="9" t="b">
-        <f>G30&gt;(3*H30)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J30" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K30" s="2">
-        <f>J30*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L30" s="10">
@@ -3087,23 +3150,23 @@
         <v>47</v>
       </c>
       <c r="G31" s="9">
-        <f>((((L31/13650)/0.3)*0.0001)/K31)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.31692654643473939</v>
       </c>
       <c r="H31" s="9">
-        <f>((((M31/13650)/0.3)*0.0001)/K31)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.9132961770919199E-2</v>
       </c>
       <c r="I31" s="9" t="b">
-        <f>G31&gt;(3*H31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K31" s="2">
-        <f>J31*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L31" s="10">
@@ -3129,23 +3192,23 @@
         <v>57</v>
       </c>
       <c r="G32" s="9">
-        <f>((((L32/13650)/0.3)*0.0001)/K32)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>7.8112439296997458</v>
       </c>
       <c r="H32" s="9">
-        <f>((((M32/13650)/0.3)*0.0001)/K32)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.3548434801813274E-2</v>
       </c>
       <c r="I32" s="9" t="b">
-        <f>G32&gt;(3*H32)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J32" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K32" s="2">
-        <f>J32*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L32" s="10">
@@ -3171,23 +3234,23 @@
         <v>57</v>
       </c>
       <c r="G33" s="9">
-        <f>((((L33/13650)/0.3)*0.0001)/K33)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.75438203412817473</v>
       </c>
       <c r="H33" s="9">
-        <f>((((M33/13650)/0.3)*0.0001)/K33)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.2080079965749999E-2</v>
       </c>
       <c r="I33" s="9" t="b">
-        <f>G33&gt;(3*H33)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J33" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K33" s="2">
-        <f>J33*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L33" s="10">
@@ -3213,23 +3276,23 @@
         <v>50</v>
       </c>
       <c r="G34" s="9">
-        <f>((((L34/13650)/0.3)*0.0001)/K34)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>2.9448879263791992</v>
       </c>
       <c r="H34" s="9">
-        <f>((((M34/13650)/0.3)*0.0001)/K34)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.435155010543311E-2</v>
       </c>
       <c r="I34" s="9" t="b">
-        <f>G34&gt;(3*H34)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J34" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K34" s="2">
-        <f>J34*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L34" s="10">
@@ -3255,23 +3318,23 @@
         <v>50</v>
       </c>
       <c r="G35" s="9">
-        <f>((((L35/13650)/0.3)*0.0001)/K35)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>2.1915820435122524</v>
       </c>
       <c r="H35" s="9">
-        <f>((((M35/13650)/0.3)*0.0001)/K35)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.1899394386354732E-2</v>
       </c>
       <c r="I35" s="9" t="b">
-        <f>G35&gt;(3*H35)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J35" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K35" s="2">
-        <f>J35*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L35" s="10">
@@ -3297,23 +3360,23 @@
         <v>49</v>
       </c>
       <c r="G36" s="9">
-        <f>((((L36/13650)/0.3)*0.0001)/K36)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.98898300907819836</v>
       </c>
       <c r="H36" s="9">
-        <f>((((M36/13650)/0.3)*0.0001)/K36)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.10438272343153079</v>
       </c>
       <c r="I36" s="9" t="b">
-        <f>G36&gt;(3*H36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K36" s="2">
-        <f>J36*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L36" s="10">
@@ -3342,23 +3405,23 @@
         <v>49</v>
       </c>
       <c r="G37" s="9">
-        <f>((((L37/13650)/0.3)*0.0001)/K37)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.40678517674815678</v>
       </c>
       <c r="H37" s="9">
-        <f>((((M37/13650)/0.3)*0.0001)/K37)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>6.8097245486183317E-2</v>
       </c>
       <c r="I37" s="9" t="b">
-        <f>G37&gt;(3*H37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K37" s="2">
-        <f>J37*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L37" s="10">
@@ -3391,23 +3454,23 @@
         <v>9</v>
       </c>
       <c r="G38" s="9">
-        <f>((((L38/13650)/0.3)*0.0001)/K38)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>18.662615172398368</v>
       </c>
       <c r="H38" s="9">
-        <f>((((M38/13650)/0.3)*0.0001)/K38)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.30188891704133403</v>
       </c>
       <c r="I38" s="9" t="b">
-        <f>G38&gt;(3*H38)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J38" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K38" s="2">
-        <f>J38*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L38" s="10">
@@ -3438,23 +3501,23 @@
         <v>92</v>
       </c>
       <c r="G39" s="9">
-        <f>((((L39/13650)/0.3)*0.0001)/K39)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.2182032277219965</v>
       </c>
       <c r="H39" s="9">
-        <f>((((M39/13650)/0.3)*0.0001)/K39)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.10590949853768829</v>
       </c>
       <c r="I39" s="9" t="b">
-        <f>G39&gt;(3*H39)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J39" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K39" s="2">
-        <f>J39*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L39" s="10">
@@ -3485,23 +3548,23 @@
         <v>93</v>
       </c>
       <c r="G40" s="9">
-        <f>((((L40/13650)/0.3)*0.0001)/K40)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-2.5725395899906918</v>
       </c>
       <c r="H40" s="9">
-        <f>((((M40/13650)/0.3)*0.0001)/K40)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.14765946483785841</v>
       </c>
       <c r="I40" s="9" t="b">
-        <f>G40&gt;(3*H40)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K40" s="2">
-        <f>J40*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L40" s="10">
@@ -3532,23 +3595,23 @@
         <v>9</v>
       </c>
       <c r="G41" s="9">
-        <f>((((L41/13650)/0.3)*0.0001)/K41)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>12.0362137813222</v>
       </c>
       <c r="H41" s="9">
-        <f>((((M41/13650)/0.3)*0.0001)/K41)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.33290906784011054</v>
       </c>
       <c r="I41" s="9" t="b">
-        <f>G41&gt;(3*H41)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J41" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K41" s="2">
-        <f>J41*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L41" s="10">
@@ -3579,23 +3642,23 @@
         <v>94</v>
       </c>
       <c r="G42" s="9">
-        <f>((((L42/13650)/0.3)*0.0001)/K42)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.53430910120492237</v>
       </c>
       <c r="H42" s="9">
-        <f>((((M42/13650)/0.3)*0.0001)/K42)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.2693010374467983E-2</v>
       </c>
       <c r="I42" s="9" t="b">
-        <f>G42&gt;(3*H42)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J42" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K42" s="2">
-        <f>J42*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L42" s="10">
@@ -3626,23 +3689,23 @@
         <v>94</v>
       </c>
       <c r="G43" s="9">
-        <f>((((L43/13650)/0.3)*0.0001)/K43)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.47081617679184851</v>
       </c>
       <c r="H43" s="9">
-        <f>((((M43/13650)/0.3)*0.0001)/K43)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1627516914731961</v>
       </c>
       <c r="I43" s="9" t="b">
-        <f>G43&gt;(3*H43)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K43" s="2">
-        <f>J43*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L43" s="10">
@@ -3673,23 +3736,23 @@
         <v>92</v>
       </c>
       <c r="G44" s="9">
-        <f>((((L44/13650)/0.3)*0.0001)/K44)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.1334427563935793</v>
       </c>
       <c r="H44" s="9">
-        <f>((((M44/13650)/0.3)*0.0001)/K44)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1018688232613459</v>
       </c>
       <c r="I44" s="9" t="b">
-        <f>G44&gt;(3*H44)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K44" s="2">
-        <f>J44*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L44" s="10">
@@ -3720,23 +3783,23 @@
         <v>92</v>
       </c>
       <c r="G45" s="9">
-        <f>((((L45/13650)/0.3)*0.0001)/K45)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.6621156229828853</v>
       </c>
       <c r="H45" s="9">
-        <f>((((M45/13650)/0.3)*0.0001)/K45)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>9.264024229151098E-2</v>
       </c>
       <c r="I45" s="9" t="b">
-        <f>G45&gt;(3*H45)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K45" s="2">
-        <f>J45*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L45" s="10">
@@ -3767,23 +3830,23 @@
         <v>95</v>
       </c>
       <c r="G46" s="9">
-        <f>((((L46/13650)/0.3)*0.0001)/K46)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.4592611102394377</v>
       </c>
       <c r="H46" s="9">
-        <f>((((M46/13650)/0.3)*0.0001)/K46)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.19417224108533773</v>
       </c>
       <c r="I46" s="9" t="b">
-        <f>G46&gt;(3*H46)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K46" s="2">
-        <f>J46*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L46" s="10">
@@ -3814,23 +3877,23 @@
         <v>92</v>
       </c>
       <c r="G47" s="9">
-        <f>((((L47/13650)/0.3)*0.0001)/K47)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-5.9726394998733216E-2</v>
       </c>
       <c r="H47" s="9">
-        <f>((((M47/13650)/0.3)*0.0001)/K47)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.5051684159261684E-2</v>
       </c>
       <c r="I47" s="9" t="b">
-        <f>G47&gt;(3*H47)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K47" s="2">
-        <f>J47*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L47" s="10">
@@ -3861,23 +3924,23 @@
         <v>96</v>
       </c>
       <c r="G48" s="9">
-        <f>((((L48/13650)/0.3)*0.0001)/K48)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.601313076722914</v>
       </c>
       <c r="H48" s="9">
-        <f>((((M48/13650)/0.3)*0.0001)/K48)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1250069403344149</v>
       </c>
       <c r="I48" s="9" t="b">
-        <f>G48&gt;(3*H48)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K48" s="2">
-        <f>J48*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L48" s="10">
@@ -3908,23 +3971,23 @@
         <v>92</v>
       </c>
       <c r="G49" s="9">
-        <f>((((L49/13650)/0.3)*0.0001)/K49)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.40086634481134548</v>
       </c>
       <c r="H49" s="9">
-        <f>((((M49/13650)/0.3)*0.0001)/K49)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>6.0769608756482331E-2</v>
       </c>
       <c r="I49" s="9" t="b">
-        <f>G49&gt;(3*H49)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J49" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K49" s="2">
-        <f>J49*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L49" s="10">
@@ -3955,23 +4018,23 @@
         <v>92</v>
       </c>
       <c r="G50" s="9">
-        <f>((((L50/13650)/0.3)*0.0001)/K50)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>3.0584218844398716</v>
       </c>
       <c r="H50" s="9">
-        <f>((((M50/13650)/0.3)*0.0001)/K50)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.5284067329687145E-2</v>
       </c>
       <c r="I50" s="9" t="b">
-        <f>G50&gt;(3*H50)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J50" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K50" s="2">
-        <f>J50*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L50" s="10">
@@ -4002,23 +4065,23 @@
         <v>96</v>
       </c>
       <c r="G51" s="9">
-        <f>((((L51/13650)/0.3)*0.0001)/K51)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.63923384917568749</v>
       </c>
       <c r="H51" s="9">
-        <f>((((M51/13650)/0.3)*0.0001)/K51)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1062234556644929</v>
       </c>
       <c r="I51" s="9" t="b">
-        <f>G51&gt;(3*H51)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J51" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K51" s="2">
-        <f>J51*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L51" s="10">
@@ -4049,23 +4112,23 @@
         <v>94</v>
       </c>
       <c r="G52" s="9">
-        <f>((((L52/13650)/0.3)*0.0001)/K52)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.4178292866817097</v>
       </c>
       <c r="H52" s="9">
-        <f>((((M52/13650)/0.3)*0.0001)/K52)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.1062234556644929</v>
       </c>
       <c r="I52" s="9" t="b">
-        <f>G52&gt;(3*H52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K52" s="2">
-        <f>J52*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L52" s="10">
@@ -4096,23 +4159,23 @@
         <v>95</v>
       </c>
       <c r="G53" s="9">
-        <f>((((L53/13650)/0.3)*0.0001)/K53)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.94109427795308254</v>
       </c>
       <c r="H53" s="9">
-        <f>((((M53/13650)/0.3)*0.0001)/K53)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>6.421008261122628E-2</v>
       </c>
       <c r="I53" s="9" t="b">
-        <f>G53&gt;(3*H53)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J53" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K53" s="2">
-        <f>J53*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L53" s="10">
@@ -4143,23 +4206,23 @@
         <v>92</v>
       </c>
       <c r="G54" s="9">
-        <f>((((L54/13650)/0.3)*0.0001)/K54)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.6583490935685388</v>
       </c>
       <c r="H54" s="9">
-        <f>((((M54/13650)/0.3)*0.0001)/K54)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.2559808957123467E-2</v>
       </c>
       <c r="I54" s="9" t="b">
-        <f>G54&gt;(3*H54)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J54" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K54" s="2">
-        <f>J54*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L54" s="10">
@@ -4190,23 +4253,23 @@
         <v>47</v>
       </c>
       <c r="G55" s="9">
-        <f>((((L55/13650)/0.3)*0.0001)/K55)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>4.9971083815610529</v>
       </c>
       <c r="H55" s="9">
-        <f>((((M55/13650)/0.3)*0.0001)/K55)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>9.9739901937496517E-2</v>
       </c>
       <c r="I55" s="9" t="b">
-        <f>G55&gt;(3*H55)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J55" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K55" s="2">
-        <f>J55*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L55" s="10">
@@ -4237,23 +4300,23 @@
         <v>97</v>
       </c>
       <c r="G56" s="9">
-        <f>((((L56/13650)/0.3)*0.0001)/K56)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.4641037909149968</v>
       </c>
       <c r="H56" s="9">
-        <f>((((M56/13650)/0.3)*0.0001)/K56)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.0880848862680229E-2</v>
       </c>
       <c r="I56" s="9" t="b">
-        <f>G56&gt;(3*H56)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K56" s="2">
-        <f>J56*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L56" s="10">
@@ -4284,23 +4347,23 @@
         <v>9</v>
       </c>
       <c r="G57" s="9">
-        <f>((((L57/13650)/0.3)*0.0001)/K57)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>14.815912489101288</v>
       </c>
       <c r="H57" s="9">
-        <f>((((M57/13650)/0.3)*0.0001)/K57)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.26448024316322977</v>
       </c>
       <c r="I57" s="9" t="b">
-        <f>G57&gt;(3*H57)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J57" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K57" s="2">
-        <f>J57*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L57" s="10">
@@ -4331,23 +4394,23 @@
         <v>118</v>
       </c>
       <c r="G58" s="9">
-        <f>((((L58/13650)/0.3)*0.0001)/K58)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.7336796818552589</v>
       </c>
       <c r="H58" s="9">
-        <f>((((M58/13650)/0.3)*0.0001)/K58)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>9.127027782246333E-2</v>
       </c>
       <c r="I58" s="9" t="b">
-        <f>G58&gt;(3*H58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K58" s="2">
-        <f>J58*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L58" s="10">
@@ -4378,23 +4441,23 @@
         <v>9</v>
       </c>
       <c r="G59" s="9">
-        <f>((((L59/13650)/0.3)*0.0001)/K59)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>12.585589000184463</v>
       </c>
       <c r="H59" s="9">
-        <f>((((M59/13650)/0.3)*0.0001)/K59)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.32860536432043042</v>
       </c>
       <c r="I59" s="9" t="b">
-        <f>G59&gt;(3*H59)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J59" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K59" s="2">
-        <f>J59*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L59" s="10">
@@ -4425,23 +4488,23 @@
         <v>47</v>
       </c>
       <c r="G60" s="9">
-        <f>((((L60/13650)/0.3)*0.0001)/K60)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.99543991664562703</v>
       </c>
       <c r="H60" s="9">
-        <f>((((M60/13650)/0.3)*0.0001)/K60)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.4898759780816282E-2</v>
       </c>
       <c r="I60" s="9" t="b">
-        <f>G60&gt;(3*H60)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K60" s="2">
-        <f>J60*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L60" s="10">
@@ -4472,23 +4535,23 @@
         <v>118</v>
       </c>
       <c r="G61" s="9">
-        <f>((((L61/13650)/0.3)*0.0001)/K61)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-2.2513084385109767</v>
       </c>
       <c r="H61" s="9">
-        <f>((((M61/13650)/0.3)*0.0001)/K61)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.13514134350434909</v>
       </c>
       <c r="I61" s="9" t="b">
-        <f>G61&gt;(3*H61)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K61" s="2">
-        <f>J61*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L61" s="10">
@@ -4519,23 +4582,23 @@
         <v>49</v>
       </c>
       <c r="G62" s="9">
-        <f>((((L62/13650)/0.3)*0.0001)/K62)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.0271863788521767</v>
       </c>
       <c r="H62" s="9">
-        <f>((((M62/13650)/0.3)*0.0001)/K62)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>5.7906733318190372E-2</v>
       </c>
       <c r="I62" s="9" t="b">
-        <f>G62&gt;(3*H62)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J62" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K62" s="2">
-        <f>J62*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L62" s="10">
@@ -4566,23 +4629,23 @@
         <v>118</v>
       </c>
       <c r="G63" s="9">
-        <f>((((L63/13650)/0.3)*0.0001)/K63)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.5243682615443532</v>
       </c>
       <c r="H63" s="9">
-        <f>((((M63/13650)/0.3)*0.0001)/K63)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>7.1642871976655045E-2</v>
       </c>
       <c r="I63" s="9" t="b">
-        <f>G63&gt;(3*H63)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K63" s="2">
-        <f>J63*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L63" s="10">
@@ -4613,23 +4676,23 @@
         <v>92</v>
       </c>
       <c r="G64" s="27">
-        <f>((((L64/13650)/0.3)*0.0001)/K64)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>2.4520106487319775</v>
       </c>
       <c r="H64" s="27">
-        <f>((((M64/13650)/0.3)*0.0001)/K64)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.8403038449178905E-2</v>
       </c>
       <c r="I64" s="9" t="b">
-        <f>G64&gt;(3*H64)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J64" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K64" s="2">
-        <f>J64*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L64" s="10">
@@ -4660,23 +4723,23 @@
         <v>93</v>
       </c>
       <c r="G65" s="9">
-        <f>((((L65/13650)/0.3)*0.0001)/K65)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.4797079842029319</v>
       </c>
       <c r="H65" s="9">
-        <f>((((M65/13650)/0.3)*0.0001)/K65)*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0.18751827452181585</v>
       </c>
       <c r="I65" s="9" t="b">
-        <f>G65&gt;(3*H65)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J65" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="K65" s="2">
-        <f>J65*0.003</f>
+        <f t="shared" si="4"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L65" s="10">
@@ -4707,23 +4770,23 @@
         <v>118</v>
       </c>
       <c r="G66" s="9">
-        <f>((((L66/13650)/0.3)*0.0001)/K66)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-3.3317643047944285</v>
       </c>
       <c r="H66" s="9">
-        <f>((((M66/13650)/0.3)*0.0001)/K66)*1000000000</f>
+        <f t="shared" ref="H66:H129" si="6">((((M66/13650)/0.3)*0.0001)/K66)*1000000000</f>
         <v>9.7661813554096352E-2</v>
       </c>
       <c r="I66" s="9" t="b">
-        <f>G66&gt;(3*H66)</f>
+        <f t="shared" ref="I66:I129" si="7">G66&gt;(3*H66)</f>
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <f>0.8/2</f>
+        <f t="shared" ref="J66:J129" si="8">0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K66" s="2">
-        <f>J66*0.003</f>
+        <f t="shared" ref="K66:K129" si="9">J66*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L66" s="10">
@@ -4754,23 +4817,23 @@
         <v>47</v>
       </c>
       <c r="G67" s="9">
-        <f>((((L67/13650)/0.3)*0.0001)/K67)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>0.2184587060314519</v>
       </c>
       <c r="H67" s="9">
-        <f>((((M67/13650)/0.3)*0.0001)/K67)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.4925093349732602E-2</v>
       </c>
       <c r="I67" s="9" t="b">
-        <f>G67&gt;(3*H67)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J67" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K67" s="2">
-        <f>J67*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L67" s="10">
@@ -4801,23 +4864,23 @@
         <v>118</v>
       </c>
       <c r="G68" s="9">
-        <f>((((L68/13650)/0.3)*0.0001)/K68)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-4.0285722464464016</v>
       </c>
       <c r="H68" s="9">
-        <f>((((M68/13650)/0.3)*0.0001)/K68)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.3641100228839185E-2</v>
       </c>
       <c r="I68" s="9" t="b">
-        <f>G68&gt;(3*H68)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K68" s="2">
-        <f>J68*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L68" s="10">
@@ -4848,23 +4911,23 @@
         <v>94</v>
       </c>
       <c r="G69" s="9">
-        <f>((((L69/13650)/0.3)*0.0001)/K69)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.436123858122804</v>
       </c>
       <c r="H69" s="9">
-        <f>((((M69/13650)/0.3)*0.0001)/K69)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.403149022444637E-2</v>
       </c>
       <c r="I69" s="9" t="b">
-        <f>G69&gt;(3*H69)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J69" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K69" s="2">
-        <f>J69*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L69" s="10">
@@ -4895,23 +4958,23 @@
         <v>118</v>
       </c>
       <c r="G70" s="9">
-        <f>((((L70/13650)/0.3)*0.0001)/K70)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-1.5582670262733702</v>
       </c>
       <c r="H70" s="9">
-        <f>((((M70/13650)/0.3)*0.0001)/K70)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.217347787915842</v>
       </c>
       <c r="I70" s="9" t="b">
-        <f>G70&gt;(3*H70)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J70" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K70" s="2">
-        <f>J70*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L70" s="10">
@@ -4942,23 +5005,23 @@
         <v>94</v>
       </c>
       <c r="G71" s="9">
-        <f>((((L71/13650)/0.3)*0.0001)/K71)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>1.7745734297822966</v>
       </c>
       <c r="H71" s="9">
-        <f>((((M71/13650)/0.3)*0.0001)/K71)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.9733665848480964E-2</v>
       </c>
       <c r="I71" s="9" t="b">
-        <f>G71&gt;(3*H71)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J71" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K71" s="2">
-        <f>J71*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L71" s="10">
@@ -4989,23 +5052,23 @@
         <v>96</v>
       </c>
       <c r="G72" s="9">
-        <f>((((L72/13650)/0.3)*0.0001)/K72)*1000000000</f>
+        <f t="shared" si="5"/>
         <v>-0.41270400868497092</v>
       </c>
       <c r="H72" s="9">
-        <f>((((M72/13650)/0.3)*0.0001)/K72)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5956664749621868E-2</v>
       </c>
       <c r="I72" s="9" t="b">
-        <f>G72&gt;(3*H72)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J72" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K72" s="2">
-        <f>J72*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L72" s="10">
@@ -5036,23 +5099,23 @@
         <v>118</v>
       </c>
       <c r="G73" s="9">
-        <f>((((L73/13650)/0.3)*0.0001)/K73)*1000000000</f>
+        <f t="shared" ref="G73:G136" si="10">((((L73/13650)/0.3)*0.0001)/K73)*1000000000</f>
         <v>-2.4670767663892996</v>
       </c>
       <c r="H73" s="9">
-        <f>((((M73/13650)/0.3)*0.0001)/K73)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>8.9608275443357727E-2</v>
       </c>
       <c r="I73" s="9" t="b">
-        <f>G73&gt;(3*H73)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K73" s="2">
-        <f>J73*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L73" s="10">
@@ -5083,23 +5146,23 @@
         <v>92</v>
       </c>
       <c r="G74" s="9">
-        <f>((((L74/13650)/0.3)*0.0001)/K74)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.4062742201293217</v>
       </c>
       <c r="H74" s="9">
-        <f>((((M74/13650)/0.3)*0.0001)/K74)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.114890281080342E-2</v>
       </c>
       <c r="I74" s="9" t="b">
-        <f>G74&gt;(3*H74)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J74" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K74" s="2">
-        <f>J74*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L74" s="10">
@@ -5130,23 +5193,23 @@
         <v>94</v>
       </c>
       <c r="G75" s="9">
-        <f>((((L75/13650)/0.3)*0.0001)/K75)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.27764702539956587</v>
       </c>
       <c r="H75" s="9">
-        <f>((((M75/13650)/0.3)*0.0001)/K75)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.3932161142451547E-2</v>
       </c>
       <c r="I75" s="9" t="b">
-        <f>G75&gt;(3*H75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J75" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K75" s="2">
-        <f>J75*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L75" s="10">
@@ -5177,23 +5240,23 @@
         <v>118</v>
       </c>
       <c r="G76" s="9">
-        <f>((((L76/13650)/0.3)*0.0001)/K76)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.99221146286190964</v>
       </c>
       <c r="H76" s="9">
-        <f>((((M76/13650)/0.3)*0.0001)/K76)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.1317861367038156E-2</v>
       </c>
       <c r="I76" s="9" t="b">
-        <f>G76&gt;(3*H76)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J76" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K76" s="2">
-        <f>J76*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L76" s="10">
@@ -5224,23 +5287,23 @@
         <v>9</v>
       </c>
       <c r="G77" s="9">
-        <f>((((L77/13650)/0.3)*0.0001)/K77)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>16.162177716910659</v>
       </c>
       <c r="H77" s="9">
-        <f>((((M77/13650)/0.3)*0.0001)/K77)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.30748746812105271</v>
       </c>
       <c r="I77" s="9" t="b">
-        <f>G77&gt;(3*H77)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J77" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K77" s="2">
-        <f>J77*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L77" s="10">
@@ -5271,23 +5334,23 @@
         <v>138</v>
       </c>
       <c r="G78" s="9">
-        <f>((((L78/13650)/0.3)*0.0001)/K78)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-9.8467840403326248E-2</v>
       </c>
       <c r="H78" s="9">
-        <f>((((M78/13650)/0.3)*0.0001)/K78)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.11453858335819792</v>
       </c>
       <c r="I78" s="9" t="b">
-        <f>G78&gt;(3*H78)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J78" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K78" s="2">
-        <f>J78*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L78" s="10">
@@ -5318,23 +5381,23 @@
         <v>139</v>
       </c>
       <c r="G79" s="9">
-        <f>((((L79/13650)/0.3)*0.0001)/K79)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.1019788915082396</v>
       </c>
       <c r="H79" s="9">
-        <f>((((M79/13650)/0.3)*0.0001)/K79)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.3850531387157433E-2</v>
       </c>
       <c r="I79" s="9" t="b">
-        <f>G79&gt;(3*H79)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K79" s="2">
-        <f>J79*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L79" s="10">
@@ -5365,23 +5428,23 @@
         <v>9</v>
       </c>
       <c r="G80" s="9">
-        <f>((((L80/13650)/0.3)*0.0001)/K80)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>11.749419470202128</v>
       </c>
       <c r="H80" s="9">
-        <f>((((M80/13650)/0.3)*0.0001)/K80)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.33392214437117579</v>
       </c>
       <c r="I80" s="9" t="b">
-        <f>G80&gt;(3*H80)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J80" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K80" s="2">
-        <f>J80*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L80" s="10">
@@ -5412,23 +5475,23 @@
         <v>138</v>
       </c>
       <c r="G81" s="9">
-        <f>((((L81/13650)/0.3)*0.0001)/K81)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>4.5467390787327249</v>
       </c>
       <c r="H81" s="9">
-        <f>((((M81/13650)/0.3)*0.0001)/K81)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.14934311886561749</v>
       </c>
       <c r="I81" s="9" t="b">
-        <f>G81&gt;(3*H81)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J81" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K81" s="2">
-        <f>J81*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L81" s="10">
@@ -5459,23 +5522,23 @@
         <v>139</v>
       </c>
       <c r="G82" s="9">
-        <f>((((L82/13650)/0.3)*0.0001)/K82)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.1592975056750507</v>
       </c>
       <c r="H82" s="9">
-        <f>((((M82/13650)/0.3)*0.0001)/K82)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>8.0284344940113564E-2</v>
       </c>
       <c r="I82" s="9" t="b">
-        <f>G82&gt;(3*H82)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J82" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K82" s="2">
-        <f>J82*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L82" s="10">
@@ -5506,23 +5569,23 @@
         <v>93</v>
       </c>
       <c r="G83" s="9">
-        <f>((((L83/13650)/0.3)*0.0001)/K83)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.10628349655321</v>
       </c>
       <c r="H83" s="9">
-        <f>((((M83/13650)/0.3)*0.0001)/K83)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.0010978911677235E-2</v>
       </c>
       <c r="I83" s="9" t="b">
-        <f>G83&gt;(3*H83)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J83" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K83" s="2">
-        <f>J83*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L83" s="10">
@@ -5553,23 +5616,23 @@
         <v>139</v>
       </c>
       <c r="G84" s="9">
-        <f>((((L84/13650)/0.3)*0.0001)/K84)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.35459184057811755</v>
       </c>
       <c r="H84" s="9">
-        <f>((((M84/13650)/0.3)*0.0001)/K84)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.9396013638331066E-2</v>
       </c>
       <c r="I84" s="9" t="b">
-        <f>G84&gt;(3*H84)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J84" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K84" s="2">
-        <f>J84*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L84" s="10">
@@ -5600,23 +5663,23 @@
         <v>141</v>
       </c>
       <c r="G85" s="9">
-        <f>((((L85/13650)/0.3)*0.0001)/K85)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.2112082445239489</v>
       </c>
       <c r="H85" s="9">
-        <f>((((M85/13650)/0.3)*0.0001)/K85)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.331920927666943E-2</v>
       </c>
       <c r="I85" s="9" t="b">
-        <f>G85&gt;(3*H85)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J85" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K85" s="2">
-        <f>J85*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L85" s="10">
@@ -5647,23 +5710,23 @@
         <v>93</v>
       </c>
       <c r="G86" s="9">
-        <f>((((L86/13650)/0.3)*0.0001)/K86)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.8625352358826619</v>
       </c>
       <c r="H86" s="9">
-        <f>((((M86/13650)/0.3)*0.0001)/K86)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>9.3923101169043177E-2</v>
       </c>
       <c r="I86" s="9" t="b">
-        <f>G86&gt;(3*H86)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J86" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K86" s="2">
-        <f>J86*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L86" s="10">
@@ -5694,23 +5757,23 @@
         <v>139</v>
       </c>
       <c r="G87" s="9">
-        <f>((((L87/13650)/0.3)*0.0001)/K87)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.5405105304629223</v>
       </c>
       <c r="H87" s="9">
-        <f>((((M87/13650)/0.3)*0.0001)/K87)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.8525638525418334E-2</v>
       </c>
       <c r="I87" s="9" t="b">
-        <f>G87&gt;(3*H87)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J87" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K87" s="2">
-        <f>J87*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L87" s="10">
@@ -5741,23 +5804,23 @@
         <v>93</v>
       </c>
       <c r="G88" s="9">
-        <f>((((L88/13650)/0.3)*0.0001)/K88)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.8681985895100424</v>
       </c>
       <c r="H88" s="9">
-        <f>((((M88/13650)/0.3)*0.0001)/K88)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.1836691952553105E-2</v>
       </c>
       <c r="I88" s="9" t="b">
-        <f>G88&gt;(3*H88)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J88" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K88" s="2">
-        <f>J88*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L88" s="10">
@@ -5788,23 +5851,23 @@
         <v>139</v>
       </c>
       <c r="G89" s="9">
-        <f>((((L89/13650)/0.3)*0.0001)/K89)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-2.3024256234198019</v>
       </c>
       <c r="H89" s="9">
-        <f>((((M89/13650)/0.3)*0.0001)/K89)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.1684464546791313E-2</v>
       </c>
       <c r="I89" s="9" t="b">
-        <f>G89&gt;(3*H89)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J89" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K89" s="2">
-        <f>J89*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L89" s="10">
@@ -5835,23 +5898,23 @@
         <v>93</v>
       </c>
       <c r="G90" s="9">
-        <f>((((L90/13650)/0.3)*0.0001)/K90)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.2071862368002053</v>
       </c>
       <c r="H90" s="9">
-        <f>((((M90/13650)/0.3)*0.0001)/K90)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.6159970796824707E-2</v>
       </c>
       <c r="I90" s="9" t="b">
-        <f>G90&gt;(3*H90)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J90" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K90" s="2">
-        <f>J90*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L90" s="10">
@@ -5882,23 +5945,23 @@
         <v>140</v>
       </c>
       <c r="G91" s="9">
-        <f>((((L91/13650)/0.3)*0.0001)/K91)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.4484995976270778</v>
       </c>
       <c r="H91" s="9">
-        <f>((((M91/13650)/0.3)*0.0001)/K91)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.8699462318863499E-2</v>
       </c>
       <c r="I91" s="9" t="b">
-        <f>G91&gt;(3*H91)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J91" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K91" s="2">
-        <f>J91*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L91" s="10">
@@ -5929,23 +5992,23 @@
         <v>9</v>
       </c>
       <c r="G92" s="9">
-        <f>((((L92/13650)/0.3)*0.0001)/K92)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>18.337617491504307</v>
       </c>
       <c r="H92" s="9">
-        <f>((((M92/13650)/0.3)*0.0001)/K92)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.57343013949363353</v>
       </c>
       <c r="I92" s="9" t="b">
-        <f>G92&gt;(3*H92)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J92" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K92" s="2">
-        <f>J92*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L92" s="10">
@@ -5976,23 +6039,23 @@
         <v>139</v>
       </c>
       <c r="G93" s="9">
-        <f>((((L93/13650)/0.3)*0.0001)/K93)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.2908434378555829</v>
       </c>
       <c r="H93" s="9">
-        <f>((((M93/13650)/0.3)*0.0001)/K93)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.6666365374872255E-2</v>
       </c>
       <c r="I93" s="9" t="b">
-        <f>G93&gt;(3*H93)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J93" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K93" s="2">
-        <f>J93*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L93" s="10">
@@ -6023,23 +6086,23 @@
         <v>140</v>
       </c>
       <c r="G94" s="9">
-        <f>((((L94/13650)/0.3)*0.0001)/K94)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.6126126649659156</v>
       </c>
       <c r="H94" s="9">
-        <f>((((M94/13650)/0.3)*0.0001)/K94)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.14447854176771352</v>
       </c>
       <c r="I94" s="9" t="b">
-        <f>G94&gt;(3*H94)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J94" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K94" s="2">
-        <f>J94*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L94" s="10">
@@ -6070,23 +6133,23 @@
         <v>139</v>
       </c>
       <c r="G95" s="9">
-        <f>((((L95/13650)/0.3)*0.0001)/K95)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.23083444553563909</v>
       </c>
       <c r="H95" s="9">
-        <f>((((M95/13650)/0.3)*0.0001)/K95)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5766390385270814E-2</v>
       </c>
       <c r="I95" s="9" t="b">
-        <f>G95&gt;(3*H95)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J95" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K95" s="2">
-        <f>J95*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L95" s="10">
@@ -6117,23 +6180,23 @@
         <v>9</v>
       </c>
       <c r="G96" s="9">
-        <f>((((L96/13650)/0.3)*0.0001)/K96)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>8.550021770539983</v>
       </c>
       <c r="H96" s="9">
-        <f>((((M96/13650)/0.3)*0.0001)/K96)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.20671359817577464</v>
       </c>
       <c r="I96" s="9" t="b">
-        <f>G96&gt;(3*H96)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J96" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K96" s="2">
-        <f>J96*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L96" s="10">
@@ -6164,23 +6227,23 @@
         <v>9</v>
       </c>
       <c r="G97" s="9">
-        <f>((((L97/13650)/0.3)*0.0001)/K97)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>16.141730842947137</v>
       </c>
       <c r="H97" s="9">
-        <f>((((M97/13650)/0.3)*0.0001)/K97)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.34759922205867994</v>
       </c>
       <c r="I97" s="9" t="b">
-        <f>G97&gt;(3*H97)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J97" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K97" s="2">
-        <f>J97*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L97" s="10">
@@ -6211,23 +6274,23 @@
         <v>97</v>
       </c>
       <c r="G98" s="9">
-        <f>((((L98/13650)/0.3)*0.0001)/K98)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.12321931941184838</v>
       </c>
       <c r="H98" s="9">
-        <f>((((M98/13650)/0.3)*0.0001)/K98)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.098568884215865E-2</v>
       </c>
       <c r="I98" s="9" t="b">
-        <f>G98&gt;(3*H98)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J98" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K98" s="2">
-        <f>J98*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L98" s="10">
@@ -6258,23 +6321,23 @@
         <v>9</v>
       </c>
       <c r="G99" s="9">
-        <f>((((L99/13650)/0.3)*0.0001)/K99)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>13.579414689938226</v>
       </c>
       <c r="H99" s="9">
-        <f>((((M99/13650)/0.3)*0.0001)/K99)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.47019903602640267</v>
       </c>
       <c r="I99" s="9" t="b">
-        <f>G99&gt;(3*H99)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J99" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K99" s="2">
-        <f>J99*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L99" s="10">
@@ -6305,23 +6368,23 @@
         <v>9</v>
       </c>
       <c r="G100" s="9">
-        <f>((((L100/13650)/0.3)*0.0001)/K100)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>11.712292251689394</v>
       </c>
       <c r="H100" s="9">
-        <f>((((M100/13650)/0.3)*0.0001)/K100)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.33369698221663679</v>
       </c>
       <c r="I100" s="9" t="b">
-        <f>G100&gt;(3*H100)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J100" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K100" s="2">
-        <f>J100*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L100" s="10">
@@ -6352,23 +6415,23 @@
         <v>97</v>
       </c>
       <c r="G101" s="9">
-        <f>((((L101/13650)/0.3)*0.0001)/K101)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.171390647858171</v>
       </c>
       <c r="H101" s="9">
-        <f>((((M101/13650)/0.3)*0.0001)/K101)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.64866051153786E-2</v>
       </c>
       <c r="I101" s="9" t="b">
-        <f>G101&gt;(3*H101)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J101" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K101" s="2">
-        <f>J101*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L101" s="10">
@@ -6399,23 +6462,23 @@
         <v>47</v>
       </c>
       <c r="G102" s="9">
-        <f>((((L102/13650)/0.3)*0.0001)/K102)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-2.0220882198671752</v>
       </c>
       <c r="H102" s="9">
-        <f>((((M102/13650)/0.3)*0.0001)/K102)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.6412202431586631E-2</v>
       </c>
       <c r="I102" s="9" t="b">
-        <f>G102&gt;(3*H102)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J102" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K102" s="2">
-        <f>J102*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L102" s="10">
@@ -6446,23 +6509,23 @@
         <v>118</v>
       </c>
       <c r="G103" s="9">
-        <f>((((L103/13650)/0.3)*0.0001)/K103)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.6747468407965318</v>
       </c>
       <c r="H103" s="9">
-        <f>((((M103/13650)/0.3)*0.0001)/K103)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5698812639065655E-2</v>
       </c>
       <c r="I103" s="9" t="b">
-        <f>G103&gt;(3*H103)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J103" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K103" s="2">
-        <f>J103*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L103" s="10">
@@ -6493,23 +6556,23 @@
         <v>47</v>
       </c>
       <c r="G104" s="9">
-        <f>((((L104/13650)/0.3)*0.0001)/K104)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-5.0579109278236604E-2</v>
       </c>
       <c r="H104" s="9">
-        <f>((((M104/13650)/0.3)*0.0001)/K104)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.398749317918058E-2</v>
       </c>
       <c r="I104" s="9" t="b">
-        <f>G104&gt;(3*H104)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J104" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K104" s="2">
-        <f>J104*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L104" s="10">
@@ -6540,23 +6603,23 @@
         <v>97</v>
       </c>
       <c r="G105" s="9">
-        <f>((((L105/13650)/0.3)*0.0001)/K105)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.1912994461910478</v>
       </c>
       <c r="H105" s="9">
-        <f>((((M105/13650)/0.3)*0.0001)/K105)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.1444883843080123E-2</v>
       </c>
       <c r="I105" s="9" t="b">
-        <f>G105&gt;(3*H105)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J105" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K105" s="2">
-        <f>J105*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L105" s="10">
@@ -6587,23 +6650,23 @@
         <v>118</v>
       </c>
       <c r="G106" s="9">
-        <f>((((L106/13650)/0.3)*0.0001)/K106)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.18348379004117296</v>
       </c>
       <c r="H106" s="9">
-        <f>((((M106/13650)/0.3)*0.0001)/K106)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.13162520308545222</v>
       </c>
       <c r="I106" s="9" t="b">
-        <f>G106&gt;(3*H106)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J106" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K106" s="2">
-        <f>J106*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L106" s="10">
@@ -6634,23 +6697,23 @@
         <v>9</v>
       </c>
       <c r="G107" s="9">
-        <f>((((L107/13650)/0.3)*0.0001)/K107)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>15.733331439307149</v>
       </c>
       <c r="H107" s="9">
-        <f>((((M107/13650)/0.3)*0.0001)/K107)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.28739092593006393</v>
       </c>
       <c r="I107" s="9" t="b">
-        <f>G107&gt;(3*H107)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J107" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K107" s="2">
-        <f>J107*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L107" s="10">
@@ -6681,23 +6744,23 @@
         <v>150</v>
       </c>
       <c r="G108" s="9">
-        <f>((((L108/13650)/0.3)*0.0001)/K108)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.5679523876245294</v>
       </c>
       <c r="H108" s="9">
-        <f>((((M108/13650)/0.3)*0.0001)/K108)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.296782580111239E-2</v>
       </c>
       <c r="I108" s="9" t="b">
-        <f>G108&gt;(3*H108)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J108" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K108" s="2">
-        <f>J108*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L108" s="10">
@@ -6728,23 +6791,23 @@
         <v>9</v>
       </c>
       <c r="G109" s="9">
-        <f>((((L109/13650)/0.3)*0.0001)/K109)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>33.890155518923343</v>
       </c>
       <c r="H109" s="9">
-        <f>((((M109/13650)/0.3)*0.0001)/K109)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.85710184516750565</v>
       </c>
       <c r="I109" s="9" t="b">
-        <f>G109&gt;(3*H109)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J109" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K109" s="2">
-        <f>J109*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L109" s="10">
@@ -6775,23 +6838,23 @@
         <v>48</v>
       </c>
       <c r="G110" s="9">
-        <f>((((L110/13650)/0.3)*0.0001)/K110)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.44767892467522685</v>
       </c>
       <c r="H110" s="9">
-        <f>((((M110/13650)/0.3)*0.0001)/K110)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.4701908793945972E-2</v>
       </c>
       <c r="I110" s="9" t="b">
-        <f>G110&gt;(3*H110)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J110" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K110" s="2">
-        <f>J110*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L110" s="10">
@@ -6822,23 +6885,23 @@
         <v>97</v>
       </c>
       <c r="G111" s="9">
-        <f>((((L111/13650)/0.3)*0.0001)/K111)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.78935695011849238</v>
       </c>
       <c r="H111" s="9">
-        <f>((((M111/13650)/0.3)*0.0001)/K111)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.0142816683929963E-2</v>
       </c>
       <c r="I111" s="9" t="b">
-        <f>G111&gt;(3*H111)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J111" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K111" s="2">
-        <f>J111*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L111" s="10">
@@ -6869,23 +6932,23 @@
         <v>97</v>
       </c>
       <c r="G112" s="9">
-        <f>((((L112/13650)/0.3)*0.0001)/K112)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.8014772113132345</v>
       </c>
       <c r="H112" s="9">
-        <f>((((M112/13650)/0.3)*0.0001)/K112)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.290051072097459E-2</v>
       </c>
       <c r="I112" s="9" t="b">
-        <f>G112&gt;(3*H112)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J112" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K112" s="2">
-        <f>J112*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L112" s="10">
@@ -6916,23 +6979,23 @@
         <v>9</v>
       </c>
       <c r="G113" s="9">
-        <f>((((L113/13650)/0.3)*0.0001)/K113)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>16.514617254966236</v>
       </c>
       <c r="H113" s="9">
-        <f>((((M113/13650)/0.3)*0.0001)/K113)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.59216284403670394</v>
       </c>
       <c r="I113" s="9" t="b">
-        <f>G113&gt;(3*H113)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J113" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K113" s="2">
-        <f>J113*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L113" s="10">
@@ -6963,23 +7026,23 @@
         <v>47</v>
       </c>
       <c r="G114" s="9">
-        <f>((((L114/13650)/0.3)*0.0001)/K114)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.62954848782453643</v>
       </c>
       <c r="H114" s="9">
-        <f>((((M114/13650)/0.3)*0.0001)/K114)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.21023381781413969</v>
       </c>
       <c r="I114" s="9" t="b">
-        <f>G114&gt;(3*H114)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J114" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K114" s="2">
-        <f>J114*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L114" s="10">
@@ -7010,23 +7073,23 @@
         <v>97</v>
       </c>
       <c r="G115" s="9">
-        <f>((((L115/13650)/0.3)*0.0001)/K115)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.99974452169057515</v>
       </c>
       <c r="H115" s="9">
-        <f>((((M115/13650)/0.3)*0.0001)/K115)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.0297032996317973E-2</v>
       </c>
       <c r="I115" s="9" t="b">
-        <f>G115&gt;(3*H115)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J115" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K115" s="2">
-        <f>J115*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L115" s="10">
@@ -7057,23 +7120,23 @@
         <v>48</v>
       </c>
       <c r="G116" s="9">
-        <f>((((L116/13650)/0.3)*0.0001)/K116)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.76514354674053731</v>
       </c>
       <c r="H116" s="9">
-        <f>((((M116/13650)/0.3)*0.0001)/K116)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.0131153651981887E-2</v>
       </c>
       <c r="I116" s="9" t="b">
-        <f>G116&gt;(3*H116)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J116" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K116" s="2">
-        <f>J116*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L116" s="10">
@@ -7104,23 +7167,23 @@
         <v>150</v>
       </c>
       <c r="G117" s="9">
-        <f>((((L117/13650)/0.3)*0.0001)/K117)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.82217956358622934</v>
       </c>
       <c r="H117" s="9">
-        <f>((((M117/13650)/0.3)*0.0001)/K117)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5904241467598426E-2</v>
       </c>
       <c r="I117" s="9" t="b">
-        <f>G117&gt;(3*H117)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J117" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K117" s="2">
-        <f>J117*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L117" s="10">
@@ -7151,23 +7214,23 @@
         <v>97</v>
       </c>
       <c r="G118" s="9">
-        <f>((((L118/13650)/0.3)*0.0001)/K118)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.7245323961347272</v>
       </c>
       <c r="H118" s="9">
-        <f>((((M118/13650)/0.3)*0.0001)/K118)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>7.597518231921728E-2</v>
       </c>
       <c r="I118" s="9" t="b">
-        <f>G118&gt;(3*H118)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J118" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K118" s="2">
-        <f>J118*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L118" s="10">
@@ -7198,23 +7261,23 @@
         <v>47</v>
       </c>
       <c r="G119" s="9">
-        <f>((((L119/13650)/0.3)*0.0001)/K119)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.0323116568489379</v>
       </c>
       <c r="H119" s="9">
-        <f>((((M119/13650)/0.3)*0.0001)/K119)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.3414471979116508E-2</v>
       </c>
       <c r="I119" s="9" t="b">
-        <f>G119&gt;(3*H119)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J119" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K119" s="2">
-        <f>J119*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L119" s="10">
@@ -7245,23 +7308,23 @@
         <v>141</v>
       </c>
       <c r="G120" s="9">
-        <f>((((L120/13650)/0.3)*0.0001)/K120)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-0.59026896678931895</v>
       </c>
       <c r="H120" s="9">
-        <f>((((M120/13650)/0.3)*0.0001)/K120)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.971456257139568E-2</v>
       </c>
       <c r="I120" s="9" t="b">
-        <f>G120&gt;(3*H120)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J120" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K120" s="2">
-        <f>J120*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L120" s="10">
@@ -7292,23 +7355,23 @@
         <v>9</v>
       </c>
       <c r="G121" s="9">
-        <f>((((L121/13650)/0.3)*0.0001)/K121)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>18.961247147392047</v>
       </c>
       <c r="H121" s="9">
-        <f>((((M121/13650)/0.3)*0.0001)/K121)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.31903676841278861</v>
       </c>
       <c r="I121" s="9" t="b">
-        <f>G121&gt;(3*H121)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J121" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K121" s="2">
-        <f>J121*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L121" s="10">
@@ -7339,23 +7402,23 @@
         <v>140</v>
       </c>
       <c r="G122" s="9">
-        <f>((((L122/13650)/0.3)*0.0001)/K122)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.1165069335349984</v>
       </c>
       <c r="H122" s="9">
-        <f>((((M122/13650)/0.3)*0.0001)/K122)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.7339661351592264E-2</v>
       </c>
       <c r="I122" s="9" t="b">
-        <f>G122&gt;(3*H122)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J122" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K122" s="2">
-        <f>J122*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L122" s="10">
@@ -7386,23 +7449,23 @@
         <v>9</v>
       </c>
       <c r="G123" s="9">
-        <f>((((L123/13650)/0.3)*0.0001)/K123)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>11.240399923636305</v>
       </c>
       <c r="H123" s="9">
-        <f>((((M123/13650)/0.3)*0.0001)/K123)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.31416569958250989</v>
       </c>
       <c r="I123" s="9" t="b">
-        <f>G123&gt;(3*H123)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J123" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K123" s="2">
-        <f>J123*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L123" s="10">
@@ -7433,23 +7496,23 @@
         <v>170</v>
       </c>
       <c r="G124" s="9">
-        <f>((((L124/13650)/0.3)*0.0001)/K124)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.414062757267422</v>
       </c>
       <c r="H124" s="9">
-        <f>((((M124/13650)/0.3)*0.0001)/K124)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.10277380626591473</v>
       </c>
       <c r="I124" s="9" t="b">
-        <f>G124&gt;(3*H124)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J124" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K124" s="2">
-        <f>J124*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L124" s="10">
@@ -7480,23 +7543,23 @@
         <v>93</v>
       </c>
       <c r="G125" s="9">
-        <f>((((L125/13650)/0.3)*0.0001)/K125)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.1447694636483852</v>
       </c>
       <c r="H125" s="9">
-        <f>((((M125/13650)/0.3)*0.0001)/K125)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.19673823260850465</v>
       </c>
       <c r="I125" s="9" t="b">
-        <f>G125&gt;(3*H125)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J125" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K125" s="2">
-        <f>J125*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L125" s="10">
@@ -7527,23 +7590,23 @@
         <v>170</v>
       </c>
       <c r="G126" s="9">
-        <f>((((L126/13650)/0.3)*0.0001)/K126)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.7686545978454988</v>
       </c>
       <c r="H126" s="9">
-        <f>((((M126/13650)/0.3)*0.0001)/K126)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5532358372740669E-2</v>
       </c>
       <c r="I126" s="9" t="b">
-        <f>G126&gt;(3*H126)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J126" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K126" s="2">
-        <f>J126*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L126" s="10">
@@ -7574,23 +7637,23 @@
         <v>140</v>
       </c>
       <c r="G127" s="9">
-        <f>((((L127/13650)/0.3)*0.0001)/K127)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.4754033791579981</v>
       </c>
       <c r="H127" s="9">
-        <f>((((M127/13650)/0.3)*0.0001)/K127)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>0.13350525737807176</v>
       </c>
       <c r="I127" s="9" t="b">
-        <f>G127&gt;(3*H127)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J127" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K127" s="2">
-        <f>J127*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L127" s="10">
@@ -7621,23 +7684,23 @@
         <v>140</v>
       </c>
       <c r="G128" s="9">
-        <f>((((L128/13650)/0.3)*0.0001)/K128)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.1202734629493056</v>
       </c>
       <c r="H128" s="9">
-        <f>((((M128/13650)/0.3)*0.0001)/K128)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>6.4195445691635614E-2</v>
       </c>
       <c r="I128" s="9" t="b">
-        <f>G128&gt;(3*H128)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J128" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K128" s="2">
-        <f>J128*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L128" s="10">
@@ -7668,23 +7731,23 @@
         <v>170</v>
       </c>
       <c r="G129" s="9">
-        <f>((((L129/13650)/0.3)*0.0001)/K129)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>1.824614463429894</v>
       </c>
       <c r="H129" s="9">
-        <f>((((M129/13650)/0.3)*0.0001)/K129)*1000000000</f>
+        <f t="shared" si="6"/>
         <v>5.5142530201041838E-2</v>
       </c>
       <c r="I129" s="9" t="b">
-        <f>G129&gt;(3*H129)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J129" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="8"/>
         <v>0.4</v>
       </c>
       <c r="K129" s="2">
-        <f>J129*0.003</f>
+        <f t="shared" si="9"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L129" s="10">
@@ -7715,23 +7778,23 @@
         <v>170</v>
       </c>
       <c r="G130" s="9">
-        <f>((((L130/13650)/0.3)*0.0001)/K130)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.89051516867486968</v>
       </c>
       <c r="H130" s="9">
-        <f>((((M130/13650)/0.3)*0.0001)/K130)*1000000000</f>
+        <f t="shared" ref="H130:H193" si="11">((((M130/13650)/0.3)*0.0001)/K130)*1000000000</f>
         <v>0.17052140510477204</v>
       </c>
       <c r="I130" s="9" t="b">
-        <f>G130&gt;(3*H130)</f>
+        <f t="shared" ref="I130:I193" si="12">G130&gt;(3*H130)</f>
         <v>1</v>
       </c>
       <c r="J130" s="2">
-        <f>0.8/2</f>
+        <f t="shared" ref="J130:J193" si="13">0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K130" s="2">
-        <f>J130*0.003</f>
+        <f t="shared" ref="K130:K193" si="14">J130*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L130" s="10">
@@ -7762,23 +7825,23 @@
         <v>170</v>
       </c>
       <c r="G131" s="9">
-        <f>((((L131/13650)/0.3)*0.0001)/K131)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.874655497077494</v>
       </c>
       <c r="H131" s="9">
-        <f>((((M131/13650)/0.3)*0.0001)/K131)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.10278115914424069</v>
       </c>
       <c r="I131" s="9" t="b">
-        <f>G131&gt;(3*H131)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J131" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K131" s="2">
-        <f>J131*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L131" s="10">
@@ -7809,23 +7872,23 @@
         <v>170</v>
       </c>
       <c r="G132" s="9">
-        <f>((((L132/13650)/0.3)*0.0001)/K132)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.850186615390216</v>
       </c>
       <c r="H132" s="9">
-        <f>((((M132/13650)/0.3)*0.0001)/K132)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.7767247272341782E-2</v>
       </c>
       <c r="I132" s="9" t="b">
-        <f>G132&gt;(3*H132)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J132" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K132" s="2">
-        <f>J132*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L132" s="10">
@@ -7856,23 +7919,23 @@
         <v>140</v>
       </c>
       <c r="G133" s="9">
-        <f>((((L133/13650)/0.3)*0.0001)/K133)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>0.17487457995126587</v>
       </c>
       <c r="H133" s="9">
-        <f>((((M133/13650)/0.3)*0.0001)/K133)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>8.4062798028649868E-2</v>
       </c>
       <c r="I133" s="9" t="b">
-        <f>G133&gt;(3*H133)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J133" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K133" s="2">
-        <f>J133*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L133" s="10">
@@ -7903,23 +7966,23 @@
         <v>140</v>
       </c>
       <c r="G134" s="9">
-        <f>((((L134/13650)/0.3)*0.0001)/K134)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-1.9741994887420549</v>
       </c>
       <c r="H134" s="9">
-        <f>((((M134/13650)/0.3)*0.0001)/K134)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.9683655729574764E-2</v>
       </c>
       <c r="I134" s="9" t="b">
-        <f>G134&gt;(3*H134)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J134" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K134" s="2">
-        <f>J134*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L134" s="10">
@@ -7950,23 +8013,23 @@
         <v>170</v>
       </c>
       <c r="G135" s="9">
-        <f>((((L135/13650)/0.3)*0.0001)/K135)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>2.0043317240567338</v>
       </c>
       <c r="H135" s="9">
-        <f>((((M135/13650)/0.3)*0.0001)/K135)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.7241747529759801E-2</v>
       </c>
       <c r="I135" s="9" t="b">
-        <f>G135&gt;(3*H135)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J135" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K135" s="2">
-        <f>J135*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L135" s="10">
@@ -7997,23 +8060,23 @@
         <v>140</v>
       </c>
       <c r="G136" s="9">
-        <f>((((L136/13650)/0.3)*0.0001)/K136)*1000000000</f>
+        <f t="shared" si="10"/>
         <v>-2.9680251784958211</v>
       </c>
       <c r="H136" s="9">
-        <f>((((M136/13650)/0.3)*0.0001)/K136)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.000366267602196E-2</v>
       </c>
       <c r="I136" s="9" t="b">
-        <f>G136&gt;(3*H136)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J136" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K136" s="2">
-        <f>J136*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L136" s="10">
@@ -8044,23 +8107,23 @@
         <v>170</v>
       </c>
       <c r="G137" s="9">
-        <f>((((L137/13650)/0.3)*0.0001)/K137)*1000000000</f>
+        <f t="shared" ref="G137:G200" si="15">((((L137/13650)/0.3)*0.0001)/K137)*1000000000</f>
         <v>2.5956768421073018</v>
       </c>
       <c r="H137" s="9">
-        <f>((((M137/13650)/0.3)*0.0001)/K137)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.5612907247477559E-2</v>
       </c>
       <c r="I137" s="9" t="b">
-        <f>G137&gt;(3*H137)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J137" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K137" s="2">
-        <f>J137*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L137" s="10">
@@ -8091,23 +8154,23 @@
         <v>140</v>
       </c>
       <c r="G138" s="9">
-        <f>((((L138/13650)/0.3)*0.0001)/K138)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.49933418521466899</v>
       </c>
       <c r="H138" s="9">
-        <f>((((M138/13650)/0.3)*0.0001)/K138)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>8.4033050435616333E-2</v>
       </c>
       <c r="I138" s="9" t="b">
-        <f>G138&gt;(3*H138)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J138" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K138" s="2">
-        <f>J138*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L138" s="10">
@@ -8138,23 +8201,23 @@
         <v>171</v>
       </c>
       <c r="G139" s="9">
-        <f>((((L139/13650)/0.3)*0.0001)/K139)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.0863746982202935</v>
       </c>
       <c r="H139" s="9">
-        <f>((((M139/13650)/0.3)*0.0001)/K139)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.0426617340075715E-2</v>
       </c>
       <c r="I139" s="9" t="b">
-        <f>G139&gt;(3*H139)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J139" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K139" s="2">
-        <f>J139*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L139" s="10">
@@ -8185,23 +8248,23 @@
         <v>140</v>
       </c>
       <c r="G140" s="9">
-        <f>((((L140/13650)/0.3)*0.0001)/K140)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.49718188269220903</v>
       </c>
       <c r="H140" s="9">
-        <f>((((M140/13650)/0.3)*0.0001)/K140)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.3466950497634789E-2</v>
       </c>
       <c r="I140" s="9" t="b">
-        <f>G140&gt;(3*H140)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J140" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K140" s="2">
-        <f>J140*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L140" s="10">
@@ -8232,23 +8295,23 @@
         <v>93</v>
       </c>
       <c r="G141" s="9">
-        <f>((((L141/13650)/0.3)*0.0001)/K141)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.3053714798822724</v>
       </c>
       <c r="H141" s="9">
-        <f>((((M141/13650)/0.3)*0.0001)/K141)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.26888495840683646</v>
       </c>
       <c r="I141" s="9" t="b">
-        <f>G141&gt;(3*H141)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J141" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K141" s="2">
-        <f>J141*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L141" s="10">
@@ -8279,23 +8342,23 @@
         <v>9</v>
       </c>
       <c r="G142" s="9">
-        <f>((((L142/13650)/0.3)*0.0001)/K142)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>16.730923658475241</v>
       </c>
       <c r="H142" s="9">
-        <f>((((M142/13650)/0.3)*0.0001)/K142)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.28056019306168167</v>
       </c>
       <c r="I142" s="9" t="b">
-        <f>G142&gt;(3*H142)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J142" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K142" s="2">
-        <f>J142*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L142" s="10">
@@ -8326,23 +8389,23 @@
         <v>171</v>
       </c>
       <c r="G143" s="9">
-        <f>((((L143/13650)/0.3)*0.0001)/K143)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.23944365562556721</v>
       </c>
       <c r="H143" s="9">
-        <f>((((M143/13650)/0.3)*0.0001)/K143)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.885721045671858E-2</v>
       </c>
       <c r="I143" s="9" t="b">
-        <f>G143&gt;(3*H143)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J143" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K143" s="2">
-        <f>J143*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L143" s="10">
@@ -8373,23 +8436,23 @@
         <v>138</v>
       </c>
       <c r="G144" s="9">
-        <f>((((L144/13650)/0.3)*0.0001)/K144)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-3.2273776324543242</v>
       </c>
       <c r="H144" s="9">
-        <f>((((M144/13650)/0.3)*0.0001)/K144)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.12965421997935228</v>
       </c>
       <c r="I144" s="9" t="b">
-        <f>G144&gt;(3*H144)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J144" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K144" s="2">
-        <f>J144*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L144" s="10">
@@ -8420,23 +8483,23 @@
         <v>9</v>
       </c>
       <c r="G145" s="9">
-        <f>((((L145/13650)/0.3)*0.0001)/K145)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>12.712036773379973</v>
       </c>
       <c r="H145" s="9">
-        <f>((((M145/13650)/0.3)*0.0001)/K145)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.3093024335555174</v>
       </c>
       <c r="I145" s="9" t="b">
-        <f>G145&gt;(3*H145)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J145" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K145" s="2">
-        <f>J145*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L145" s="10">
@@ -8467,23 +8530,23 @@
         <v>170</v>
       </c>
       <c r="G146" s="9">
-        <f>((((L146/13650)/0.3)*0.0001)/K146)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.8117006482950349</v>
       </c>
       <c r="H146" s="9">
-        <f>((((M146/13650)/0.3)*0.0001)/K146)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.3321884292776141E-2</v>
       </c>
       <c r="I146" s="9" t="b">
-        <f>G146&gt;(3*H146)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J146" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K146" s="2">
-        <f>J146*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L146" s="10">
@@ -8514,23 +8577,23 @@
         <v>93</v>
       </c>
       <c r="G147" s="9">
-        <f>((((L147/13650)/0.3)*0.0001)/K147)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.18886454634734826</v>
       </c>
       <c r="H147" s="9">
-        <f>((((M147/13650)/0.3)*0.0001)/K147)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.9885928232139641E-2</v>
       </c>
       <c r="I147" s="9" t="b">
-        <f>G147&gt;(3*H147)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J147" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K147" s="2">
-        <f>J147*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L147" s="10">
@@ -8561,23 +8624,23 @@
         <v>171</v>
       </c>
       <c r="G148" s="9">
-        <f>((((L148/13650)/0.3)*0.0001)/K148)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.3648423965716261</v>
       </c>
       <c r="H148" s="9">
-        <f>((((M148/13650)/0.3)*0.0001)/K148)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.15406062962650127</v>
       </c>
       <c r="I148" s="9" t="b">
-        <f>G148&gt;(3*H148)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J148" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K148" s="2">
-        <f>J148*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L148" s="10">
@@ -8608,23 +8671,23 @@
         <v>93</v>
       </c>
       <c r="G149" s="9">
-        <f>((((L149/13650)/0.3)*0.0001)/K149)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-3.5927309856447751</v>
       </c>
       <c r="H149" s="9">
-        <f>((((M149/13650)/0.3)*0.0001)/K149)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.16022614336774038</v>
       </c>
       <c r="I149" s="9" t="b">
-        <f>G149&gt;(3*H149)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J149" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K149" s="2">
-        <f>J149*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L149" s="10">
@@ -8655,23 +8718,23 @@
         <v>171</v>
       </c>
       <c r="G150" s="9">
-        <f>((((L150/13650)/0.3)*0.0001)/K150)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.6954763120812795</v>
       </c>
       <c r="H150" s="9">
-        <f>((((M150/13650)/0.3)*0.0001)/K150)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>9.9939159974424346E-2</v>
       </c>
       <c r="I150" s="9" t="b">
-        <f>G150&gt;(3*H150)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J150" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K150" s="2">
-        <f>J150*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L150" s="10">
@@ -8702,23 +8765,23 @@
         <v>93</v>
       </c>
       <c r="G151" s="9">
-        <f>((((L151/13650)/0.3)*0.0001)/K151)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.6707248330727729</v>
       </c>
       <c r="H151" s="9">
-        <f>((((M151/13650)/0.3)*0.0001)/K151)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.15257069298840642</v>
       </c>
       <c r="I151" s="9" t="b">
-        <f>G151&gt;(3*H151)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J151" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K151" s="2">
-        <f>J151*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L151" s="10">
@@ -8749,23 +8812,23 @@
         <v>138</v>
       </c>
       <c r="G152" s="9">
-        <f>((((L152/13650)/0.3)*0.0001)/K152)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.2892292109637393</v>
       </c>
       <c r="H152" s="9">
-        <f>((((M152/13650)/0.3)*0.0001)/K152)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.15243762273748374</v>
       </c>
       <c r="I152" s="9" t="b">
-        <f>G152&gt;(3*H152)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J152" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K152" s="2">
-        <f>J152*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L152" s="10">
@@ -8796,23 +8859,23 @@
         <v>171</v>
       </c>
       <c r="G153" s="9">
-        <f>((((L153/13650)/0.3)*0.0001)/K153)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.86307331151328692</v>
       </c>
       <c r="H153" s="9">
-        <f>((((M153/13650)/0.3)*0.0001)/K153)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.2539731093462938E-2</v>
       </c>
       <c r="I153" s="9" t="b">
-        <f>G153&gt;(3*H153)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J153" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K153" s="2">
-        <f>J153*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L153" s="10">
@@ -8843,23 +8906,23 @@
         <v>138</v>
       </c>
       <c r="G154" s="9">
-        <f>((((L154/13650)/0.3)*0.0001)/K154)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>3.8370173219459236</v>
       </c>
       <c r="H154" s="9">
-        <f>((((M154/13650)/0.3)*0.0001)/K154)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.18578702545718273</v>
       </c>
       <c r="I154" s="9" t="b">
-        <f>G154&gt;(3*H154)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J154" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K154" s="2">
-        <f>J154*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L154" s="10">
@@ -8890,23 +8953,23 @@
         <v>138</v>
       </c>
       <c r="G155" s="9">
-        <f>((((L155/13650)/0.3)*0.0001)/K155)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-3.7503871454162132</v>
       </c>
       <c r="H155" s="9">
-        <f>((((M155/13650)/0.3)*0.0001)/K155)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.17966559182253639</v>
       </c>
       <c r="I155" s="9" t="b">
-        <f>G155&gt;(3*H155)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J155" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K155" s="2">
-        <f>J155*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L155" s="10">
@@ -8937,23 +9000,23 @@
         <v>171</v>
       </c>
       <c r="G156" s="9">
-        <f>((((L156/13650)/0.3)*0.0001)/K156)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.7958409766976646</v>
       </c>
       <c r="H156" s="9">
-        <f>((((M156/13650)/0.3)*0.0001)/K156)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.3063609335972742E-2</v>
       </c>
       <c r="I156" s="9" t="b">
-        <f>G156&gt;(3*H156)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J156" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K156" s="2">
-        <f>J156*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L156" s="10">
@@ -8984,23 +9047,23 @@
         <v>93</v>
       </c>
       <c r="G157" s="9">
-        <f>((((L157/13650)/0.3)*0.0001)/K157)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>3.1805650525904561</v>
       </c>
       <c r="H157" s="9">
-        <f>((((M157/13650)/0.3)*0.0001)/K157)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.12335425229577716</v>
       </c>
       <c r="I157" s="9" t="b">
-        <f>G157&gt;(3*H157)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J157" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K157" s="2">
-        <f>J157*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L157" s="10">
@@ -9031,23 +9094,23 @@
         <v>138</v>
       </c>
       <c r="G158" s="9">
-        <f>((((L158/13650)/0.3)*0.0001)/K158)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.46274504233256003</v>
       </c>
       <c r="H158" s="9">
-        <f>((((M158/13650)/0.3)*0.0001)/K158)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.221556793463299E-2</v>
       </c>
       <c r="I158" s="9" t="b">
-        <f>G158&gt;(3*H158)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J158" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K158" s="2">
-        <f>J158*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L158" s="10">
@@ -9078,23 +9141,23 @@
         <v>138</v>
       </c>
       <c r="G159" s="9">
-        <f>((((L159/13650)/0.3)*0.0001)/K159)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>4.6032370199477564</v>
       </c>
       <c r="H159" s="9">
-        <f>((((M159/13650)/0.3)*0.0001)/K159)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.44423319019768764</v>
       </c>
       <c r="I159" s="9" t="b">
-        <f>G159&gt;(3*H159)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J159" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K159" s="2">
-        <f>J159*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L159" s="10">
@@ -9125,23 +9188,23 @@
         <v>171</v>
       </c>
       <c r="G160" s="9">
-        <f>((((L160/13650)/0.3)*0.0001)/K160)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>3.6314724310493833</v>
       </c>
       <c r="H160" s="9">
-        <f>((((M160/13650)/0.3)*0.0001)/K160)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.5517386113777568E-2</v>
       </c>
       <c r="I160" s="9" t="b">
-        <f>G160&gt;(3*H160)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J160" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K160" s="2">
-        <f>J160*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L160" s="10">
@@ -9172,23 +9235,23 @@
         <v>138</v>
       </c>
       <c r="G161" s="9">
-        <f>((((L161/13650)/0.3)*0.0001)/K161)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>4.0958317002738163</v>
       </c>
       <c r="H161" s="9">
-        <f>((((M161/13650)/0.3)*0.0001)/K161)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>8.2263705604243315E-2</v>
       </c>
       <c r="I161" s="9" t="b">
-        <f>G161&gt;(3*H161)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J161" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K161" s="2">
-        <f>J161*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L161" s="10">
@@ -9219,23 +9282,23 @@
         <v>9</v>
       </c>
       <c r="G162" s="9">
-        <f>((((L162/13650)/0.3)*0.0001)/K162)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>15.428242556745991</v>
       </c>
       <c r="H162" s="9">
-        <f>((((M162/13650)/0.3)*0.0001)/K162)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.27554045230411733</v>
       </c>
       <c r="I162" s="9" t="b">
-        <f>G162&gt;(3*H162)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J162" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K162" s="2">
-        <f>J162*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L162" s="10">
@@ -9266,23 +9329,23 @@
         <v>50</v>
       </c>
       <c r="G163" s="9">
-        <f>((((L163/13650)/0.3)*0.0001)/K163)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.505791092782095</v>
       </c>
       <c r="H163" s="9">
-        <f>((((M163/13650)/0.3)*0.0001)/K163)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.9745387176976634E-2</v>
       </c>
       <c r="I163" s="9" t="b">
-        <f>G163&gt;(3*H163)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J163" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K163" s="2">
-        <f>J163*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L163" s="10">
@@ -9313,23 +9376,23 @@
         <v>48</v>
       </c>
       <c r="G164" s="9">
-        <f>((((L164/13650)/0.3)*0.0001)/K164)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.40839940364001476</v>
       </c>
       <c r="H164" s="9">
-        <f>((((M164/13650)/0.3)*0.0001)/K164)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>9.3050386294317028E-2</v>
       </c>
       <c r="I164" s="9" t="b">
-        <f>G164&gt;(3*H164)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J164" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K164" s="2">
-        <f>J164*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L164" s="10">
@@ -9360,23 +9423,23 @@
         <v>9</v>
       </c>
       <c r="G165" s="9">
-        <f>((((L165/13650)/0.3)*0.0001)/K165)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>15.366363859224775</v>
       </c>
       <c r="H165" s="9">
-        <f>((((M165/13650)/0.3)*0.0001)/K165)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.36688412728257241</v>
       </c>
       <c r="I165" s="9" t="b">
-        <f>G165&gt;(3*H165)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J165" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K165" s="2">
-        <f>J165*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L165" s="10">
@@ -9407,23 +9470,23 @@
         <v>48</v>
       </c>
       <c r="G166" s="9">
-        <f>((((L166/13650)/0.3)*0.0001)/K166)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.1810760092092525</v>
       </c>
       <c r="H166" s="9">
-        <f>((((M166/13650)/0.3)*0.0001)/K166)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.074941763888965E-2</v>
       </c>
       <c r="I166" s="9" t="b">
-        <f>G166&gt;(3*H166)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J166" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K166" s="2">
-        <f>J166*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L166" s="10">
@@ -9454,23 +9517,23 @@
         <v>48</v>
       </c>
       <c r="G167" s="9">
-        <f>((((L167/13650)/0.3)*0.0001)/K167)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-1.6276787826232588</v>
       </c>
       <c r="H167" s="9">
-        <f>((((M167/13650)/0.3)*0.0001)/K167)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>8.6406023508171795E-2</v>
       </c>
       <c r="I167" s="9" t="b">
-        <f>G167&gt;(3*H167)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J167" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K167" s="2">
-        <f>J167*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L167" s="10">
@@ -9501,23 +9564,23 @@
         <v>61</v>
       </c>
       <c r="G168" s="9">
-        <f>((((L168/13650)/0.3)*0.0001)/K168)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.1606291352457432</v>
       </c>
       <c r="H168" s="9">
-        <f>((((M168/13650)/0.3)*0.0001)/K168)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.4578612892509726E-2</v>
       </c>
       <c r="I168" s="9" t="b">
-        <f>G168&gt;(3*H168)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J168" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K168" s="2">
-        <f>J168*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L168" s="10">
@@ -9548,23 +9611,23 @@
         <v>61</v>
       </c>
       <c r="G169" s="9">
-        <f>((((L169/13650)/0.3)*0.0001)/K169)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.39656173976636394</v>
       </c>
       <c r="H169" s="9">
-        <f>((((M169/13650)/0.3)*0.0001)/K169)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.10596941460876029</v>
       </c>
       <c r="I169" s="9" t="b">
-        <f>G169&gt;(3*H169)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J169" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K169" s="2">
-        <f>J169*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L169" s="10">
@@ -9595,23 +9658,23 @@
         <v>48</v>
       </c>
       <c r="G170" s="9">
-        <f>((((L170/13650)/0.3)*0.0001)/K170)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>7.479251265608565E-2</v>
       </c>
       <c r="H170" s="9">
-        <f>((((M170/13650)/0.3)*0.0001)/K170)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.11743518005809152</v>
       </c>
       <c r="I170" s="9" t="b">
-        <f>G170&gt;(3*H170)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J170" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K170" s="2">
-        <f>J170*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L170" s="10">
@@ -9642,23 +9705,23 @@
         <v>61</v>
       </c>
       <c r="G171" s="9">
-        <f>((((L171/13650)/0.3)*0.0001)/K171)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.6944001608200563</v>
       </c>
       <c r="H171" s="9">
-        <f>((((M171/13650)/0.3)*0.0001)/K171)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.5491285863533306E-2</v>
       </c>
       <c r="I171" s="9" t="b">
-        <f>G171&gt;(3*H171)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J171" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K171" s="2">
-        <f>J171*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L171" s="10">
@@ -9689,23 +9752,23 @@
         <v>61</v>
       </c>
       <c r="G172" s="9">
-        <f>((((L172/13650)/0.3)*0.0001)/K172)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.80011846273083398</v>
       </c>
       <c r="H172" s="9">
-        <f>((((M172/13650)/0.3)*0.0001)/K172)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.4810719543343054E-2</v>
       </c>
       <c r="I172" s="9" t="b">
-        <f>G172&gt;(3*H172)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J172" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K172" s="2">
-        <f>J172*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L172" s="10">
@@ -9736,23 +9799,23 @@
         <v>48</v>
       </c>
       <c r="G173" s="9">
-        <f>((((L173/13650)/0.3)*0.0001)/K173)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.2537162193428821</v>
       </c>
       <c r="H173" s="9">
-        <f>((((M173/13650)/0.3)*0.0001)/K173)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.16855178096710127</v>
       </c>
       <c r="I173" s="9" t="b">
-        <f>G173&gt;(3*H173)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J173" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K173" s="2">
-        <f>J173*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L173" s="10">
@@ -9783,23 +9846,23 @@
         <v>61</v>
       </c>
       <c r="G174" s="9">
-        <f>((((L174/13650)/0.3)*0.0001)/K174)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.7083901272161466</v>
       </c>
       <c r="H174" s="9">
-        <f>((((M174/13650)/0.3)*0.0001)/K174)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.18710008178376603</v>
       </c>
       <c r="I174" s="9" t="b">
-        <f>G174&gt;(3*H174)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J174" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K174" s="2">
-        <f>J174*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L174" s="10">
@@ -9830,23 +9893,23 @@
         <v>48</v>
       </c>
       <c r="G175" s="9">
-        <f>((((L175/13650)/0.3)*0.0001)/K175)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.0390240427257962</v>
       </c>
       <c r="H175" s="9">
-        <f>((((M175/13650)/0.3)*0.0001)/K175)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>5.7715745849999216E-2</v>
       </c>
       <c r="I175" s="9" t="b">
-        <f>G175&gt;(3*H175)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J175" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K175" s="2">
-        <f>J175*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L175" s="10">
@@ -9877,23 +9940,23 @@
         <v>61</v>
       </c>
       <c r="G176" s="9">
-        <f>((((L176/13650)/0.3)*0.0001)/K176)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-2.3363243881488271</v>
       </c>
       <c r="H176" s="9">
-        <f>((((M176/13650)/0.3)*0.0001)/K176)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.8405405094133648E-2</v>
       </c>
       <c r="I176" s="9" t="b">
-        <f>G176&gt;(3*H176)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J176" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K176" s="2">
-        <f>J176*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L176" s="10">
@@ -9924,23 +9987,23 @@
         <v>50</v>
       </c>
       <c r="G177" s="9">
-        <f>((((L177/13650)/0.3)*0.0001)/K177)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.7708069003679674</v>
       </c>
       <c r="H177" s="9">
-        <f>((((M177/13650)/0.3)*0.0001)/K177)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>6.1152936278893115E-2</v>
       </c>
       <c r="I177" s="9" t="b">
-        <f>G177&gt;(3*H177)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J177" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K177" s="2">
-        <f>J177*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L177" s="10">
@@ -9971,23 +10034,23 @@
         <v>118</v>
       </c>
       <c r="G178" s="9">
-        <f>((((L178/13650)/0.3)*0.0001)/K178)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>3.5975736663203985</v>
       </c>
       <c r="H178" s="9">
-        <f>((((M178/13650)/0.3)*0.0001)/K178)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>9.9515617256373243E-2</v>
       </c>
       <c r="I178" s="9" t="b">
-        <f>G178&gt;(3*H178)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J178" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K178" s="2">
-        <f>J178*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L178" s="10">
@@ -10018,23 +10081,23 @@
         <v>48</v>
       </c>
       <c r="G179" s="9">
-        <f>((((L179/13650)/0.3)*0.0001)/K179)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>3.4436840359632119E-2</v>
       </c>
       <c r="H179" s="9">
-        <f>((((M179/13650)/0.3)*0.0001)/K179)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.7387199162651438E-2</v>
       </c>
       <c r="I179" s="9" t="b">
-        <f>G179&gt;(3*H179)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J179" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K179" s="2">
-        <f>J179*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L179" s="10">
@@ -10065,23 +10128,23 @@
         <v>47</v>
       </c>
       <c r="G180" s="9">
-        <f>((((L180/13650)/0.3)*0.0001)/K180)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-6.5386950632852194</v>
       </c>
       <c r="H180" s="9">
-        <f>((((M180/13650)/0.3)*0.0001)/K180)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.6206738565238172E-2</v>
       </c>
       <c r="I180" s="9" t="b">
-        <f>G180&gt;(3*H180)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J180" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K180" s="2">
-        <f>J180*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L180" s="10">
@@ -10112,23 +10175,23 @@
         <v>118</v>
       </c>
       <c r="G181" s="9">
-        <f>((((L181/13650)/0.3)*0.0001)/K181)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.5025897580101497</v>
       </c>
       <c r="H181" s="9">
-        <f>((((M181/13650)/0.3)*0.0001)/K181)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.10380955797890778</v>
       </c>
       <c r="I181" s="9" t="b">
-        <f>G181&gt;(3*H181)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J181" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K181" s="2">
-        <f>J181*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L181" s="10">
@@ -10159,23 +10222,23 @@
         <v>9</v>
       </c>
       <c r="G182" s="9">
-        <f>((((L182/13650)/0.3)*0.0001)/K182)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>15.489583178636575</v>
       </c>
       <c r="H182" s="9">
-        <f>((((M182/13650)/0.3)*0.0001)/K182)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.26240662754983324</v>
       </c>
       <c r="I182" s="9" t="b">
-        <f>G182&gt;(3*H182)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J182" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K182" s="2">
-        <f>J182*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L182" s="10">
@@ -10206,23 +10269,23 @@
         <v>93</v>
       </c>
       <c r="G183" s="9">
-        <f>((((L183/13650)/0.3)*0.0001)/K183)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.0971362108326497</v>
       </c>
       <c r="H183" s="9">
-        <f>((((M183/13650)/0.3)*0.0001)/K183)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.20117632647430156</v>
       </c>
       <c r="I183" s="9" t="b">
-        <f>G183&gt;(3*H183)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J183" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K183" s="2">
-        <f>J183*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L183" s="10">
@@ -10253,23 +10316,23 @@
         <v>171</v>
       </c>
       <c r="G184" s="9">
-        <f>((((L184/13650)/0.3)*0.0001)/K184)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>0.17971726062680624</v>
       </c>
       <c r="H184" s="9">
-        <f>((((M184/13650)/0.3)*0.0001)/K184)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.35227331431328113</v>
       </c>
       <c r="I184" s="9" t="b">
-        <f>G184&gt;(3*H184)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J184" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K184" s="2">
-        <f>J184*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L184" s="10">
@@ -10300,23 +10363,23 @@
         <v>9</v>
       </c>
       <c r="G185" s="9">
-        <f>((((L185/13650)/0.3)*0.0001)/K185)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>10.957910217561173</v>
       </c>
       <c r="H185" s="9">
-        <f>((((M185/13650)/0.3)*0.0001)/K185)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.28918278604340825</v>
       </c>
       <c r="I185" s="9" t="b">
-        <f>G185&gt;(3*H185)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J185" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K185" s="2">
-        <f>J185*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L185" s="10">
@@ -10347,23 +10410,23 @@
         <v>93</v>
       </c>
       <c r="G186" s="9">
-        <f>((((L186/13650)/0.3)*0.0001)/K186)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.36750565571298938</v>
       </c>
       <c r="H186" s="9">
-        <f>((((M186/13650)/0.3)*0.0001)/K186)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>7.2268245687030774E-2</v>
       </c>
       <c r="I186" s="9" t="b">
-        <f>G186&gt;(3*H186)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J186" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K186" s="2">
-        <f>J186*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L186" s="10">
@@ -10394,23 +10457,23 @@
         <v>171</v>
       </c>
       <c r="G187" s="9">
-        <f>((((L187/13650)/0.3)*0.0001)/K187)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>8.1028809214953643</v>
       </c>
       <c r="H187" s="9">
-        <f>((((M187/13650)/0.3)*0.0001)/K187)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.273951797716178</v>
       </c>
       <c r="I187" s="9" t="b">
-        <f>G187&gt;(3*H187)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J187" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K187" s="2">
-        <f>J187*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L187" s="10">
@@ -10441,23 +10504,23 @@
         <v>93</v>
       </c>
       <c r="G188" s="9">
-        <f>((((L188/13650)/0.3)*0.0001)/K188)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>3.5695937335281607</v>
       </c>
       <c r="H188" s="9">
-        <f>((((M188/13650)/0.3)*0.0001)/K188)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.11285560907199926</v>
       </c>
       <c r="I188" s="9" t="b">
-        <f>G188&gt;(3*H188)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J188" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K188" s="2">
-        <f>J188*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L188" s="10">
@@ -10488,23 +10551,23 @@
         <v>93</v>
       </c>
       <c r="G189" s="9">
-        <f>((((L189/13650)/0.3)*0.0001)/K189)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>4.8792698184554268</v>
       </c>
       <c r="H189" s="9">
-        <f>((((M189/13650)/0.3)*0.0001)/K189)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.10542633758623529</v>
       </c>
       <c r="I189" s="9" t="b">
-        <f>G189&gt;(3*H189)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J189" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K189" s="2">
-        <f>J189*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L189" s="10">
@@ -10535,23 +10598,23 @@
         <v>138</v>
       </c>
       <c r="G190" s="9">
-        <f>((((L190/13650)/0.3)*0.0001)/K190)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.25773822706661137</v>
       </c>
       <c r="H190" s="9">
-        <f>((((M190/13650)/0.3)*0.0001)/K190)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.15183081061913123</v>
       </c>
       <c r="I190" s="9" t="b">
-        <f>G190&gt;(3*H190)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J190" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K190" s="2">
-        <f>J190*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L190" s="10">
@@ -10582,23 +10645,23 @@
         <v>93</v>
       </c>
       <c r="G191" s="9">
-        <f>((((L191/13650)/0.3)*0.0001)/K191)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.25773822706661137</v>
       </c>
       <c r="H191" s="9">
-        <f>((((M191/13650)/0.3)*0.0001)/K191)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.15183081061913123</v>
       </c>
       <c r="I191" s="9" t="b">
-        <f>G191&gt;(3*H191)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J191" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K191" s="2">
-        <f>J191*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L191" s="10">
@@ -10629,23 +10692,23 @@
         <v>93</v>
       </c>
       <c r="G192" s="9">
-        <f>((((L192/13650)/0.3)*0.0001)/K192)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-0.30347465566930809</v>
       </c>
       <c r="H192" s="9">
-        <f>((((M192/13650)/0.3)*0.0001)/K192)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.1807396614772574</v>
       </c>
       <c r="I192" s="9" t="b">
-        <f>G192&gt;(3*H192)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J192" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K192" s="2">
-        <f>J192*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L192" s="10">
@@ -10676,23 +10739,23 @@
         <v>138</v>
       </c>
       <c r="G193" s="9">
-        <f>((((L193/13650)/0.3)*0.0001)/K193)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.947578304532299</v>
       </c>
       <c r="H193" s="9">
-        <f>((((M193/13650)/0.3)*0.0001)/K193)*1000000000</f>
+        <f t="shared" si="11"/>
         <v>0.19758958528674772</v>
       </c>
       <c r="I193" s="9" t="b">
-        <f>G193&gt;(3*H193)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J193" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
       <c r="K193" s="2">
-        <f>J193*0.003</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L193" s="10">
@@ -10723,23 +10786,23 @@
         <v>93</v>
       </c>
       <c r="G194" s="9">
-        <f>((((L194/13650)/0.3)*0.0001)/K194)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.5461738840903267</v>
       </c>
       <c r="H194" s="9">
-        <f>((((M194/13650)/0.3)*0.0001)/K194)*1000000000</f>
+        <f t="shared" ref="H194:H257" si="16">((((M194/13650)/0.3)*0.0001)/K194)*1000000000</f>
         <v>8.2482933535529462E-2</v>
       </c>
       <c r="I194" s="9" t="b">
-        <f>G194&gt;(3*H194)</f>
+        <f t="shared" ref="I194:I257" si="17">G194&gt;(3*H194)</f>
         <v>1</v>
       </c>
       <c r="J194" s="2">
-        <f>0.8/2</f>
+        <f t="shared" ref="J194:J257" si="18">0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K194" s="2">
-        <f>J194*0.003</f>
+        <f t="shared" ref="K194:K257" si="19">J194*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L194" s="10">
@@ -10770,23 +10833,23 @@
         <v>9</v>
       </c>
       <c r="G195" s="9">
-        <f>((((L195/13650)/0.3)*0.0001)/K195)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>32.977579249393088</v>
       </c>
       <c r="H195" s="9">
-        <f>((((M195/13650)/0.3)*0.0001)/K195)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.95788947544723824</v>
       </c>
       <c r="I195" s="9" t="b">
-        <f>G195&gt;(3*H195)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J195" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K195" s="2">
-        <f>J195*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L195" s="10">
@@ -10817,23 +10880,23 @@
         <v>96</v>
       </c>
       <c r="G196" s="9">
-        <f>((((L196/13650)/0.3)*0.0001)/K196)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>1.8326855978892256</v>
       </c>
       <c r="H196" s="9">
-        <f>((((M196/13650)/0.3)*0.0001)/K196)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>7.2297200393431515E-2</v>
       </c>
       <c r="I196" s="9" t="b">
-        <f>G196&gt;(3*H196)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J196" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K196" s="2">
-        <f>J196*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L196" s="10">
@@ -10864,23 +10927,23 @@
         <v>93</v>
       </c>
       <c r="G197" s="9">
-        <f>((((L197/13650)/0.3)*0.0001)/K197)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>4.8475233562488587</v>
       </c>
       <c r="H197" s="9">
-        <f>((((M197/13650)/0.3)*0.0001)/K197)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>4.6491125675615752E-2</v>
       </c>
       <c r="I197" s="9" t="b">
-        <f>G197&gt;(3*H197)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J197" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K197" s="2">
-        <f>J197*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L197" s="10">
@@ -10911,23 +10974,23 @@
         <v>93</v>
       </c>
       <c r="G198" s="9">
-        <f>((((L198/13650)/0.3)*0.0001)/K198)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-3.9984400111317462</v>
       </c>
       <c r="H198" s="9">
-        <f>((((M198/13650)/0.3)*0.0001)/K198)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.12413586820020726</v>
       </c>
       <c r="I198" s="9" t="b">
-        <f>G198&gt;(3*H198)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J198" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K198" s="2">
-        <f>J198*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L198" s="10">
@@ -10958,23 +11021,23 @@
         <v>93</v>
       </c>
       <c r="G199" s="9">
-        <f>((((L199/13650)/0.3)*0.0001)/K199)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>2.0931142031088692</v>
       </c>
       <c r="H199" s="9">
-        <f>((((M199/13650)/0.3)*0.0001)/K199)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.12780124193662235</v>
       </c>
       <c r="I199" s="9" t="b">
-        <f>G199&gt;(3*H199)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J199" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K199" s="2">
-        <f>J199*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L199" s="10">
@@ -11005,23 +11068,23 @@
         <v>47</v>
       </c>
       <c r="G200" s="9">
-        <f>((((L200/13650)/0.3)*0.0001)/K200)*1000000000</f>
+        <f t="shared" si="15"/>
         <v>-5.5674685500174732</v>
       </c>
       <c r="H200" s="9">
-        <f>((((M200/13650)/0.3)*0.0001)/K200)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.19449110723680377</v>
       </c>
       <c r="I200" s="9" t="b">
-        <f>G200&gt;(3*H200)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J200" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K200" s="2">
-        <f>J200*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L200" s="10">
@@ -11052,23 +11115,23 @@
         <v>9</v>
       </c>
       <c r="G201" s="9">
-        <f>((((L201/13650)/0.3)*0.0001)/K201)*1000000000</f>
+        <f t="shared" ref="G201:G264" si="20">((((L201/13650)/0.3)*0.0001)/K201)*1000000000</f>
         <v>11.577773344034592</v>
       </c>
       <c r="H201" s="9">
-        <f>((((M201/13650)/0.3)*0.0001)/K201)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.37109470727903182</v>
       </c>
       <c r="I201" s="9" t="b">
-        <f>G201&gt;(3*H201)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J201" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K201" s="2">
-        <f>J201*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L201" s="10">
@@ -11099,23 +11162,23 @@
         <v>9</v>
       </c>
       <c r="G202" s="9">
-        <f>((((L202/13650)/0.3)*0.0001)/K202)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>18.318246768802041</v>
       </c>
       <c r="H202" s="9">
-        <f>((((M202/13650)/0.3)*0.0001)/K202)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.53027445591523659</v>
       </c>
       <c r="I202" s="9" t="b">
-        <f>G202&gt;(3*H202)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J202" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K202" s="2">
-        <f>J202*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L202" s="10">
@@ -11146,23 +11209,23 @@
         <v>9</v>
       </c>
       <c r="G203" s="9">
-        <f>((((L203/13650)/0.3)*0.0001)/K203)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>12.90412977351107</v>
       </c>
       <c r="H203" s="9">
-        <f>((((M203/13650)/0.3)*0.0001)/K203)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.29461487399422653</v>
       </c>
       <c r="I203" s="9" t="b">
-        <f>G203&gt;(3*H203)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J203" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K203" s="2">
-        <f>J203*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L203" s="10">
@@ -11193,23 +11256,23 @@
         <v>9</v>
       </c>
       <c r="G204" s="9">
-        <f>((((L204/13650)/0.3)*0.0001)/K204)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>20.390914097947395</v>
       </c>
       <c r="H204" s="9">
-        <f>((((M204/13650)/0.3)*0.0001)/K204)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.46274962348198839</v>
       </c>
       <c r="I204" s="9" t="b">
-        <f>G204&gt;(3*H204)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J204" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K204" s="2">
-        <f>J204*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L204" s="10">
@@ -11240,23 +11303,23 @@
         <v>9</v>
       </c>
       <c r="G205" s="9">
-        <f>((((L205/13650)/0.3)*0.0001)/K205)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>29.029718347539568</v>
       </c>
       <c r="H205" s="9">
-        <f>((((M205/13650)/0.3)*0.0001)/K205)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.68613563399792898</v>
       </c>
       <c r="I205" s="9" t="b">
-        <f>G205&gt;(3*H205)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J205" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K205" s="2">
-        <f>J205*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L205" s="10">
@@ -11287,23 +11350,23 @@
         <v>93</v>
       </c>
       <c r="G206" s="9">
-        <f>((((L206/13650)/0.3)*0.0001)/K206)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-0.88405826110743646</v>
       </c>
       <c r="H206" s="9">
-        <f>((((M206/13650)/0.3)*0.0001)/K206)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>9.7523913889662223E-2</v>
       </c>
       <c r="I206" s="9" t="b">
-        <f>G206&gt;(3*H206)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J206" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K206" s="2">
-        <f>J206*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L206" s="10">
@@ -11334,23 +11397,23 @@
         <v>139</v>
       </c>
       <c r="G207" s="9">
-        <f>((((L207/13650)/0.3)*0.0001)/K207)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>2.1878155140979052</v>
       </c>
       <c r="H207" s="9">
-        <f>((((M207/13650)/0.3)*0.0001)/K207)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.2325407996673672E-2</v>
       </c>
       <c r="I207" s="9" t="b">
-        <f>G207&gt;(3*H207)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J207" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K207" s="2">
-        <f>J207*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L207" s="10">
@@ -11381,23 +11444,23 @@
         <v>93</v>
       </c>
       <c r="G208" s="9">
-        <f>((((L208/13650)/0.3)*0.0001)/K208)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-0.11514818495253451</v>
       </c>
       <c r="H208" s="9">
-        <f>((((M208/13650)/0.3)*0.0001)/K208)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.0346696336917192E-2</v>
       </c>
       <c r="I208" s="9" t="b">
-        <f>G208&gt;(3*H208)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J208" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K208" s="2">
-        <f>J208*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L208" s="10">
@@ -11428,23 +11491,23 @@
         <v>9</v>
       </c>
       <c r="G209" s="9">
-        <f>((((L209/13650)/0.3)*0.0001)/K209)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>15.226464195263775</v>
       </c>
       <c r="H209" s="9">
-        <f>((((M209/13650)/0.3)*0.0001)/K209)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.24832094756704609</v>
       </c>
       <c r="I209" s="9" t="b">
-        <f>G209&gt;(3*H209)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J209" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K209" s="2">
-        <f>J209*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L209" s="10">
@@ -11475,23 +11538,23 @@
         <v>93</v>
       </c>
       <c r="G210" s="9">
-        <f>((((L210/13650)/0.3)*0.0001)/K210)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-2.0102505559935673</v>
       </c>
       <c r="H210" s="9">
-        <f>((((M210/13650)/0.3)*0.0001)/K210)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.16760940613430572</v>
       </c>
       <c r="I210" s="9" t="b">
-        <f>G210&gt;(3*H210)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J210" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K210" s="2">
-        <f>J210*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L210" s="10">
@@ -11522,23 +11585,23 @@
         <v>9</v>
       </c>
       <c r="G211" s="9">
-        <f>((((L211/13650)/0.3)*0.0001)/K211)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>17.298593448778551</v>
       </c>
       <c r="H211" s="9">
-        <f>((((M211/13650)/0.3)*0.0001)/K211)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.28832511095129792</v>
       </c>
       <c r="I211" s="9" t="b">
-        <f>G211&gt;(3*H211)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J211" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K211" s="2">
-        <f>J211*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L211" s="10">
@@ -11569,23 +11632,23 @@
         <v>93</v>
       </c>
       <c r="G212" s="9">
-        <f>((((L212/13650)/0.3)*0.0001)/K212)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>7.1983757864244327</v>
       </c>
       <c r="H212" s="9">
-        <f>((((M212/13650)/0.3)*0.0001)/K212)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.22231911993605874</v>
       </c>
       <c r="I212" s="9" t="b">
-        <f>G212&gt;(3*H212)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J212" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K212" s="2">
-        <f>J212*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L212" s="10">
@@ -11616,23 +11679,23 @@
         <v>9</v>
       </c>
       <c r="G213" s="9">
-        <f>((((L213/13650)/0.3)*0.0001)/K213)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>7.5083073496611252</v>
       </c>
       <c r="H213" s="9">
-        <f>((((M213/13650)/0.3)*0.0001)/K213)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.12540514198786656</v>
       </c>
       <c r="I213" s="9" t="b">
-        <f>G213&gt;(3*H213)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J213" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K213" s="2">
-        <f>J213*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L213" s="10">
@@ -11663,23 +11726,23 @@
         <v>139</v>
       </c>
       <c r="G214" s="9">
-        <f>((((L214/13650)/0.3)*0.0001)/K214)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-0.95239386619608624</v>
       </c>
       <c r="H214" s="9">
-        <f>((((M214/13650)/0.3)*0.0001)/K214)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.7796504436226678E-2</v>
       </c>
       <c r="I214" s="9" t="b">
-        <f>G214&gt;(3*H214)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J214" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K214" s="2">
-        <f>J214*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L214" s="10">
@@ -11710,23 +11773,23 @@
         <v>9</v>
       </c>
       <c r="G215" s="9">
-        <f>((((L215/13650)/0.3)*0.0001)/K215)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>12.236915991543185</v>
       </c>
       <c r="H215" s="9">
-        <f>((((M215/13650)/0.3)*0.0001)/K215)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.2835911652993881</v>
       </c>
       <c r="I215" s="9" t="b">
-        <f>G215&gt;(3*H215)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J215" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K215" s="2">
-        <f>J215*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L215" s="10">
@@ -11757,23 +11820,23 @@
         <v>139</v>
       </c>
       <c r="G216" s="9">
-        <f>((((L216/13650)/0.3)*0.0001)/K216)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-1.3387321689807183</v>
       </c>
       <c r="H216" s="9">
-        <f>((((M216/13650)/0.3)*0.0001)/K216)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>6.3967243777786634E-2</v>
       </c>
       <c r="I216" s="9" t="b">
-        <f>G216&gt;(3*H216)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J216" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K216" s="2">
-        <f>J216*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L216" s="10">
@@ -11804,23 +11867,23 @@
         <v>9</v>
       </c>
       <c r="G217" s="9">
-        <f>((((L217/13650)/0.3)*0.0001)/K217)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>9.4582934350253041</v>
       </c>
       <c r="H217" s="9">
-        <f>((((M217/13650)/0.3)*0.0001)/K217)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.31115189582300218</v>
       </c>
       <c r="I217" s="9" t="b">
-        <f>G217&gt;(3*H217)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J217" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K217" s="2">
-        <f>J217*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L217" s="10">
@@ -11851,23 +11914,23 @@
         <v>47</v>
       </c>
       <c r="G218" s="9">
-        <f>((((L218/13650)/0.3)*0.0001)/K218)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-0.56659363904206828</v>
       </c>
       <c r="H218" s="9">
-        <f>((((M218/13650)/0.3)*0.0001)/K218)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>4.2101522492744986E-2</v>
       </c>
       <c r="I218" s="9" t="b">
-        <f>G218&gt;(3*H218)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J218" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K218" s="2">
-        <f>J218*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L218" s="10">
@@ -11898,23 +11961,23 @@
         <v>47</v>
       </c>
       <c r="G219" s="9">
-        <f>((((L219/13650)/0.3)*0.0001)/K219)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-1.4689464715905436</v>
       </c>
       <c r="H219" s="9">
-        <f>((((M219/13650)/0.3)*0.0001)/K219)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>6.9007641851417389E-2</v>
       </c>
       <c r="I219" s="9" t="b">
-        <f>G219&gt;(3*H219)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J219" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K219" s="2">
-        <f>J219*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L219" s="10">
@@ -11946,23 +12009,23 @@
         <v>9</v>
       </c>
       <c r="G220" s="9">
-        <f>((((L220/13650)/0.3)*0.0001)/K220)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>9.9576276202399701</v>
       </c>
       <c r="H220" s="9">
-        <f>((((M220/13650)/0.3)*0.0001)/K220)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.21411729731881068</v>
       </c>
       <c r="I220" s="9" t="b">
-        <f>G220&gt;(3*H220)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J220" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K220" s="2">
-        <f>J220*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L220" s="10">
@@ -11994,23 +12057,23 @@
         <v>48</v>
       </c>
       <c r="G221" s="9">
-        <f>((((L221/13650)/0.3)*0.0001)/K221)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>3.1235290357447618</v>
       </c>
       <c r="H221" s="9">
-        <f>((((M221/13650)/0.3)*0.0001)/K221)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>7.5636624150308487E-2</v>
       </c>
       <c r="I221" s="9" t="b">
-        <f>G221&gt;(3*H221)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J221" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K221" s="2">
-        <f>J221*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L221" s="10">
@@ -12041,23 +12104,23 @@
         <v>47</v>
       </c>
       <c r="G222" s="9">
-        <f>((((L222/13650)/0.3)*0.0001)/K222)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-1.3607932698360823</v>
       </c>
       <c r="H222" s="9">
-        <f>((((M222/13650)/0.3)*0.0001)/K222)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.5079310080197889E-2</v>
       </c>
       <c r="I222" s="9" t="b">
-        <f>G222&gt;(3*H222)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J222" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K222" s="2">
-        <f>J222*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L222" s="10">
@@ -12089,23 +12152,23 @@
         <v>48</v>
       </c>
       <c r="G223" s="9">
-        <f>((((L223/13650)/0.3)*0.0001)/K223)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>1.6744913624871316</v>
       </c>
       <c r="H223" s="9">
-        <f>((((M223/13650)/0.3)*0.0001)/K223)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.12049050115527893</v>
       </c>
       <c r="I223" s="9" t="b">
-        <f>G223&gt;(3*H223)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J223" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K223" s="2">
-        <f>J223*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L223" s="10">
@@ -12136,23 +12199,23 @@
         <v>9</v>
       </c>
       <c r="G224" s="9">
-        <f>((((L224/13650)/0.3)*0.0001)/K224)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>4.3939255996368276</v>
       </c>
       <c r="H224" s="9">
-        <f>((((M224/13650)/0.3)*0.0001)/K224)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>8.8389424542303668E-2</v>
       </c>
       <c r="I224" s="9" t="b">
-        <f>G224&gt;(3*H224)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J224" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K224" s="2">
-        <f>J224*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L224" s="10">
@@ -12182,23 +12245,23 @@
         <v>9</v>
       </c>
       <c r="G225" s="9">
-        <f>((((L225/13650)/0.3)*0.0001)/K225)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>4.0274960951850876</v>
       </c>
       <c r="H225" s="9">
-        <f>((((M225/13650)/0.3)*0.0001)/K225)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.16012847544443903</v>
       </c>
       <c r="I225" s="9" t="b">
-        <f>G225&gt;(3*H225)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J225" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K225" s="2">
-        <f>J225*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L225" s="10">
@@ -12228,23 +12291,23 @@
         <v>47</v>
       </c>
       <c r="G226" s="9">
-        <f>((((L226/13650)/0.3)*0.0001)/K226)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>0.96799805948405215</v>
       </c>
       <c r="H226" s="9">
-        <f>((((M226/13650)/0.3)*0.0001)/K226)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.18024286739012976</v>
       </c>
       <c r="I226" s="9" t="b">
-        <f>G226&gt;(3*H226)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J226" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K226" s="2">
-        <f>J226*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L226" s="10">
@@ -12274,23 +12337,23 @@
         <v>48</v>
       </c>
       <c r="G227" s="9">
-        <f>((((L227/13650)/0.3)*0.0001)/K227)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>19.758675231969789</v>
       </c>
       <c r="H227" s="9">
-        <f>((((M227/13650)/0.3)*0.0001)/K227)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.19513152642086132</v>
       </c>
       <c r="I227" s="9" t="b">
-        <f>G227&gt;(3*H227)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J227" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K227" s="2">
-        <f>J227*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L227" s="10">
@@ -12322,23 +12385,23 @@
         <v>47</v>
       </c>
       <c r="G228" s="9">
-        <f>((((L228/13650)/0.3)*0.0001)/K228)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-1.4038393202856134</v>
       </c>
       <c r="H228" s="9">
-        <f>((((M228/13650)/0.3)*0.0001)/K228)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>7.5310358877579336E-2</v>
       </c>
       <c r="I228" s="9" t="b">
-        <f>G228&gt;(3*H228)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J228" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K228" s="2">
-        <f>J228*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L228" s="10">
@@ -12370,23 +12433,23 @@
         <v>47</v>
       </c>
       <c r="G229" s="9">
-        <f>((((L229/13650)/0.3)*0.0001)/K229)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>2.0376924131551277</v>
       </c>
       <c r="H229" s="9">
-        <f>((((M229/13650)/0.3)*0.0001)/K229)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.5673565523749899E-2</v>
       </c>
       <c r="I229" s="9" t="b">
-        <f>G229&gt;(3*H229)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J229" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K229" s="2">
-        <f>J229*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L229" s="10">
@@ -12417,23 +12480,23 @@
         <v>48</v>
       </c>
       <c r="G230" s="9">
-        <f>((((L230/13650)/0.3)*0.0001)/K230)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>0.73931591647086459</v>
       </c>
       <c r="H230" s="9">
-        <f>((((M230/13650)/0.3)*0.0001)/K230)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>4.979689686046479E-2</v>
       </c>
       <c r="I230" s="9" t="b">
-        <f>G230&gt;(3*H230)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J230" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K230" s="2">
-        <f>J230*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L230" s="10">
@@ -12464,23 +12527,23 @@
         <v>47</v>
       </c>
       <c r="G231" s="9">
-        <f>((((L231/13650)/0.3)*0.0001)/K231)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-1.1078977234450529</v>
       </c>
       <c r="H231" s="9">
-        <f>((((M231/13650)/0.3)*0.0001)/K231)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.2273567460769811E-2</v>
       </c>
       <c r="I231" s="9" t="b">
-        <f>G231&gt;(3*H231)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J231" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K231" s="2">
-        <f>J231*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L231" s="10">
@@ -12512,23 +12575,23 @@
         <v>48</v>
       </c>
       <c r="G232" s="9">
-        <f>((((L232/13650)/0.3)*0.0001)/K232)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>11.973797008170333</v>
       </c>
       <c r="H232" s="9">
-        <f>((((M232/13650)/0.3)*0.0001)/K232)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.16142498435082128</v>
       </c>
       <c r="I232" s="9" t="b">
-        <f>G232&gt;(3*H232)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J232" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K232" s="2">
-        <f>J232*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L232" s="10">
@@ -12559,23 +12622,23 @@
         <v>47</v>
       </c>
       <c r="G233" s="9">
-        <f>((((L233/13650)/0.3)*0.0001)/K233)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>0.93356121912440815</v>
       </c>
       <c r="H233" s="9">
-        <f>((((M233/13650)/0.3)*0.0001)/K233)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.8264768726226011E-2</v>
       </c>
       <c r="I233" s="9" t="b">
-        <f>G233&gt;(3*H233)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J233" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K233" s="2">
-        <f>J233*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L233" s="10">
@@ -12606,23 +12669,23 @@
         <v>9</v>
       </c>
       <c r="G234" s="9">
-        <f>((((L234/13650)/0.3)*0.0001)/K234)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>40.414860615812465</v>
       </c>
       <c r="H234" s="9">
-        <f>((((M234/13650)/0.3)*0.0001)/K234)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.83065053386728283</v>
       </c>
       <c r="I234" s="9" t="b">
-        <f>G234&gt;(3*H234)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J234" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K234" s="2">
-        <f>J234*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L234" s="10">
@@ -12652,23 +12715,23 @@
         <v>48</v>
       </c>
       <c r="G235" s="9">
-        <f>((((L235/13650)/0.3)*0.0001)/K235)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>7.5212211647959499</v>
       </c>
       <c r="H235" s="9">
-        <f>((((M235/13650)/0.3)*0.0001)/K235)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>7.9584031366419339E-2</v>
       </c>
       <c r="I235" s="9" t="b">
-        <f>G235&gt;(3*H235)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J235" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K235" s="2">
-        <f>J235*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L235" s="10">
@@ -12699,23 +12762,23 @@
         <v>48</v>
       </c>
       <c r="G236" s="9">
-        <f>((((L236/13650)/0.3)*0.0001)/K236)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>9.9899121580771055</v>
       </c>
       <c r="H236" s="9">
-        <f>((((M236/13650)/0.3)*0.0001)/K236)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.10389945265234399</v>
       </c>
       <c r="I236" s="9" t="b">
-        <f>G236&gt;(3*H236)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J236" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K236" s="2">
-        <f>J236*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L236" s="10">
@@ -12746,23 +12809,23 @@
         <v>47</v>
       </c>
       <c r="G237" s="9">
-        <f>((((L237/13650)/0.3)*0.0001)/K237)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>0.49180112638601664</v>
       </c>
       <c r="H237" s="9">
-        <f>((((M237/13650)/0.3)*0.0001)/K237)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>5.5723475905110155E-2</v>
       </c>
       <c r="I237" s="9" t="b">
-        <f>G237&gt;(3*H237)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J237" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K237" s="2">
-        <f>J237*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L237" s="10">
@@ -12793,23 +12856,23 @@
         <v>48</v>
       </c>
       <c r="G238" s="9">
-        <f>((((L238/13650)/0.3)*0.0001)/K238)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>17.07044938139596</v>
       </c>
       <c r="H238" s="9">
-        <f>((((M238/13650)/0.3)*0.0001)/K238)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.1760951962367085</v>
       </c>
       <c r="I238" s="9" t="b">
-        <f>G238&gt;(3*H238)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J238" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K238" s="2">
-        <f>J238*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L238" s="10">
@@ -12840,23 +12903,23 @@
         <v>93</v>
       </c>
       <c r="G239" s="9">
-        <f>((((L239/13650)/0.3)*0.0001)/K239)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-1.4899314211847352</v>
       </c>
       <c r="H239" s="9">
-        <f>((((M239/13650)/0.3)*0.0001)/K239)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>7.5976603278073845E-2</v>
       </c>
       <c r="I239" s="9" t="b">
-        <f>G239&gt;(3*H239)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J239" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K239" s="2">
-        <f>J239*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L239" s="10">
@@ -12887,23 +12950,23 @@
         <v>9</v>
       </c>
       <c r="G240" s="9">
-        <f>((((L240/13650)/0.3)*0.0001)/K240)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>8.8109884513903669</v>
       </c>
       <c r="H240" s="9">
-        <f>((((M240/13650)/0.3)*0.0001)/K240)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.2734560277914202</v>
       </c>
       <c r="I240" s="9" t="b">
-        <f>G240&gt;(3*H240)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J240" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K240" s="2">
-        <f>J240*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L240" s="10">
@@ -12935,23 +12998,23 @@
         <v>93</v>
       </c>
       <c r="G241" s="9">
-        <f>((((L241/13650)/0.3)*0.0001)/K241)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>0.96961228637590258</v>
       </c>
       <c r="H241" s="9">
-        <f>((((M241/13650)/0.3)*0.0001)/K241)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>6.2370055357703229E-2</v>
       </c>
       <c r="I241" s="9" t="b">
-        <f>G241&gt;(3*H241)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J241" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K241" s="2">
-        <f>J241*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L241" s="10">
@@ -12982,23 +13045,23 @@
         <v>9</v>
       </c>
       <c r="G242" s="9">
-        <f>((((L242/13650)/0.3)*0.0001)/K242)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>11.566473755791582</v>
       </c>
       <c r="H242" s="9">
-        <f>((((M242/13650)/0.3)*0.0001)/K242)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.37459497109191064</v>
       </c>
       <c r="I242" s="9" t="b">
-        <f>G242&gt;(3*H242)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J242" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K242" s="2">
-        <f>J242*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L242" s="10">
@@ -13030,23 +13093,23 @@
         <v>48</v>
       </c>
       <c r="G243" s="9">
-        <f>((((L243/13650)/0.3)*0.0001)/K243)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-8.1787495854133502E-2</v>
       </c>
       <c r="H243" s="9">
-        <f>((((M243/13650)/0.3)*0.0001)/K243)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.12399935203000301</v>
       </c>
       <c r="I243" s="9" t="b">
-        <f>G243&gt;(3*H243)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J243" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K243" s="2">
-        <f>J243*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L243" s="10">
@@ -13078,23 +13141,23 @@
         <v>48</v>
       </c>
       <c r="G244" s="9">
-        <f>((((L244/13650)/0.3)*0.0001)/K244)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>2.6446417244936251</v>
       </c>
       <c r="H244" s="9">
-        <f>((((M244/13650)/0.3)*0.0001)/K244)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.11712253485341166</v>
       </c>
       <c r="I244" s="9" t="b">
-        <f>G244&gt;(3*H244)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J244" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K244" s="2">
-        <f>J244*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L244" s="10">
@@ -13126,23 +13189,23 @@
         <v>9</v>
       </c>
       <c r="G245" s="9">
-        <f>((((L245/13650)/0.3)*0.0001)/K245)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>17.460016137964296</v>
       </c>
       <c r="H245" s="9">
-        <f>((((M245/13650)/0.3)*0.0001)/K245)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.49252497424636094</v>
       </c>
       <c r="I245" s="9" t="b">
-        <f>G245&gt;(3*H245)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J245" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K245" s="2">
-        <f>J245*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L245" s="10">
@@ -13174,23 +13237,23 @@
         <v>9</v>
       </c>
       <c r="G246" s="9">
-        <f>((((L246/13650)/0.3)*0.0001)/K246)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>37.694888303032144</v>
       </c>
       <c r="H246" s="9">
-        <f>((((M246/13650)/0.3)*0.0001)/K246)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.75568267824510127</v>
       </c>
       <c r="I246" s="9" t="b">
-        <f>G246&gt;(3*H246)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J246" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K246" s="2">
-        <f>J246*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L246" s="10">
@@ -13222,23 +13285,23 @@
         <v>93</v>
       </c>
       <c r="G247" s="9">
-        <f>((((L247/13650)/0.3)*0.0001)/K247)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-1.3381940933501022</v>
       </c>
       <c r="H247" s="9">
-        <f>((((M247/13650)/0.3)*0.0001)/K247)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>9.5328997970927684E-2</v>
       </c>
       <c r="I247" s="9" t="b">
-        <f>G247&gt;(3*H247)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J247" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K247" s="2">
-        <f>J247*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L247" s="10">
@@ -13270,23 +13333,23 @@
         <v>93</v>
       </c>
       <c r="G248" s="9">
-        <f>((((L248/13650)/0.3)*0.0001)/K248)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-8.9874772582334526</v>
       </c>
       <c r="H248" s="9">
-        <f>((((M248/13650)/0.3)*0.0001)/K248)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.2109251237369672</v>
       </c>
       <c r="I248" s="9" t="b">
-        <f>G248&gt;(3*H248)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J248" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K248" s="2">
-        <f>J248*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L248" s="10">
@@ -13318,23 +13381,23 @@
         <v>9</v>
       </c>
       <c r="G249" s="9">
-        <f>((((L249/13650)/0.3)*0.0001)/K249)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>9.6896659561915648</v>
       </c>
       <c r="H249" s="9">
-        <f>((((M249/13650)/0.3)*0.0001)/K249)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.27617182903205068</v>
       </c>
       <c r="I249" s="9" t="b">
-        <f>G249&gt;(3*H249)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J249" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K249" s="2">
-        <f>J249*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L249" s="10">
@@ -13364,23 +13427,23 @@
         <v>48</v>
       </c>
       <c r="G250" s="9">
-        <f>((((L250/13650)/0.3)*0.0001)/K250)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>8.4224978460832443</v>
       </c>
       <c r="H250" s="9">
-        <f>((((M250/13650)/0.3)*0.0001)/K250)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.20586235101455455</v>
       </c>
       <c r="I250" s="9" t="b">
-        <f>G250&gt;(3*H250)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J250" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K250" s="2">
-        <f>J250*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L250" s="10">
@@ -13410,23 +13473,23 @@
         <v>9</v>
       </c>
       <c r="G251" s="9">
-        <f>((((L251/13650)/0.3)*0.0001)/K251)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>10.321366746538587</v>
       </c>
       <c r="H251" s="9">
-        <f>((((M251/13650)/0.3)*0.0001)/K251)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.25574601070881786</v>
       </c>
       <c r="I251" s="9" t="b">
-        <f>G251&gt;(3*H251)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J251" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K251" s="2">
-        <f>J251*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L251" s="10">
@@ -13456,23 +13519,23 @@
         <v>48</v>
       </c>
       <c r="G252" s="9">
-        <f>((((L252/13650)/0.3)*0.0001)/K252)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>12.578594016986372</v>
       </c>
       <c r="H252" s="9">
-        <f>((((M252/13650)/0.3)*0.0001)/K252)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.20310038402181521</v>
       </c>
       <c r="I252" s="9" t="b">
-        <f>G252&gt;(3*H252)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J252" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K252" s="2">
-        <f>J252*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L252" s="10">
@@ -13502,23 +13565,23 @@
         <v>9</v>
       </c>
       <c r="G253" s="9">
-        <f>((((L253/13650)/0.3)*0.0001)/K253)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>10.984813999092127</v>
       </c>
       <c r="H253" s="9">
-        <f>((((M253/13650)/0.3)*0.0001)/K253)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.16065959970068847</v>
       </c>
       <c r="I253" s="9" t="b">
-        <f>G253&gt;(3*H253)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J253" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K253" s="2">
-        <f>J253*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L253" s="10">
@@ -13548,23 +13611,23 @@
         <v>48</v>
       </c>
       <c r="G254" s="21">
-        <f>((((L254/13650)/0.3)*0.0001)/K254)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>-1.1972182781278682</v>
       </c>
       <c r="H254" s="21">
-        <f>((((M254/13650)/0.3)*0.0001)/K254)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>2.0168971761068062</v>
       </c>
       <c r="I254" s="9" t="b">
-        <f>G254&gt;(3*H254)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J254" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K254" s="2">
-        <f>J254*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L254" s="10">
@@ -13594,23 +13657,23 @@
         <v>9</v>
       </c>
       <c r="G255" s="9">
-        <f>((((L255/13650)/0.3)*0.0001)/K255)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>9.3458356282258617</v>
       </c>
       <c r="H255" s="9">
-        <f>((((M255/13650)/0.3)*0.0001)/K255)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.42505365170132825</v>
       </c>
       <c r="I255" s="9" t="b">
-        <f>G255&gt;(3*H255)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J255" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K255" s="2">
-        <f>J255*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L255" s="10">
@@ -13640,23 +13703,23 @@
         <v>48</v>
       </c>
       <c r="G256" s="9">
-        <f>((((L256/13650)/0.3)*0.0001)/K256)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>1.2589419369080783</v>
       </c>
       <c r="H256" s="9">
-        <f>((((M256/13650)/0.3)*0.0001)/K256)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>6.249071360415881E-2</v>
       </c>
       <c r="I256" s="9" t="b">
-        <f>G256&gt;(3*H256)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J256" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K256" s="2">
-        <f>J256*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L256" s="10">
@@ -13686,23 +13749,23 @@
         <v>48</v>
       </c>
       <c r="G257" s="9">
-        <f>((((L257/13650)/0.3)*0.0001)/K257)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>20.189135736465172</v>
       </c>
       <c r="H257" s="9">
-        <f>((((M257/13650)/0.3)*0.0001)/K257)*1000000000</f>
+        <f t="shared" si="16"/>
         <v>0.2306843112175774</v>
       </c>
       <c r="I257" s="9" t="b">
-        <f>G257&gt;(3*H257)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J257" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="K257" s="2">
-        <f>J257*0.003</f>
+        <f t="shared" si="19"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L257" s="10">
@@ -13732,23 +13795,23 @@
         <v>48</v>
       </c>
       <c r="G258" s="9">
-        <f>((((L258/13650)/0.3)*0.0001)/K258)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>2.6408751950792912</v>
       </c>
       <c r="H258" s="9">
-        <f>((((M258/13650)/0.3)*0.0001)/K258)*1000000000</f>
+        <f t="shared" ref="H258:H286" si="21">((((M258/13650)/0.3)*0.0001)/K258)*1000000000</f>
         <v>6.8840898183485905E-2</v>
       </c>
       <c r="I258" s="9" t="b">
-        <f>G258&gt;(3*H258)</f>
+        <f t="shared" ref="I258:I321" si="22">G258&gt;(3*H258)</f>
         <v>1</v>
       </c>
       <c r="J258" s="2">
-        <f>0.8/2</f>
+        <f t="shared" ref="J258:J310" si="23">0.8/2</f>
         <v>0.4</v>
       </c>
       <c r="K258" s="2">
-        <f>J258*0.003</f>
+        <f t="shared" ref="K258:K321" si="24">J258*0.003</f>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L258" s="10">
@@ -13778,23 +13841,23 @@
         <v>48</v>
       </c>
       <c r="G259" s="9">
-        <f>((((L259/13650)/0.3)*0.0001)/K259)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>11.498676226333506</v>
       </c>
       <c r="H259" s="9">
-        <f>((((M259/13650)/0.3)*0.0001)/K259)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.31425565683412832</v>
       </c>
       <c r="I259" s="9" t="b">
-        <f>G259&gt;(3*H259)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J259" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K259" s="2">
-        <f>J259*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L259" s="10">
@@ -13824,23 +13887,23 @@
         <v>48</v>
       </c>
       <c r="G260" s="9">
-        <f>((((L260/13650)/0.3)*0.0001)/K260)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>13.596095034487421</v>
       </c>
       <c r="H260" s="9">
-        <f>((((M260/13650)/0.3)*0.0001)/K260)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.30477173193075263</v>
       </c>
       <c r="I260" s="9" t="b">
-        <f>G260&gt;(3*H260)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J260" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K260" s="2">
-        <f>J260*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L260" s="10">
@@ -13870,23 +13933,23 @@
         <v>48</v>
       </c>
       <c r="G261" s="9">
-        <f>((((L261/13650)/0.3)*0.0001)/K261)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>10.746984570358435</v>
       </c>
       <c r="H261" s="9">
-        <f>((((M261/13650)/0.3)*0.0001)/K261)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.17560427917458041</v>
       </c>
       <c r="I261" s="9" t="b">
-        <f>G261&gt;(3*H261)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J261" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K261" s="2">
-        <f>J261*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L261" s="10">
@@ -13916,23 +13979,23 @@
         <v>48</v>
       </c>
       <c r="G262" s="9">
-        <f>((((L262/13650)/0.3)*0.0001)/K262)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>5.2510800792133248</v>
       </c>
       <c r="H262" s="9">
-        <f>((((M262/13650)/0.3)*0.0001)/K262)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>8.7059617941322498E-2</v>
       </c>
       <c r="I262" s="9" t="b">
-        <f>G262&gt;(3*H262)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J262" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K262" s="2">
-        <f>J262*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L262" s="10">
@@ -13962,23 +14025,23 @@
         <v>9</v>
       </c>
       <c r="G263" s="9">
-        <f>((((L263/13650)/0.3)*0.0001)/K263)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>7.5551199295249738</v>
       </c>
       <c r="H263" s="9">
-        <f>((((M263/13650)/0.3)*0.0001)/K263)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.11855432321195704</v>
       </c>
       <c r="I263" s="9" t="b">
-        <f>G263&gt;(3*H263)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J263" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K263" s="2">
-        <f>J263*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L263" s="10">
@@ -14008,23 +14071,23 @@
         <v>9</v>
       </c>
       <c r="G264" s="9">
-        <f>((((L264/13650)/0.3)*0.0001)/K264)*1000000000</f>
+        <f t="shared" si="20"/>
         <v>25.616166546891012</v>
       </c>
       <c r="H264" s="9">
-        <f>((((M264/13650)/0.3)*0.0001)/K264)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.56676483913744991</v>
       </c>
       <c r="I264" s="9" t="b">
-        <f>G264&gt;(3*H264)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J264" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K264" s="2">
-        <f>J264*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L264" s="10">
@@ -14054,23 +14117,23 @@
         <v>9</v>
       </c>
       <c r="G265" s="9">
-        <f>((((L265/13650)/0.3)*0.0001)/K265)*1000000000</f>
+        <f t="shared" ref="G265:G286" si="25">((((L265/13650)/0.3)*0.0001)/K265)*1000000000</f>
         <v>5.7283531635726233</v>
       </c>
       <c r="H265" s="9">
-        <f>((((M265/13650)/0.3)*0.0001)/K265)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.20270971550341937</v>
       </c>
       <c r="I265" s="9" t="b">
-        <f>G265&gt;(3*H265)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J265" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K265" s="2">
-        <f>J265*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L265" s="10">
@@ -14100,23 +14163,23 @@
         <v>9</v>
       </c>
       <c r="G266" s="9">
-        <f>((((L266/13650)/0.3)*0.0001)/K266)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>8.7146729135094798</v>
       </c>
       <c r="H266" s="9">
-        <f>((((M266/13650)/0.3)*0.0001)/K266)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.14328163416808226</v>
       </c>
       <c r="I266" s="9" t="b">
-        <f>G266&gt;(3*H266)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J266" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K266" s="2">
-        <f>J266*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L266" s="10">
@@ -14146,23 +14209,23 @@
         <v>9</v>
       </c>
       <c r="G267" s="9">
-        <f>((((L267/13650)/0.3)*0.0001)/K267)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>5.2074959531331322</v>
       </c>
       <c r="H267" s="9">
-        <f>((((M267/13650)/0.3)*0.0001)/K267)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.31184143315015667</v>
       </c>
       <c r="I267" s="9" t="b">
-        <f>G267&gt;(3*H267)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J267" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K267" s="2">
-        <f>J267*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L267" s="10">
@@ -14192,23 +14255,23 @@
         <v>9</v>
       </c>
       <c r="G268" s="9">
-        <f>((((L268/13650)/0.3)*0.0001)/K268)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>4.2561782381982773</v>
       </c>
       <c r="H268" s="9">
-        <f>((((M268/13650)/0.3)*0.0001)/K268)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.1241339114023207</v>
       </c>
       <c r="I268" s="9" t="b">
-        <f>G268&gt;(3*H268)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J268" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K268" s="2">
-        <f>J268*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L268" s="10">
@@ -14238,23 +14301,23 @@
         <v>9</v>
       </c>
       <c r="G269" s="9">
-        <f>((((L269/13650)/0.3)*0.0001)/K269)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>5.5480978273151296</v>
       </c>
       <c r="H269" s="9">
-        <f>((((M269/13650)/0.3)*0.0001)/K269)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.11947174725817407</v>
       </c>
       <c r="I269" s="9" t="b">
-        <f>G269&gt;(3*H269)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J269" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K269" s="2">
-        <f>J269*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L269" s="10">
@@ -14284,23 +14347,23 @@
         <v>9</v>
       </c>
       <c r="G270" s="9">
-        <f>((((L270/13650)/0.3)*0.0001)/K270)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>6.3987953993241691</v>
       </c>
       <c r="H270" s="9">
-        <f>((((M270/13650)/0.3)*0.0001)/K270)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.16239280936391956</v>
       </c>
       <c r="I270" s="9" t="b">
-        <f>G270&gt;(3*H270)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J270" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K270" s="2">
-        <f>J270*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L270" s="10">
@@ -14330,23 +14393,23 @@
         <v>9</v>
       </c>
       <c r="G271" s="9">
-        <f>((((L271/13650)/0.3)*0.0001)/K271)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>6.23199195383219</v>
       </c>
       <c r="H271" s="9">
-        <f>((((M271/13650)/0.3)*0.0001)/K271)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.17099846161556068</v>
       </c>
       <c r="I271" s="9" t="b">
-        <f>G271&gt;(3*H271)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J271" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K271" s="2">
-        <f>J271*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L271" s="10">
@@ -14376,23 +14439,23 @@
         <v>9</v>
       </c>
       <c r="G272" s="9">
-        <f>((((L272/13650)/0.3)*0.0001)/K272)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>22.910184200506762</v>
       </c>
       <c r="H272" s="9">
-        <f>((((M272/13650)/0.3)*0.0001)/K272)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.39876718908438674</v>
       </c>
       <c r="I272" s="9" t="b">
-        <f>G272&gt;(3*H272)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J272" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K272" s="2">
-        <f>J272*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L272" s="10">
@@ -14422,23 +14485,23 @@
         <v>9</v>
       </c>
       <c r="G273" s="9">
-        <f>((((L273/13650)/0.3)*0.0001)/K273)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>11.892009512316235</v>
       </c>
       <c r="H273" s="9">
-        <f>((((M273/13650)/0.3)*0.0001)/K273)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.3977375930094269</v>
       </c>
       <c r="I273" s="9" t="b">
-        <f>G273&gt;(3*H273)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J273" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K273" s="2">
-        <f>J273*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L273" s="10">
@@ -14468,23 +14531,23 @@
         <v>9</v>
       </c>
       <c r="G274" s="9">
-        <f>((((L274/13650)/0.3)*0.0001)/K274)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>14.239633488708067</v>
       </c>
       <c r="H274" s="9">
-        <f>((((M274/13650)/0.3)*0.0001)/K274)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.41228985493308207</v>
       </c>
       <c r="I274" s="9" t="b">
-        <f>G274&gt;(3*H274)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J274" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K274" s="2">
-        <f>J274*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L274" s="10">
@@ -14514,23 +14577,23 @@
         <v>9</v>
       </c>
       <c r="G275" s="9">
-        <f>((((L275/13650)/0.3)*0.0001)/K275)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>3.7444683134794001</v>
       </c>
       <c r="H275" s="9">
-        <f>((((M275/13650)/0.3)*0.0001)/K275)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>7.1596554087992287E-2</v>
       </c>
       <c r="I275" s="9" t="b">
-        <f>G275&gt;(3*H275)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J275" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K275" s="2">
-        <f>J275*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L275" s="10">
@@ -14560,23 +14623,23 @@
         <v>9</v>
       </c>
       <c r="G276" s="9">
-        <f>((((L276/13650)/0.3)*0.0001)/K276)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>5.0127125748489618</v>
       </c>
       <c r="H276" s="9">
-        <f>((((M276/13650)/0.3)*0.0001)/K276)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.16333451689619308</v>
       </c>
       <c r="I276" s="9" t="b">
-        <f>G276&gt;(3*H276)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J276" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K276" s="2">
-        <f>J276*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L276" s="10">
@@ -14606,23 +14669,23 @@
         <v>9</v>
       </c>
       <c r="G277" s="9">
-        <f>((((L277/13650)/0.3)*0.0001)/K277)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>12.429547067304876</v>
       </c>
       <c r="H277" s="9">
-        <f>((((M277/13650)/0.3)*0.0001)/K277)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.36754710697718079</v>
       </c>
       <c r="I277" s="9" t="b">
-        <f>G277&gt;(3*H277)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J277" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K277" s="2">
-        <f>J277*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L277" s="10">
@@ -14652,23 +14715,23 @@
         <v>9</v>
       </c>
       <c r="G278" s="9">
-        <f>((((L278/13650)/0.3)*0.0001)/K278)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>5.6390326088897798</v>
       </c>
       <c r="H278" s="9">
-        <f>((((M278/13650)/0.3)*0.0001)/K278)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.14814157412147433</v>
       </c>
       <c r="I278" s="9" t="b">
-        <f>G278&gt;(3*H278)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J278" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K278" s="2">
-        <f>J278*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L278" s="10">
@@ -14698,23 +14761,23 @@
         <v>9</v>
       </c>
       <c r="G279" s="9">
-        <f>((((L279/13650)/0.3)*0.0001)/K279)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>24.896759428753079</v>
       </c>
       <c r="H279" s="9">
-        <f>((((M279/13650)/0.3)*0.0001)/K279)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.89407920402799057</v>
       </c>
       <c r="I279" s="9" t="b">
-        <f>G279&gt;(3*H279)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J279" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K279" s="2">
-        <f>J279*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L279" s="10">
@@ -14744,23 +14807,23 @@
         <v>9</v>
       </c>
       <c r="G280" s="9">
-        <f>((((L280/13650)/0.3)*0.0001)/K280)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>13.582105068091332</v>
       </c>
       <c r="H280" s="9">
-        <f>((((M280/13650)/0.3)*0.0001)/K280)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.3338297840028408</v>
       </c>
       <c r="I280" s="9" t="b">
-        <f>G280&gt;(3*H280)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J280" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K280" s="2">
-        <f>J280*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L280" s="10">
@@ -14790,23 +14853,23 @@
         <v>9</v>
       </c>
       <c r="G281" s="9">
-        <f>((((L281/13650)/0.3)*0.0001)/K281)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>3.7326306496057491</v>
       </c>
       <c r="H281" s="9">
-        <f>((((M281/13650)/0.3)*0.0001)/K281)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.16600739162022013</v>
       </c>
       <c r="I281" s="9" t="b">
-        <f>G281&gt;(3*H281)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J281" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K281" s="2">
-        <f>J281*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L281" s="10">
@@ -14836,23 +14899,23 @@
         <v>9</v>
       </c>
       <c r="G282" s="9">
-        <f>((((L282/13650)/0.3)*0.0001)/K282)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>5.840810970371999</v>
       </c>
       <c r="H282" s="9">
-        <f>((((M282/13650)/0.3)*0.0001)/K282)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.16645615904025202</v>
       </c>
       <c r="I282" s="9" t="b">
-        <f>G282&gt;(3*H282)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J282" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K282" s="2">
-        <f>J282*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L282" s="10">
@@ -14872,7 +14935,7 @@
       <c r="C283" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="18" t="s">
         <v>329</v>
       </c>
       <c r="E283" s="32" t="s">
@@ -14882,23 +14945,23 @@
         <v>352</v>
       </c>
       <c r="G283" s="9">
-        <f>((((L283/13650)/0.3)*0.0001)/K283)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>-1.482936437986649</v>
       </c>
       <c r="H283" s="9">
-        <f>((((M283/13650)/0.3)*0.0001)/K283)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>5.1066712400502014E-2</v>
       </c>
       <c r="I283" s="9" t="b">
-        <f>G283&gt;(3*H283)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J283" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K283" s="2">
-        <f>J283*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L283" s="10">
@@ -14928,23 +14991,23 @@
         <v>9</v>
       </c>
       <c r="G284" s="9">
-        <f>((((L284/13650)/0.3)*0.0001)/K284)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>10.50377438531852</v>
       </c>
       <c r="H284" s="9">
-        <f>((((M284/13650)/0.3)*0.0001)/K284)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.17915820519957923</v>
       </c>
       <c r="I284" s="9" t="b">
-        <f>G284&gt;(3*H284)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J284" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K284" s="2">
-        <f>J284*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L284" s="10">
@@ -14974,23 +15037,23 @@
         <v>9</v>
       </c>
       <c r="G285" s="9">
-        <f>((((L285/13650)/0.3)*0.0001)/K285)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>14.943974489188669</v>
       </c>
       <c r="H285" s="9">
-        <f>((((M285/13650)/0.3)*0.0001)/K285)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>0.33523985492069847</v>
       </c>
       <c r="I285" s="9" t="b">
-        <f>G285&gt;(3*H285)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J285" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K285" s="2">
-        <f>J285*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L285" s="10">
@@ -15010,7 +15073,7 @@
       <c r="C286" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="18" t="s">
         <v>329</v>
       </c>
       <c r="E286" s="32" t="s">
@@ -15020,23 +15083,23 @@
         <v>352</v>
       </c>
       <c r="G286" s="9">
-        <f>((((L286/13650)/0.3)*0.0001)/K286)*1000000000</f>
+        <f t="shared" si="25"/>
         <v>-0.52516181548440377</v>
       </c>
       <c r="H286" s="9">
-        <f>((((M286/13650)/0.3)*0.0001)/K286)*1000000000</f>
+        <f t="shared" si="21"/>
         <v>4.5034113041964835E-2</v>
       </c>
       <c r="I286" s="9" t="b">
-        <f>G286&gt;(3*H286)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J286" s="2">
-        <f>0.8/2</f>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="K286" s="2">
-        <f>J286*0.003</f>
+        <f t="shared" si="24"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="L286" s="10">
@@ -15044,6 +15107,1110 @@
       </c>
       <c r="M286" s="10">
         <v>2.2129763148821523E-6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" s="19">
+        <v>44972</v>
+      </c>
+      <c r="B287" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D287" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E287" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="F287" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G287" s="21">
+        <f t="shared" ref="G287:G310" si="26">((((L287/13650)/0.3)*0.0001)/K287)*1000000000</f>
+        <v>1.0643135973648865</v>
+      </c>
+      <c r="H287" s="21">
+        <f t="shared" ref="H287:H310" si="27">((((M287/13650)/0.3)*0.0001)/K287)*1000000000</f>
+        <v>0.1088392625690059</v>
+      </c>
+      <c r="I287" s="21" t="b">
+        <f t="shared" ref="I287:I310" si="28">G287&gt;(3*H287)</f>
+        <v>1</v>
+      </c>
+      <c r="J287" s="20">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K287" s="20">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L287" s="10">
+        <v>5.2300370174510515E-5</v>
+      </c>
+      <c r="M287" s="10">
+        <v>5.3483613626409504E-6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B288" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C288" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D288" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E288" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="F288" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G288" s="9">
+        <f t="shared" si="26"/>
+        <v>0.69088910971513173</v>
+      </c>
+      <c r="H288" s="9">
+        <f t="shared" si="27"/>
+        <v>4.6276625097663726E-2</v>
+      </c>
+      <c r="I288" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J288" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K288" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L288" s="10">
+        <v>3.3950290851401576E-5</v>
+      </c>
+      <c r="M288" s="10">
+        <v>2.2740333572991957E-6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B289" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C289" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D289" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E289" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="F289" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G289" s="9">
+        <f t="shared" si="26"/>
+        <v>-1.4996167825358784</v>
+      </c>
+      <c r="H289" s="9">
+        <f t="shared" si="27"/>
+        <v>5.9509588116346913E-2</v>
+      </c>
+      <c r="I289" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J289" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K289" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L289" s="10">
+        <v>-7.3691168693813065E-5</v>
+      </c>
+      <c r="M289" s="10">
+        <v>2.9243011600372869E-6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" s="19">
+        <v>44972</v>
+      </c>
+      <c r="B290" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D290" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E290" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="F290" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" s="21">
+        <f t="shared" si="26"/>
+        <v>1.1461010932190197</v>
+      </c>
+      <c r="H290" s="21">
+        <f t="shared" si="27"/>
+        <v>4.1586042297284513E-2</v>
+      </c>
+      <c r="I290" s="21" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J290" s="20">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K290" s="20">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L290" s="10">
+        <v>5.6319407720782619E-5</v>
+      </c>
+      <c r="M290" s="10">
+        <v>2.0435381184885614E-6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A291" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B291" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C291" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D291" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E291" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="F291" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="G291" s="9">
+        <f t="shared" si="26"/>
+        <v>-0.17272227742876461</v>
+      </c>
+      <c r="H291" s="9">
+        <f t="shared" si="27"/>
+        <v>5.6891075365939625E-2</v>
+      </c>
+      <c r="I291" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J291" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K291" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L291" s="10">
+        <v>-8.4875727128494927E-6</v>
+      </c>
+      <c r="M291" s="10">
+        <v>2.7956274434822736E-6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A292" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C292" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D292" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E292" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F292" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G292" s="9">
+        <f t="shared" si="26"/>
+        <v>-0.73501131142590281</v>
+      </c>
+      <c r="H292" s="9">
+        <f t="shared" si="27"/>
+        <v>5.1341761756272669E-2</v>
+      </c>
+      <c r="I292" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J292" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K292" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L292" s="10">
+        <v>-3.6118455843468863E-5</v>
+      </c>
+      <c r="M292" s="10">
+        <v>2.5229341727032393E-6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A293" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B293" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C293" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D293" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E293" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="F293" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G293" s="9">
+        <f t="shared" si="26"/>
+        <v>1.4710987741130552</v>
+      </c>
+      <c r="H293" s="9">
+        <f t="shared" si="27"/>
+        <v>5.6303438847558805E-2</v>
+      </c>
+      <c r="I293" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J293" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K293" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L293" s="10">
+        <v>7.2289793759915542E-5</v>
+      </c>
+      <c r="M293" s="10">
+        <v>2.7667509849690396E-6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A294" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C294" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D294" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E294" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="F294" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="G294" s="9">
+        <f t="shared" si="26"/>
+        <v>-1.6142268918583742E-2</v>
+      </c>
+      <c r="H294" s="9">
+        <f t="shared" si="27"/>
+        <v>5.6076199101993025E-2</v>
+      </c>
+      <c r="I294" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J294" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K294" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L294" s="10">
+        <v>-7.9323109465920499E-7</v>
+      </c>
+      <c r="M294" s="10">
+        <v>2.7555844238719373E-6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A295" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B295" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C295" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D295" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E295" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="F295" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G295" s="9">
+        <f t="shared" si="26"/>
+        <v>-1.2693204126308251</v>
+      </c>
+      <c r="H295" s="9">
+        <f t="shared" si="27"/>
+        <v>5.623432491249971E-2</v>
+      </c>
+      <c r="I295" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J295" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K295" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L295" s="10">
+        <v>-6.2374405076678753E-5</v>
+      </c>
+      <c r="M295" s="10">
+        <v>2.7633547262002356E-6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A296" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C296" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E296" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="F296" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G296" s="9">
+        <f t="shared" si="26"/>
+        <v>1.6874051776219898</v>
+      </c>
+      <c r="H296" s="9">
+        <f t="shared" si="27"/>
+        <v>5.7690445735230543E-2</v>
+      </c>
+      <c r="I296" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J296" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K296" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L296" s="10">
+        <v>8.2919090428344578E-5</v>
+      </c>
+      <c r="M296" s="10">
+        <v>2.8349085034292295E-6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A297" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B297" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C297" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D297" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E297" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="F297" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="G297" s="9">
+        <f t="shared" si="26"/>
+        <v>0.16734152112258963</v>
+      </c>
+      <c r="H297" s="9">
+        <f t="shared" si="27"/>
+        <v>4.4023273070154356E-2</v>
+      </c>
+      <c r="I297" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J297" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K297" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L297" s="10">
+        <v>8.2231623479640541E-6</v>
+      </c>
+      <c r="M297" s="10">
+        <v>2.1633036386673853E-6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A298" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B298" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C298" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D298" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E298" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="F298" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G298" s="9">
+        <f t="shared" si="26"/>
+        <v>-1.5701046901469931</v>
+      </c>
+      <c r="H298" s="9">
+        <f t="shared" si="27"/>
+        <v>6.2370055357702646E-2</v>
+      </c>
+      <c r="I298" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J298" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K298" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L298" s="10">
+        <v>-7.7154944473823247E-5</v>
+      </c>
+      <c r="M298" s="10">
+        <v>3.064864520277508E-6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A299" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B299" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C299" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E299" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="F299" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G299" s="9">
+        <f t="shared" si="26"/>
+        <v>1.7234562448734814</v>
+      </c>
+      <c r="H299" s="9">
+        <f t="shared" si="27"/>
+        <v>5.742559563472778E-2</v>
+      </c>
+      <c r="I299" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J299" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K299" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L299" s="10">
+        <v>8.4690639873082882E-5</v>
+      </c>
+      <c r="M299" s="10">
+        <v>2.8218937694905229E-6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A300" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B300" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C300" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="E300" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="F300" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G300" s="9">
+        <f t="shared" si="26"/>
+        <v>0.1033105210789028</v>
+      </c>
+      <c r="H300" s="9">
+        <f t="shared" si="27"/>
+        <v>5.7363394631025445E-2</v>
+      </c>
+      <c r="I300" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J300" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K300" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L300" s="10">
+        <v>5.0766790058172835E-6</v>
+      </c>
+      <c r="M300" s="10">
+        <v>2.8188372121685904E-6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A301" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B301" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C301" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D301" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="E301" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="F301" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G301" s="9">
+        <f t="shared" si="26"/>
+        <v>-1.3295848832601864</v>
+      </c>
+      <c r="H301" s="9">
+        <f t="shared" si="27"/>
+        <v>5.1798273902278771E-2</v>
+      </c>
+      <c r="I301" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J301" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K301" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L301" s="10">
+        <v>-6.5335801163405566E-5</v>
+      </c>
+      <c r="M301" s="10">
+        <v>2.545367179557979E-6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A302" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B302" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C302" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D302" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="G302" s="9">
+        <f t="shared" si="26"/>
+        <v>1.7729592028904817</v>
+      </c>
+      <c r="H302" s="9">
+        <f t="shared" si="27"/>
+        <v>5.7127615755597043E-2</v>
+      </c>
+      <c r="I302" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J302" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K302" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L302" s="10">
+        <v>8.7123215230038272E-5</v>
+      </c>
+      <c r="M302" s="10">
+        <v>2.8072510382300387E-6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A303" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B303" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C303" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E303" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="F303" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="G303" s="9">
+        <f t="shared" si="26"/>
+        <v>-9.5625917774121587E-15</v>
+      </c>
+      <c r="H303" s="9">
+        <f t="shared" si="27"/>
+        <v>5.6789245004074576E-2</v>
+      </c>
+      <c r="I303" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J303" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K303" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L303" s="10">
+        <v>-4.6990575994203352E-19</v>
+      </c>
+      <c r="M303" s="10">
+        <v>2.7906234995002244E-6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A304" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B304" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C304" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D304" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="E304" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G304" s="9">
+        <f t="shared" si="26"/>
+        <v>-1.8262286903217573</v>
+      </c>
+      <c r="H304" s="9">
+        <f t="shared" si="27"/>
+        <v>5.9881683752440115E-2</v>
+      </c>
+      <c r="I304" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J304" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K304" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L304" s="10">
+        <v>-8.9740877842411153E-5</v>
+      </c>
+      <c r="M304" s="10">
+        <v>2.9425859395949072E-6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A305" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B305" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C305" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D305" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E305" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="F305" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G305" s="9">
+        <f t="shared" si="26"/>
+        <v>1.8638939844651088</v>
+      </c>
+      <c r="H305" s="9">
+        <f t="shared" si="27"/>
+        <v>6.7876378204792587E-2</v>
+      </c>
+      <c r="I305" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J305" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K305" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L305" s="10">
+        <v>9.1591750396615449E-5</v>
+      </c>
+      <c r="M305" s="10">
+        <v>3.3354452249835073E-6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A306" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B306" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C306" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D306" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E306" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="F306" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="G306" s="9">
+        <f t="shared" si="26"/>
+        <v>0.14043773959162764</v>
+      </c>
+      <c r="H306" s="9">
+        <f t="shared" si="27"/>
+        <v>4.1611935536558377E-2</v>
+      </c>
+      <c r="I306" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J306" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K306" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L306" s="10">
+        <v>6.9011105235325822E-6</v>
+      </c>
+      <c r="M306" s="10">
+        <v>2.044810512266479E-6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A307" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B307" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C307" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D307" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="E307" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="F307" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G307" s="9">
+        <f t="shared" si="26"/>
+        <v>-0.97284074015961575</v>
+      </c>
+      <c r="H307" s="9">
+        <f t="shared" si="27"/>
+        <v>0.22110022838171772</v>
+      </c>
+      <c r="I307" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J307" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K307" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L307" s="10">
+        <v>-4.7805393971443516E-5</v>
+      </c>
+      <c r="M307" s="10">
+        <v>1.0864865222677609E-5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A308" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B308" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C308" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E308" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F308" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G308" s="9">
+        <f t="shared" si="26"/>
+        <v>1.2327312697487161</v>
+      </c>
+      <c r="H308" s="9">
+        <f t="shared" si="27"/>
+        <v>5.0444800128414465E-2</v>
+      </c>
+      <c r="I308" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J308" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K308" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L308" s="10">
+        <v>6.05764145954519E-5</v>
+      </c>
+      <c r="M308" s="10">
+        <v>2.478857478310287E-6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B309" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D309" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="E309" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="F309" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G309" s="9">
+        <f t="shared" si="26"/>
+        <v>0.65322381557178677</v>
+      </c>
+      <c r="H309" s="9">
+        <f t="shared" si="27"/>
+        <v>9.2526948342067358E-2</v>
+      </c>
+      <c r="I309" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="J309" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K309" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L309" s="10">
+        <v>3.2099418297197599E-5</v>
+      </c>
+      <c r="M309" s="10">
+        <v>4.5467742415291892E-6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310" s="13">
+        <v>44972</v>
+      </c>
+      <c r="B310" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C310" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D310" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="E310" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="F310" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G310" s="9">
+        <f t="shared" si="26"/>
+        <v>-1.8520563205914813</v>
+      </c>
+      <c r="H310" s="9">
+        <f t="shared" si="27"/>
+        <v>5.9697508247694396E-2</v>
+      </c>
+      <c r="I310" s="9" t="b">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J310" s="2">
+        <f t="shared" si="23"/>
+        <v>0.4</v>
+      </c>
+      <c r="K310" s="2">
+        <f t="shared" si="24"/>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="L310" s="10">
+        <v>-9.1010047593865383E-5</v>
+      </c>
+      <c r="M310" s="10">
+        <v>2.9335355552917023E-6</v>
       </c>
     </row>
   </sheetData>
